--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jai/Documents/Computing/DataScience/Columbia/rwalk/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jai/Documents/Computing/DataScience/Columbia/rwalk/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>filename</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>180920_10mg-kgAMPH_2.csv</t>
+  </si>
+  <si>
+    <t>190205_a-synKO_AMPH1.csv</t>
+  </si>
+  <si>
+    <t>amph</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>190205_a-synKO_AMPH2.csv</t>
   </si>
 </sst>
 </file>
@@ -356,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -367,7 +385,7 @@
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,8 +395,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -388,8 +412,14 @@
       <c r="C2">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -399,8 +429,14 @@
       <c r="C3">
         <v>1303</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -410,8 +446,14 @@
       <c r="C4">
         <v>2503</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -421,8 +463,14 @@
       <c r="C5">
         <v>3706</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -432,8 +480,14 @@
       <c r="C6">
         <v>4901</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -444,8 +498,14 @@
         <f t="shared" ref="C7:C16" si="0">C6+1200</f>
         <v>6101</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -456,8 +516,14 @@
         <f t="shared" si="0"/>
         <v>7301</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -468,8 +534,14 @@
         <f t="shared" si="0"/>
         <v>8501</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -480,8 +552,14 @@
         <f t="shared" si="0"/>
         <v>9701</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -492,8 +570,14 @@
         <f t="shared" si="0"/>
         <v>10901</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -504,8 +588,14 @@
         <f t="shared" si="0"/>
         <v>12101</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -516,8 +606,14 @@
         <f t="shared" si="0"/>
         <v>13301</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -528,8 +624,14 @@
         <f t="shared" si="0"/>
         <v>14501</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -539,8 +641,14 @@
       <c r="C15">
         <v>15699</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -551,8 +659,14 @@
         <f t="shared" si="0"/>
         <v>16899</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -562,8 +676,14 @@
       <c r="C17">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -576,22 +696,34 @@
         <f>C17+1200</f>
         <v>1303</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f t="shared" ref="A19:A36" si="1">A18</f>
+        <f t="shared" ref="A19:A31" si="1">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B36" si="2">B18+1</f>
+        <f t="shared" ref="B19:B31" si="2">B18+1</f>
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C36" si="3">C18+1200</f>
+        <f t="shared" ref="C19:C30" si="3">C18+1200</f>
         <v>2503</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -603,8 +735,14 @@
       <c r="C20">
         <v>3705</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -616,8 +754,14 @@
       <c r="C21">
         <v>4904</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -630,8 +774,14 @@
         <f t="shared" si="3"/>
         <v>6104</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -643,8 +793,14 @@
       <c r="C23">
         <v>7302</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -656,8 +812,14 @@
       <c r="C24">
         <v>8500</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -670,8 +832,14 @@
         <f t="shared" si="3"/>
         <v>9700</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -683,8 +851,14 @@
       <c r="C26">
         <v>10904</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -696,8 +870,14 @@
       <c r="C27">
         <v>12100</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -709,8 +889,14 @@
       <c r="C28">
         <v>13299</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -723,8 +909,14 @@
         <f t="shared" si="3"/>
         <v>14499</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -737,8 +929,14 @@
         <f t="shared" si="3"/>
         <v>15699</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -749,6 +947,631 @@
       </c>
       <c r="C31">
         <v>16895</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>A32</f>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B33">
+        <f>B32+1</f>
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <f>C32+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D33" t="str">
+        <f>D32</f>
+        <v>ko</v>
+      </c>
+      <c r="E33">
+        <f>E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:A46" si="4">A33</f>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B46" si="5">B33+1</f>
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>2501</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34:D46" si="6">D33</f>
+        <v>ko</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="7">E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C45" si="8">C34+1200</f>
+        <v>3701</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="8"/>
+        <v>4901</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6099</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="8"/>
+        <v>7299</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>8499</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>9699</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>10900</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>12099</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>13301</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="8"/>
+        <v>14501</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="8"/>
+        <v>15701</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="shared" si="4"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>16900</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="6"/>
+        <v>ko</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>A47</f>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B48">
+        <f>B47+1</f>
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <f>C47+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D48" t="str">
+        <f>D47</f>
+        <v>ko</v>
+      </c>
+      <c r="E48">
+        <f>E47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="shared" ref="A49:A71" si="9">A48</f>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:B71" si="10">B48+1</f>
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:C71" si="11">C48+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" ref="D49:D71" si="12">D48</f>
+        <v>ko</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E71" si="13">E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="11"/>
+        <v>3700</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="11"/>
+        <v>4900</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="11"/>
+        <v>6100</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="11"/>
+        <v>7300</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="11"/>
+        <v>8500</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="11"/>
+        <v>9700</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="11"/>
+        <v>10900</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="11"/>
+        <v>12100</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>13299</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="11"/>
+        <v>14499</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="11"/>
+        <v>15699</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f t="shared" si="9"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="11"/>
+        <v>16899</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="12"/>
+        <v>ko</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -12,8 +12,11 @@
     <workbookView xWindow="8660" yWindow="2820" windowWidth="18560" windowHeight="13040" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="file_params.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="file_params" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$A$61</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="28">
   <si>
     <t>filename</t>
   </si>
@@ -61,15 +64,82 @@
   <si>
     <t>190205_a-synKO_AMPH2.csv</t>
   </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>vmax</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>sample_rate</t>
+  </si>
+  <si>
+    <t>pulses</t>
+  </si>
+  <si>
+    <t>pulse_freq</t>
+  </si>
+  <si>
+    <t>bin_size</t>
+  </si>
+  <si>
+    <t>electrode_distance</t>
+  </si>
+  <si>
+    <t>dead_space_distance</t>
+  </si>
+  <si>
+    <t>diffusion_coefficient</t>
+  </si>
+  <si>
+    <t>convert_current</t>
+  </si>
+  <si>
+    <t>calibration_current</t>
+  </si>
+  <si>
+    <t>calibration_concentration</t>
+  </si>
+  <si>
+    <t>fit_region</t>
+  </si>
+  <si>
+    <t>base_tolerance</t>
+  </si>
+  <si>
+    <t>plot_duration_sec</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,13 +162,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,18 +452,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,8 +502,56 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -418,8 +567,57 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>2.4</v>
+      </c>
+      <c r="H2">
+        <v>4.8</v>
+      </c>
+      <c r="I2">
+        <v>2.1</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <f>2.7*10^-6</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5100</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2">
+        <v>0.05</v>
+      </c>
+      <c r="U2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -435,8 +633,57 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>2.4</v>
+      </c>
+      <c r="H3">
+        <v>4.8</v>
+      </c>
+      <c r="I3">
+        <v>2.1</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O61" si="0">2.7*10^-6</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>5100</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3">
+        <v>0.05</v>
+      </c>
+      <c r="U3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -452,8 +699,57 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>2.4</v>
+      </c>
+      <c r="H4">
+        <v>4.8</v>
+      </c>
+      <c r="I4">
+        <v>2.1</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>5100</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4">
+        <v>0.05</v>
+      </c>
+      <c r="U4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -469,8 +765,57 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>2.4</v>
+      </c>
+      <c r="H5">
+        <v>4.8</v>
+      </c>
+      <c r="I5">
+        <v>2.1</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1000</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>5100</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5">
+        <v>0.05</v>
+      </c>
+      <c r="U5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -486,8 +831,57 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>2.4</v>
+      </c>
+      <c r="H6">
+        <v>4.8</v>
+      </c>
+      <c r="I6">
+        <v>2.1</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1000</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>5100</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6">
+        <v>0.05</v>
+      </c>
+      <c r="U6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -495,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C16" si="0">C6+1200</f>
+        <f t="shared" ref="C7:C16" si="1">C6+1200</f>
         <v>6101</v>
       </c>
       <c r="D7" t="s">
@@ -504,8 +898,57 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>2.4</v>
+      </c>
+      <c r="H7">
+        <v>4.8</v>
+      </c>
+      <c r="I7">
+        <v>2.1</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>5100</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7">
+        <v>0.05</v>
+      </c>
+      <c r="U7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -513,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7301</v>
       </c>
       <c r="D8" t="s">
@@ -522,8 +965,57 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>2.4</v>
+      </c>
+      <c r="H8">
+        <v>4.8</v>
+      </c>
+      <c r="I8">
+        <v>2.1</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>5100</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8">
+        <v>0.05</v>
+      </c>
+      <c r="U8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -531,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8501</v>
       </c>
       <c r="D9" t="s">
@@ -540,8 +1032,57 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>2.4</v>
+      </c>
+      <c r="H9">
+        <v>4.8</v>
+      </c>
+      <c r="I9">
+        <v>2.1</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>5100</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9">
+        <v>0.05</v>
+      </c>
+      <c r="U9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -549,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9701</v>
       </c>
       <c r="D10" t="s">
@@ -558,8 +1099,57 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>2.4</v>
+      </c>
+      <c r="H10">
+        <v>4.8</v>
+      </c>
+      <c r="I10">
+        <v>2.1</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>5100</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10">
+        <v>0.05</v>
+      </c>
+      <c r="U10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -567,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10901</v>
       </c>
       <c r="D11" t="s">
@@ -576,8 +1166,57 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>2.4</v>
+      </c>
+      <c r="H11">
+        <v>4.8</v>
+      </c>
+      <c r="I11">
+        <v>2.1</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>5100</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11">
+        <v>0.05</v>
+      </c>
+      <c r="U11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -585,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12101</v>
       </c>
       <c r="D12" t="s">
@@ -594,8 +1233,57 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>2.4</v>
+      </c>
+      <c r="H12">
+        <v>4.8</v>
+      </c>
+      <c r="I12">
+        <v>2.1</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1000</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>5100</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12">
+        <v>0.05</v>
+      </c>
+      <c r="U12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -603,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13301</v>
       </c>
       <c r="D13" t="s">
@@ -612,8 +1300,57 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>2.4</v>
+      </c>
+      <c r="H13">
+        <v>4.8</v>
+      </c>
+      <c r="I13">
+        <v>2.1</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1000</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>5100</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13">
+        <v>0.05</v>
+      </c>
+      <c r="U13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -621,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14501</v>
       </c>
       <c r="D14" t="s">
@@ -630,8 +1367,57 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>2.4</v>
+      </c>
+      <c r="H14">
+        <v>4.8</v>
+      </c>
+      <c r="I14">
+        <v>2.1</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>5100</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14">
+        <v>0.05</v>
+      </c>
+      <c r="U14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -647,8 +1433,57 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>2.4</v>
+      </c>
+      <c r="H15">
+        <v>4.8</v>
+      </c>
+      <c r="I15">
+        <v>2.1</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>5100</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15">
+        <v>0.05</v>
+      </c>
+      <c r="U15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -656,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16899</v>
       </c>
       <c r="D16" t="s">
@@ -665,8 +1500,57 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>2.4</v>
+      </c>
+      <c r="H16">
+        <v>4.8</v>
+      </c>
+      <c r="I16">
+        <v>2.1</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1000</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>5100</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16">
+        <v>0.05</v>
+      </c>
+      <c r="U16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -682,8 +1566,57 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>2.4</v>
+      </c>
+      <c r="H17">
+        <v>4.8</v>
+      </c>
+      <c r="I17">
+        <v>2.1</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1000</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>5100</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17">
+        <v>0.05</v>
+      </c>
+      <c r="U17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -702,18 +1635,67 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>2.4</v>
+      </c>
+      <c r="H18">
+        <v>4.8</v>
+      </c>
+      <c r="I18">
+        <v>2.1</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>5100</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18">
+        <v>0.05</v>
+      </c>
+      <c r="U18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f t="shared" ref="A19:A31" si="1">A18</f>
+        <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B31" si="2">B18+1</f>
+        <f t="shared" ref="B19:B31" si="3">B18+1</f>
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C30" si="3">C18+1200</f>
+        <f t="shared" ref="C19:C30" si="4">C18+1200</f>
         <v>2503</v>
       </c>
       <c r="D19" t="s">
@@ -722,14 +1704,63 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>2.4</v>
+      </c>
+      <c r="H19">
+        <v>4.8</v>
+      </c>
+      <c r="I19">
+        <v>2.1</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>5100</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19">
+        <v>0.05</v>
+      </c>
+      <c r="U19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C20">
@@ -741,14 +1772,63 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>2.4</v>
+      </c>
+      <c r="H20">
+        <v>4.8</v>
+      </c>
+      <c r="I20">
+        <v>2.1</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>5100</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20">
+        <v>0.05</v>
+      </c>
+      <c r="U20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C21">
@@ -760,18 +1840,67 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>2.4</v>
+      </c>
+      <c r="H21">
+        <v>4.8</v>
+      </c>
+      <c r="I21">
+        <v>2.1</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>5100</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21">
+        <v>0.05</v>
+      </c>
+      <c r="U21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6104</v>
       </c>
       <c r="D22" t="s">
@@ -780,14 +1909,63 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>2.4</v>
+      </c>
+      <c r="H22">
+        <v>4.8</v>
+      </c>
+      <c r="I22">
+        <v>2.1</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1000</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>5100</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22">
+        <v>0.05</v>
+      </c>
+      <c r="U22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C23">
@@ -799,14 +1977,63 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>2.4</v>
+      </c>
+      <c r="H23">
+        <v>4.8</v>
+      </c>
+      <c r="I23">
+        <v>2.1</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>5100</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23">
+        <v>0.05</v>
+      </c>
+      <c r="U23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C24">
@@ -818,18 +2045,67 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>2.4</v>
+      </c>
+      <c r="H24">
+        <v>4.8</v>
+      </c>
+      <c r="I24">
+        <v>2.1</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>5100</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24">
+        <v>0.05</v>
+      </c>
+      <c r="U24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9700</v>
       </c>
       <c r="D25" t="s">
@@ -838,14 +2114,63 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>2.4</v>
+      </c>
+      <c r="H25">
+        <v>4.8</v>
+      </c>
+      <c r="I25">
+        <v>2.1</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>50</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>5100</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25">
+        <v>0.05</v>
+      </c>
+      <c r="U25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C26">
@@ -857,14 +2182,63 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>2.4</v>
+      </c>
+      <c r="H26">
+        <v>4.8</v>
+      </c>
+      <c r="I26">
+        <v>2.1</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>50</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>5100</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26">
+        <v>0.05</v>
+      </c>
+      <c r="U26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C27">
@@ -876,14 +2250,63 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>2.4</v>
+      </c>
+      <c r="H27">
+        <v>4.8</v>
+      </c>
+      <c r="I27">
+        <v>2.1</v>
+      </c>
+      <c r="J27">
+        <v>30</v>
+      </c>
+      <c r="K27">
+        <v>50</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1000</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>5100</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27">
+        <v>0.05</v>
+      </c>
+      <c r="U27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C28">
@@ -895,18 +2318,67 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>2.4</v>
+      </c>
+      <c r="H28">
+        <v>4.8</v>
+      </c>
+      <c r="I28">
+        <v>2.1</v>
+      </c>
+      <c r="J28">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <v>50</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>5100</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28">
+        <v>0.05</v>
+      </c>
+      <c r="U28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14499</v>
       </c>
       <c r="D29" t="s">
@@ -915,18 +2387,67 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>2.4</v>
+      </c>
+      <c r="H29">
+        <v>4.8</v>
+      </c>
+      <c r="I29">
+        <v>2.1</v>
+      </c>
+      <c r="J29">
+        <v>30</v>
+      </c>
+      <c r="K29">
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>5100</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.05</v>
+      </c>
+      <c r="U29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15699</v>
       </c>
       <c r="D30" t="s">
@@ -935,14 +2456,63 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>2.4</v>
+      </c>
+      <c r="H30">
+        <v>4.8</v>
+      </c>
+      <c r="I30">
+        <v>2.1</v>
+      </c>
+      <c r="J30">
+        <v>30</v>
+      </c>
+      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>5100</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30">
+        <v>0.05</v>
+      </c>
+      <c r="U30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C31">
@@ -954,8 +2524,57 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>2.4</v>
+      </c>
+      <c r="H31">
+        <v>4.8</v>
+      </c>
+      <c r="I31">
+        <v>2.1</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>50</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1000</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>5100</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31">
+        <v>0.05</v>
+      </c>
+      <c r="U31">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -971,8 +2590,57 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>2.4</v>
+      </c>
+      <c r="H32">
+        <v>4.8</v>
+      </c>
+      <c r="I32">
+        <v>2.1</v>
+      </c>
+      <c r="J32">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1000</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>11000</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32">
+        <v>0.05</v>
+      </c>
+      <c r="U32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>A32</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -993,276 +2661,962 @@
         <f>E32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>2.4</v>
+      </c>
+      <c r="H33">
+        <v>4.8</v>
+      </c>
+      <c r="I33">
+        <v>2.1</v>
+      </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+      <c r="K33">
+        <v>50</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>11000</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33">
+        <v>0.05</v>
+      </c>
+      <c r="U33">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f t="shared" ref="A34:A46" si="4">A33</f>
+        <f t="shared" ref="A34:A46" si="5">A33</f>
         <v>190205_a-synKO_AMPH1.csv</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B46" si="5">B33+1</f>
+        <f t="shared" ref="B34:B46" si="6">B33+1</f>
         <v>3</v>
       </c>
       <c r="C34">
         <v>2501</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D46" si="6">D33</f>
+        <f t="shared" ref="D34:D46" si="7">D33</f>
         <v>ko</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="7">E33</f>
+        <f t="shared" ref="E34" si="8">E33</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>2.4</v>
+      </c>
+      <c r="H34">
+        <v>4.8</v>
+      </c>
+      <c r="I34">
+        <v>2.1</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1000</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>11000</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T34">
+        <v>0.05</v>
+      </c>
+      <c r="U34">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
       </c>
       <c r="B35">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C45" si="9">C34+1200</f>
+        <v>3701</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="7"/>
+        <v>ko</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>2.4</v>
+      </c>
+      <c r="H35">
+        <v>4.8</v>
+      </c>
+      <c r="I35">
+        <v>2.1</v>
+      </c>
+      <c r="J35">
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>1000</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>11000</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35">
+        <v>0.05</v>
+      </c>
+      <c r="U35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:C45" si="8">C34+1200</f>
-        <v>3701</v>
-      </c>
-      <c r="D35" t="str">
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="9"/>
+        <v>4901</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="7"/>
         <v>ko</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
-        <f t="shared" si="4"/>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>2.4</v>
+      </c>
+      <c r="H36">
+        <v>4.8</v>
+      </c>
+      <c r="I36">
+        <v>2.1</v>
+      </c>
+      <c r="J36">
+        <v>30</v>
+      </c>
+      <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>11000</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36">
+        <v>0.05</v>
+      </c>
+      <c r="U36">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="8"/>
-        <v>4901</v>
-      </c>
-      <c r="D36" t="str">
+      <c r="B37">
         <f t="shared" si="6"/>
-        <v>ko</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="str">
-        <f t="shared" si="4"/>
-        <v>190205_a-synKO_AMPH1.csv</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C37">
         <v>6099</v>
       </c>
       <c r="D37" t="str">
+        <f t="shared" si="7"/>
+        <v>ko</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>2.4</v>
+      </c>
+      <c r="H37">
+        <v>4.8</v>
+      </c>
+      <c r="I37">
+        <v>2.1</v>
+      </c>
+      <c r="J37">
+        <v>30</v>
+      </c>
+      <c r="K37">
+        <v>50</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>1000</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>11000</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37">
+        <v>0.05</v>
+      </c>
+      <c r="U37">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="5"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="9"/>
+        <v>7299</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="7"/>
         <v>ko</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="str">
-        <f t="shared" si="4"/>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>2.4</v>
+      </c>
+      <c r="H38">
+        <v>4.8</v>
+      </c>
+      <c r="I38">
+        <v>2.1</v>
+      </c>
+      <c r="J38">
+        <v>30</v>
+      </c>
+      <c r="K38">
+        <v>50</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>1000</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>11000</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38">
+        <v>0.05</v>
+      </c>
+      <c r="U38">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
       </c>
-      <c r="B38">
+      <c r="B39">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="9"/>
+        <v>8499</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="7"/>
+        <v>ko</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>2.4</v>
+      </c>
+      <c r="H39">
+        <v>4.8</v>
+      </c>
+      <c r="I39">
+        <v>2.1</v>
+      </c>
+      <c r="J39">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>50</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>11000</v>
+      </c>
+      <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T39">
+        <v>0.05</v>
+      </c>
+      <c r="U39">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="8"/>
-        <v>7299</v>
-      </c>
-      <c r="D38" t="str">
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B40">
         <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>9699</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="7"/>
         <v>ko</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="str">
-        <f t="shared" si="4"/>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>2.4</v>
+      </c>
+      <c r="H40">
+        <v>4.8</v>
+      </c>
+      <c r="I40">
+        <v>2.1</v>
+      </c>
+      <c r="J40">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <v>50</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>11000</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s">
+        <v>27</v>
+      </c>
+      <c r="T40">
+        <v>0.05</v>
+      </c>
+      <c r="U40">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="8"/>
-        <v>8499</v>
-      </c>
-      <c r="D39" t="str">
+      <c r="B41">
         <f t="shared" si="6"/>
-        <v>ko</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="str">
-        <f t="shared" si="4"/>
-        <v>190205_a-synKO_AMPH1.csv</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="8"/>
-        <v>9699</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="6"/>
-        <v>ko</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="str">
-        <f t="shared" si="4"/>
-        <v>190205_a-synKO_AMPH1.csv</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C41">
         <v>10900</v>
       </c>
       <c r="D41" t="str">
+        <f t="shared" si="7"/>
+        <v>ko</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>2.4</v>
+      </c>
+      <c r="H41">
+        <v>4.8</v>
+      </c>
+      <c r="I41">
+        <v>2.1</v>
+      </c>
+      <c r="J41">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>50</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1000</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>11000</v>
+      </c>
+      <c r="R41">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41">
+        <v>0.05</v>
+      </c>
+      <c r="U41">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="shared" si="5"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B42">
         <f t="shared" si="6"/>
-        <v>ko</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="str">
-        <f t="shared" si="4"/>
-        <v>190205_a-synKO_AMPH1.csv</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C42">
         <v>12099</v>
       </c>
       <c r="D42" t="str">
+        <f t="shared" si="7"/>
+        <v>ko</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>2.4</v>
+      </c>
+      <c r="H42">
+        <v>4.8</v>
+      </c>
+      <c r="I42">
+        <v>2.1</v>
+      </c>
+      <c r="J42">
+        <v>30</v>
+      </c>
+      <c r="K42">
+        <v>50</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>1000</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>11000</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42">
+        <v>0.05</v>
+      </c>
+      <c r="U42">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" si="5"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B43">
         <f t="shared" si="6"/>
-        <v>ko</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="str">
-        <f t="shared" si="4"/>
-        <v>190205_a-synKO_AMPH1.csv</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C43">
         <v>13301</v>
       </c>
       <c r="D43" t="str">
+        <f t="shared" si="7"/>
+        <v>ko</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>2.4</v>
+      </c>
+      <c r="H43">
+        <v>4.8</v>
+      </c>
+      <c r="I43">
+        <v>2.1</v>
+      </c>
+      <c r="J43">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <v>50</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>1000</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>11000</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43">
+        <v>0.05</v>
+      </c>
+      <c r="U43">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f t="shared" si="5"/>
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B44">
         <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="9"/>
+        <v>14501</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="7"/>
         <v>ko</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="str">
-        <f t="shared" si="4"/>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>2.4</v>
+      </c>
+      <c r="H44">
+        <v>4.8</v>
+      </c>
+      <c r="I44">
+        <v>2.1</v>
+      </c>
+      <c r="J44">
+        <v>30</v>
+      </c>
+      <c r="K44">
+        <v>50</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>11000</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44">
+        <v>0.05</v>
+      </c>
+      <c r="U44">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
       </c>
-      <c r="B44">
+      <c r="B45">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="9"/>
+        <v>15701</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="7"/>
+        <v>ko</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>2.4</v>
+      </c>
+      <c r="H45">
+        <v>4.8</v>
+      </c>
+      <c r="I45">
+        <v>2.1</v>
+      </c>
+      <c r="J45">
+        <v>30</v>
+      </c>
+      <c r="K45">
+        <v>50</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>1000</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>11000</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s">
+        <v>27</v>
+      </c>
+      <c r="T45">
+        <v>0.05</v>
+      </c>
+      <c r="U45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="8"/>
-        <v>14501</v>
-      </c>
-      <c r="D44" t="str">
+        <v>190205_a-synKO_AMPH1.csv</v>
+      </c>
+      <c r="B46">
         <f t="shared" si="6"/>
-        <v>ko</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="str">
-        <f t="shared" si="4"/>
-        <v>190205_a-synKO_AMPH1.csv</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="8"/>
-        <v>15701</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="6"/>
-        <v>ko</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="str">
-        <f t="shared" si="4"/>
-        <v>190205_a-synKO_AMPH1.csv</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C46">
         <v>16900</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ko</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>2.4</v>
+      </c>
+      <c r="H46">
+        <v>4.8</v>
+      </c>
+      <c r="I46">
+        <v>2.1</v>
+      </c>
+      <c r="J46">
+        <v>30</v>
+      </c>
+      <c r="K46">
+        <v>50</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1000</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>11000</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s">
+        <v>27</v>
+      </c>
+      <c r="T46">
+        <v>0.05</v>
+      </c>
+      <c r="U46">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1278,8 +3632,57 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>2.4</v>
+      </c>
+      <c r="H47">
+        <v>4.8</v>
+      </c>
+      <c r="I47">
+        <v>2.1</v>
+      </c>
+      <c r="J47">
+        <v>30</v>
+      </c>
+      <c r="K47">
+        <v>50</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1000</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>10400</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s">
+        <v>27</v>
+      </c>
+      <c r="T47">
+        <v>0.05</v>
+      </c>
+      <c r="U47">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>A47</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -1300,281 +3703,968 @@
         <f>E47</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>2.4</v>
+      </c>
+      <c r="H48">
+        <v>4.8</v>
+      </c>
+      <c r="I48">
+        <v>2.1</v>
+      </c>
+      <c r="J48">
+        <v>30</v>
+      </c>
+      <c r="K48">
+        <v>50</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>1000</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>10400</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s">
+        <v>27</v>
+      </c>
+      <c r="T48">
+        <v>0.05</v>
+      </c>
+      <c r="U48">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f t="shared" ref="A49:A71" si="9">A48</f>
+        <f t="shared" ref="A49:A61" si="10">A48</f>
         <v>190205_a-synKO_AMPH2.csv</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B71" si="10">B48+1</f>
+        <f t="shared" ref="B49:B61" si="11">B48+1</f>
         <v>3</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C71" si="11">C48+1200</f>
+        <f t="shared" ref="C49:C61" si="12">C48+1200</f>
         <v>2500</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" ref="D49:D71" si="12">D48</f>
+        <f t="shared" ref="D49:D61" si="13">D48</f>
         <v>ko</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E71" si="13">E48</f>
+        <f t="shared" ref="E49" si="14">E48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>2.4</v>
+      </c>
+      <c r="H49">
+        <v>4.8</v>
+      </c>
+      <c r="I49">
+        <v>2.1</v>
+      </c>
+      <c r="J49">
+        <v>30</v>
+      </c>
+      <c r="K49">
+        <v>50</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1000</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>10400</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s">
+        <v>27</v>
+      </c>
+      <c r="T49">
+        <v>0.05</v>
+      </c>
+      <c r="U49">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
       </c>
       <c r="B50">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="12"/>
+        <v>3700</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="13"/>
+        <v>ko</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>2.4</v>
+      </c>
+      <c r="H50">
+        <v>4.8</v>
+      </c>
+      <c r="I50">
+        <v>2.1</v>
+      </c>
+      <c r="J50">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1000</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>10400</v>
+      </c>
+      <c r="R50">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50">
+        <v>0.05</v>
+      </c>
+      <c r="U50">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="C50">
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B51">
         <f t="shared" si="11"/>
-        <v>3700</v>
-      </c>
-      <c r="D50" t="str">
+        <v>5</v>
+      </c>
+      <c r="C51">
         <f t="shared" si="12"/>
+        <v>4900</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="str">
-        <f t="shared" si="9"/>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>2.4</v>
+      </c>
+      <c r="H51">
+        <v>4.8</v>
+      </c>
+      <c r="I51">
+        <v>2.1</v>
+      </c>
+      <c r="J51">
+        <v>30</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1000</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>10400</v>
+      </c>
+      <c r="R51">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s">
+        <v>27</v>
+      </c>
+      <c r="T51">
+        <v>0.05</v>
+      </c>
+      <c r="U51">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
       </c>
-      <c r="B51">
+      <c r="B52">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="12"/>
+        <v>6100</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="13"/>
+        <v>ko</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>2.4</v>
+      </c>
+      <c r="H52">
+        <v>4.8</v>
+      </c>
+      <c r="I52">
+        <v>2.1</v>
+      </c>
+      <c r="J52">
+        <v>30</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1000</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>10400</v>
+      </c>
+      <c r="R52">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s">
+        <v>27</v>
+      </c>
+      <c r="T52">
+        <v>0.05</v>
+      </c>
+      <c r="U52">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="C51">
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B53">
         <f t="shared" si="11"/>
-        <v>4900</v>
-      </c>
-      <c r="D51" t="str">
+        <v>7</v>
+      </c>
+      <c r="C53">
         <f t="shared" si="12"/>
+        <v>7300</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="str">
-        <f t="shared" si="9"/>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>2.4</v>
+      </c>
+      <c r="H53">
+        <v>4.8</v>
+      </c>
+      <c r="I53">
+        <v>2.1</v>
+      </c>
+      <c r="J53">
+        <v>30</v>
+      </c>
+      <c r="K53">
+        <v>50</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1000</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>10400</v>
+      </c>
+      <c r="R53">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T53">
+        <v>0.05</v>
+      </c>
+      <c r="U53">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
       </c>
-      <c r="B52">
+      <c r="B54">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="12"/>
+        <v>8500</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="13"/>
+        <v>ko</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>2.4</v>
+      </c>
+      <c r="H54">
+        <v>4.8</v>
+      </c>
+      <c r="I54">
+        <v>2.1</v>
+      </c>
+      <c r="J54">
+        <v>30</v>
+      </c>
+      <c r="K54">
+        <v>50</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1000</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>10400</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s">
+        <v>27</v>
+      </c>
+      <c r="T54">
+        <v>0.05</v>
+      </c>
+      <c r="U54">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="C52">
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B55">
         <f t="shared" si="11"/>
-        <v>6100</v>
-      </c>
-      <c r="D52" t="str">
+        <v>9</v>
+      </c>
+      <c r="C55">
         <f t="shared" si="12"/>
+        <v>9700</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="str">
-        <f t="shared" si="9"/>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>2.4</v>
+      </c>
+      <c r="H55">
+        <v>4.8</v>
+      </c>
+      <c r="I55">
+        <v>2.1</v>
+      </c>
+      <c r="J55">
+        <v>30</v>
+      </c>
+      <c r="K55">
+        <v>50</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>1000</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>10400</v>
+      </c>
+      <c r="R55">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s">
+        <v>27</v>
+      </c>
+      <c r="T55">
+        <v>0.05</v>
+      </c>
+      <c r="U55">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
       </c>
-      <c r="B53">
+      <c r="B56">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="12"/>
+        <v>10900</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="13"/>
+        <v>ko</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>2.4</v>
+      </c>
+      <c r="H56">
+        <v>4.8</v>
+      </c>
+      <c r="I56">
+        <v>2.1</v>
+      </c>
+      <c r="J56">
+        <v>30</v>
+      </c>
+      <c r="K56">
+        <v>50</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1000</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>10400</v>
+      </c>
+      <c r="R56">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s">
+        <v>27</v>
+      </c>
+      <c r="T56">
+        <v>0.05</v>
+      </c>
+      <c r="U56">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="C53">
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B57">
         <f t="shared" si="11"/>
-        <v>7300</v>
-      </c>
-      <c r="D53" t="str">
+        <v>11</v>
+      </c>
+      <c r="C57">
         <f t="shared" si="12"/>
+        <v>12100</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="str">
-        <f t="shared" si="9"/>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57">
+        <v>2.4</v>
+      </c>
+      <c r="H57">
+        <v>4.8</v>
+      </c>
+      <c r="I57">
+        <v>2.1</v>
+      </c>
+      <c r="J57">
+        <v>30</v>
+      </c>
+      <c r="K57">
+        <v>50</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1000</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>10400</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s">
+        <v>27</v>
+      </c>
+      <c r="T57">
+        <v>0.05</v>
+      </c>
+      <c r="U57">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="C54">
+      <c r="B58">
         <f t="shared" si="11"/>
-        <v>8500</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="12"/>
-        <v>ko</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="str">
-        <f t="shared" si="9"/>
-        <v>190205_a-synKO_AMPH2.csv</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="11"/>
-        <v>9700</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="12"/>
-        <v>ko</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="str">
-        <f t="shared" si="9"/>
-        <v>190205_a-synKO_AMPH2.csv</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="11"/>
-        <v>10900</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="12"/>
-        <v>ko</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="str">
-        <f t="shared" si="9"/>
-        <v>190205_a-synKO_AMPH2.csv</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="11"/>
-        <v>12100</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="12"/>
-        <v>ko</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="str">
-        <f t="shared" si="9"/>
-        <v>190205_a-synKO_AMPH2.csv</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="C58">
         <v>13299</v>
       </c>
       <c r="D58" t="str">
+        <f t="shared" si="13"/>
+        <v>ko</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <v>2.4</v>
+      </c>
+      <c r="H58">
+        <v>4.8</v>
+      </c>
+      <c r="I58">
+        <v>2.1</v>
+      </c>
+      <c r="J58">
+        <v>30</v>
+      </c>
+      <c r="K58">
+        <v>50</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1000</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>10400</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T58">
+        <v>0.05</v>
+      </c>
+      <c r="U58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="shared" si="10"/>
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="C59">
         <f t="shared" si="12"/>
+        <v>14499</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="str">
-        <f t="shared" si="9"/>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>2.4</v>
+      </c>
+      <c r="H59">
+        <v>4.8</v>
+      </c>
+      <c r="I59">
+        <v>2.1</v>
+      </c>
+      <c r="J59">
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <v>50</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1000</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>10400</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s">
+        <v>27</v>
+      </c>
+      <c r="T59">
+        <v>0.05</v>
+      </c>
+      <c r="U59">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
       </c>
-      <c r="B59">
+      <c r="B60">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="12"/>
+        <v>15699</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="13"/>
+        <v>ko</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <v>2.4</v>
+      </c>
+      <c r="H60">
+        <v>4.8</v>
+      </c>
+      <c r="I60">
+        <v>2.1</v>
+      </c>
+      <c r="J60">
+        <v>30</v>
+      </c>
+      <c r="K60">
+        <v>50</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1000</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>10400</v>
+      </c>
+      <c r="R60">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s">
+        <v>27</v>
+      </c>
+      <c r="T60">
+        <v>0.05</v>
+      </c>
+      <c r="U60">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
         <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="C59">
+        <v>190205_a-synKO_AMPH2.csv</v>
+      </c>
+      <c r="B61">
         <f t="shared" si="11"/>
-        <v>14499</v>
-      </c>
-      <c r="D59" t="str">
+        <v>15</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="12"/>
+        <v>16899</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="str">
-        <f t="shared" si="9"/>
-        <v>190205_a-synKO_AMPH2.csv</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="11"/>
-        <v>15699</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="12"/>
-        <v>ko</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="str">
-        <f t="shared" si="9"/>
-        <v>190205_a-synKO_AMPH2.csv</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="11"/>
-        <v>16899</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="12"/>
-        <v>ko</v>
-      </c>
       <c r="E61">
         <v>1</v>
       </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+      <c r="G61">
+        <v>2.4</v>
+      </c>
+      <c r="H61">
+        <v>4.8</v>
+      </c>
+      <c r="I61">
+        <v>2.1</v>
+      </c>
+      <c r="J61">
+        <v>30</v>
+      </c>
+      <c r="K61">
+        <v>50</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1000</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>10400</v>
+      </c>
+      <c r="R61">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s">
+        <v>27</v>
+      </c>
+      <c r="T61">
+        <v>0.05</v>
+      </c>
+      <c r="U61">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -15,7 +15,7 @@
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$A$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$A$76</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="29">
   <si>
     <t>filename</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>fall</t>
+  </si>
+  <si>
+    <t>180921_10mg-kgAMPH-1.csv</t>
   </si>
 </sst>
 </file>
@@ -452,13 +455,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U61"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T64" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:I6"/>
+      <selection pane="bottomRight" activeCell="U67" sqref="U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -617,7 +621,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -661,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O61" si="0">2.7*10^-6</f>
+        <f t="shared" ref="O3:O66" si="0">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="P3" t="b">
@@ -683,7 +687,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -749,7 +753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -815,7 +819,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -881,7 +885,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -948,7 +952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1354,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1616,7 +1620,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1685,7 +1689,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1754,7 +1758,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1822,7 +1826,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1890,7 +1894,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1959,7 +1963,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2027,7 +2031,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2095,7 +2099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2164,7 +2168,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2232,7 +2236,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2300,7 +2304,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2368,7 +2372,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2437,7 +2441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2506,7 +2510,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2574,7 +2578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>A32</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2711,7 +2715,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A46" si="5">A33</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2781,7 +2785,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2851,7 +2855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2921,7 +2925,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2990,7 +2994,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3060,7 +3064,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3130,7 +3134,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3200,7 +3204,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3269,7 +3273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3338,7 +3342,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3407,7 +3411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3477,7 +3481,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3547,7 +3551,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3616,7 +3620,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>A47</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3753,7 +3757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" ref="A49:A61" si="10">A48</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3824,7 +3828,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3894,7 +3898,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3964,7 +3968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4034,7 +4038,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4104,7 +4108,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4174,7 +4178,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4244,7 +4248,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4314,7 +4318,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4384,7 +4388,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4453,7 +4457,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4523,7 +4527,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4593,7 +4597,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4663,8 +4667,1032 @@
         <v>110</v>
       </c>
     </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62">
+        <v>2.4</v>
+      </c>
+      <c r="H62">
+        <v>4.8</v>
+      </c>
+      <c r="I62">
+        <v>2.1</v>
+      </c>
+      <c r="J62">
+        <v>30</v>
+      </c>
+      <c r="K62">
+        <v>50</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>1000</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>7000</v>
+      </c>
+      <c r="R62">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s">
+        <v>27</v>
+      </c>
+      <c r="T62">
+        <v>0.05</v>
+      </c>
+      <c r="U62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <f>B62+1</f>
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <f>C62+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63">
+        <v>2.4</v>
+      </c>
+      <c r="H63">
+        <v>4.8</v>
+      </c>
+      <c r="I63">
+        <v>2.1</v>
+      </c>
+      <c r="J63">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>50</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1000</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>7000</v>
+      </c>
+      <c r="R63">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s">
+        <v>27</v>
+      </c>
+      <c r="T63">
+        <v>0.05</v>
+      </c>
+      <c r="U63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64:B81" si="15">B63+1</f>
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:C76" si="16">C63+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64">
+        <v>2.4</v>
+      </c>
+      <c r="H64">
+        <v>4.8</v>
+      </c>
+      <c r="I64">
+        <v>2.1</v>
+      </c>
+      <c r="J64">
+        <v>30</v>
+      </c>
+      <c r="K64">
+        <v>50</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1000</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>7000</v>
+      </c>
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s">
+        <v>27</v>
+      </c>
+      <c r="T64">
+        <v>0.05</v>
+      </c>
+      <c r="U64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="16"/>
+        <v>3700</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>2.4</v>
+      </c>
+      <c r="H65">
+        <v>4.8</v>
+      </c>
+      <c r="I65">
+        <v>2.1</v>
+      </c>
+      <c r="J65">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>50</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>1000</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>7000</v>
+      </c>
+      <c r="R65">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s">
+        <v>27</v>
+      </c>
+      <c r="T65">
+        <v>0.05</v>
+      </c>
+      <c r="U65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="16"/>
+        <v>4900</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66">
+        <v>2.4</v>
+      </c>
+      <c r="H66">
+        <v>4.8</v>
+      </c>
+      <c r="I66">
+        <v>2.1</v>
+      </c>
+      <c r="J66">
+        <v>30</v>
+      </c>
+      <c r="K66">
+        <v>50</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1000</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>7000</v>
+      </c>
+      <c r="R66">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s">
+        <v>27</v>
+      </c>
+      <c r="T66">
+        <v>0.05</v>
+      </c>
+      <c r="U66">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="16"/>
+        <v>6100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="G67">
+        <v>2.4</v>
+      </c>
+      <c r="H67">
+        <v>4.8</v>
+      </c>
+      <c r="I67">
+        <v>2.1</v>
+      </c>
+      <c r="J67">
+        <v>30</v>
+      </c>
+      <c r="K67">
+        <v>50</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>1000</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O81" si="17">2.7*10^-6</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>7000</v>
+      </c>
+      <c r="R67">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s">
+        <v>27</v>
+      </c>
+      <c r="T67">
+        <v>0.05</v>
+      </c>
+      <c r="U67">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="16"/>
+        <v>7300</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68">
+        <v>2.4</v>
+      </c>
+      <c r="H68">
+        <v>4.8</v>
+      </c>
+      <c r="I68">
+        <v>2.1</v>
+      </c>
+      <c r="J68">
+        <v>30</v>
+      </c>
+      <c r="K68">
+        <v>50</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1000</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>7000</v>
+      </c>
+      <c r="R68">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s">
+        <v>27</v>
+      </c>
+      <c r="T68">
+        <v>0.05</v>
+      </c>
+      <c r="U68">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="16"/>
+        <v>8500</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69">
+        <v>2.4</v>
+      </c>
+      <c r="H69">
+        <v>4.8</v>
+      </c>
+      <c r="I69">
+        <v>2.1</v>
+      </c>
+      <c r="J69">
+        <v>30</v>
+      </c>
+      <c r="K69">
+        <v>50</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1000</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>7000</v>
+      </c>
+      <c r="R69">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s">
+        <v>27</v>
+      </c>
+      <c r="T69">
+        <v>0.05</v>
+      </c>
+      <c r="U69">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="16"/>
+        <v>9700</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70">
+        <v>2.4</v>
+      </c>
+      <c r="H70">
+        <v>4.8</v>
+      </c>
+      <c r="I70">
+        <v>2.1</v>
+      </c>
+      <c r="J70">
+        <v>30</v>
+      </c>
+      <c r="K70">
+        <v>50</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1000</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>7000</v>
+      </c>
+      <c r="R70">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s">
+        <v>27</v>
+      </c>
+      <c r="T70">
+        <v>0.05</v>
+      </c>
+      <c r="U70">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="16"/>
+        <v>10900</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="G71">
+        <v>2.4</v>
+      </c>
+      <c r="H71">
+        <v>4.8</v>
+      </c>
+      <c r="I71">
+        <v>2.1</v>
+      </c>
+      <c r="J71">
+        <v>30</v>
+      </c>
+      <c r="K71">
+        <v>50</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1000</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>7000</v>
+      </c>
+      <c r="R71">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s">
+        <v>27</v>
+      </c>
+      <c r="T71">
+        <v>0.05</v>
+      </c>
+      <c r="U71">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="16"/>
+        <v>12100</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72">
+        <v>2.4</v>
+      </c>
+      <c r="H72">
+        <v>4.8</v>
+      </c>
+      <c r="I72">
+        <v>2.1</v>
+      </c>
+      <c r="J72">
+        <v>30</v>
+      </c>
+      <c r="K72">
+        <v>50</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>1000</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>7000</v>
+      </c>
+      <c r="R72">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s">
+        <v>27</v>
+      </c>
+      <c r="T72">
+        <v>0.05</v>
+      </c>
+      <c r="U72">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="16"/>
+        <v>13300</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73">
+        <v>2.4</v>
+      </c>
+      <c r="H73">
+        <v>4.8</v>
+      </c>
+      <c r="I73">
+        <v>2.1</v>
+      </c>
+      <c r="J73">
+        <v>30</v>
+      </c>
+      <c r="K73">
+        <v>50</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>1000</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>7000</v>
+      </c>
+      <c r="R73">
+        <v>5</v>
+      </c>
+      <c r="S73" t="s">
+        <v>27</v>
+      </c>
+      <c r="T73">
+        <v>0.05</v>
+      </c>
+      <c r="U73">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="16"/>
+        <v>14500</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+      <c r="G74">
+        <v>2.4</v>
+      </c>
+      <c r="H74">
+        <v>4.8</v>
+      </c>
+      <c r="I74">
+        <v>2.1</v>
+      </c>
+      <c r="J74">
+        <v>30</v>
+      </c>
+      <c r="K74">
+        <v>50</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>1000</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>7000</v>
+      </c>
+      <c r="R74">
+        <v>5</v>
+      </c>
+      <c r="S74" t="s">
+        <v>27</v>
+      </c>
+      <c r="T74">
+        <v>0.05</v>
+      </c>
+      <c r="U74">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="16"/>
+        <v>15700</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+      <c r="G75">
+        <v>2.4</v>
+      </c>
+      <c r="H75">
+        <v>4.8</v>
+      </c>
+      <c r="I75">
+        <v>2.1</v>
+      </c>
+      <c r="J75">
+        <v>30</v>
+      </c>
+      <c r="K75">
+        <v>50</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1000</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>7000</v>
+      </c>
+      <c r="R75">
+        <v>5</v>
+      </c>
+      <c r="S75" t="s">
+        <v>27</v>
+      </c>
+      <c r="T75">
+        <v>0.05</v>
+      </c>
+      <c r="U75">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="16"/>
+        <v>16900</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
+      </c>
+      <c r="G76">
+        <v>2.4</v>
+      </c>
+      <c r="H76">
+        <v>4.8</v>
+      </c>
+      <c r="I76">
+        <v>2.1</v>
+      </c>
+      <c r="J76">
+        <v>30</v>
+      </c>
+      <c r="K76">
+        <v>50</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1000</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>7000</v>
+      </c>
+      <c r="R76">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s">
+        <v>27</v>
+      </c>
+      <c r="T76">
+        <v>0.05</v>
+      </c>
+      <c r="U76">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A61"/>
+  <autoFilter ref="A1:A76">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="180921_10mg-kgAMPH-1.csv"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -15,7 +15,7 @@
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$A$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$A$91</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="30">
   <si>
     <t>filename</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>180921_10mg-kgAMPH-1.csv</t>
+  </si>
+  <si>
+    <t>180921_10mg-kgAMPH-2.csv</t>
   </si>
 </sst>
 </file>
@@ -455,14 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U67" sqref="U67"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,7 +557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -621,7 +623,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -687,7 +689,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -753,7 +755,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -819,7 +821,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -885,7 +887,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -952,7 +954,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1289,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1620,7 +1622,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1689,7 +1691,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1758,7 +1760,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1826,7 +1828,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1894,7 +1896,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1963,7 +1965,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2031,7 +2033,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2099,7 +2101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2168,7 +2170,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2236,7 +2238,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2304,7 +2306,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2372,7 +2374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2441,7 +2443,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2510,7 +2512,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2578,7 +2580,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>A32</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2715,7 +2717,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A46" si="5">A33</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2785,7 +2787,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2855,7 +2857,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2925,7 +2927,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -2994,7 +2996,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3064,7 +3066,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3134,7 +3136,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3204,7 +3206,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3273,7 +3275,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3342,7 +3344,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3411,7 +3413,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3481,7 +3483,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3551,7 +3553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -3620,7 +3622,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3686,7 +3688,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>A47</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3757,7 +3759,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" ref="A49:A61" si="10">A48</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3828,7 +3830,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3898,7 +3900,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3968,7 +3970,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4038,7 +4040,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4108,7 +4110,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4178,7 +4180,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4248,7 +4250,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4318,7 +4320,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4388,7 +4390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4457,7 +4459,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4527,7 +4529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4597,7 +4599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5051,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O81" si="17">2.7*10^-6</f>
+        <f t="shared" ref="O67:O95" si="17">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="P67" t="b">
@@ -5685,14 +5687,1026 @@
         <v>110</v>
       </c>
     </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+      <c r="G77">
+        <v>2.4</v>
+      </c>
+      <c r="H77">
+        <v>4.8</v>
+      </c>
+      <c r="I77">
+        <v>2.1</v>
+      </c>
+      <c r="J77">
+        <v>30</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1000</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>7000</v>
+      </c>
+      <c r="R77">
+        <v>5</v>
+      </c>
+      <c r="S77" t="s">
+        <v>27</v>
+      </c>
+      <c r="T77">
+        <v>0.05</v>
+      </c>
+      <c r="U77">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78">
+        <f>B77+1</f>
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <f>C77+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78">
+        <v>2.4</v>
+      </c>
+      <c r="H78">
+        <v>4.8</v>
+      </c>
+      <c r="I78">
+        <v>2.1</v>
+      </c>
+      <c r="J78">
+        <v>30</v>
+      </c>
+      <c r="K78">
+        <v>50</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>1000</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>7000</v>
+      </c>
+      <c r="R78">
+        <v>5</v>
+      </c>
+      <c r="S78" t="s">
+        <v>27</v>
+      </c>
+      <c r="T78">
+        <v>0.05</v>
+      </c>
+      <c r="U78">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ref="B79:B95" si="18">B78+1</f>
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79:C95" si="19">C78+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>100</v>
+      </c>
+      <c r="G79">
+        <v>2.4</v>
+      </c>
+      <c r="H79">
+        <v>4.8</v>
+      </c>
+      <c r="I79">
+        <v>2.1</v>
+      </c>
+      <c r="J79">
+        <v>30</v>
+      </c>
+      <c r="K79">
+        <v>50</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1000</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>7000</v>
+      </c>
+      <c r="R79">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s">
+        <v>27</v>
+      </c>
+      <c r="T79">
+        <v>0.05</v>
+      </c>
+      <c r="U79">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="19"/>
+        <v>3700</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+      <c r="G80">
+        <v>2.4</v>
+      </c>
+      <c r="H80">
+        <v>4.8</v>
+      </c>
+      <c r="I80">
+        <v>2.1</v>
+      </c>
+      <c r="J80">
+        <v>30</v>
+      </c>
+      <c r="K80">
+        <v>50</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>1000</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>7000</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80" t="s">
+        <v>27</v>
+      </c>
+      <c r="T80">
+        <v>0.05</v>
+      </c>
+      <c r="U80">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="19"/>
+        <v>4900</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81">
+        <v>2.4</v>
+      </c>
+      <c r="H81">
+        <v>4.8</v>
+      </c>
+      <c r="I81">
+        <v>2.1</v>
+      </c>
+      <c r="J81">
+        <v>30</v>
+      </c>
+      <c r="K81">
+        <v>50</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1000</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>7000</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+      <c r="S81" t="s">
+        <v>27</v>
+      </c>
+      <c r="T81">
+        <v>0.05</v>
+      </c>
+      <c r="U81">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="19"/>
+        <v>6100</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>100</v>
+      </c>
+      <c r="G82">
+        <v>2.4</v>
+      </c>
+      <c r="H82">
+        <v>4.8</v>
+      </c>
+      <c r="I82">
+        <v>2.1</v>
+      </c>
+      <c r="J82">
+        <v>30</v>
+      </c>
+      <c r="K82">
+        <v>50</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>1000</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>7000</v>
+      </c>
+      <c r="R82">
+        <v>5</v>
+      </c>
+      <c r="S82" t="s">
+        <v>27</v>
+      </c>
+      <c r="T82">
+        <v>0.05</v>
+      </c>
+      <c r="U82">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="19"/>
+        <v>7300</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+      <c r="G83">
+        <v>2.4</v>
+      </c>
+      <c r="H83">
+        <v>4.8</v>
+      </c>
+      <c r="I83">
+        <v>2.1</v>
+      </c>
+      <c r="J83">
+        <v>30</v>
+      </c>
+      <c r="K83">
+        <v>50</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>1000</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>7000</v>
+      </c>
+      <c r="R83">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s">
+        <v>27</v>
+      </c>
+      <c r="T83">
+        <v>0.05</v>
+      </c>
+      <c r="U83">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="19"/>
+        <v>8500</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>100</v>
+      </c>
+      <c r="G84">
+        <v>2.4</v>
+      </c>
+      <c r="H84">
+        <v>4.8</v>
+      </c>
+      <c r="I84">
+        <v>2.1</v>
+      </c>
+      <c r="J84">
+        <v>30</v>
+      </c>
+      <c r="K84">
+        <v>50</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1000</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>7000</v>
+      </c>
+      <c r="R84">
+        <v>5</v>
+      </c>
+      <c r="S84" t="s">
+        <v>27</v>
+      </c>
+      <c r="T84">
+        <v>0.05</v>
+      </c>
+      <c r="U84">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="19"/>
+        <v>9700</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>100</v>
+      </c>
+      <c r="G85">
+        <v>2.4</v>
+      </c>
+      <c r="H85">
+        <v>4.8</v>
+      </c>
+      <c r="I85">
+        <v>2.1</v>
+      </c>
+      <c r="J85">
+        <v>30</v>
+      </c>
+      <c r="K85">
+        <v>50</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1000</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>7000</v>
+      </c>
+      <c r="R85">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s">
+        <v>27</v>
+      </c>
+      <c r="T85">
+        <v>0.05</v>
+      </c>
+      <c r="U85">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="19"/>
+        <v>10900</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+      <c r="G86">
+        <v>2.4</v>
+      </c>
+      <c r="H86">
+        <v>4.8</v>
+      </c>
+      <c r="I86">
+        <v>2.1</v>
+      </c>
+      <c r="J86">
+        <v>30</v>
+      </c>
+      <c r="K86">
+        <v>50</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>1000</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>7000</v>
+      </c>
+      <c r="R86">
+        <v>5</v>
+      </c>
+      <c r="S86" t="s">
+        <v>27</v>
+      </c>
+      <c r="T86">
+        <v>0.05</v>
+      </c>
+      <c r="U86">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="19"/>
+        <v>12100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
+      </c>
+      <c r="G87">
+        <v>2.4</v>
+      </c>
+      <c r="H87">
+        <v>4.8</v>
+      </c>
+      <c r="I87">
+        <v>2.1</v>
+      </c>
+      <c r="J87">
+        <v>30</v>
+      </c>
+      <c r="K87">
+        <v>50</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>1000</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>7000</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="S87" t="s">
+        <v>27</v>
+      </c>
+      <c r="T87">
+        <v>0.05</v>
+      </c>
+      <c r="U87">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="19"/>
+        <v>13300</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
+      </c>
+      <c r="G88">
+        <v>2.4</v>
+      </c>
+      <c r="H88">
+        <v>4.8</v>
+      </c>
+      <c r="I88">
+        <v>2.1</v>
+      </c>
+      <c r="J88">
+        <v>30</v>
+      </c>
+      <c r="K88">
+        <v>50</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>1000</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>7000</v>
+      </c>
+      <c r="R88">
+        <v>5</v>
+      </c>
+      <c r="S88" t="s">
+        <v>27</v>
+      </c>
+      <c r="T88">
+        <v>0.05</v>
+      </c>
+      <c r="U88">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="19"/>
+        <v>14500</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+      <c r="G89">
+        <v>2.4</v>
+      </c>
+      <c r="H89">
+        <v>4.8</v>
+      </c>
+      <c r="I89">
+        <v>2.1</v>
+      </c>
+      <c r="J89">
+        <v>30</v>
+      </c>
+      <c r="K89">
+        <v>50</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>1000</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>7000</v>
+      </c>
+      <c r="R89">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s">
+        <v>27</v>
+      </c>
+      <c r="T89">
+        <v>0.05</v>
+      </c>
+      <c r="U89">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="19"/>
+        <v>15700</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="G90">
+        <v>2.4</v>
+      </c>
+      <c r="H90">
+        <v>4.8</v>
+      </c>
+      <c r="I90">
+        <v>2.1</v>
+      </c>
+      <c r="J90">
+        <v>30</v>
+      </c>
+      <c r="K90">
+        <v>50</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>1000</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>7000</v>
+      </c>
+      <c r="R90">
+        <v>5</v>
+      </c>
+      <c r="S90" t="s">
+        <v>27</v>
+      </c>
+      <c r="T90">
+        <v>0.05</v>
+      </c>
+      <c r="U90">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="19"/>
+        <v>16900</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
+      </c>
+      <c r="G91">
+        <v>2.4</v>
+      </c>
+      <c r="H91">
+        <v>4.8</v>
+      </c>
+      <c r="I91">
+        <v>2.1</v>
+      </c>
+      <c r="J91">
+        <v>30</v>
+      </c>
+      <c r="K91">
+        <v>50</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1000</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="17"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>7000</v>
+      </c>
+      <c r="R91">
+        <v>5</v>
+      </c>
+      <c r="S91" t="s">
+        <v>27</v>
+      </c>
+      <c r="T91">
+        <v>0.05</v>
+      </c>
+      <c r="U91">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A76">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="180921_10mg-kgAMPH-1.csv"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="2820" windowWidth="18560" windowHeight="13040" tabRatio="500"/>
+    <workbookView xWindow="9780" yWindow="2720" windowWidth="18560" windowHeight="13040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$A$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$B$106</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="35">
   <si>
     <t>filename</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t>180921_10mg-kgAMPH-2.csv</t>
+  </si>
+  <si>
+    <t>190205_a-synKO_2_AMPH_1.csv</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Drop produces false baseline.</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>190205_a-synKO_2_AMPH_2.csv</t>
   </si>
 </sst>
 </file>
@@ -458,18 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -492,7 +507,7 @@
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +571,11 @@
       <c r="U1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -623,7 +641,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -689,7 +707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -755,7 +773,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -821,7 +839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -887,7 +905,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -954,7 +972,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1240,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1289,7 +1307,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1423,7 +1441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1489,7 +1507,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1588,7 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -1639,7 +1657,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -1708,7 +1726,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -3636,7 +3654,7 @@
         <v>9</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>100</v>
@@ -3706,8 +3724,7 @@
         <v>ko</v>
       </c>
       <c r="E48">
-        <f>E47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>100</v>
@@ -3777,8 +3794,7 @@
         <v>ko</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49" si="14">E48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>100</v>
@@ -4808,11 +4824,11 @@
         <v>28</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:B81" si="15">B63+1</f>
+        <f t="shared" ref="B64:B81" si="14">B63+1</f>
         <v>3</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C76" si="16">C63+1200</f>
+        <f t="shared" ref="C64:C76" si="15">C63+1200</f>
         <v>2500</v>
       </c>
       <c r="D64" t="s">
@@ -4876,11 +4892,11 @@
         <v>28</v>
       </c>
       <c r="B65">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C65">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="16"/>
         <v>3700</v>
       </c>
       <c r="D65" t="s">
@@ -4944,11 +4960,11 @@
         <v>28</v>
       </c>
       <c r="B66">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C66">
         <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="16"/>
         <v>4900</v>
       </c>
       <c r="D66" t="s">
@@ -5012,11 +5028,11 @@
         <v>28</v>
       </c>
       <c r="B67">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C67">
         <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="16"/>
         <v>6100</v>
       </c>
       <c r="D67" t="s">
@@ -5053,7 +5069,7 @@
         <v>4</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O95" si="17">2.7*10^-6</f>
+        <f t="shared" ref="O67:O128" si="16">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="P67" t="b">
@@ -5080,11 +5096,11 @@
         <v>28</v>
       </c>
       <c r="B68">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C68">
         <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="16"/>
         <v>7300</v>
       </c>
       <c r="D68" t="s">
@@ -5121,7 +5137,7 @@
         <v>4</v>
       </c>
       <c r="O68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P68" t="b">
@@ -5148,11 +5164,11 @@
         <v>28</v>
       </c>
       <c r="B69">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="16"/>
         <v>8500</v>
       </c>
       <c r="D69" t="s">
@@ -5189,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="O69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P69" t="b">
@@ -5216,11 +5232,11 @@
         <v>28</v>
       </c>
       <c r="B70">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="16"/>
         <v>9700</v>
       </c>
       <c r="D70" t="s">
@@ -5257,7 +5273,7 @@
         <v>4</v>
       </c>
       <c r="O70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P70" t="b">
@@ -5284,11 +5300,11 @@
         <v>28</v>
       </c>
       <c r="B71">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="16"/>
         <v>10900</v>
       </c>
       <c r="D71" t="s">
@@ -5325,7 +5341,7 @@
         <v>4</v>
       </c>
       <c r="O71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P71" t="b">
@@ -5352,11 +5368,11 @@
         <v>28</v>
       </c>
       <c r="B72">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="15"/>
-        <v>11</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="16"/>
         <v>12100</v>
       </c>
       <c r="D72" t="s">
@@ -5393,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="O72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P72" t="b">
@@ -5420,11 +5436,11 @@
         <v>28</v>
       </c>
       <c r="B73">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="16"/>
         <v>13300</v>
       </c>
       <c r="D73" t="s">
@@ -5461,7 +5477,7 @@
         <v>4</v>
       </c>
       <c r="O73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P73" t="b">
@@ -5488,11 +5504,11 @@
         <v>28</v>
       </c>
       <c r="B74">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="16"/>
         <v>14500</v>
       </c>
       <c r="D74" t="s">
@@ -5529,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="O74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P74" t="b">
@@ -5556,11 +5572,11 @@
         <v>28</v>
       </c>
       <c r="B75">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="15"/>
-        <v>14</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="16"/>
         <v>15700</v>
       </c>
       <c r="D75" t="s">
@@ -5597,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="O75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P75" t="b">
@@ -5624,11 +5640,11 @@
         <v>28</v>
       </c>
       <c r="B76">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="16"/>
         <v>16900</v>
       </c>
       <c r="D76" t="s">
@@ -5665,7 +5681,7 @@
         <v>4</v>
       </c>
       <c r="O76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P76" t="b">
@@ -5731,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="O77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P77" t="b">
@@ -5799,7 +5815,7 @@
         <v>4</v>
       </c>
       <c r="O78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P78" t="b">
@@ -5826,11 +5842,11 @@
         <v>29</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:B95" si="18">B78+1</f>
+        <f t="shared" ref="B79:B95" si="17">B78+1</f>
         <v>3</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:C95" si="19">C78+1200</f>
+        <f t="shared" ref="C79:C95" si="18">C78+1200</f>
         <v>2500</v>
       </c>
       <c r="D79" t="s">
@@ -5867,7 +5883,7 @@
         <v>4</v>
       </c>
       <c r="O79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P79" t="b">
@@ -5894,11 +5910,11 @@
         <v>29</v>
       </c>
       <c r="B80">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="19"/>
         <v>3700</v>
       </c>
       <c r="D80" t="s">
@@ -5935,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="O80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P80" t="b">
@@ -5957,16 +5973,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>29</v>
       </c>
       <c r="B81">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="C81">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="19"/>
         <v>4900</v>
       </c>
       <c r="D81" t="s">
@@ -6003,7 +6019,7 @@
         <v>4</v>
       </c>
       <c r="O81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P81" t="b">
@@ -6025,16 +6041,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>29</v>
       </c>
       <c r="B82">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="C82">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="19"/>
         <v>6100</v>
       </c>
       <c r="D82" t="s">
@@ -6071,7 +6087,7 @@
         <v>4</v>
       </c>
       <c r="O82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P82" t="b">
@@ -6093,16 +6109,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>29</v>
       </c>
       <c r="B83">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="C83">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="19"/>
         <v>7300</v>
       </c>
       <c r="D83" t="s">
@@ -6139,7 +6155,7 @@
         <v>4</v>
       </c>
       <c r="O83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P83" t="b">
@@ -6161,16 +6177,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>29</v>
       </c>
       <c r="B84">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="C84">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="19"/>
         <v>8500</v>
       </c>
       <c r="D84" t="s">
@@ -6207,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="O84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P84" t="b">
@@ -6229,16 +6245,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>29</v>
       </c>
       <c r="B85">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="C85">
         <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="19"/>
         <v>9700</v>
       </c>
       <c r="D85" t="s">
@@ -6275,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="O85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P85" t="b">
@@ -6297,16 +6313,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>29</v>
       </c>
       <c r="B86">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="C86">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="19"/>
         <v>10900</v>
       </c>
       <c r="D86" t="s">
@@ -6343,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="O86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P86" t="b">
@@ -6365,16 +6381,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>29</v>
       </c>
       <c r="B87">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="C87">
         <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="19"/>
         <v>12100</v>
       </c>
       <c r="D87" t="s">
@@ -6411,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="O87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P87" t="b">
@@ -6433,16 +6449,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>29</v>
       </c>
       <c r="B88">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="C88">
         <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="19"/>
         <v>13300</v>
       </c>
       <c r="D88" t="s">
@@ -6479,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="O88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P88" t="b">
@@ -6501,16 +6517,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
       <c r="B89">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="C89">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="19"/>
         <v>14500</v>
       </c>
       <c r="D89" t="s">
@@ -6547,7 +6563,7 @@
         <v>4</v>
       </c>
       <c r="O89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P89" t="b">
@@ -6569,16 +6585,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
       <c r="B90">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="C90">
         <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="19"/>
         <v>15700</v>
       </c>
       <c r="D90" t="s">
@@ -6615,7 +6631,7 @@
         <v>4</v>
       </c>
       <c r="O90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P90" t="b">
@@ -6637,16 +6653,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>29</v>
       </c>
       <c r="B91">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="C91">
         <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="19"/>
         <v>16900</v>
       </c>
       <c r="D91" t="s">
@@ -6683,7 +6699,7 @@
         <v>4</v>
       </c>
       <c r="O91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.7E-6</v>
       </c>
       <c r="P91" t="b">
@@ -6705,8 +6721,2046 @@
         <v>110</v>
       </c>
     </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
+      </c>
+      <c r="G92">
+        <v>2.4</v>
+      </c>
+      <c r="H92">
+        <v>4.8</v>
+      </c>
+      <c r="I92">
+        <v>2.1</v>
+      </c>
+      <c r="J92">
+        <v>30</v>
+      </c>
+      <c r="K92">
+        <v>50</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>1000</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>10400</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
+      </c>
+      <c r="S92" t="s">
+        <v>27</v>
+      </c>
+      <c r="T92">
+        <v>0.05</v>
+      </c>
+      <c r="U92">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <f>B92+1</f>
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <f>C92+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+      <c r="G93">
+        <v>2.4</v>
+      </c>
+      <c r="H93">
+        <v>4.8</v>
+      </c>
+      <c r="I93">
+        <v>2.1</v>
+      </c>
+      <c r="J93">
+        <v>30</v>
+      </c>
+      <c r="K93">
+        <v>50</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>1000</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>10400</v>
+      </c>
+      <c r="R93">
+        <v>5</v>
+      </c>
+      <c r="S93" t="s">
+        <v>33</v>
+      </c>
+      <c r="T93">
+        <v>0.05</v>
+      </c>
+      <c r="U93">
+        <v>110</v>
+      </c>
+      <c r="V93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ref="B94:B111" si="19">B93+1</f>
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:C111" si="20">C93+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+      <c r="G94">
+        <v>2.4</v>
+      </c>
+      <c r="H94">
+        <v>4.8</v>
+      </c>
+      <c r="I94">
+        <v>2.1</v>
+      </c>
+      <c r="J94">
+        <v>30</v>
+      </c>
+      <c r="K94">
+        <v>50</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>1000</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>10400</v>
+      </c>
+      <c r="R94">
+        <v>5</v>
+      </c>
+      <c r="S94" t="s">
+        <v>27</v>
+      </c>
+      <c r="T94">
+        <v>0.05</v>
+      </c>
+      <c r="U94">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="20"/>
+        <v>3700</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
+      </c>
+      <c r="G95">
+        <v>2.4</v>
+      </c>
+      <c r="H95">
+        <v>4.8</v>
+      </c>
+      <c r="I95">
+        <v>2.1</v>
+      </c>
+      <c r="J95">
+        <v>30</v>
+      </c>
+      <c r="K95">
+        <v>50</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1000</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>10400</v>
+      </c>
+      <c r="R95">
+        <v>5</v>
+      </c>
+      <c r="S95" t="s">
+        <v>27</v>
+      </c>
+      <c r="T95">
+        <v>0.05</v>
+      </c>
+      <c r="U95">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="20"/>
+        <v>4900</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>100</v>
+      </c>
+      <c r="G96">
+        <v>2.4</v>
+      </c>
+      <c r="H96">
+        <v>4.8</v>
+      </c>
+      <c r="I96">
+        <v>2.1</v>
+      </c>
+      <c r="J96">
+        <v>30</v>
+      </c>
+      <c r="K96">
+        <v>50</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1000</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>10400</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="S96" t="s">
+        <v>27</v>
+      </c>
+      <c r="T96">
+        <v>0.05</v>
+      </c>
+      <c r="U96">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="20"/>
+        <v>6100</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
+      <c r="G97">
+        <v>2.4</v>
+      </c>
+      <c r="H97">
+        <v>4.8</v>
+      </c>
+      <c r="I97">
+        <v>2.1</v>
+      </c>
+      <c r="J97">
+        <v>30</v>
+      </c>
+      <c r="K97">
+        <v>50</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>1000</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>10400</v>
+      </c>
+      <c r="R97">
+        <v>5</v>
+      </c>
+      <c r="S97" t="s">
+        <v>27</v>
+      </c>
+      <c r="T97">
+        <v>0.05</v>
+      </c>
+      <c r="U97">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="20"/>
+        <v>7300</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
+      <c r="G98">
+        <v>2.4</v>
+      </c>
+      <c r="H98">
+        <v>4.8</v>
+      </c>
+      <c r="I98">
+        <v>2.1</v>
+      </c>
+      <c r="J98">
+        <v>30</v>
+      </c>
+      <c r="K98">
+        <v>50</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>1000</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>10400</v>
+      </c>
+      <c r="R98">
+        <v>5</v>
+      </c>
+      <c r="S98" t="s">
+        <v>27</v>
+      </c>
+      <c r="T98">
+        <v>0.05</v>
+      </c>
+      <c r="U98">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="20"/>
+        <v>8500</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>100</v>
+      </c>
+      <c r="G99">
+        <v>2.4</v>
+      </c>
+      <c r="H99">
+        <v>4.8</v>
+      </c>
+      <c r="I99">
+        <v>2.1</v>
+      </c>
+      <c r="J99">
+        <v>30</v>
+      </c>
+      <c r="K99">
+        <v>50</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>1000</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>10400</v>
+      </c>
+      <c r="R99">
+        <v>5</v>
+      </c>
+      <c r="S99" t="s">
+        <v>27</v>
+      </c>
+      <c r="T99">
+        <v>0.05</v>
+      </c>
+      <c r="U99">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="20"/>
+        <v>9700</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
+      </c>
+      <c r="G100">
+        <v>2.4</v>
+      </c>
+      <c r="H100">
+        <v>4.8</v>
+      </c>
+      <c r="I100">
+        <v>2.1</v>
+      </c>
+      <c r="J100">
+        <v>30</v>
+      </c>
+      <c r="K100">
+        <v>50</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1000</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P100" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>10400</v>
+      </c>
+      <c r="R100">
+        <v>5</v>
+      </c>
+      <c r="S100" t="s">
+        <v>27</v>
+      </c>
+      <c r="T100">
+        <v>0.05</v>
+      </c>
+      <c r="U100">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="20"/>
+        <v>10900</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <v>2.4</v>
+      </c>
+      <c r="H101">
+        <v>4.8</v>
+      </c>
+      <c r="I101">
+        <v>2.1</v>
+      </c>
+      <c r="J101">
+        <v>30</v>
+      </c>
+      <c r="K101">
+        <v>50</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>1000</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P101" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>10400</v>
+      </c>
+      <c r="R101">
+        <v>5</v>
+      </c>
+      <c r="S101" t="s">
+        <v>27</v>
+      </c>
+      <c r="T101">
+        <v>0.05</v>
+      </c>
+      <c r="U101">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="20"/>
+        <v>12100</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+      <c r="G102">
+        <v>2.4</v>
+      </c>
+      <c r="H102">
+        <v>4.8</v>
+      </c>
+      <c r="I102">
+        <v>2.1</v>
+      </c>
+      <c r="J102">
+        <v>30</v>
+      </c>
+      <c r="K102">
+        <v>50</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1000</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P102" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>10400</v>
+      </c>
+      <c r="R102">
+        <v>5</v>
+      </c>
+      <c r="S102" t="s">
+        <v>27</v>
+      </c>
+      <c r="T102">
+        <v>0.05</v>
+      </c>
+      <c r="U102">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="20"/>
+        <v>13300</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>100</v>
+      </c>
+      <c r="G103">
+        <v>2.4</v>
+      </c>
+      <c r="H103">
+        <v>4.8</v>
+      </c>
+      <c r="I103">
+        <v>2.1</v>
+      </c>
+      <c r="J103">
+        <v>30</v>
+      </c>
+      <c r="K103">
+        <v>50</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>1000</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P103" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>10400</v>
+      </c>
+      <c r="R103">
+        <v>5</v>
+      </c>
+      <c r="S103" t="s">
+        <v>27</v>
+      </c>
+      <c r="T103">
+        <v>0.05</v>
+      </c>
+      <c r="U103">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="20"/>
+        <v>14500</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>100</v>
+      </c>
+      <c r="G104">
+        <v>2.4</v>
+      </c>
+      <c r="H104">
+        <v>4.8</v>
+      </c>
+      <c r="I104">
+        <v>2.1</v>
+      </c>
+      <c r="J104">
+        <v>30</v>
+      </c>
+      <c r="K104">
+        <v>50</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1000</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P104" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>10400</v>
+      </c>
+      <c r="R104">
+        <v>5</v>
+      </c>
+      <c r="S104" t="s">
+        <v>27</v>
+      </c>
+      <c r="T104">
+        <v>0.05</v>
+      </c>
+      <c r="U104">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="20"/>
+        <v>15700</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>100</v>
+      </c>
+      <c r="G105">
+        <v>2.4</v>
+      </c>
+      <c r="H105">
+        <v>4.8</v>
+      </c>
+      <c r="I105">
+        <v>2.1</v>
+      </c>
+      <c r="J105">
+        <v>30</v>
+      </c>
+      <c r="K105">
+        <v>50</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>1000</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P105" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>10400</v>
+      </c>
+      <c r="R105">
+        <v>5</v>
+      </c>
+      <c r="S105" t="s">
+        <v>27</v>
+      </c>
+      <c r="T105">
+        <v>0.05</v>
+      </c>
+      <c r="U105">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="20"/>
+        <v>16900</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>100</v>
+      </c>
+      <c r="G106">
+        <v>2.4</v>
+      </c>
+      <c r="H106">
+        <v>4.8</v>
+      </c>
+      <c r="I106">
+        <v>2.1</v>
+      </c>
+      <c r="J106">
+        <v>30</v>
+      </c>
+      <c r="K106">
+        <v>50</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>1000</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P106" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>10400</v>
+      </c>
+      <c r="R106">
+        <v>5</v>
+      </c>
+      <c r="S106" t="s">
+        <v>27</v>
+      </c>
+      <c r="T106">
+        <v>0.05</v>
+      </c>
+      <c r="U106">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>100</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>100</v>
+      </c>
+      <c r="G107">
+        <v>2.4</v>
+      </c>
+      <c r="H107">
+        <v>4.8</v>
+      </c>
+      <c r="I107">
+        <v>2.1</v>
+      </c>
+      <c r="J107">
+        <v>30</v>
+      </c>
+      <c r="K107">
+        <v>50</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>1000</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P107" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>10400</v>
+      </c>
+      <c r="R107">
+        <v>5</v>
+      </c>
+      <c r="S107" t="s">
+        <v>27</v>
+      </c>
+      <c r="T107">
+        <v>0.05</v>
+      </c>
+      <c r="U107">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108">
+        <f>B107+1</f>
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <f>C107+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>100</v>
+      </c>
+      <c r="G108">
+        <v>2.4</v>
+      </c>
+      <c r="H108">
+        <v>4.8</v>
+      </c>
+      <c r="I108">
+        <v>2.1</v>
+      </c>
+      <c r="J108">
+        <v>30</v>
+      </c>
+      <c r="K108">
+        <v>50</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1000</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P108" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>10400</v>
+      </c>
+      <c r="R108">
+        <v>5</v>
+      </c>
+      <c r="S108" t="s">
+        <v>27</v>
+      </c>
+      <c r="T108">
+        <v>0.05</v>
+      </c>
+      <c r="U108">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ref="B109:B128" si="21">B108+1</f>
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ref="C109:C128" si="22">C108+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
+      <c r="G109">
+        <v>2.4</v>
+      </c>
+      <c r="H109">
+        <v>4.8</v>
+      </c>
+      <c r="I109">
+        <v>2.1</v>
+      </c>
+      <c r="J109">
+        <v>30</v>
+      </c>
+      <c r="K109">
+        <v>50</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>1000</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P109" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>10400</v>
+      </c>
+      <c r="R109">
+        <v>5</v>
+      </c>
+      <c r="S109" t="s">
+        <v>27</v>
+      </c>
+      <c r="T109">
+        <v>0.05</v>
+      </c>
+      <c r="U109">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="22"/>
+        <v>3700</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>100</v>
+      </c>
+      <c r="G110">
+        <v>2.4</v>
+      </c>
+      <c r="H110">
+        <v>4.8</v>
+      </c>
+      <c r="I110">
+        <v>2.1</v>
+      </c>
+      <c r="J110">
+        <v>30</v>
+      </c>
+      <c r="K110">
+        <v>50</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>1000</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P110" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>10400</v>
+      </c>
+      <c r="R110">
+        <v>5</v>
+      </c>
+      <c r="S110" t="s">
+        <v>27</v>
+      </c>
+      <c r="T110">
+        <v>0.05</v>
+      </c>
+      <c r="U110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="22"/>
+        <v>4900</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
+      <c r="G111">
+        <v>2.4</v>
+      </c>
+      <c r="H111">
+        <v>4.8</v>
+      </c>
+      <c r="I111">
+        <v>2.1</v>
+      </c>
+      <c r="J111">
+        <v>30</v>
+      </c>
+      <c r="K111">
+        <v>50</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1000</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P111" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>10400</v>
+      </c>
+      <c r="R111">
+        <v>5</v>
+      </c>
+      <c r="S111" t="s">
+        <v>27</v>
+      </c>
+      <c r="T111">
+        <v>0.05</v>
+      </c>
+      <c r="U111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="22"/>
+        <v>6100</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+      <c r="G112">
+        <v>2.4</v>
+      </c>
+      <c r="H112">
+        <v>4.8</v>
+      </c>
+      <c r="I112">
+        <v>2.1</v>
+      </c>
+      <c r="J112">
+        <v>30</v>
+      </c>
+      <c r="K112">
+        <v>50</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>1000</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>10400</v>
+      </c>
+      <c r="R112">
+        <v>5</v>
+      </c>
+      <c r="S112" t="s">
+        <v>27</v>
+      </c>
+      <c r="T112">
+        <v>0.05</v>
+      </c>
+      <c r="U112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="22"/>
+        <v>7300</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>100</v>
+      </c>
+      <c r="G113">
+        <v>2.4</v>
+      </c>
+      <c r="H113">
+        <v>4.8</v>
+      </c>
+      <c r="I113">
+        <v>2.1</v>
+      </c>
+      <c r="J113">
+        <v>30</v>
+      </c>
+      <c r="K113">
+        <v>50</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>1000</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P113" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>10400</v>
+      </c>
+      <c r="R113">
+        <v>5</v>
+      </c>
+      <c r="S113" t="s">
+        <v>27</v>
+      </c>
+      <c r="T113">
+        <v>0.05</v>
+      </c>
+      <c r="U113">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="22"/>
+        <v>8500</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>100</v>
+      </c>
+      <c r="G114">
+        <v>2.4</v>
+      </c>
+      <c r="H114">
+        <v>4.8</v>
+      </c>
+      <c r="I114">
+        <v>2.1</v>
+      </c>
+      <c r="J114">
+        <v>30</v>
+      </c>
+      <c r="K114">
+        <v>50</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>1000</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>10400</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114" t="s">
+        <v>27</v>
+      </c>
+      <c r="T114">
+        <v>0.05</v>
+      </c>
+      <c r="U114">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="22"/>
+        <v>9700</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>100</v>
+      </c>
+      <c r="G115">
+        <v>2.4</v>
+      </c>
+      <c r="H115">
+        <v>4.8</v>
+      </c>
+      <c r="I115">
+        <v>2.1</v>
+      </c>
+      <c r="J115">
+        <v>30</v>
+      </c>
+      <c r="K115">
+        <v>50</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1000</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>10400</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115" t="s">
+        <v>27</v>
+      </c>
+      <c r="T115">
+        <v>0.05</v>
+      </c>
+      <c r="U115">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="22"/>
+        <v>10900</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>2.4</v>
+      </c>
+      <c r="H116">
+        <v>4.8</v>
+      </c>
+      <c r="I116">
+        <v>2.1</v>
+      </c>
+      <c r="J116">
+        <v>30</v>
+      </c>
+      <c r="K116">
+        <v>50</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1000</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>10400</v>
+      </c>
+      <c r="R116">
+        <v>5</v>
+      </c>
+      <c r="S116" t="s">
+        <v>27</v>
+      </c>
+      <c r="T116">
+        <v>0.05</v>
+      </c>
+      <c r="U116">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="22"/>
+        <v>12100</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>100</v>
+      </c>
+      <c r="G117">
+        <v>2.4</v>
+      </c>
+      <c r="H117">
+        <v>4.8</v>
+      </c>
+      <c r="I117">
+        <v>2.1</v>
+      </c>
+      <c r="J117">
+        <v>30</v>
+      </c>
+      <c r="K117">
+        <v>50</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1000</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>10400</v>
+      </c>
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117" t="s">
+        <v>27</v>
+      </c>
+      <c r="T117">
+        <v>0.05</v>
+      </c>
+      <c r="U117">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="22"/>
+        <v>13300</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>100</v>
+      </c>
+      <c r="G118">
+        <v>2.4</v>
+      </c>
+      <c r="H118">
+        <v>4.8</v>
+      </c>
+      <c r="I118">
+        <v>2.1</v>
+      </c>
+      <c r="J118">
+        <v>30</v>
+      </c>
+      <c r="K118">
+        <v>50</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1000</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>10400</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118" t="s">
+        <v>27</v>
+      </c>
+      <c r="T118">
+        <v>0.05</v>
+      </c>
+      <c r="U118">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="22"/>
+        <v>14500</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <v>2.4</v>
+      </c>
+      <c r="H119">
+        <v>4.8</v>
+      </c>
+      <c r="I119">
+        <v>2.1</v>
+      </c>
+      <c r="J119">
+        <v>30</v>
+      </c>
+      <c r="K119">
+        <v>50</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1000</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P119" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>10400</v>
+      </c>
+      <c r="R119">
+        <v>5</v>
+      </c>
+      <c r="S119" t="s">
+        <v>27</v>
+      </c>
+      <c r="T119">
+        <v>0.05</v>
+      </c>
+      <c r="U119">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="22"/>
+        <v>15700</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>100</v>
+      </c>
+      <c r="G120">
+        <v>2.4</v>
+      </c>
+      <c r="H120">
+        <v>4.8</v>
+      </c>
+      <c r="I120">
+        <v>2.1</v>
+      </c>
+      <c r="J120">
+        <v>30</v>
+      </c>
+      <c r="K120">
+        <v>50</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>1000</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P120" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>10400</v>
+      </c>
+      <c r="R120">
+        <v>5</v>
+      </c>
+      <c r="S120" t="s">
+        <v>27</v>
+      </c>
+      <c r="T120">
+        <v>0.05</v>
+      </c>
+      <c r="U120">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="22"/>
+        <v>16900</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>100</v>
+      </c>
+      <c r="G121">
+        <v>2.4</v>
+      </c>
+      <c r="H121">
+        <v>4.8</v>
+      </c>
+      <c r="I121">
+        <v>2.1</v>
+      </c>
+      <c r="J121">
+        <v>30</v>
+      </c>
+      <c r="K121">
+        <v>50</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>1000</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>10400</v>
+      </c>
+      <c r="R121">
+        <v>5</v>
+      </c>
+      <c r="S121" t="s">
+        <v>27</v>
+      </c>
+      <c r="T121">
+        <v>0.05</v>
+      </c>
+      <c r="U121">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="38">
   <si>
     <t>filename</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>190205_a-synKO_2_AMPH_2.csv</t>
+  </si>
+  <si>
+    <t>190409_10mg-kg AMPH_1.csv</t>
+  </si>
+  <si>
+    <t>190409_10mg-kg AMPH_2.csv</t>
+  </si>
+  <si>
+    <t>190409_10mg-kg AMPH_3.csv</t>
   </si>
 </sst>
 </file>
@@ -473,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B110" sqref="B110"/>
+      <selection pane="bottomRight" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4824,7 +4833,7 @@
         <v>28</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:B81" si="14">B63+1</f>
+        <f t="shared" ref="B64:B76" si="14">B63+1</f>
         <v>3</v>
       </c>
       <c r="C64">
@@ -5069,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O128" si="16">2.7*10^-6</f>
+        <f t="shared" ref="O67:O144" si="16">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="P67" t="b">
@@ -5842,11 +5851,11 @@
         <v>29</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:B95" si="17">B78+1</f>
+        <f t="shared" ref="B79:B91" si="17">B78+1</f>
         <v>3</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:C95" si="18">C78+1200</f>
+        <f t="shared" ref="C79:C91" si="18">C78+1200</f>
         <v>2500</v>
       </c>
       <c r="D79" t="s">
@@ -6863,11 +6872,11 @@
         <v>30</v>
       </c>
       <c r="B94">
-        <f t="shared" ref="B94:B111" si="19">B93+1</f>
+        <f t="shared" ref="B94:B106" si="19">B93+1</f>
         <v>3</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:C111" si="20">C93+1200</f>
+        <f t="shared" ref="C94:C106" si="20">C93+1200</f>
         <v>2500</v>
       </c>
       <c r="D94" t="s">
@@ -7881,11 +7890,11 @@
         <v>34</v>
       </c>
       <c r="B109">
-        <f t="shared" ref="B109:B128" si="21">B108+1</f>
+        <f t="shared" ref="B109:B121" si="21">B108+1</f>
         <v>3</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:C128" si="22">C108+1200</f>
+        <f t="shared" ref="C109:C121" si="22">C108+1200</f>
         <v>2500</v>
       </c>
       <c r="D109" t="s">
@@ -8757,6 +8766,1768 @@
         <v>0.05</v>
       </c>
       <c r="U121">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>35</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>100</v>
+      </c>
+      <c r="G122">
+        <v>2.4</v>
+      </c>
+      <c r="H122">
+        <v>4.8</v>
+      </c>
+      <c r="I122">
+        <v>2.1</v>
+      </c>
+      <c r="J122">
+        <v>30</v>
+      </c>
+      <c r="K122">
+        <v>50</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1000</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>10900</v>
+      </c>
+      <c r="R122">
+        <v>5</v>
+      </c>
+      <c r="S122" t="s">
+        <v>27</v>
+      </c>
+      <c r="T122">
+        <v>0.05</v>
+      </c>
+      <c r="U122">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123">
+        <f>B122+1</f>
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <f>C122+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>100</v>
+      </c>
+      <c r="G123">
+        <v>2.4</v>
+      </c>
+      <c r="H123">
+        <v>4.8</v>
+      </c>
+      <c r="I123">
+        <v>2.1</v>
+      </c>
+      <c r="J123">
+        <v>30</v>
+      </c>
+      <c r="K123">
+        <v>50</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1000</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P123" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>10900</v>
+      </c>
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="S123" t="s">
+        <v>27</v>
+      </c>
+      <c r="T123">
+        <v>0.05</v>
+      </c>
+      <c r="U123">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ref="B124:B131" si="23">B123+1</f>
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ref="C124:C131" si="24">C123+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>100</v>
+      </c>
+      <c r="G124">
+        <v>2.4</v>
+      </c>
+      <c r="H124">
+        <v>4.8</v>
+      </c>
+      <c r="I124">
+        <v>2.1</v>
+      </c>
+      <c r="J124">
+        <v>30</v>
+      </c>
+      <c r="K124">
+        <v>50</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>1000</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P124" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>10900</v>
+      </c>
+      <c r="R124">
+        <v>5</v>
+      </c>
+      <c r="S124" t="s">
+        <v>27</v>
+      </c>
+      <c r="T124">
+        <v>0.05</v>
+      </c>
+      <c r="U124">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="24"/>
+        <v>3700</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>100</v>
+      </c>
+      <c r="G125">
+        <v>2.4</v>
+      </c>
+      <c r="H125">
+        <v>4.8</v>
+      </c>
+      <c r="I125">
+        <v>2.1</v>
+      </c>
+      <c r="J125">
+        <v>30</v>
+      </c>
+      <c r="K125">
+        <v>50</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>1000</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P125" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>10900</v>
+      </c>
+      <c r="R125">
+        <v>5</v>
+      </c>
+      <c r="S125" t="s">
+        <v>27</v>
+      </c>
+      <c r="T125">
+        <v>0.05</v>
+      </c>
+      <c r="U125">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="24"/>
+        <v>4900</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>100</v>
+      </c>
+      <c r="G126">
+        <v>2.4</v>
+      </c>
+      <c r="H126">
+        <v>4.8</v>
+      </c>
+      <c r="I126">
+        <v>2.1</v>
+      </c>
+      <c r="J126">
+        <v>30</v>
+      </c>
+      <c r="K126">
+        <v>50</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1000</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P126" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <v>10900</v>
+      </c>
+      <c r="R126">
+        <v>5</v>
+      </c>
+      <c r="S126" t="s">
+        <v>27</v>
+      </c>
+      <c r="T126">
+        <v>0.05</v>
+      </c>
+      <c r="U126">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>35</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="24"/>
+        <v>6100</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>100</v>
+      </c>
+      <c r="G127">
+        <v>2.4</v>
+      </c>
+      <c r="H127">
+        <v>4.8</v>
+      </c>
+      <c r="I127">
+        <v>2.1</v>
+      </c>
+      <c r="J127">
+        <v>30</v>
+      </c>
+      <c r="K127">
+        <v>50</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>1000</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P127" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>10900</v>
+      </c>
+      <c r="R127">
+        <v>5</v>
+      </c>
+      <c r="S127" t="s">
+        <v>27</v>
+      </c>
+      <c r="T127">
+        <v>0.05</v>
+      </c>
+      <c r="U127">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="24"/>
+        <v>7300</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>100</v>
+      </c>
+      <c r="G128">
+        <v>2.4</v>
+      </c>
+      <c r="H128">
+        <v>4.8</v>
+      </c>
+      <c r="I128">
+        <v>2.1</v>
+      </c>
+      <c r="J128">
+        <v>30</v>
+      </c>
+      <c r="K128">
+        <v>50</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1000</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P128" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>10900</v>
+      </c>
+      <c r="R128">
+        <v>5</v>
+      </c>
+      <c r="S128" t="s">
+        <v>27</v>
+      </c>
+      <c r="T128">
+        <v>0.05</v>
+      </c>
+      <c r="U128">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="24"/>
+        <v>8500</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>100</v>
+      </c>
+      <c r="G129">
+        <v>2.4</v>
+      </c>
+      <c r="H129">
+        <v>4.8</v>
+      </c>
+      <c r="I129">
+        <v>2.1</v>
+      </c>
+      <c r="J129">
+        <v>30</v>
+      </c>
+      <c r="K129">
+        <v>50</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1000</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P129" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>10900</v>
+      </c>
+      <c r="R129">
+        <v>5</v>
+      </c>
+      <c r="S129" t="s">
+        <v>27</v>
+      </c>
+      <c r="T129">
+        <v>0.05</v>
+      </c>
+      <c r="U129">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>35</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="24"/>
+        <v>9700</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>100</v>
+      </c>
+      <c r="G130">
+        <v>2.4</v>
+      </c>
+      <c r="H130">
+        <v>4.8</v>
+      </c>
+      <c r="I130">
+        <v>2.1</v>
+      </c>
+      <c r="J130">
+        <v>30</v>
+      </c>
+      <c r="K130">
+        <v>50</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1000</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P130" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>10900</v>
+      </c>
+      <c r="R130">
+        <v>5</v>
+      </c>
+      <c r="S130" t="s">
+        <v>27</v>
+      </c>
+      <c r="T130">
+        <v>0.05</v>
+      </c>
+      <c r="U130">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="24"/>
+        <v>10900</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>100</v>
+      </c>
+      <c r="G131">
+        <v>2.4</v>
+      </c>
+      <c r="H131">
+        <v>4.8</v>
+      </c>
+      <c r="I131">
+        <v>2.1</v>
+      </c>
+      <c r="J131">
+        <v>30</v>
+      </c>
+      <c r="K131">
+        <v>50</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1000</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P131" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>10900</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131" t="s">
+        <v>27</v>
+      </c>
+      <c r="T131">
+        <v>0.05</v>
+      </c>
+      <c r="U131">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+      <c r="G132">
+        <v>2.4</v>
+      </c>
+      <c r="H132">
+        <v>4.8</v>
+      </c>
+      <c r="I132">
+        <v>2.1</v>
+      </c>
+      <c r="J132">
+        <v>30</v>
+      </c>
+      <c r="K132">
+        <v>50</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1000</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P132" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>10900</v>
+      </c>
+      <c r="R132">
+        <v>5</v>
+      </c>
+      <c r="S132" t="s">
+        <v>27</v>
+      </c>
+      <c r="T132">
+        <v>0.05</v>
+      </c>
+      <c r="U132">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133">
+        <f>B132+1</f>
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <f>C132+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>100</v>
+      </c>
+      <c r="G133">
+        <v>2.4</v>
+      </c>
+      <c r="H133">
+        <v>4.8</v>
+      </c>
+      <c r="I133">
+        <v>2.1</v>
+      </c>
+      <c r="J133">
+        <v>30</v>
+      </c>
+      <c r="K133">
+        <v>50</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1000</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P133" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>10900</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133" t="s">
+        <v>27</v>
+      </c>
+      <c r="T133">
+        <v>0.05</v>
+      </c>
+      <c r="U133">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ref="B134:B141" si="25">B133+1</f>
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ref="C134:C141" si="26">C133+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="G134">
+        <v>2.4</v>
+      </c>
+      <c r="H134">
+        <v>4.8</v>
+      </c>
+      <c r="I134">
+        <v>2.1</v>
+      </c>
+      <c r="J134">
+        <v>30</v>
+      </c>
+      <c r="K134">
+        <v>50</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>1000</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P134" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>10900</v>
+      </c>
+      <c r="R134">
+        <v>5</v>
+      </c>
+      <c r="S134" t="s">
+        <v>27</v>
+      </c>
+      <c r="T134">
+        <v>0.05</v>
+      </c>
+      <c r="U134">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="26"/>
+        <v>3700</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>100</v>
+      </c>
+      <c r="G135">
+        <v>2.4</v>
+      </c>
+      <c r="H135">
+        <v>4.8</v>
+      </c>
+      <c r="I135">
+        <v>2.1</v>
+      </c>
+      <c r="J135">
+        <v>30</v>
+      </c>
+      <c r="K135">
+        <v>50</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>1000</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P135" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>10900</v>
+      </c>
+      <c r="R135">
+        <v>5</v>
+      </c>
+      <c r="S135" t="s">
+        <v>27</v>
+      </c>
+      <c r="T135">
+        <v>0.05</v>
+      </c>
+      <c r="U135">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="26"/>
+        <v>4900</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>100</v>
+      </c>
+      <c r="G136">
+        <v>2.4</v>
+      </c>
+      <c r="H136">
+        <v>4.8</v>
+      </c>
+      <c r="I136">
+        <v>2.1</v>
+      </c>
+      <c r="J136">
+        <v>30</v>
+      </c>
+      <c r="K136">
+        <v>50</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1000</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P136" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>10900</v>
+      </c>
+      <c r="R136">
+        <v>5</v>
+      </c>
+      <c r="S136" t="s">
+        <v>27</v>
+      </c>
+      <c r="T136">
+        <v>0.05</v>
+      </c>
+      <c r="U136">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="26"/>
+        <v>6100</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>100</v>
+      </c>
+      <c r="G137">
+        <v>2.4</v>
+      </c>
+      <c r="H137">
+        <v>4.8</v>
+      </c>
+      <c r="I137">
+        <v>2.1</v>
+      </c>
+      <c r="J137">
+        <v>30</v>
+      </c>
+      <c r="K137">
+        <v>50</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>1000</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P137" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>10900</v>
+      </c>
+      <c r="R137">
+        <v>5</v>
+      </c>
+      <c r="S137" t="s">
+        <v>27</v>
+      </c>
+      <c r="T137">
+        <v>0.05</v>
+      </c>
+      <c r="U137">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="26"/>
+        <v>7300</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>100</v>
+      </c>
+      <c r="G138">
+        <v>2.4</v>
+      </c>
+      <c r="H138">
+        <v>4.8</v>
+      </c>
+      <c r="I138">
+        <v>2.1</v>
+      </c>
+      <c r="J138">
+        <v>30</v>
+      </c>
+      <c r="K138">
+        <v>50</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>1000</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P138" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>10900</v>
+      </c>
+      <c r="R138">
+        <v>5</v>
+      </c>
+      <c r="S138" t="s">
+        <v>27</v>
+      </c>
+      <c r="T138">
+        <v>0.05</v>
+      </c>
+      <c r="U138">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="26"/>
+        <v>8500</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>100</v>
+      </c>
+      <c r="G139">
+        <v>2.4</v>
+      </c>
+      <c r="H139">
+        <v>4.8</v>
+      </c>
+      <c r="I139">
+        <v>2.1</v>
+      </c>
+      <c r="J139">
+        <v>30</v>
+      </c>
+      <c r="K139">
+        <v>50</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>1000</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P139" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>10900</v>
+      </c>
+      <c r="R139">
+        <v>5</v>
+      </c>
+      <c r="S139" t="s">
+        <v>27</v>
+      </c>
+      <c r="T139">
+        <v>0.05</v>
+      </c>
+      <c r="U139">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>36</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="26"/>
+        <v>9700</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>100</v>
+      </c>
+      <c r="G140">
+        <v>2.4</v>
+      </c>
+      <c r="H140">
+        <v>4.8</v>
+      </c>
+      <c r="I140">
+        <v>2.1</v>
+      </c>
+      <c r="J140">
+        <v>30</v>
+      </c>
+      <c r="K140">
+        <v>50</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>1000</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P140" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>10900</v>
+      </c>
+      <c r="R140">
+        <v>5</v>
+      </c>
+      <c r="S140" t="s">
+        <v>27</v>
+      </c>
+      <c r="T140">
+        <v>0.05</v>
+      </c>
+      <c r="U140">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>36</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="26"/>
+        <v>10900</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>100</v>
+      </c>
+      <c r="G141">
+        <v>2.4</v>
+      </c>
+      <c r="H141">
+        <v>4.8</v>
+      </c>
+      <c r="I141">
+        <v>2.1</v>
+      </c>
+      <c r="J141">
+        <v>30</v>
+      </c>
+      <c r="K141">
+        <v>50</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1000</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P141" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <v>10900</v>
+      </c>
+      <c r="R141">
+        <v>5</v>
+      </c>
+      <c r="S141" t="s">
+        <v>27</v>
+      </c>
+      <c r="T141">
+        <v>0.05</v>
+      </c>
+      <c r="U141">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>100</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>100</v>
+      </c>
+      <c r="G142">
+        <v>2.4</v>
+      </c>
+      <c r="H142">
+        <v>4.8</v>
+      </c>
+      <c r="I142">
+        <v>2.1</v>
+      </c>
+      <c r="J142">
+        <v>30</v>
+      </c>
+      <c r="K142">
+        <v>50</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>1000</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P142" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>10900</v>
+      </c>
+      <c r="R142">
+        <v>5</v>
+      </c>
+      <c r="S142" t="s">
+        <v>27</v>
+      </c>
+      <c r="T142">
+        <v>0.05</v>
+      </c>
+      <c r="U142">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143">
+        <f>B142+1</f>
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <f>C142+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>100</v>
+      </c>
+      <c r="G143">
+        <v>2.4</v>
+      </c>
+      <c r="H143">
+        <v>4.8</v>
+      </c>
+      <c r="I143">
+        <v>2.1</v>
+      </c>
+      <c r="J143">
+        <v>30</v>
+      </c>
+      <c r="K143">
+        <v>50</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1000</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P143" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>10900</v>
+      </c>
+      <c r="R143">
+        <v>5</v>
+      </c>
+      <c r="S143" t="s">
+        <v>27</v>
+      </c>
+      <c r="T143">
+        <v>0.05</v>
+      </c>
+      <c r="U143">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ref="B144:B153" si="27">B143+1</f>
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ref="C144:C153" si="28">C143+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>100</v>
+      </c>
+      <c r="G144">
+        <v>2.4</v>
+      </c>
+      <c r="H144">
+        <v>4.8</v>
+      </c>
+      <c r="I144">
+        <v>2.1</v>
+      </c>
+      <c r="J144">
+        <v>30</v>
+      </c>
+      <c r="K144">
+        <v>50</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>1000</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="16"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P144" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>10900</v>
+      </c>
+      <c r="R144">
+        <v>5</v>
+      </c>
+      <c r="S144" t="s">
+        <v>27</v>
+      </c>
+      <c r="T144">
+        <v>0.05</v>
+      </c>
+      <c r="U144">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="28"/>
+        <v>3700</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>100</v>
+      </c>
+      <c r="G145">
+        <v>2.4</v>
+      </c>
+      <c r="H145">
+        <v>4.8</v>
+      </c>
+      <c r="I145">
+        <v>2.1</v>
+      </c>
+      <c r="J145">
+        <v>30</v>
+      </c>
+      <c r="K145">
+        <v>50</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>1000</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145">
+        <f t="shared" ref="O145:O153" si="29">2.7*10^-6</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P145" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>10900</v>
+      </c>
+      <c r="R145">
+        <v>5</v>
+      </c>
+      <c r="S145" t="s">
+        <v>27</v>
+      </c>
+      <c r="T145">
+        <v>0.05</v>
+      </c>
+      <c r="U145">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="28"/>
+        <v>4900</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>100</v>
+      </c>
+      <c r="G146">
+        <v>2.4</v>
+      </c>
+      <c r="H146">
+        <v>4.8</v>
+      </c>
+      <c r="I146">
+        <v>2.1</v>
+      </c>
+      <c r="J146">
+        <v>30</v>
+      </c>
+      <c r="K146">
+        <v>50</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>1000</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P146" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>10900</v>
+      </c>
+      <c r="R146">
+        <v>5</v>
+      </c>
+      <c r="S146" t="s">
+        <v>27</v>
+      </c>
+      <c r="T146">
+        <v>0.05</v>
+      </c>
+      <c r="U146">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="28"/>
+        <v>6100</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>100</v>
+      </c>
+      <c r="G147">
+        <v>2.4</v>
+      </c>
+      <c r="H147">
+        <v>4.8</v>
+      </c>
+      <c r="I147">
+        <v>2.1</v>
+      </c>
+      <c r="J147">
+        <v>30</v>
+      </c>
+      <c r="K147">
+        <v>50</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>1000</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P147" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>10900</v>
+      </c>
+      <c r="R147">
+        <v>5</v>
+      </c>
+      <c r="S147" t="s">
+        <v>27</v>
+      </c>
+      <c r="T147">
+        <v>0.05</v>
+      </c>
+      <c r="U147">
         <v>110</v>
       </c>
     </row>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="2720" windowWidth="18560" windowHeight="13040" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="680" windowWidth="27840" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$B$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$V$192</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="47">
   <si>
     <t>filename</t>
   </si>
@@ -145,6 +146,33 @@
   <si>
     <t>190409_10mg-kg AMPH_3.csv</t>
   </si>
+  <si>
+    <t>190404_10mg-kgAMPH_1.csv</t>
+  </si>
+  <si>
+    <t>190521_a-synKO_10mg-kg AMPH_1.csv</t>
+  </si>
+  <si>
+    <t>190521_a-synKO_10mg-kg AMPH_2.csv</t>
+  </si>
+  <si>
+    <t>KO, despite the filename.</t>
+  </si>
+  <si>
+    <t>Maha's estimates to here.</t>
+  </si>
+  <si>
+    <t>Jai's estimates.</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Transporter Affinity</t>
+  </si>
 </sst>
 </file>
 
@@ -192,8 +220,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -202,11 +234,15 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -217,6 +253,1328 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Release</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> &amp; DAT Affinity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Release</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transporter Affinity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.588235294117647</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.294117647058824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32258064516129</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27027027027027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1163598448"/>
+        <c:axId val="-1162963488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1163598448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1162963488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1162963488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1163598448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,38 +1840,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V147"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:V192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A141" sqref="A141"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -604,13 +1958,13 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H2">
         <v>4.8</v>
       </c>
       <c r="I2">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="J2">
         <v>30</v>
@@ -644,10 +1998,10 @@
         <v>27</v>
       </c>
       <c r="T2">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="U2">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -670,13 +2024,13 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>4.8</v>
       </c>
       <c r="I3">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="J3">
         <v>30</v>
@@ -713,7 +2067,7 @@
         <v>0.05</v>
       </c>
       <c r="U3">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -736,13 +2090,13 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>4.8</v>
       </c>
       <c r="I4">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="J4">
         <v>30</v>
@@ -779,7 +2133,7 @@
         <v>0.05</v>
       </c>
       <c r="U4">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -802,13 +2156,13 @@
         <v>100</v>
       </c>
       <c r="G5">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H5">
         <v>4.8</v>
       </c>
       <c r="I5">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="J5">
         <v>30</v>
@@ -845,7 +2199,7 @@
         <v>0.05</v>
       </c>
       <c r="U5">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -856,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4901</v>
+        <v>4903</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -868,13 +2222,13 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H6">
         <v>4.8</v>
       </c>
       <c r="I6">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <v>30</v>
@@ -908,10 +2262,10 @@
         <v>27</v>
       </c>
       <c r="T6">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -922,7 +2276,6 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C16" si="1">C6+1200</f>
         <v>6101</v>
       </c>
       <c r="D7" t="s">
@@ -935,13 +2288,13 @@
         <v>100</v>
       </c>
       <c r="G7">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H7">
         <v>4.8</v>
       </c>
       <c r="I7">
-        <v>2.1</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>30</v>
@@ -975,10 +2328,10 @@
         <v>27</v>
       </c>
       <c r="T7">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U7">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -989,8 +2342,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>7301</v>
+        <v>7303</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1002,13 +2354,13 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>4.8</v>
       </c>
       <c r="I8">
-        <v>2.1</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>30</v>
@@ -1042,10 +2394,13 @@
         <v>27</v>
       </c>
       <c r="T8">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U8">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="V8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1056,7 +2411,6 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
         <v>8501</v>
       </c>
       <c r="D9" t="s">
@@ -1069,13 +2423,13 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H9">
         <v>4.8</v>
       </c>
       <c r="I9">
-        <v>2.1</v>
+        <v>34</v>
       </c>
       <c r="J9">
         <v>30</v>
@@ -1109,10 +2463,13 @@
         <v>27</v>
       </c>
       <c r="T9">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U9">
-        <v>110</v>
+        <v>40</v>
+      </c>
+      <c r="V9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1123,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C7:C16" si="1">C9+1200</f>
         <v>9701</v>
       </c>
       <c r="D10" t="s">
@@ -1136,13 +2493,13 @@
         <v>100</v>
       </c>
       <c r="G10">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="H10">
         <v>4.8</v>
       </c>
       <c r="I10">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J10">
         <v>30</v>
@@ -1176,10 +2533,10 @@
         <v>27</v>
       </c>
       <c r="T10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U10">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1203,13 +2560,13 @@
         <v>100</v>
       </c>
       <c r="G11">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="H11">
         <v>4.8</v>
       </c>
       <c r="I11">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J11">
         <v>30</v>
@@ -1243,10 +2600,10 @@
         <v>27</v>
       </c>
       <c r="T11">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U11">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1270,13 +2627,13 @@
         <v>100</v>
       </c>
       <c r="G12">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>4.8</v>
       </c>
       <c r="I12">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J12">
         <v>30</v>
@@ -1310,10 +2667,10 @@
         <v>27</v>
       </c>
       <c r="T12">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U12">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1337,13 +2694,13 @@
         <v>100</v>
       </c>
       <c r="G13">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H13">
         <v>4.8</v>
       </c>
       <c r="I13">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J13">
         <v>30</v>
@@ -1377,10 +2734,10 @@
         <v>27</v>
       </c>
       <c r="T13">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U13">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -1404,13 +2761,13 @@
         <v>100</v>
       </c>
       <c r="G14">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H14">
         <v>4.8</v>
       </c>
       <c r="I14">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J14">
         <v>30</v>
@@ -1444,10 +2801,10 @@
         <v>27</v>
       </c>
       <c r="T14">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U14">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1470,13 +2827,13 @@
         <v>100</v>
       </c>
       <c r="G15">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H15">
         <v>4.8</v>
       </c>
       <c r="I15">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J15">
         <v>30</v>
@@ -1510,10 +2867,10 @@
         <v>27</v>
       </c>
       <c r="T15">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U15">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -1524,8 +2881,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>16899</v>
+        <v>16901</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1537,13 +2893,13 @@
         <v>100</v>
       </c>
       <c r="G16">
-        <v>2.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H16">
         <v>4.8</v>
       </c>
       <c r="I16">
-        <v>2.1</v>
+        <v>31</v>
       </c>
       <c r="J16">
         <v>30</v>
@@ -1577,13 +2933,13 @@
         <v>27</v>
       </c>
       <c r="T16">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U16">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1603,13 +2959,13 @@
         <v>100</v>
       </c>
       <c r="G17">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H17">
         <v>4.8</v>
       </c>
       <c r="I17">
-        <v>2.1</v>
+        <v>37</v>
       </c>
       <c r="J17">
         <v>30</v>
@@ -1643,13 +2999,13 @@
         <v>27</v>
       </c>
       <c r="T17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U17">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1672,13 +3028,13 @@
         <v>100</v>
       </c>
       <c r="G18">
-        <v>2.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H18">
         <v>4.8</v>
       </c>
       <c r="I18">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J18">
         <v>30</v>
@@ -1712,13 +3068,13 @@
         <v>27</v>
       </c>
       <c r="T18">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U18">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1741,13 +3097,13 @@
         <v>100</v>
       </c>
       <c r="G19">
-        <v>2.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H19">
         <v>4.8</v>
       </c>
       <c r="I19">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J19">
         <v>30</v>
@@ -1781,13 +3137,13 @@
         <v>27</v>
       </c>
       <c r="T19">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U19">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1809,13 +3165,13 @@
         <v>100</v>
       </c>
       <c r="G20">
-        <v>2.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H20">
         <v>4.8</v>
       </c>
       <c r="I20">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J20">
         <v>30</v>
@@ -1849,13 +3205,13 @@
         <v>27</v>
       </c>
       <c r="T20">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U20">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1877,13 +3233,13 @@
         <v>100</v>
       </c>
       <c r="G21">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H21">
         <v>4.8</v>
       </c>
       <c r="I21">
-        <v>2.1</v>
+        <v>32</v>
       </c>
       <c r="J21">
         <v>30</v>
@@ -1917,13 +3273,13 @@
         <v>27</v>
       </c>
       <c r="T21">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U21">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -1946,13 +3302,13 @@
         <v>100</v>
       </c>
       <c r="G22">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>4.8</v>
       </c>
       <c r="I22">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J22">
         <v>30</v>
@@ -1986,13 +3342,13 @@
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U22">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2014,13 +3370,13 @@
         <v>100</v>
       </c>
       <c r="G23">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H23">
         <v>4.8</v>
       </c>
       <c r="I23">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J23">
         <v>30</v>
@@ -2054,13 +3410,13 @@
         <v>27</v>
       </c>
       <c r="T23">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U23">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2082,13 +3438,13 @@
         <v>100</v>
       </c>
       <c r="G24">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H24">
         <v>4.8</v>
       </c>
       <c r="I24">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J24">
         <v>30</v>
@@ -2122,13 +3478,13 @@
         <v>27</v>
       </c>
       <c r="T24">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U24">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2151,13 +3507,13 @@
         <v>100</v>
       </c>
       <c r="G25">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>4.8</v>
       </c>
       <c r="I25">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J25">
         <v>30</v>
@@ -2191,13 +3547,13 @@
         <v>27</v>
       </c>
       <c r="T25">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U25">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2219,13 +3575,13 @@
         <v>100</v>
       </c>
       <c r="G26">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H26">
         <v>4.8</v>
       </c>
       <c r="I26">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J26">
         <v>30</v>
@@ -2259,13 +3615,13 @@
         <v>27</v>
       </c>
       <c r="T26">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U26">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2287,13 +3643,13 @@
         <v>100</v>
       </c>
       <c r="G27">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H27">
         <v>4.8</v>
       </c>
       <c r="I27">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J27">
         <v>30</v>
@@ -2327,13 +3683,13 @@
         <v>27</v>
       </c>
       <c r="T27">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U27">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2355,13 +3711,13 @@
         <v>100</v>
       </c>
       <c r="G28">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H28">
         <v>4.8</v>
       </c>
       <c r="I28">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>30</v>
@@ -2395,13 +3751,13 @@
         <v>27</v>
       </c>
       <c r="T28">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2424,13 +3780,13 @@
         <v>100</v>
       </c>
       <c r="G29">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H29">
         <v>4.8</v>
       </c>
       <c r="I29">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J29">
         <v>30</v>
@@ -2464,13 +3820,13 @@
         <v>27</v>
       </c>
       <c r="T29">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2493,13 +3849,13 @@
         <v>100</v>
       </c>
       <c r="G30">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H30">
         <v>4.8</v>
       </c>
       <c r="I30">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J30">
         <v>30</v>
@@ -2533,13 +3889,13 @@
         <v>27</v>
       </c>
       <c r="T30">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U30">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -2561,13 +3917,13 @@
         <v>100</v>
       </c>
       <c r="G31">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H31">
         <v>4.8</v>
       </c>
       <c r="I31">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -2601,10 +3957,10 @@
         <v>27</v>
       </c>
       <c r="T31">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U31">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -2615,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2627,13 +3983,13 @@
         <v>100</v>
       </c>
       <c r="G32">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H32">
         <v>4.8</v>
       </c>
       <c r="I32">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="J32">
         <v>30</v>
@@ -2667,10 +4023,10 @@
         <v>27</v>
       </c>
       <c r="T32">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U32">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -2683,8 +4039,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <f>C32+1200</f>
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="D33" t="str">
         <f>D32</f>
@@ -2698,13 +4053,13 @@
         <v>100</v>
       </c>
       <c r="G33">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H33">
         <v>4.8</v>
       </c>
       <c r="I33">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="J33">
         <v>30</v>
@@ -2738,10 +4093,10 @@
         <v>27</v>
       </c>
       <c r="T33">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="U33">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -2754,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ref="D34:D46" si="7">D33</f>
@@ -2768,13 +4123,13 @@
         <v>100</v>
       </c>
       <c r="G34">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H34">
         <v>4.8</v>
       </c>
       <c r="I34">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>30</v>
@@ -2808,10 +4163,10 @@
         <v>27</v>
       </c>
       <c r="T34">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U34">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -2824,8 +4179,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C45" si="9">C34+1200</f>
-        <v>3701</v>
+        <v>3704</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="7"/>
@@ -2838,13 +4192,13 @@
         <v>100</v>
       </c>
       <c r="G35">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H35">
         <v>4.8</v>
       </c>
       <c r="I35">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J35">
         <v>30</v>
@@ -2878,10 +4232,10 @@
         <v>27</v>
       </c>
       <c r="T35">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U35">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -2894,8 +4248,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <f t="shared" si="9"/>
-        <v>4901</v>
+        <v>4904</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="7"/>
@@ -2908,13 +4261,13 @@
         <v>100</v>
       </c>
       <c r="G36">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H36">
         <v>4.8</v>
       </c>
       <c r="I36">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J36">
         <v>30</v>
@@ -2948,10 +4301,10 @@
         <v>27</v>
       </c>
       <c r="T36">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U36">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -2964,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>6099</v>
+        <v>6104</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="7"/>
@@ -2977,13 +4330,13 @@
         <v>100</v>
       </c>
       <c r="G37">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>4.8</v>
       </c>
       <c r="I37">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>30</v>
@@ -3017,10 +4370,10 @@
         <v>27</v>
       </c>
       <c r="T37">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U37">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -3033,8 +4386,7 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <f t="shared" si="9"/>
-        <v>7299</v>
+        <v>7301</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="7"/>
@@ -3047,13 +4399,13 @@
         <v>100</v>
       </c>
       <c r="G38">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H38">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="I38">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="J38">
         <v>30</v>
@@ -3087,10 +4439,10 @@
         <v>27</v>
       </c>
       <c r="T38">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="U38">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -3103,8 +4455,7 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <f t="shared" si="9"/>
-        <v>8499</v>
+        <v>8501</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="7"/>
@@ -3117,13 +4468,13 @@
         <v>100</v>
       </c>
       <c r="G39">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H39">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="I39">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="J39">
         <v>30</v>
@@ -3157,10 +4508,10 @@
         <v>27</v>
       </c>
       <c r="T39">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U39">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -3173,8 +4524,7 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <f t="shared" si="9"/>
-        <v>9699</v>
+        <v>9701</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="7"/>
@@ -3187,13 +4537,13 @@
         <v>100</v>
       </c>
       <c r="G40">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H40">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="J40">
         <v>30</v>
@@ -3227,10 +4577,10 @@
         <v>27</v>
       </c>
       <c r="T40">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U40">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -3256,13 +4606,13 @@
         <v>100</v>
       </c>
       <c r="G41">
-        <v>2.4</v>
+        <v>3.35</v>
       </c>
       <c r="H41">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>2.1</v>
+        <v>8.9</v>
       </c>
       <c r="J41">
         <v>30</v>
@@ -3296,10 +4646,10 @@
         <v>27</v>
       </c>
       <c r="T41">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U41">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -3312,7 +4662,7 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>12099</v>
+        <v>12101</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="7"/>
@@ -3325,13 +4675,13 @@
         <v>100</v>
       </c>
       <c r="G42">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>2.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J42">
         <v>30</v>
@@ -3365,10 +4715,10 @@
         <v>27</v>
       </c>
       <c r="T42">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U42">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -3394,13 +4744,13 @@
         <v>100</v>
       </c>
       <c r="G43">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>2.1</v>
+        <v>10.8</v>
       </c>
       <c r="J43">
         <v>30</v>
@@ -3434,10 +4784,10 @@
         <v>27</v>
       </c>
       <c r="T43">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U43">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -3450,7 +4800,7 @@
         <v>13</v>
       </c>
       <c r="C44">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C35:C45" si="9">C43+1200</f>
         <v>14501</v>
       </c>
       <c r="D44" t="str">
@@ -3464,13 +4814,13 @@
         <v>100</v>
       </c>
       <c r="G44">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H44">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="J44">
         <v>30</v>
@@ -3504,10 +4854,10 @@
         <v>27</v>
       </c>
       <c r="T44">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U44">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -3534,13 +4884,13 @@
         <v>100</v>
       </c>
       <c r="G45">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H45">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="J45">
         <v>30</v>
@@ -3574,10 +4924,10 @@
         <v>27</v>
       </c>
       <c r="T45">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U45">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -3603,13 +4953,13 @@
         <v>100</v>
       </c>
       <c r="G46">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H46">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="J46">
         <v>30</v>
@@ -3643,13 +4993,13 @@
         <v>27</v>
       </c>
       <c r="T46">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U46">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3712,10 +5062,10 @@
         <v>0.05</v>
       </c>
       <c r="U47">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>A47</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3782,10 +5132,10 @@
         <v>0.05</v>
       </c>
       <c r="U48">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" ref="A49:A61" si="10">A48</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3852,10 +5202,10 @@
         <v>0.05</v>
       </c>
       <c r="U49">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3922,10 +5272,10 @@
         <v>0.05</v>
       </c>
       <c r="U50">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -3992,10 +5342,10 @@
         <v>0.05</v>
       </c>
       <c r="U51">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4062,10 +5412,10 @@
         <v>0.05</v>
       </c>
       <c r="U52">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4132,10 +5482,10 @@
         <v>0.05</v>
       </c>
       <c r="U53">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4202,10 +5552,10 @@
         <v>0.05</v>
       </c>
       <c r="U54">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4272,10 +5622,10 @@
         <v>0.05</v>
       </c>
       <c r="U55">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4342,10 +5692,10 @@
         <v>0.05</v>
       </c>
       <c r="U56">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4412,10 +5762,10 @@
         <v>0.05</v>
       </c>
       <c r="U57">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4481,10 +5831,10 @@
         <v>0.05</v>
       </c>
       <c r="U58">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4551,10 +5901,10 @@
         <v>0.05</v>
       </c>
       <c r="U59">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4621,10 +5971,10 @@
         <v>0.05</v>
       </c>
       <c r="U60">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -4691,10 +6041,10 @@
         <v>0.05</v>
       </c>
       <c r="U61">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -4757,10 +6107,10 @@
         <v>0.05</v>
       </c>
       <c r="U62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -4825,10 +6175,10 @@
         <v>0.05</v>
       </c>
       <c r="U63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -4893,10 +6243,10 @@
         <v>0.05</v>
       </c>
       <c r="U64">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -4961,10 +6311,10 @@
         <v>0.05</v>
       </c>
       <c r="U65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -5029,10 +6379,10 @@
         <v>0.05</v>
       </c>
       <c r="U66">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -5097,10 +6447,10 @@
         <v>0.05</v>
       </c>
       <c r="U67">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -5165,10 +6515,10 @@
         <v>0.05</v>
       </c>
       <c r="U68">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -5233,10 +6583,10 @@
         <v>0.05</v>
       </c>
       <c r="U69">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -5301,10 +6651,10 @@
         <v>0.05</v>
       </c>
       <c r="U70">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -5369,10 +6719,10 @@
         <v>0.05</v>
       </c>
       <c r="U71">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -5437,10 +6787,10 @@
         <v>0.05</v>
       </c>
       <c r="U72">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -5505,10 +6855,10 @@
         <v>0.05</v>
       </c>
       <c r="U73">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -5573,10 +6923,10 @@
         <v>0.05</v>
       </c>
       <c r="U74">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -5641,10 +6991,10 @@
         <v>0.05</v>
       </c>
       <c r="U75">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -5709,10 +7059,10 @@
         <v>0.05</v>
       </c>
       <c r="U76">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -5775,10 +7125,10 @@
         <v>0.05</v>
       </c>
       <c r="U77">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -5843,10 +7193,10 @@
         <v>0.05</v>
       </c>
       <c r="U78">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -5911,10 +7261,10 @@
         <v>0.05</v>
       </c>
       <c r="U79">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -5979,10 +7329,10 @@
         <v>0.05</v>
       </c>
       <c r="U80">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -6047,10 +7397,10 @@
         <v>0.05</v>
       </c>
       <c r="U81">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -6115,10 +7465,10 @@
         <v>0.05</v>
       </c>
       <c r="U82">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -6183,10 +7533,10 @@
         <v>0.05</v>
       </c>
       <c r="U83">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>29</v>
       </c>
@@ -6251,10 +7601,10 @@
         <v>0.05</v>
       </c>
       <c r="U84">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -6319,10 +7669,10 @@
         <v>0.05</v>
       </c>
       <c r="U85">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -6387,10 +7737,10 @@
         <v>0.05</v>
       </c>
       <c r="U86">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -6455,10 +7805,10 @@
         <v>0.05</v>
       </c>
       <c r="U87">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -6523,10 +7873,10 @@
         <v>0.05</v>
       </c>
       <c r="U88">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -6591,10 +7941,10 @@
         <v>0.05</v>
       </c>
       <c r="U89">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -6659,10 +8009,10 @@
         <v>0.05</v>
       </c>
       <c r="U90">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -6727,10 +8077,10 @@
         <v>0.05</v>
       </c>
       <c r="U91">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -6793,10 +8143,10 @@
         <v>0.05</v>
       </c>
       <c r="U92">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -6861,13 +8211,13 @@
         <v>0.05</v>
       </c>
       <c r="U93">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="V93" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -6932,10 +8282,10 @@
         <v>0.05</v>
       </c>
       <c r="U94">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -7000,10 +8350,10 @@
         <v>0.05</v>
       </c>
       <c r="U95">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -7068,10 +8418,10 @@
         <v>0.05</v>
       </c>
       <c r="U96">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -7136,10 +8486,10 @@
         <v>0.05</v>
       </c>
       <c r="U97">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -7204,10 +8554,10 @@
         <v>0.05</v>
       </c>
       <c r="U98">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -7272,10 +8622,10 @@
         <v>0.05</v>
       </c>
       <c r="U99">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -7340,10 +8690,10 @@
         <v>0.05</v>
       </c>
       <c r="U100">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -7408,10 +8758,10 @@
         <v>0.05</v>
       </c>
       <c r="U101">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -7476,10 +8826,10 @@
         <v>0.05</v>
       </c>
       <c r="U102">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -7544,10 +8894,10 @@
         <v>0.05</v>
       </c>
       <c r="U103">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -7612,10 +8962,10 @@
         <v>0.05</v>
       </c>
       <c r="U104">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -7680,10 +9030,10 @@
         <v>0.05</v>
       </c>
       <c r="U105">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -7748,10 +9098,10 @@
         <v>0.05</v>
       </c>
       <c r="U106">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>34</v>
       </c>
@@ -7814,10 +9164,10 @@
         <v>0.05</v>
       </c>
       <c r="U107">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -7882,10 +9232,10 @@
         <v>0.05</v>
       </c>
       <c r="U108">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -7950,10 +9300,10 @@
         <v>0.05</v>
       </c>
       <c r="U109">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -8018,10 +9368,10 @@
         <v>0.05</v>
       </c>
       <c r="U110">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>34</v>
       </c>
@@ -8086,10 +9436,10 @@
         <v>0.05</v>
       </c>
       <c r="U111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -8154,10 +9504,10 @@
         <v>0.05</v>
       </c>
       <c r="U112">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>34</v>
       </c>
@@ -8222,10 +9572,10 @@
         <v>0.05</v>
       </c>
       <c r="U113">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>34</v>
       </c>
@@ -8290,10 +9640,10 @@
         <v>0.05</v>
       </c>
       <c r="U114">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>34</v>
       </c>
@@ -8358,10 +9708,10 @@
         <v>0.05</v>
       </c>
       <c r="U115">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -8426,10 +9776,10 @@
         <v>0.05</v>
       </c>
       <c r="U116">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -8494,10 +9844,10 @@
         <v>0.05</v>
       </c>
       <c r="U117">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>34</v>
       </c>
@@ -8562,10 +9912,10 @@
         <v>0.05</v>
       </c>
       <c r="U118">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>34</v>
       </c>
@@ -8630,10 +9980,10 @@
         <v>0.05</v>
       </c>
       <c r="U119">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>34</v>
       </c>
@@ -8698,10 +10048,10 @@
         <v>0.05</v>
       </c>
       <c r="U120">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>34</v>
       </c>
@@ -8766,10 +10116,10 @@
         <v>0.05</v>
       </c>
       <c r="U121">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -8832,10 +10182,10 @@
         <v>0.05</v>
       </c>
       <c r="U122">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>35</v>
       </c>
@@ -8900,10 +10250,10 @@
         <v>0.05</v>
       </c>
       <c r="U123">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -8968,10 +10318,10 @@
         <v>0.05</v>
       </c>
       <c r="U124">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>35</v>
       </c>
@@ -9036,10 +10386,10 @@
         <v>0.05</v>
       </c>
       <c r="U125">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>35</v>
       </c>
@@ -9104,10 +10454,10 @@
         <v>0.05</v>
       </c>
       <c r="U126">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -9172,10 +10522,10 @@
         <v>0.05</v>
       </c>
       <c r="U127">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -9240,10 +10590,10 @@
         <v>0.05</v>
       </c>
       <c r="U128">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>35</v>
       </c>
@@ -9308,10 +10658,10 @@
         <v>0.05</v>
       </c>
       <c r="U129">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>35</v>
       </c>
@@ -9376,10 +10726,10 @@
         <v>0.05</v>
       </c>
       <c r="U130">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>35</v>
       </c>
@@ -9444,10 +10794,10 @@
         <v>0.05</v>
       </c>
       <c r="U131">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -9510,10 +10860,10 @@
         <v>0.05</v>
       </c>
       <c r="U132">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -9578,10 +10928,10 @@
         <v>0.05</v>
       </c>
       <c r="U133">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -9646,10 +10996,10 @@
         <v>0.05</v>
       </c>
       <c r="U134">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -9714,10 +11064,10 @@
         <v>0.05</v>
       </c>
       <c r="U135">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -9782,10 +11132,10 @@
         <v>0.05</v>
       </c>
       <c r="U136">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -9850,10 +11200,10 @@
         <v>0.05</v>
       </c>
       <c r="U137">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -9918,10 +11268,10 @@
         <v>0.05</v>
       </c>
       <c r="U138">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -9986,10 +11336,10 @@
         <v>0.05</v>
       </c>
       <c r="U139">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -10054,10 +11404,10 @@
         <v>0.05</v>
       </c>
       <c r="U140">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -10122,10 +11472,10 @@
         <v>0.05</v>
       </c>
       <c r="U141">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -10188,10 +11538,10 @@
         <v>0.05</v>
       </c>
       <c r="U142">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>37</v>
       </c>
@@ -10256,19 +11606,19 @@
         <v>0.05</v>
       </c>
       <c r="U143">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>37</v>
       </c>
       <c r="B144">
-        <f t="shared" ref="B144:B153" si="27">B143+1</f>
+        <f t="shared" ref="B144:B147" si="27">B143+1</f>
         <v>3</v>
       </c>
       <c r="C144">
-        <f t="shared" ref="C144:C153" si="28">C143+1200</f>
+        <f t="shared" ref="C144:C147" si="28">C143+1200</f>
         <v>2500</v>
       </c>
       <c r="D144" t="s">
@@ -10324,10 +11674,10 @@
         <v>0.05</v>
       </c>
       <c r="U144">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -10373,7 +11723,7 @@
         <v>4</v>
       </c>
       <c r="O145">
-        <f t="shared" ref="O145:O153" si="29">2.7*10^-6</f>
+        <f t="shared" ref="O145:O192" si="29">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="P145" t="b">
@@ -10392,10 +11742,10 @@
         <v>0.05</v>
       </c>
       <c r="U145">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -10460,10 +11810,10 @@
         <v>0.05</v>
       </c>
       <c r="U146">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -10528,10 +11878,3581 @@
         <v>0.05</v>
       </c>
       <c r="U147">
-        <v>110</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>38</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>100</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>100</v>
+      </c>
+      <c r="G148">
+        <v>2.4</v>
+      </c>
+      <c r="H148">
+        <v>4.8</v>
+      </c>
+      <c r="I148">
+        <v>2.1</v>
+      </c>
+      <c r="J148">
+        <v>30</v>
+      </c>
+      <c r="K148">
+        <v>50</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1000</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P148" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>8500</v>
+      </c>
+      <c r="R148">
+        <v>5</v>
+      </c>
+      <c r="S148" t="s">
+        <v>27</v>
+      </c>
+      <c r="T148">
+        <v>0.05</v>
+      </c>
+      <c r="U148">
+        <v>20</v>
+      </c>
+      <c r="V148" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>38</v>
+      </c>
+      <c r="B149">
+        <f>B148+1</f>
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <f>C148+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>100</v>
+      </c>
+      <c r="G149">
+        <v>2.4</v>
+      </c>
+      <c r="H149">
+        <v>4.8</v>
+      </c>
+      <c r="I149">
+        <v>2.1</v>
+      </c>
+      <c r="J149">
+        <v>30</v>
+      </c>
+      <c r="K149">
+        <v>50</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1000</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P149" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q149">
+        <v>8500</v>
+      </c>
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149" t="s">
+        <v>27</v>
+      </c>
+      <c r="T149">
+        <v>0.05</v>
+      </c>
+      <c r="U149">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>38</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ref="B150:B162" si="30">B149+1</f>
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ref="C150:C162" si="31">C149+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>100</v>
+      </c>
+      <c r="G150">
+        <v>2.4</v>
+      </c>
+      <c r="H150">
+        <v>4.8</v>
+      </c>
+      <c r="I150">
+        <v>2.1</v>
+      </c>
+      <c r="J150">
+        <v>30</v>
+      </c>
+      <c r="K150">
+        <v>50</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1000</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P150" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <v>8500</v>
+      </c>
+      <c r="R150">
+        <v>5</v>
+      </c>
+      <c r="S150" t="s">
+        <v>27</v>
+      </c>
+      <c r="T150">
+        <v>0.05</v>
+      </c>
+      <c r="U150">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>38</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="31"/>
+        <v>3700</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>100</v>
+      </c>
+      <c r="G151">
+        <v>2.4</v>
+      </c>
+      <c r="H151">
+        <v>4.8</v>
+      </c>
+      <c r="I151">
+        <v>2.1</v>
+      </c>
+      <c r="J151">
+        <v>30</v>
+      </c>
+      <c r="K151">
+        <v>50</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>1000</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P151" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>8500</v>
+      </c>
+      <c r="R151">
+        <v>5</v>
+      </c>
+      <c r="S151" t="s">
+        <v>27</v>
+      </c>
+      <c r="T151">
+        <v>0.05</v>
+      </c>
+      <c r="U151">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>38</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="31"/>
+        <v>4900</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>100</v>
+      </c>
+      <c r="G152">
+        <v>2.4</v>
+      </c>
+      <c r="H152">
+        <v>4.8</v>
+      </c>
+      <c r="I152">
+        <v>2.1</v>
+      </c>
+      <c r="J152">
+        <v>30</v>
+      </c>
+      <c r="K152">
+        <v>50</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>1000</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P152" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>8500</v>
+      </c>
+      <c r="R152">
+        <v>5</v>
+      </c>
+      <c r="S152" t="s">
+        <v>27</v>
+      </c>
+      <c r="T152">
+        <v>0.05</v>
+      </c>
+      <c r="U152">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>38</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="31"/>
+        <v>6100</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>100</v>
+      </c>
+      <c r="G153">
+        <v>2.4</v>
+      </c>
+      <c r="H153">
+        <v>4.8</v>
+      </c>
+      <c r="I153">
+        <v>2.1</v>
+      </c>
+      <c r="J153">
+        <v>30</v>
+      </c>
+      <c r="K153">
+        <v>50</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>1000</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P153" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <v>8500</v>
+      </c>
+      <c r="R153">
+        <v>5</v>
+      </c>
+      <c r="S153" t="s">
+        <v>27</v>
+      </c>
+      <c r="T153">
+        <v>0.05</v>
+      </c>
+      <c r="U153">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>38</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="31"/>
+        <v>7300</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>100</v>
+      </c>
+      <c r="G154">
+        <v>2.4</v>
+      </c>
+      <c r="H154">
+        <v>4.8</v>
+      </c>
+      <c r="I154">
+        <v>2.1</v>
+      </c>
+      <c r="J154">
+        <v>30</v>
+      </c>
+      <c r="K154">
+        <v>50</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>1000</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P154" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>8500</v>
+      </c>
+      <c r="R154">
+        <v>5</v>
+      </c>
+      <c r="S154" t="s">
+        <v>27</v>
+      </c>
+      <c r="T154">
+        <v>0.05</v>
+      </c>
+      <c r="U154">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="31"/>
+        <v>8500</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>100</v>
+      </c>
+      <c r="G155">
+        <v>2.4</v>
+      </c>
+      <c r="H155">
+        <v>4.8</v>
+      </c>
+      <c r="I155">
+        <v>2.1</v>
+      </c>
+      <c r="J155">
+        <v>30</v>
+      </c>
+      <c r="K155">
+        <v>50</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1000</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P155" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>8500</v>
+      </c>
+      <c r="R155">
+        <v>5</v>
+      </c>
+      <c r="S155" t="s">
+        <v>27</v>
+      </c>
+      <c r="T155">
+        <v>0.05</v>
+      </c>
+      <c r="U155">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>38</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="31"/>
+        <v>9700</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>100</v>
+      </c>
+      <c r="G156">
+        <v>2.4</v>
+      </c>
+      <c r="H156">
+        <v>4.8</v>
+      </c>
+      <c r="I156">
+        <v>2.1</v>
+      </c>
+      <c r="J156">
+        <v>30</v>
+      </c>
+      <c r="K156">
+        <v>50</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>1000</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P156" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>8500</v>
+      </c>
+      <c r="R156">
+        <v>5</v>
+      </c>
+      <c r="S156" t="s">
+        <v>27</v>
+      </c>
+      <c r="T156">
+        <v>0.05</v>
+      </c>
+      <c r="U156">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="31"/>
+        <v>10900</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>100</v>
+      </c>
+      <c r="G157">
+        <v>2.4</v>
+      </c>
+      <c r="H157">
+        <v>4.8</v>
+      </c>
+      <c r="I157">
+        <v>2.1</v>
+      </c>
+      <c r="J157">
+        <v>30</v>
+      </c>
+      <c r="K157">
+        <v>50</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1000</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P157" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>8500</v>
+      </c>
+      <c r="R157">
+        <v>5</v>
+      </c>
+      <c r="S157" t="s">
+        <v>27</v>
+      </c>
+      <c r="T157">
+        <v>0.05</v>
+      </c>
+      <c r="U157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="31"/>
+        <v>12100</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>100</v>
+      </c>
+      <c r="G158">
+        <v>2.4</v>
+      </c>
+      <c r="H158">
+        <v>4.8</v>
+      </c>
+      <c r="I158">
+        <v>2.1</v>
+      </c>
+      <c r="J158">
+        <v>30</v>
+      </c>
+      <c r="K158">
+        <v>50</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1000</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P158" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>8500</v>
+      </c>
+      <c r="R158">
+        <v>5</v>
+      </c>
+      <c r="S158" t="s">
+        <v>27</v>
+      </c>
+      <c r="T158">
+        <v>0.05</v>
+      </c>
+      <c r="U158">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="31"/>
+        <v>13300</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>100</v>
+      </c>
+      <c r="G159">
+        <v>2.4</v>
+      </c>
+      <c r="H159">
+        <v>4.8</v>
+      </c>
+      <c r="I159">
+        <v>2.1</v>
+      </c>
+      <c r="J159">
+        <v>30</v>
+      </c>
+      <c r="K159">
+        <v>50</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>1000</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P159" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q159">
+        <v>8500</v>
+      </c>
+      <c r="R159">
+        <v>5</v>
+      </c>
+      <c r="S159" t="s">
+        <v>27</v>
+      </c>
+      <c r="T159">
+        <v>0.05</v>
+      </c>
+      <c r="U159">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>38</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="30"/>
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="31"/>
+        <v>14500</v>
+      </c>
+      <c r="D160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>100</v>
+      </c>
+      <c r="G160">
+        <v>2.4</v>
+      </c>
+      <c r="H160">
+        <v>4.8</v>
+      </c>
+      <c r="I160">
+        <v>2.1</v>
+      </c>
+      <c r="J160">
+        <v>30</v>
+      </c>
+      <c r="K160">
+        <v>50</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1000</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P160" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>8500</v>
+      </c>
+      <c r="R160">
+        <v>5</v>
+      </c>
+      <c r="S160" t="s">
+        <v>27</v>
+      </c>
+      <c r="T160">
+        <v>0.05</v>
+      </c>
+      <c r="U160">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>38</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="31"/>
+        <v>15700</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>100</v>
+      </c>
+      <c r="G161">
+        <v>2.4</v>
+      </c>
+      <c r="H161">
+        <v>4.8</v>
+      </c>
+      <c r="I161">
+        <v>2.1</v>
+      </c>
+      <c r="J161">
+        <v>30</v>
+      </c>
+      <c r="K161">
+        <v>50</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>1000</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P161" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q161">
+        <v>8500</v>
+      </c>
+      <c r="R161">
+        <v>5</v>
+      </c>
+      <c r="S161" t="s">
+        <v>27</v>
+      </c>
+      <c r="T161">
+        <v>0.05</v>
+      </c>
+      <c r="U161">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>38</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="31"/>
+        <v>16900</v>
+      </c>
+      <c r="D162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>100</v>
+      </c>
+      <c r="G162">
+        <v>2.4</v>
+      </c>
+      <c r="H162">
+        <v>4.8</v>
+      </c>
+      <c r="I162">
+        <v>2.1</v>
+      </c>
+      <c r="J162">
+        <v>30</v>
+      </c>
+      <c r="K162">
+        <v>50</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>1000</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P162" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q162">
+        <v>8500</v>
+      </c>
+      <c r="R162">
+        <v>5</v>
+      </c>
+      <c r="S162" t="s">
+        <v>27</v>
+      </c>
+      <c r="T162">
+        <v>0.05</v>
+      </c>
+      <c r="U162">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>100</v>
+      </c>
+      <c r="G163">
+        <v>2.4</v>
+      </c>
+      <c r="H163">
+        <v>4.8</v>
+      </c>
+      <c r="I163">
+        <v>2.1</v>
+      </c>
+      <c r="J163">
+        <v>30</v>
+      </c>
+      <c r="K163">
+        <v>50</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1000</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P163" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q163">
+        <v>6800</v>
+      </c>
+      <c r="R163">
+        <v>5</v>
+      </c>
+      <c r="S163" t="s">
+        <v>27</v>
+      </c>
+      <c r="T163">
+        <v>0.05</v>
+      </c>
+      <c r="U163">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164">
+        <f>B163+1</f>
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <f>C163+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>100</v>
+      </c>
+      <c r="G164">
+        <v>2.4</v>
+      </c>
+      <c r="H164">
+        <v>4.8</v>
+      </c>
+      <c r="I164">
+        <v>2.1</v>
+      </c>
+      <c r="J164">
+        <v>30</v>
+      </c>
+      <c r="K164">
+        <v>50</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>1000</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P164" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q164">
+        <v>6800</v>
+      </c>
+      <c r="R164">
+        <v>5</v>
+      </c>
+      <c r="S164" t="s">
+        <v>27</v>
+      </c>
+      <c r="T164">
+        <v>0.05</v>
+      </c>
+      <c r="U164">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ref="B165:B177" si="32">B164+1</f>
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ref="C165:C177" si="33">C164+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>100</v>
+      </c>
+      <c r="G165">
+        <v>2.4</v>
+      </c>
+      <c r="H165">
+        <v>4.8</v>
+      </c>
+      <c r="I165">
+        <v>2.1</v>
+      </c>
+      <c r="J165">
+        <v>30</v>
+      </c>
+      <c r="K165">
+        <v>50</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>1000</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P165" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>6800</v>
+      </c>
+      <c r="R165">
+        <v>5</v>
+      </c>
+      <c r="S165" t="s">
+        <v>27</v>
+      </c>
+      <c r="T165">
+        <v>0.05</v>
+      </c>
+      <c r="U165">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>39</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="33"/>
+        <v>3700</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>100</v>
+      </c>
+      <c r="G166">
+        <v>2.4</v>
+      </c>
+      <c r="H166">
+        <v>4.8</v>
+      </c>
+      <c r="I166">
+        <v>2.1</v>
+      </c>
+      <c r="J166">
+        <v>30</v>
+      </c>
+      <c r="K166">
+        <v>50</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>1000</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P166" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q166">
+        <v>6800</v>
+      </c>
+      <c r="R166">
+        <v>5</v>
+      </c>
+      <c r="S166" t="s">
+        <v>27</v>
+      </c>
+      <c r="T166">
+        <v>0.05</v>
+      </c>
+      <c r="U166">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="33"/>
+        <v>4900</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>100</v>
+      </c>
+      <c r="G167">
+        <v>2.4</v>
+      </c>
+      <c r="H167">
+        <v>4.8</v>
+      </c>
+      <c r="I167">
+        <v>2.1</v>
+      </c>
+      <c r="J167">
+        <v>30</v>
+      </c>
+      <c r="K167">
+        <v>50</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>1000</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P167" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q167">
+        <v>6800</v>
+      </c>
+      <c r="R167">
+        <v>5</v>
+      </c>
+      <c r="S167" t="s">
+        <v>27</v>
+      </c>
+      <c r="T167">
+        <v>0.05</v>
+      </c>
+      <c r="U167">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="33"/>
+        <v>6100</v>
+      </c>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>100</v>
+      </c>
+      <c r="G168">
+        <v>2.4</v>
+      </c>
+      <c r="H168">
+        <v>4.8</v>
+      </c>
+      <c r="I168">
+        <v>2.1</v>
+      </c>
+      <c r="J168">
+        <v>30</v>
+      </c>
+      <c r="K168">
+        <v>50</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>1000</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P168" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q168">
+        <v>6800</v>
+      </c>
+      <c r="R168">
+        <v>5</v>
+      </c>
+      <c r="S168" t="s">
+        <v>27</v>
+      </c>
+      <c r="T168">
+        <v>0.05</v>
+      </c>
+      <c r="U168">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>39</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="33"/>
+        <v>7300</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>100</v>
+      </c>
+      <c r="G169">
+        <v>2.4</v>
+      </c>
+      <c r="H169">
+        <v>4.8</v>
+      </c>
+      <c r="I169">
+        <v>2.1</v>
+      </c>
+      <c r="J169">
+        <v>30</v>
+      </c>
+      <c r="K169">
+        <v>50</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>1000</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P169" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q169">
+        <v>6800</v>
+      </c>
+      <c r="R169">
+        <v>5</v>
+      </c>
+      <c r="S169" t="s">
+        <v>27</v>
+      </c>
+      <c r="T169">
+        <v>0.05</v>
+      </c>
+      <c r="U169">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>39</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="33"/>
+        <v>8500</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>100</v>
+      </c>
+      <c r="G170">
+        <v>2.4</v>
+      </c>
+      <c r="H170">
+        <v>4.8</v>
+      </c>
+      <c r="I170">
+        <v>2.1</v>
+      </c>
+      <c r="J170">
+        <v>30</v>
+      </c>
+      <c r="K170">
+        <v>50</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>1000</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P170" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q170">
+        <v>6800</v>
+      </c>
+      <c r="R170">
+        <v>5</v>
+      </c>
+      <c r="S170" t="s">
+        <v>27</v>
+      </c>
+      <c r="T170">
+        <v>0.05</v>
+      </c>
+      <c r="U170">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="33"/>
+        <v>9700</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>100</v>
+      </c>
+      <c r="G171">
+        <v>2.4</v>
+      </c>
+      <c r="H171">
+        <v>4.8</v>
+      </c>
+      <c r="I171">
+        <v>2.1</v>
+      </c>
+      <c r="J171">
+        <v>30</v>
+      </c>
+      <c r="K171">
+        <v>50</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>1000</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P171" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q171">
+        <v>6800</v>
+      </c>
+      <c r="R171">
+        <v>5</v>
+      </c>
+      <c r="S171" t="s">
+        <v>27</v>
+      </c>
+      <c r="T171">
+        <v>0.05</v>
+      </c>
+      <c r="U171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="33"/>
+        <v>10900</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>100</v>
+      </c>
+      <c r="G172">
+        <v>2.4</v>
+      </c>
+      <c r="H172">
+        <v>4.8</v>
+      </c>
+      <c r="I172">
+        <v>2.1</v>
+      </c>
+      <c r="J172">
+        <v>30</v>
+      </c>
+      <c r="K172">
+        <v>50</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>1000</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P172" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q172">
+        <v>6800</v>
+      </c>
+      <c r="R172">
+        <v>5</v>
+      </c>
+      <c r="S172" t="s">
+        <v>27</v>
+      </c>
+      <c r="T172">
+        <v>0.05</v>
+      </c>
+      <c r="U172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="33"/>
+        <v>12100</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>100</v>
+      </c>
+      <c r="G173">
+        <v>2.4</v>
+      </c>
+      <c r="H173">
+        <v>4.8</v>
+      </c>
+      <c r="I173">
+        <v>2.1</v>
+      </c>
+      <c r="J173">
+        <v>30</v>
+      </c>
+      <c r="K173">
+        <v>50</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>1000</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P173" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q173">
+        <v>6800</v>
+      </c>
+      <c r="R173">
+        <v>5</v>
+      </c>
+      <c r="S173" t="s">
+        <v>27</v>
+      </c>
+      <c r="T173">
+        <v>0.05</v>
+      </c>
+      <c r="U173">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>39</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="32"/>
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="33"/>
+        <v>13300</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>100</v>
+      </c>
+      <c r="G174">
+        <v>2.4</v>
+      </c>
+      <c r="H174">
+        <v>4.8</v>
+      </c>
+      <c r="I174">
+        <v>2.1</v>
+      </c>
+      <c r="J174">
+        <v>30</v>
+      </c>
+      <c r="K174">
+        <v>50</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>1000</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P174" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q174">
+        <v>6800</v>
+      </c>
+      <c r="R174">
+        <v>5</v>
+      </c>
+      <c r="S174" t="s">
+        <v>27</v>
+      </c>
+      <c r="T174">
+        <v>0.05</v>
+      </c>
+      <c r="U174">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="32"/>
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="33"/>
+        <v>14500</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>100</v>
+      </c>
+      <c r="G175">
+        <v>2.4</v>
+      </c>
+      <c r="H175">
+        <v>4.8</v>
+      </c>
+      <c r="I175">
+        <v>2.1</v>
+      </c>
+      <c r="J175">
+        <v>30</v>
+      </c>
+      <c r="K175">
+        <v>50</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1000</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P175" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q175">
+        <v>6800</v>
+      </c>
+      <c r="R175">
+        <v>5</v>
+      </c>
+      <c r="S175" t="s">
+        <v>27</v>
+      </c>
+      <c r="T175">
+        <v>0.05</v>
+      </c>
+      <c r="U175">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="32"/>
+        <v>14</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="33"/>
+        <v>15700</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>100</v>
+      </c>
+      <c r="G176">
+        <v>2.4</v>
+      </c>
+      <c r="H176">
+        <v>4.8</v>
+      </c>
+      <c r="I176">
+        <v>2.1</v>
+      </c>
+      <c r="J176">
+        <v>30</v>
+      </c>
+      <c r="K176">
+        <v>50</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1000</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P176" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q176">
+        <v>6800</v>
+      </c>
+      <c r="R176">
+        <v>5</v>
+      </c>
+      <c r="S176" t="s">
+        <v>27</v>
+      </c>
+      <c r="T176">
+        <v>0.05</v>
+      </c>
+      <c r="U176">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>39</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="32"/>
+        <v>15</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="33"/>
+        <v>16900</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>100</v>
+      </c>
+      <c r="G177">
+        <v>2.4</v>
+      </c>
+      <c r="H177">
+        <v>4.8</v>
+      </c>
+      <c r="I177">
+        <v>2.1</v>
+      </c>
+      <c r="J177">
+        <v>30</v>
+      </c>
+      <c r="K177">
+        <v>50</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>1000</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P177" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q177">
+        <v>6800</v>
+      </c>
+      <c r="R177">
+        <v>5</v>
+      </c>
+      <c r="S177" t="s">
+        <v>27</v>
+      </c>
+      <c r="T177">
+        <v>0.05</v>
+      </c>
+      <c r="U177">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>40</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>100</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>100</v>
+      </c>
+      <c r="G178">
+        <v>2.4</v>
+      </c>
+      <c r="H178">
+        <v>4.8</v>
+      </c>
+      <c r="I178">
+        <v>2.1</v>
+      </c>
+      <c r="J178">
+        <v>30</v>
+      </c>
+      <c r="K178">
+        <v>50</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>1000</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P178" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q178">
+        <v>6800</v>
+      </c>
+      <c r="R178">
+        <v>5</v>
+      </c>
+      <c r="S178" t="s">
+        <v>27</v>
+      </c>
+      <c r="T178">
+        <v>0.05</v>
+      </c>
+      <c r="U178">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>40</v>
+      </c>
+      <c r="B179">
+        <f>B178+1</f>
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <f>C178+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="D179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>100</v>
+      </c>
+      <c r="G179">
+        <v>2.4</v>
+      </c>
+      <c r="H179">
+        <v>4.8</v>
+      </c>
+      <c r="I179">
+        <v>2.1</v>
+      </c>
+      <c r="J179">
+        <v>30</v>
+      </c>
+      <c r="K179">
+        <v>50</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>1000</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P179" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q179">
+        <v>6800</v>
+      </c>
+      <c r="R179">
+        <v>5</v>
+      </c>
+      <c r="S179" t="s">
+        <v>27</v>
+      </c>
+      <c r="T179">
+        <v>0.05</v>
+      </c>
+      <c r="U179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>40</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ref="B180:B192" si="34">B179+1</f>
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ref="C180:C192" si="35">C179+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>100</v>
+      </c>
+      <c r="G180">
+        <v>2.4</v>
+      </c>
+      <c r="H180">
+        <v>4.8</v>
+      </c>
+      <c r="I180">
+        <v>2.1</v>
+      </c>
+      <c r="J180">
+        <v>30</v>
+      </c>
+      <c r="K180">
+        <v>50</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>1000</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P180" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q180">
+        <v>6800</v>
+      </c>
+      <c r="R180">
+        <v>5</v>
+      </c>
+      <c r="S180" t="s">
+        <v>27</v>
+      </c>
+      <c r="T180">
+        <v>0.05</v>
+      </c>
+      <c r="U180">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>40</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="35"/>
+        <v>3700</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>100</v>
+      </c>
+      <c r="G181">
+        <v>2.4</v>
+      </c>
+      <c r="H181">
+        <v>4.8</v>
+      </c>
+      <c r="I181">
+        <v>2.1</v>
+      </c>
+      <c r="J181">
+        <v>30</v>
+      </c>
+      <c r="K181">
+        <v>50</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>1000</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P181" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q181">
+        <v>6800</v>
+      </c>
+      <c r="R181">
+        <v>5</v>
+      </c>
+      <c r="S181" t="s">
+        <v>27</v>
+      </c>
+      <c r="T181">
+        <v>0.05</v>
+      </c>
+      <c r="U181">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="35"/>
+        <v>4900</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>100</v>
+      </c>
+      <c r="G182">
+        <v>2.4</v>
+      </c>
+      <c r="H182">
+        <v>4.8</v>
+      </c>
+      <c r="I182">
+        <v>2.1</v>
+      </c>
+      <c r="J182">
+        <v>30</v>
+      </c>
+      <c r="K182">
+        <v>50</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>1000</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P182" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <v>6800</v>
+      </c>
+      <c r="R182">
+        <v>5</v>
+      </c>
+      <c r="S182" t="s">
+        <v>27</v>
+      </c>
+      <c r="T182">
+        <v>0.05</v>
+      </c>
+      <c r="U182">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="35"/>
+        <v>6100</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>100</v>
+      </c>
+      <c r="G183">
+        <v>2.4</v>
+      </c>
+      <c r="H183">
+        <v>4.8</v>
+      </c>
+      <c r="I183">
+        <v>2.1</v>
+      </c>
+      <c r="J183">
+        <v>30</v>
+      </c>
+      <c r="K183">
+        <v>50</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>1000</v>
+      </c>
+      <c r="N183">
+        <v>4</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P183" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q183">
+        <v>6800</v>
+      </c>
+      <c r="R183">
+        <v>5</v>
+      </c>
+      <c r="S183" t="s">
+        <v>27</v>
+      </c>
+      <c r="T183">
+        <v>0.05</v>
+      </c>
+      <c r="U183">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="35"/>
+        <v>7300</v>
+      </c>
+      <c r="D184" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>100</v>
+      </c>
+      <c r="G184">
+        <v>2.4</v>
+      </c>
+      <c r="H184">
+        <v>4.8</v>
+      </c>
+      <c r="I184">
+        <v>2.1</v>
+      </c>
+      <c r="J184">
+        <v>30</v>
+      </c>
+      <c r="K184">
+        <v>50</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>1000</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P184" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q184">
+        <v>6800</v>
+      </c>
+      <c r="R184">
+        <v>5</v>
+      </c>
+      <c r="S184" t="s">
+        <v>27</v>
+      </c>
+      <c r="T184">
+        <v>0.05</v>
+      </c>
+      <c r="U184">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="35"/>
+        <v>8500</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>100</v>
+      </c>
+      <c r="G185">
+        <v>2.4</v>
+      </c>
+      <c r="H185">
+        <v>4.8</v>
+      </c>
+      <c r="I185">
+        <v>2.1</v>
+      </c>
+      <c r="J185">
+        <v>30</v>
+      </c>
+      <c r="K185">
+        <v>50</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>1000</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P185" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>6800</v>
+      </c>
+      <c r="R185">
+        <v>5</v>
+      </c>
+      <c r="S185" t="s">
+        <v>27</v>
+      </c>
+      <c r="T185">
+        <v>0.05</v>
+      </c>
+      <c r="U185">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="35"/>
+        <v>9700</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>100</v>
+      </c>
+      <c r="G186">
+        <v>2.4</v>
+      </c>
+      <c r="H186">
+        <v>4.8</v>
+      </c>
+      <c r="I186">
+        <v>2.1</v>
+      </c>
+      <c r="J186">
+        <v>30</v>
+      </c>
+      <c r="K186">
+        <v>50</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>1000</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P186" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>6800</v>
+      </c>
+      <c r="R186">
+        <v>5</v>
+      </c>
+      <c r="S186" t="s">
+        <v>27</v>
+      </c>
+      <c r="T186">
+        <v>0.05</v>
+      </c>
+      <c r="U186">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>40</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="35"/>
+        <v>10900</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>100</v>
+      </c>
+      <c r="G187">
+        <v>2.4</v>
+      </c>
+      <c r="H187">
+        <v>4.8</v>
+      </c>
+      <c r="I187">
+        <v>2.1</v>
+      </c>
+      <c r="J187">
+        <v>30</v>
+      </c>
+      <c r="K187">
+        <v>50</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>1000</v>
+      </c>
+      <c r="N187">
+        <v>4</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P187" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q187">
+        <v>6800</v>
+      </c>
+      <c r="R187">
+        <v>5</v>
+      </c>
+      <c r="S187" t="s">
+        <v>27</v>
+      </c>
+      <c r="T187">
+        <v>0.05</v>
+      </c>
+      <c r="U187">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="35"/>
+        <v>12100</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>100</v>
+      </c>
+      <c r="G188">
+        <v>2.4</v>
+      </c>
+      <c r="H188">
+        <v>4.8</v>
+      </c>
+      <c r="I188">
+        <v>2.1</v>
+      </c>
+      <c r="J188">
+        <v>30</v>
+      </c>
+      <c r="K188">
+        <v>50</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>1000</v>
+      </c>
+      <c r="N188">
+        <v>4</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P188" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q188">
+        <v>6800</v>
+      </c>
+      <c r="R188">
+        <v>5</v>
+      </c>
+      <c r="S188" t="s">
+        <v>27</v>
+      </c>
+      <c r="T188">
+        <v>0.05</v>
+      </c>
+      <c r="U188">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>40</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="35"/>
+        <v>13300</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>100</v>
+      </c>
+      <c r="G189">
+        <v>2.4</v>
+      </c>
+      <c r="H189">
+        <v>4.8</v>
+      </c>
+      <c r="I189">
+        <v>2.1</v>
+      </c>
+      <c r="J189">
+        <v>30</v>
+      </c>
+      <c r="K189">
+        <v>50</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>1000</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P189" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q189">
+        <v>6800</v>
+      </c>
+      <c r="R189">
+        <v>5</v>
+      </c>
+      <c r="S189" t="s">
+        <v>27</v>
+      </c>
+      <c r="T189">
+        <v>0.05</v>
+      </c>
+      <c r="U189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="34"/>
+        <v>13</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="35"/>
+        <v>14500</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>100</v>
+      </c>
+      <c r="G190">
+        <v>2.4</v>
+      </c>
+      <c r="H190">
+        <v>4.8</v>
+      </c>
+      <c r="I190">
+        <v>2.1</v>
+      </c>
+      <c r="J190">
+        <v>30</v>
+      </c>
+      <c r="K190">
+        <v>50</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>1000</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P190" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <v>6800</v>
+      </c>
+      <c r="R190">
+        <v>5</v>
+      </c>
+      <c r="S190" t="s">
+        <v>27</v>
+      </c>
+      <c r="T190">
+        <v>0.05</v>
+      </c>
+      <c r="U190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>40</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="34"/>
+        <v>14</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="35"/>
+        <v>15700</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>100</v>
+      </c>
+      <c r="G191">
+        <v>2.4</v>
+      </c>
+      <c r="H191">
+        <v>4.8</v>
+      </c>
+      <c r="I191">
+        <v>2.1</v>
+      </c>
+      <c r="J191">
+        <v>30</v>
+      </c>
+      <c r="K191">
+        <v>50</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>1000</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P191" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>6800</v>
+      </c>
+      <c r="R191">
+        <v>5</v>
+      </c>
+      <c r="S191" t="s">
+        <v>27</v>
+      </c>
+      <c r="T191">
+        <v>0.05</v>
+      </c>
+      <c r="U191">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>40</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="34"/>
+        <v>15</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="35"/>
+        <v>16900</v>
+      </c>
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>100</v>
+      </c>
+      <c r="G192">
+        <v>2.4</v>
+      </c>
+      <c r="H192">
+        <v>4.8</v>
+      </c>
+      <c r="I192">
+        <v>2.1</v>
+      </c>
+      <c r="J192">
+        <v>30</v>
+      </c>
+      <c r="K192">
+        <v>50</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>1000</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="29"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="P192" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q192">
+        <v>6800</v>
+      </c>
+      <c r="R192">
+        <v>5</v>
+      </c>
+      <c r="S192" t="s">
+        <v>27</v>
+      </c>
+      <c r="T192">
+        <v>0.05</v>
+      </c>
+      <c r="U192">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:V192">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="180920_10mg-kgAMPH_1.csv"/>
+        <filter val="190205_a-synKO_AMPH1.csv"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2">
+        <v>6.5</v>
+      </c>
+      <c r="D2">
+        <f>10*(1/C2)</f>
+        <v>1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+2</f>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D31" si="0">10*(1/C3)</f>
+        <v>1.8181818181818183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A31" si="1">A3+2</f>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.8181818181818183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>6.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>6.8</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>7.5</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>6.8</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>6.5</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>6.2</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>5.8</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>5.6</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>5.2</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.32258064516129031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>4.8</v>
+      </c>
+      <c r="C17">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.27027027027027029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>3.9</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>3.8</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>3.9</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>3.8</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>3.6</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>3.6</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>3.5</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>3.3</v>
+      </c>
+      <c r="C30">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>3.2</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$V$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$W$192</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="51">
   <si>
     <t>filename</t>
   </si>
@@ -173,6 +173,18 @@
   <si>
     <t>Transporter Affinity</t>
   </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>Where you start makes a difference on the release.</t>
+  </si>
 </sst>
 </file>
 
@@ -220,8 +232,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,15 +248,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -299,7 +315,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -800,11 +815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1163598448"/>
-        <c:axId val="-1162963488"/>
+        <c:axId val="-1162228480"/>
+        <c:axId val="-1162227952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1163598448"/>
+        <c:axId val="-1162228480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1162963488"/>
+        <c:crossAx val="-1162227952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -855,7 +870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1162963488"/>
+        <c:axId val="-1162227952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1163598448"/>
+        <c:crossAx val="-1162228480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,7 +934,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1841,13 +1855,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:V192"/>
+  <dimension ref="A1:W192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="V48" sqref="V48:V61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1867,10 +1881,11 @@
     <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1935,10 +1950,13 @@
         <v>26</v>
       </c>
       <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2021,11 @@
       <c r="U2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2069,8 +2090,11 @@
       <c r="U3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2159,11 @@
       <c r="U4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2201,8 +2228,11 @@
       <c r="U5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2297,11 @@
       <c r="U6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2366,11 @@
       <c r="U7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2400,10 +2436,13 @@
         <v>60</v>
       </c>
       <c r="V8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2469,10 +2508,13 @@
         <v>40</v>
       </c>
       <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2480,7 +2522,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C7:C16" si="1">C9+1200</f>
+        <f t="shared" ref="C10:C14" si="1">C9+1200</f>
         <v>9701</v>
       </c>
       <c r="D10" t="s">
@@ -2538,8 +2580,11 @@
       <c r="U10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2605,8 +2650,11 @@
       <c r="U11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2672,8 +2720,11 @@
       <c r="U12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2790,11 @@
       <c r="U13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2806,8 +2860,11 @@
       <c r="U14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +2929,11 @@
       <c r="U15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +2998,11 @@
       <c r="U16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3004,8 +3067,11 @@
       <c r="U17">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3073,8 +3139,11 @@
       <c r="U18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3142,8 +3211,11 @@
       <c r="U19">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3210,8 +3282,11 @@
       <c r="U20">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3278,8 +3353,11 @@
       <c r="U21">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3347,8 +3425,11 @@
       <c r="U22">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3415,8 +3496,11 @@
       <c r="U23">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3483,8 +3567,11 @@
       <c r="U24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3552,8 +3639,11 @@
       <c r="U25">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3620,8 +3710,11 @@
       <c r="U26">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3688,8 +3781,11 @@
       <c r="U27">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3756,8 +3852,11 @@
       <c r="U28">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3825,8 +3924,11 @@
       <c r="U29">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3894,8 +3996,11 @@
       <c r="U30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3962,8 +4067,11 @@
       <c r="U31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4028,8 +4136,11 @@
       <c r="U32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>A32</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4098,8 +4209,11 @@
       <c r="U33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A46" si="5">A33</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4168,8 +4282,11 @@
       <c r="U34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4237,8 +4354,11 @@
       <c r="U35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4306,8 +4426,11 @@
       <c r="U36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4375,8 +4498,11 @@
       <c r="U37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4444,8 +4570,11 @@
       <c r="U38">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4513,8 +4642,11 @@
       <c r="U39">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4582,8 +4714,11 @@
       <c r="U40">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4651,8 +4786,11 @@
       <c r="U41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4720,8 +4858,11 @@
       <c r="U42">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4789,8 +4930,11 @@
       <c r="U43">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4800,7 +4944,7 @@
         <v>13</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C35:C45" si="9">C43+1200</f>
+        <f t="shared" ref="C44:C45" si="9">C43+1200</f>
         <v>14501</v>
       </c>
       <c r="D44" t="str">
@@ -4859,8 +5003,11 @@
       <c r="U44">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4929,8 +5076,11 @@
       <c r="U45">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4998,8 +5148,11 @@
       <c r="U46">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -5007,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -5019,13 +5172,13 @@
         <v>100</v>
       </c>
       <c r="G47">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H47">
         <v>4.8</v>
       </c>
       <c r="I47">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J47">
         <v>30</v>
@@ -5059,13 +5212,16 @@
         <v>27</v>
       </c>
       <c r="T47">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>A47</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5075,8 +5231,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <f>C47+1200</f>
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D48" t="str">
         <f>D47</f>
@@ -5089,13 +5244,13 @@
         <v>100</v>
       </c>
       <c r="G48">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H48">
         <v>4.8</v>
       </c>
       <c r="I48">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J48">
         <v>30</v>
@@ -5129,13 +5284,16 @@
         <v>27</v>
       </c>
       <c r="T48">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" ref="A49:A61" si="10">A48</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5145,11 +5303,10 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C61" si="12">C48+1200</f>
-        <v>2500</v>
+        <v>2505</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" ref="D49:D61" si="13">D48</f>
+        <f t="shared" ref="D49:D61" si="12">D48</f>
         <v>ko</v>
       </c>
       <c r="E49">
@@ -5159,13 +5316,13 @@
         <v>100</v>
       </c>
       <c r="G49">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H49">
         <v>4.8</v>
       </c>
       <c r="I49">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J49">
         <v>30</v>
@@ -5199,13 +5356,16 @@
         <v>27</v>
       </c>
       <c r="T49">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="V49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5215,11 +5375,10 @@
         <v>4</v>
       </c>
       <c r="C50">
+        <v>3705</v>
+      </c>
+      <c r="D50" t="str">
         <f t="shared" si="12"/>
-        <v>3700</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E50">
@@ -5229,13 +5388,13 @@
         <v>100</v>
       </c>
       <c r="G50">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H50">
         <v>4.8</v>
       </c>
       <c r="I50">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J50">
         <v>30</v>
@@ -5269,13 +5428,16 @@
         <v>27</v>
       </c>
       <c r="T50">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5285,11 +5447,10 @@
         <v>5</v>
       </c>
       <c r="C51">
+        <v>4903</v>
+      </c>
+      <c r="D51" t="str">
         <f t="shared" si="12"/>
-        <v>4900</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E51">
@@ -5299,13 +5460,13 @@
         <v>100</v>
       </c>
       <c r="G51">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H51">
         <v>4.8</v>
       </c>
       <c r="I51">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J51">
         <v>30</v>
@@ -5339,13 +5500,16 @@
         <v>27</v>
       </c>
       <c r="T51">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5355,11 +5519,10 @@
         <v>6</v>
       </c>
       <c r="C52">
+        <v>6103</v>
+      </c>
+      <c r="D52" t="str">
         <f t="shared" si="12"/>
-        <v>6100</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E52">
@@ -5369,13 +5532,13 @@
         <v>100</v>
       </c>
       <c r="G52">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H52">
         <v>4.8</v>
       </c>
       <c r="I52">
-        <v>2.1</v>
+        <v>33</v>
       </c>
       <c r="J52">
         <v>30</v>
@@ -5409,13 +5572,16 @@
         <v>27</v>
       </c>
       <c r="T52">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5425,11 +5591,10 @@
         <v>7</v>
       </c>
       <c r="C53">
+        <v>7301</v>
+      </c>
+      <c r="D53" t="str">
         <f t="shared" si="12"/>
-        <v>7300</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E53">
@@ -5439,13 +5604,13 @@
         <v>100</v>
       </c>
       <c r="G53">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H53">
         <v>4.8</v>
       </c>
       <c r="I53">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J53">
         <v>30</v>
@@ -5479,13 +5644,16 @@
         <v>27</v>
       </c>
       <c r="T53">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5495,11 +5663,10 @@
         <v>8</v>
       </c>
       <c r="C54">
+        <v>8503</v>
+      </c>
+      <c r="D54" t="str">
         <f t="shared" si="12"/>
-        <v>8500</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E54">
@@ -5509,13 +5676,13 @@
         <v>100</v>
       </c>
       <c r="G54">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>4.8</v>
       </c>
       <c r="I54">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J54">
         <v>30</v>
@@ -5549,13 +5716,16 @@
         <v>27</v>
       </c>
       <c r="T54">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5565,11 +5735,10 @@
         <v>9</v>
       </c>
       <c r="C55">
+        <v>9703</v>
+      </c>
+      <c r="D55" t="str">
         <f t="shared" si="12"/>
-        <v>9700</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E55">
@@ -5579,13 +5748,13 @@
         <v>100</v>
       </c>
       <c r="G55">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="H55">
         <v>4.8</v>
       </c>
       <c r="I55">
-        <v>2.1</v>
+        <v>33</v>
       </c>
       <c r="J55">
         <v>30</v>
@@ -5619,13 +5788,16 @@
         <v>27</v>
       </c>
       <c r="T55">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U55">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5635,11 +5807,10 @@
         <v>10</v>
       </c>
       <c r="C56">
+        <v>10901</v>
+      </c>
+      <c r="D56" t="str">
         <f t="shared" si="12"/>
-        <v>10900</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E56">
@@ -5649,13 +5820,13 @@
         <v>100</v>
       </c>
       <c r="G56">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="H56">
         <v>4.8</v>
       </c>
       <c r="I56">
-        <v>2.1</v>
+        <v>36</v>
       </c>
       <c r="J56">
         <v>30</v>
@@ -5689,13 +5860,16 @@
         <v>27</v>
       </c>
       <c r="T56">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5705,11 +5879,11 @@
         <v>11</v>
       </c>
       <c r="C57">
+        <f t="shared" ref="C49:C61" si="13">C56+1200</f>
+        <v>12101</v>
+      </c>
+      <c r="D57" t="str">
         <f t="shared" si="12"/>
-        <v>12100</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E57">
@@ -5719,13 +5893,13 @@
         <v>100</v>
       </c>
       <c r="G57">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <v>4.8</v>
       </c>
       <c r="I57">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J57">
         <v>30</v>
@@ -5759,13 +5933,16 @@
         <v>27</v>
       </c>
       <c r="T57">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5775,10 +5952,10 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>13299</v>
+        <v>13303</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>ko</v>
       </c>
       <c r="E58">
@@ -5788,13 +5965,13 @@
         <v>100</v>
       </c>
       <c r="G58">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H58">
         <v>4.8</v>
       </c>
       <c r="I58">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J58">
         <v>30</v>
@@ -5828,13 +6005,19 @@
         <v>27</v>
       </c>
       <c r="T58">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V58" t="s">
+        <v>49</v>
+      </c>
+      <c r="W58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5844,11 +6027,10 @@
         <v>13</v>
       </c>
       <c r="C59">
+        <v>14500</v>
+      </c>
+      <c r="D59" t="str">
         <f t="shared" si="12"/>
-        <v>14499</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E59">
@@ -5858,13 +6040,13 @@
         <v>100</v>
       </c>
       <c r="G59">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H59">
         <v>4.8</v>
       </c>
       <c r="I59">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J59">
         <v>30</v>
@@ -5898,13 +6080,16 @@
         <v>27</v>
       </c>
       <c r="T59">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U59">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5914,11 +6099,11 @@
         <v>14</v>
       </c>
       <c r="C60">
+        <f>16701-1000</f>
+        <v>15701</v>
+      </c>
+      <c r="D60" t="str">
         <f t="shared" si="12"/>
-        <v>15699</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E60">
@@ -5928,13 +6113,13 @@
         <v>100</v>
       </c>
       <c r="G60">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>4.8</v>
       </c>
       <c r="I60">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J60">
         <v>30</v>
@@ -5968,13 +6153,16 @@
         <v>27</v>
       </c>
       <c r="T60">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5984,11 +6172,10 @@
         <v>15</v>
       </c>
       <c r="C61">
+        <v>16899</v>
+      </c>
+      <c r="D61" t="str">
         <f t="shared" si="12"/>
-        <v>16899</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="13"/>
         <v>ko</v>
       </c>
       <c r="E61">
@@ -5998,13 +6185,13 @@
         <v>100</v>
       </c>
       <c r="G61">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>4.8</v>
       </c>
       <c r="I61">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J61">
         <v>30</v>
@@ -6038,13 +6225,16 @@
         <v>27</v>
       </c>
       <c r="T61">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -6110,7 +6300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -6178,7 +6368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -7332,7 +7522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -7400,7 +7590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -7468,7 +7658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -7536,7 +7726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>29</v>
       </c>
@@ -7604,7 +7794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -7672,7 +7862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -7740,7 +7930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -7808,7 +7998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -7876,7 +8066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -7944,7 +8134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -8012,7 +8202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -8080,7 +8270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -8146,7 +8336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -8213,11 +8403,11 @@
       <c r="U93">
         <v>20</v>
       </c>
-      <c r="V93" t="s">
+      <c r="W93" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -8285,7 +8475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -8353,7 +8543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -11677,7 +11867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -11745,7 +11935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -11813,7 +12003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -11881,7 +12071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>38</v>
       </c>
@@ -11946,11 +12136,11 @@
       <c r="U148">
         <v>20</v>
       </c>
-      <c r="V148" t="s">
+      <c r="W148" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>38</v>
       </c>
@@ -12018,7 +12208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>38</v>
       </c>
@@ -12086,7 +12276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -12154,7 +12344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>38</v>
       </c>
@@ -12222,7 +12412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>38</v>
       </c>
@@ -12290,7 +12480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -12358,7 +12548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>38</v>
       </c>
@@ -12426,7 +12616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>38</v>
       </c>
@@ -12494,7 +12684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>38</v>
       </c>
@@ -12562,7 +12752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>38</v>
       </c>
@@ -12630,7 +12820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>38</v>
       </c>
@@ -12698,7 +12888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>38</v>
       </c>
@@ -14939,11 +15129,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V192">
+  <autoFilter ref="A1:W192">
     <filterColumn colId="0">
       <filters>
-        <filter val="180920_10mg-kgAMPH_1.csv"/>
         <filter val="190205_a-synKO_AMPH1.csv"/>
+        <filter val="190205_a-synKO_AMPH2.csv"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="49">
   <si>
     <t>filename</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>comment</t>
-  </si>
-  <si>
-    <t>Drop produces false baseline.</t>
-  </si>
-  <si>
-    <t>all</t>
   </si>
   <si>
     <t>190205_a-synKO_2_AMPH_2.csv</t>
@@ -815,11 +809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1162228480"/>
-        <c:axId val="-1162227952"/>
+        <c:axId val="898149072"/>
+        <c:axId val="813350560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1162228480"/>
+        <c:axId val="898149072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1162227952"/>
+        <c:crossAx val="813350560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,7 +864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1162227952"/>
+        <c:axId val="813350560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1162228480"/>
+        <c:crossAx val="898149072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1857,11 +1851,11 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V48" sqref="V48:V61"/>
+      <selection pane="bottomRight" activeCell="V107" sqref="V107:V121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,7 +1944,7 @@
         <v>26</v>
       </c>
       <c r="V1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W1" t="s">
         <v>31</v>
@@ -2022,7 +2016,7 @@
         <v>20</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2091,7 +2085,7 @@
         <v>20</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2160,7 +2154,7 @@
         <v>20</v>
       </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2229,7 +2223,7 @@
         <v>20</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2298,7 +2292,7 @@
         <v>40</v>
       </c>
       <c r="V6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2367,7 +2361,7 @@
         <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2436,10 +2430,10 @@
         <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2508,10 +2502,10 @@
         <v>40</v>
       </c>
       <c r="V9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2581,7 +2575,7 @@
         <v>40</v>
       </c>
       <c r="V10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2651,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="V11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2721,7 +2715,7 @@
         <v>20</v>
       </c>
       <c r="V12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2791,7 +2785,7 @@
         <v>20</v>
       </c>
       <c r="V13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2861,7 +2855,7 @@
         <v>30</v>
       </c>
       <c r="V14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2930,7 +2924,7 @@
         <v>30</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -2999,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="V16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3068,7 +3062,7 @@
         <v>30</v>
       </c>
       <c r="V17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3140,7 +3134,7 @@
         <v>30</v>
       </c>
       <c r="V18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3212,7 +3206,7 @@
         <v>30</v>
       </c>
       <c r="V19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3283,7 +3277,7 @@
         <v>40</v>
       </c>
       <c r="V20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3354,7 +3348,7 @@
         <v>30</v>
       </c>
       <c r="V21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3426,7 +3420,7 @@
         <v>30</v>
       </c>
       <c r="V22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3497,7 +3491,7 @@
         <v>30</v>
       </c>
       <c r="V23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3568,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="V24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3640,7 +3634,7 @@
         <v>30</v>
       </c>
       <c r="V25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3711,7 +3705,7 @@
         <v>40</v>
       </c>
       <c r="V26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3782,7 +3776,7 @@
         <v>30</v>
       </c>
       <c r="V27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3853,7 +3847,7 @@
         <v>40</v>
       </c>
       <c r="V28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3925,7 +3919,7 @@
         <v>30</v>
       </c>
       <c r="V29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -3997,7 +3991,7 @@
         <v>30</v>
       </c>
       <c r="V30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -4068,10 +4062,10 @@
         <v>50</v>
       </c>
       <c r="V31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4137,10 +4131,10 @@
         <v>20</v>
       </c>
       <c r="V32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>A32</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4210,10 +4204,10 @@
         <v>20</v>
       </c>
       <c r="V33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A46" si="5">A33</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4283,10 +4277,10 @@
         <v>20</v>
       </c>
       <c r="V34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4355,10 +4349,10 @@
         <v>15</v>
       </c>
       <c r="V35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4427,10 +4421,10 @@
         <v>10</v>
       </c>
       <c r="V36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4499,10 +4493,10 @@
         <v>20</v>
       </c>
       <c r="V37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4571,10 +4565,10 @@
         <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4643,10 +4637,10 @@
         <v>40</v>
       </c>
       <c r="V39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4715,10 +4709,10 @@
         <v>40</v>
       </c>
       <c r="V40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4787,10 +4781,10 @@
         <v>20</v>
       </c>
       <c r="V41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4859,10 +4853,10 @@
         <v>20</v>
       </c>
       <c r="V42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4931,10 +4925,10 @@
         <v>30</v>
       </c>
       <c r="V43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5004,10 +4998,10 @@
         <v>30</v>
       </c>
       <c r="V44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5077,10 +5071,10 @@
         <v>30</v>
       </c>
       <c r="V45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5149,10 +5143,10 @@
         <v>30</v>
       </c>
       <c r="V46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -5218,10 +5212,10 @@
         <v>30</v>
       </c>
       <c r="V47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>A47</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5290,10 +5284,10 @@
         <v>100</v>
       </c>
       <c r="V48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" ref="A49:A61" si="10">A48</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5362,10 +5356,10 @@
         <v>50</v>
       </c>
       <c r="V49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5434,10 +5428,10 @@
         <v>30</v>
       </c>
       <c r="V50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5506,10 +5500,10 @@
         <v>30</v>
       </c>
       <c r="V51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5578,10 +5572,10 @@
         <v>30</v>
       </c>
       <c r="V52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5650,10 +5644,10 @@
         <v>100</v>
       </c>
       <c r="V53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5722,10 +5716,10 @@
         <v>30</v>
       </c>
       <c r="V54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5794,10 +5788,10 @@
         <v>30</v>
       </c>
       <c r="V55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5866,10 +5860,10 @@
         <v>30</v>
       </c>
       <c r="V56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5879,7 +5873,7 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C49:C61" si="13">C56+1200</f>
+        <f t="shared" ref="C57" si="13">C56+1200</f>
         <v>12101</v>
       </c>
       <c r="D57" t="str">
@@ -5939,10 +5933,10 @@
         <v>30</v>
       </c>
       <c r="V57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6011,13 +6005,13 @@
         <v>30</v>
       </c>
       <c r="V58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6086,10 +6080,10 @@
         <v>30</v>
       </c>
       <c r="V59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6159,10 +6153,10 @@
         <v>30</v>
       </c>
       <c r="V60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6231,7 +6225,7 @@
         <v>30</v>
       </c>
       <c r="V61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -6242,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -6254,13 +6248,13 @@
         <v>100</v>
       </c>
       <c r="G62">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H62">
         <v>4.8</v>
       </c>
       <c r="I62">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="J62">
         <v>30</v>
@@ -6294,10 +6288,13 @@
         <v>27</v>
       </c>
       <c r="T62">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="U62">
         <v>20</v>
+      </c>
+      <c r="V62" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -6309,8 +6306,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <f>C62+1200</f>
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -6322,13 +6318,13 @@
         <v>100</v>
       </c>
       <c r="G63">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H63">
         <v>4.8</v>
       </c>
       <c r="I63">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="J63">
         <v>30</v>
@@ -6366,6 +6362,9 @@
       </c>
       <c r="U63">
         <v>20</v>
+      </c>
+      <c r="V63" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -6377,8 +6376,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C76" si="15">C63+1200</f>
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -6390,13 +6388,13 @@
         <v>100</v>
       </c>
       <c r="G64">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>4.8</v>
       </c>
       <c r="I64">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="J64">
         <v>30</v>
@@ -6435,8 +6433,11 @@
       <c r="U64">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -6445,8 +6446,7 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <f t="shared" si="15"/>
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -6458,13 +6458,13 @@
         <v>100</v>
       </c>
       <c r="G65">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H65">
         <v>4.8</v>
       </c>
       <c r="I65">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="J65">
         <v>30</v>
@@ -6503,8 +6503,11 @@
       <c r="U65">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -6513,8 +6516,7 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <f t="shared" si="15"/>
-        <v>4900</v>
+        <v>4903</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -6526,13 +6528,13 @@
         <v>100</v>
       </c>
       <c r="G66">
-        <v>2.4</v>
+        <v>7.8</v>
       </c>
       <c r="H66">
         <v>4.8</v>
       </c>
       <c r="I66">
-        <v>2.1</v>
+        <v>20</v>
       </c>
       <c r="J66">
         <v>30</v>
@@ -6566,13 +6568,16 @@
         <v>27</v>
       </c>
       <c r="T66">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="V66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -6581,8 +6586,7 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <f t="shared" si="15"/>
-        <v>6100</v>
+        <v>6103</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -6594,13 +6598,13 @@
         <v>100</v>
       </c>
       <c r="G67">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="H67">
         <v>4.8</v>
       </c>
       <c r="I67">
-        <v>2.1</v>
+        <v>27</v>
       </c>
       <c r="J67">
         <v>30</v>
@@ -6618,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O144" si="16">2.7*10^-6</f>
+        <f t="shared" ref="O67:O144" si="15">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="P67" t="b">
@@ -6634,13 +6638,16 @@
         <v>27</v>
       </c>
       <c r="T67">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="V67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -6649,8 +6656,7 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <f t="shared" si="15"/>
-        <v>7300</v>
+        <v>7303</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -6662,13 +6668,13 @@
         <v>100</v>
       </c>
       <c r="G68">
-        <v>2.4</v>
+        <v>9.6</v>
       </c>
       <c r="H68">
         <v>4.8</v>
       </c>
       <c r="I68">
-        <v>2.1</v>
+        <v>32</v>
       </c>
       <c r="J68">
         <v>30</v>
@@ -6686,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="O68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P68" t="b">
@@ -6702,13 +6708,16 @@
         <v>27</v>
       </c>
       <c r="T68">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U68">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -6717,7 +6726,6 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <f t="shared" si="15"/>
         <v>8500</v>
       </c>
       <c r="D69" t="s">
@@ -6730,13 +6738,13 @@
         <v>100</v>
       </c>
       <c r="G69">
-        <v>2.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H69">
         <v>4.8</v>
       </c>
       <c r="I69">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J69">
         <v>30</v>
@@ -6754,7 +6762,7 @@
         <v>4</v>
       </c>
       <c r="O69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P69" t="b">
@@ -6770,13 +6778,16 @@
         <v>27</v>
       </c>
       <c r="T69">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="V69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -6785,7 +6796,7 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C70:C76" si="16">C69+1200</f>
         <v>9700</v>
       </c>
       <c r="D70" t="s">
@@ -6798,13 +6809,13 @@
         <v>100</v>
       </c>
       <c r="G70">
-        <v>2.4</v>
+        <v>8.9</v>
       </c>
       <c r="H70">
         <v>4.8</v>
       </c>
       <c r="I70">
-        <v>2.1</v>
+        <v>37</v>
       </c>
       <c r="J70">
         <v>30</v>
@@ -6822,7 +6833,7 @@
         <v>4</v>
       </c>
       <c r="O70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P70" t="b">
@@ -6838,13 +6849,16 @@
         <v>27</v>
       </c>
       <c r="T70">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -6853,7 +6867,7 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10900</v>
       </c>
       <c r="D71" t="s">
@@ -6866,13 +6880,13 @@
         <v>100</v>
       </c>
       <c r="G71">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="H71">
         <v>4.8</v>
       </c>
       <c r="I71">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J71">
         <v>30</v>
@@ -6890,7 +6904,7 @@
         <v>4</v>
       </c>
       <c r="O71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P71" t="b">
@@ -6906,13 +6920,16 @@
         <v>27</v>
       </c>
       <c r="T71">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U71">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -6921,7 +6938,7 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12100</v>
       </c>
       <c r="D72" t="s">
@@ -6934,13 +6951,13 @@
         <v>100</v>
       </c>
       <c r="G72">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="H72">
         <v>4.8</v>
       </c>
       <c r="I72">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J72">
         <v>30</v>
@@ -6958,7 +6975,7 @@
         <v>4</v>
       </c>
       <c r="O72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P72" t="b">
@@ -6974,13 +6991,16 @@
         <v>27</v>
       </c>
       <c r="T72">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U72">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -6989,7 +7009,7 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13300</v>
       </c>
       <c r="D73" t="s">
@@ -7002,13 +7022,13 @@
         <v>100</v>
       </c>
       <c r="G73">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="H73">
         <v>4.8</v>
       </c>
       <c r="I73">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J73">
         <v>30</v>
@@ -7026,7 +7046,7 @@
         <v>4</v>
       </c>
       <c r="O73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P73" t="b">
@@ -7042,13 +7062,16 @@
         <v>27</v>
       </c>
       <c r="T73">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U73">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -7057,7 +7080,7 @@
         <v>13</v>
       </c>
       <c r="C74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14500</v>
       </c>
       <c r="D74" t="s">
@@ -7070,13 +7093,13 @@
         <v>100</v>
       </c>
       <c r="G74">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="H74">
         <v>4.8</v>
       </c>
       <c r="I74">
-        <v>2.1</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>30</v>
@@ -7094,7 +7117,7 @@
         <v>4</v>
       </c>
       <c r="O74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P74" t="b">
@@ -7110,13 +7133,16 @@
         <v>27</v>
       </c>
       <c r="T74">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U74">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -7125,7 +7151,7 @@
         <v>14</v>
       </c>
       <c r="C75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15700</v>
       </c>
       <c r="D75" t="s">
@@ -7138,13 +7164,13 @@
         <v>100</v>
       </c>
       <c r="G75">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H75">
         <v>4.8</v>
       </c>
       <c r="I75">
-        <v>2.1</v>
+        <v>34</v>
       </c>
       <c r="J75">
         <v>30</v>
@@ -7162,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="O75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P75" t="b">
@@ -7178,13 +7204,16 @@
         <v>27</v>
       </c>
       <c r="T75">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U75">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -7193,7 +7222,7 @@
         <v>15</v>
       </c>
       <c r="C76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16900</v>
       </c>
       <c r="D76" t="s">
@@ -7206,13 +7235,13 @@
         <v>100</v>
       </c>
       <c r="G76">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H76">
         <v>4.8</v>
       </c>
       <c r="I76">
-        <v>2.1</v>
+        <v>37</v>
       </c>
       <c r="J76">
         <v>30</v>
@@ -7230,7 +7259,7 @@
         <v>4</v>
       </c>
       <c r="O76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P76" t="b">
@@ -7246,13 +7275,16 @@
         <v>27</v>
       </c>
       <c r="T76">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -7260,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -7272,13 +7304,13 @@
         <v>100</v>
       </c>
       <c r="G77">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H77">
         <v>4.8</v>
       </c>
       <c r="I77">
-        <v>2.1</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>30</v>
@@ -7296,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="O77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P77" t="b">
@@ -7312,13 +7344,16 @@
         <v>27</v>
       </c>
       <c r="T77">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U77">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -7327,8 +7362,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <f>C77+1200</f>
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -7340,13 +7374,13 @@
         <v>100</v>
       </c>
       <c r="G78">
-        <v>2.4</v>
+        <v>7.4</v>
       </c>
       <c r="H78">
         <v>4.8</v>
       </c>
       <c r="I78">
-        <v>2.1</v>
+        <v>38</v>
       </c>
       <c r="J78">
         <v>30</v>
@@ -7364,7 +7398,7 @@
         <v>4</v>
       </c>
       <c r="O78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P78" t="b">
@@ -7380,13 +7414,16 @@
         <v>27</v>
       </c>
       <c r="T78">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U78">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -7395,8 +7432,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:C91" si="18">C78+1200</f>
-        <v>2500</v>
+        <v>2505</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -7408,13 +7444,13 @@
         <v>100</v>
       </c>
       <c r="G79">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H79">
         <v>4.8</v>
       </c>
       <c r="I79">
-        <v>2.1</v>
+        <v>38</v>
       </c>
       <c r="J79">
         <v>30</v>
@@ -7432,7 +7468,7 @@
         <v>4</v>
       </c>
       <c r="O79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P79" t="b">
@@ -7448,13 +7484,16 @@
         <v>27</v>
       </c>
       <c r="T79">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U79">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -7463,8 +7502,7 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <f t="shared" si="18"/>
-        <v>3700</v>
+        <v>3702</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -7476,13 +7514,13 @@
         <v>100</v>
       </c>
       <c r="G80">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="H80">
         <v>4.8</v>
       </c>
       <c r="I80">
-        <v>2.1</v>
+        <v>37</v>
       </c>
       <c r="J80">
         <v>30</v>
@@ -7500,7 +7538,7 @@
         <v>4</v>
       </c>
       <c r="O80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P80" t="b">
@@ -7516,13 +7554,16 @@
         <v>27</v>
       </c>
       <c r="T80">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U80">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -7531,8 +7572,7 @@
         <v>5</v>
       </c>
       <c r="C81">
-        <f t="shared" si="18"/>
-        <v>4900</v>
+        <v>4902</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -7544,13 +7584,13 @@
         <v>100</v>
       </c>
       <c r="G81">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="H81">
         <v>4.8</v>
       </c>
       <c r="I81">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J81">
         <v>30</v>
@@ -7568,7 +7608,7 @@
         <v>4</v>
       </c>
       <c r="O81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P81" t="b">
@@ -7584,13 +7624,16 @@
         <v>27</v>
       </c>
       <c r="T81">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V81" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -7599,8 +7642,7 @@
         <v>6</v>
       </c>
       <c r="C82">
-        <f t="shared" si="18"/>
-        <v>6100</v>
+        <v>6102</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -7612,13 +7654,13 @@
         <v>100</v>
       </c>
       <c r="G82">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="H82">
         <v>4.8</v>
       </c>
       <c r="I82">
-        <v>2.1</v>
+        <v>37</v>
       </c>
       <c r="J82">
         <v>30</v>
@@ -7636,7 +7678,7 @@
         <v>4</v>
       </c>
       <c r="O82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P82" t="b">
@@ -7652,13 +7694,16 @@
         <v>27</v>
       </c>
       <c r="T82">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="U82">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -7667,8 +7712,7 @@
         <v>7</v>
       </c>
       <c r="C83">
-        <f t="shared" si="18"/>
-        <v>7300</v>
+        <v>7302</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -7680,13 +7724,13 @@
         <v>100</v>
       </c>
       <c r="G83">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H83">
         <v>4.8</v>
       </c>
       <c r="I83">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J83">
         <v>30</v>
@@ -7704,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="O83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P83" t="b">
@@ -7720,13 +7764,16 @@
         <v>27</v>
       </c>
       <c r="T83">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="U83">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>29</v>
       </c>
@@ -7735,8 +7782,7 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <f t="shared" si="18"/>
-        <v>8500</v>
+        <v>8502</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -7748,13 +7794,13 @@
         <v>100</v>
       </c>
       <c r="G84">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="H84">
         <v>4.8</v>
       </c>
       <c r="I84">
-        <v>2.1</v>
+        <v>37</v>
       </c>
       <c r="J84">
         <v>30</v>
@@ -7772,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="O84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P84" t="b">
@@ -7788,13 +7834,16 @@
         <v>27</v>
       </c>
       <c r="T84">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="U84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -7803,8 +7852,7 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <f t="shared" si="18"/>
-        <v>9700</v>
+        <v>9702</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -7816,13 +7864,13 @@
         <v>100</v>
       </c>
       <c r="G85">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="H85">
         <v>4.8</v>
       </c>
       <c r="I85">
-        <v>2.1</v>
+        <v>37</v>
       </c>
       <c r="J85">
         <v>30</v>
@@ -7840,7 +7888,7 @@
         <v>4</v>
       </c>
       <c r="O85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P85" t="b">
@@ -7856,13 +7904,16 @@
         <v>27</v>
       </c>
       <c r="T85">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="U85">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -7871,8 +7922,7 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <f t="shared" si="18"/>
-        <v>10900</v>
+        <v>10902</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -7884,13 +7934,13 @@
         <v>100</v>
       </c>
       <c r="G86">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="H86">
         <v>4.8</v>
       </c>
       <c r="I86">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J86">
         <v>30</v>
@@ -7908,7 +7958,7 @@
         <v>4</v>
       </c>
       <c r="O86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P86" t="b">
@@ -7924,13 +7974,16 @@
         <v>27</v>
       </c>
       <c r="T86">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="U86">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V86" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -7939,7 +7992,6 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <f t="shared" si="18"/>
         <v>12100</v>
       </c>
       <c r="D87" t="s">
@@ -7952,13 +8004,13 @@
         <v>100</v>
       </c>
       <c r="G87">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H87">
         <v>4.8</v>
       </c>
       <c r="I87">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J87">
         <v>30</v>
@@ -7976,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="O87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P87" t="b">
@@ -7992,13 +8044,16 @@
         <v>27</v>
       </c>
       <c r="T87">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -8007,7 +8062,7 @@
         <v>12</v>
       </c>
       <c r="C88">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="C79:C91" si="18">C87+1200</f>
         <v>13300</v>
       </c>
       <c r="D88" t="s">
@@ -8020,13 +8075,13 @@
         <v>100</v>
       </c>
       <c r="G88">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H88">
         <v>4.8</v>
       </c>
       <c r="I88">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J88">
         <v>30</v>
@@ -8044,7 +8099,7 @@
         <v>4</v>
       </c>
       <c r="O88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P88" t="b">
@@ -8060,13 +8115,16 @@
         <v>27</v>
       </c>
       <c r="T88">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U88">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -8088,13 +8146,13 @@
         <v>100</v>
       </c>
       <c r="G89">
-        <v>2.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H89">
         <v>4.8</v>
       </c>
       <c r="I89">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J89">
         <v>30</v>
@@ -8112,7 +8170,7 @@
         <v>4</v>
       </c>
       <c r="O89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P89" t="b">
@@ -8128,13 +8186,16 @@
         <v>27</v>
       </c>
       <c r="T89">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -8156,13 +8217,13 @@
         <v>100</v>
       </c>
       <c r="G90">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H90">
         <v>4.8</v>
       </c>
       <c r="I90">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J90">
         <v>30</v>
@@ -8180,7 +8241,7 @@
         <v>4</v>
       </c>
       <c r="O90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P90" t="b">
@@ -8196,13 +8257,16 @@
         <v>27</v>
       </c>
       <c r="T90">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U90">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -8224,13 +8288,13 @@
         <v>100</v>
       </c>
       <c r="G91">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H91">
         <v>4.8</v>
       </c>
       <c r="I91">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="J91">
         <v>30</v>
@@ -8248,7 +8312,7 @@
         <v>4</v>
       </c>
       <c r="O91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P91" t="b">
@@ -8264,13 +8328,16 @@
         <v>27</v>
       </c>
       <c r="T91">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="U91">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V91" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -8278,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -8290,13 +8357,13 @@
         <v>100</v>
       </c>
       <c r="G92">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="H92">
         <v>4.8</v>
       </c>
       <c r="I92">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="J92">
         <v>30</v>
@@ -8314,7 +8381,7 @@
         <v>4</v>
       </c>
       <c r="O92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P92" t="b">
@@ -8333,10 +8400,13 @@
         <v>0.05</v>
       </c>
       <c r="U92">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="V92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -8345,8 +8415,7 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <f>C92+1200</f>
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -8358,13 +8427,13 @@
         <v>100</v>
       </c>
       <c r="G93">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H93">
         <v>4.8</v>
       </c>
       <c r="I93">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="J93">
         <v>30</v>
@@ -8382,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="O93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P93" t="b">
@@ -8395,19 +8464,19 @@
         <v>5</v>
       </c>
       <c r="S93" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="T93">
         <v>0.05</v>
       </c>
       <c r="U93">
-        <v>20</v>
-      </c>
-      <c r="W93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="V93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -8416,8 +8485,7 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:C106" si="20">C93+1200</f>
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -8429,13 +8497,13 @@
         <v>100</v>
       </c>
       <c r="G94">
-        <v>2.4</v>
+        <v>1.35</v>
       </c>
       <c r="H94">
         <v>4.8</v>
       </c>
       <c r="I94">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J94">
         <v>30</v>
@@ -8453,7 +8521,7 @@
         <v>4</v>
       </c>
       <c r="O94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P94" t="b">
@@ -8472,10 +8540,13 @@
         <v>0.05</v>
       </c>
       <c r="U94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="V94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -8484,8 +8555,7 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <f t="shared" si="20"/>
-        <v>3700</v>
+        <v>3702</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -8497,13 +8567,13 @@
         <v>100</v>
       </c>
       <c r="G95">
-        <v>2.4</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H95">
         <v>4.8</v>
       </c>
       <c r="I95">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J95">
         <v>30</v>
@@ -8521,7 +8591,7 @@
         <v>4</v>
       </c>
       <c r="O95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P95" t="b">
@@ -8537,13 +8607,16 @@
         <v>27</v>
       </c>
       <c r="T95">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="U95">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="V95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -8552,8 +8625,7 @@
         <v>5</v>
       </c>
       <c r="C96">
-        <f t="shared" si="20"/>
-        <v>4900</v>
+        <v>4902</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -8565,13 +8637,13 @@
         <v>100</v>
       </c>
       <c r="G96">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H96">
         <v>4.8</v>
       </c>
       <c r="I96">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="J96">
         <v>30</v>
@@ -8589,7 +8661,7 @@
         <v>4</v>
       </c>
       <c r="O96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P96" t="b">
@@ -8605,13 +8677,16 @@
         <v>27</v>
       </c>
       <c r="T96">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U96">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -8620,8 +8695,7 @@
         <v>6</v>
       </c>
       <c r="C97">
-        <f t="shared" si="20"/>
-        <v>6100</v>
+        <v>6102</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -8633,13 +8707,13 @@
         <v>100</v>
       </c>
       <c r="G97">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H97">
         <v>4.8</v>
       </c>
       <c r="I97">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="J97">
         <v>30</v>
@@ -8657,7 +8731,7 @@
         <v>4</v>
       </c>
       <c r="O97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P97" t="b">
@@ -8673,13 +8747,16 @@
         <v>27</v>
       </c>
       <c r="T97">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="U97">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -8688,8 +8765,7 @@
         <v>7</v>
       </c>
       <c r="C98">
-        <f t="shared" si="20"/>
-        <v>7300</v>
+        <v>7302</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -8701,13 +8777,13 @@
         <v>100</v>
       </c>
       <c r="G98">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H98">
         <v>4.8</v>
       </c>
       <c r="I98">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J98">
         <v>30</v>
@@ -8725,7 +8801,7 @@
         <v>4</v>
       </c>
       <c r="O98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P98" t="b">
@@ -8741,13 +8817,16 @@
         <v>27</v>
       </c>
       <c r="T98">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="U98">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -8756,8 +8835,7 @@
         <v>8</v>
       </c>
       <c r="C99">
-        <f t="shared" si="20"/>
-        <v>8500</v>
+        <v>8502</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -8769,13 +8847,13 @@
         <v>100</v>
       </c>
       <c r="G99">
-        <v>2.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H99">
         <v>4.8</v>
       </c>
       <c r="I99">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J99">
         <v>30</v>
@@ -8793,7 +8871,7 @@
         <v>4</v>
       </c>
       <c r="O99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P99" t="b">
@@ -8809,13 +8887,16 @@
         <v>27</v>
       </c>
       <c r="T99">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
       <c r="U99">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -8824,8 +8905,7 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <f t="shared" si="20"/>
-        <v>9700</v>
+        <v>9702</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -8837,13 +8917,13 @@
         <v>100</v>
       </c>
       <c r="G100">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H100">
         <v>4.8</v>
       </c>
       <c r="I100">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J100">
         <v>30</v>
@@ -8861,7 +8941,7 @@
         <v>4</v>
       </c>
       <c r="O100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P100" t="b">
@@ -8877,13 +8957,16 @@
         <v>27</v>
       </c>
       <c r="T100">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="U100">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -8892,8 +8975,7 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <f t="shared" si="20"/>
-        <v>10900</v>
+        <v>10902</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -8905,13 +8987,13 @@
         <v>100</v>
       </c>
       <c r="G101">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H101">
         <v>4.8</v>
       </c>
       <c r="I101">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J101">
         <v>30</v>
@@ -8929,7 +9011,7 @@
         <v>4</v>
       </c>
       <c r="O101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P101" t="b">
@@ -8945,13 +9027,16 @@
         <v>27</v>
       </c>
       <c r="T101">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U101">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -8960,8 +9045,7 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <f t="shared" si="20"/>
-        <v>12100</v>
+        <v>12102</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -8973,13 +9057,13 @@
         <v>100</v>
       </c>
       <c r="G102">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H102">
         <v>4.8</v>
       </c>
       <c r="I102">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J102">
         <v>30</v>
@@ -8997,7 +9081,7 @@
         <v>4</v>
       </c>
       <c r="O102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P102" t="b">
@@ -9013,13 +9097,16 @@
         <v>27</v>
       </c>
       <c r="T102">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="U102">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -9028,8 +9115,7 @@
         <v>12</v>
       </c>
       <c r="C103">
-        <f t="shared" si="20"/>
-        <v>13300</v>
+        <v>13302</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -9041,13 +9127,13 @@
         <v>100</v>
       </c>
       <c r="G103">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H103">
         <v>4.8</v>
       </c>
       <c r="I103">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J103">
         <v>30</v>
@@ -9065,7 +9151,7 @@
         <v>4</v>
       </c>
       <c r="O103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P103" t="b">
@@ -9081,13 +9167,16 @@
         <v>27</v>
       </c>
       <c r="T103">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U103">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -9096,8 +9185,7 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <f t="shared" si="20"/>
-        <v>14500</v>
+        <v>14502</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -9109,13 +9197,13 @@
         <v>100</v>
       </c>
       <c r="G104">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>4.8</v>
       </c>
       <c r="I104">
-        <v>2.1</v>
+        <v>20</v>
       </c>
       <c r="J104">
         <v>30</v>
@@ -9133,7 +9221,7 @@
         <v>4</v>
       </c>
       <c r="O104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P104" t="b">
@@ -9149,13 +9237,16 @@
         <v>27</v>
       </c>
       <c r="T104">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U104">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -9164,7 +9255,6 @@
         <v>14</v>
       </c>
       <c r="C105">
-        <f t="shared" si="20"/>
         <v>15700</v>
       </c>
       <c r="D105" t="s">
@@ -9177,16 +9267,16 @@
         <v>100</v>
       </c>
       <c r="G105">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H105">
         <v>4.8</v>
       </c>
       <c r="I105">
-        <v>2.1</v>
+        <v>25</v>
       </c>
       <c r="J105">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K105">
         <v>50</v>
@@ -9201,7 +9291,7 @@
         <v>4</v>
       </c>
       <c r="O105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P105" t="b">
@@ -9217,13 +9307,16 @@
         <v>27</v>
       </c>
       <c r="T105">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
       <c r="U105">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V105" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -9232,7 +9325,6 @@
         <v>15</v>
       </c>
       <c r="C106">
-        <f t="shared" si="20"/>
         <v>16900</v>
       </c>
       <c r="D106" t="s">
@@ -9245,13 +9337,13 @@
         <v>100</v>
       </c>
       <c r="G106">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H106">
         <v>4.8</v>
       </c>
       <c r="I106">
-        <v>2.1</v>
+        <v>20</v>
       </c>
       <c r="J106">
         <v>30</v>
@@ -9269,7 +9361,7 @@
         <v>4</v>
       </c>
       <c r="O106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P106" t="b">
@@ -9285,21 +9377,24 @@
         <v>27</v>
       </c>
       <c r="T106">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
       <c r="U106">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -9311,13 +9406,13 @@
         <v>100</v>
       </c>
       <c r="G107">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H107">
         <v>4.8</v>
       </c>
       <c r="I107">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J107">
         <v>30</v>
@@ -9335,7 +9430,7 @@
         <v>4</v>
       </c>
       <c r="O107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P107" t="b">
@@ -9351,23 +9446,25 @@
         <v>27</v>
       </c>
       <c r="T107">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="U107">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B108">
         <f>B107+1</f>
         <v>2</v>
       </c>
       <c r="C108">
-        <f>C107+1200</f>
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -9379,13 +9476,13 @@
         <v>100</v>
       </c>
       <c r="G108">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H108">
         <v>4.8</v>
       </c>
       <c r="I108">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J108">
         <v>30</v>
@@ -9403,7 +9500,7 @@
         <v>4</v>
       </c>
       <c r="O108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P108" t="b">
@@ -9419,23 +9516,25 @@
         <v>27</v>
       </c>
       <c r="T108">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U108">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V108" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B109">
-        <f t="shared" ref="B109:B121" si="21">B108+1</f>
+        <f t="shared" ref="B109:B121" si="20">B108+1</f>
         <v>3</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:C121" si="22">C108+1200</f>
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -9447,13 +9546,13 @@
         <v>100</v>
       </c>
       <c r="G109">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H109">
         <v>4.8</v>
       </c>
       <c r="I109">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J109">
         <v>30</v>
@@ -9471,7 +9570,7 @@
         <v>4</v>
       </c>
       <c r="O109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P109" t="b">
@@ -9487,23 +9586,25 @@
         <v>27</v>
       </c>
       <c r="T109">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U109">
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V109" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="C110">
-        <f t="shared" si="22"/>
-        <v>3700</v>
+        <v>3702</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -9515,13 +9616,13 @@
         <v>100</v>
       </c>
       <c r="G110">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H110">
         <v>4.8</v>
       </c>
       <c r="I110">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J110">
         <v>30</v>
@@ -9539,7 +9640,7 @@
         <v>4</v>
       </c>
       <c r="O110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P110" t="b">
@@ -9555,23 +9656,25 @@
         <v>27</v>
       </c>
       <c r="T110">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U110">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V110" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C111">
-        <f t="shared" si="22"/>
-        <v>4900</v>
+        <v>4902</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -9583,13 +9686,13 @@
         <v>100</v>
       </c>
       <c r="G111">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H111">
         <v>4.8</v>
       </c>
       <c r="I111">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J111">
         <v>30</v>
@@ -9607,7 +9710,7 @@
         <v>4</v>
       </c>
       <c r="O111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P111" t="b">
@@ -9623,23 +9726,25 @@
         <v>27</v>
       </c>
       <c r="T111">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U111">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V111" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B112">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C112">
-        <f t="shared" si="22"/>
-        <v>6100</v>
+        <v>6101</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -9651,13 +9756,13 @@
         <v>100</v>
       </c>
       <c r="G112">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H112">
         <v>4.8</v>
       </c>
       <c r="I112">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J112">
         <v>30</v>
@@ -9675,7 +9780,7 @@
         <v>4</v>
       </c>
       <c r="O112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P112" t="b">
@@ -9691,23 +9796,25 @@
         <v>27</v>
       </c>
       <c r="T112">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U112">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V112" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B113">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="C113">
-        <f t="shared" si="22"/>
-        <v>7300</v>
+        <v>7301</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -9719,13 +9826,13 @@
         <v>100</v>
       </c>
       <c r="G113">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H113">
         <v>4.8</v>
       </c>
       <c r="I113">
-        <v>2.1</v>
+        <v>20</v>
       </c>
       <c r="J113">
         <v>30</v>
@@ -9743,7 +9850,7 @@
         <v>4</v>
       </c>
       <c r="O113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P113" t="b">
@@ -9759,23 +9866,25 @@
         <v>27</v>
       </c>
       <c r="T113">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U113">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V113" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B114">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="C114">
-        <f t="shared" si="22"/>
-        <v>8500</v>
+        <v>8501</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -9787,13 +9896,13 @@
         <v>100</v>
       </c>
       <c r="G114">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H114">
         <v>4.8</v>
       </c>
       <c r="I114">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J114">
         <v>30</v>
@@ -9811,7 +9920,7 @@
         <v>4</v>
       </c>
       <c r="O114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P114" t="b">
@@ -9827,23 +9936,25 @@
         <v>27</v>
       </c>
       <c r="T114">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U114">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V114" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B115">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="C115">
-        <f t="shared" si="22"/>
-        <v>9700</v>
+        <v>9701</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -9855,13 +9966,13 @@
         <v>100</v>
       </c>
       <c r="G115">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H115">
         <v>4.8</v>
       </c>
       <c r="I115">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J115">
         <v>30</v>
@@ -9879,7 +9990,7 @@
         <v>4</v>
       </c>
       <c r="O115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P115" t="b">
@@ -9895,23 +10006,25 @@
         <v>27</v>
       </c>
       <c r="T115">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U115">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V115" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B116">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="C116">
-        <f t="shared" si="22"/>
-        <v>10900</v>
+        <v>10901</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -9923,13 +10036,13 @@
         <v>100</v>
       </c>
       <c r="G116">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H116">
         <v>4.8</v>
       </c>
       <c r="I116">
-        <v>2.1</v>
+        <v>23</v>
       </c>
       <c r="J116">
         <v>30</v>
@@ -9947,7 +10060,7 @@
         <v>4</v>
       </c>
       <c r="O116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P116" t="b">
@@ -9963,23 +10076,25 @@
         <v>27</v>
       </c>
       <c r="T116">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="U116">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="V116" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B117">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="C117">
-        <f t="shared" si="22"/>
-        <v>12100</v>
+        <v>12102</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -9991,13 +10106,13 @@
         <v>100</v>
       </c>
       <c r="G117">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H117">
         <v>4.8</v>
       </c>
       <c r="I117">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J117">
         <v>30</v>
@@ -10015,7 +10130,7 @@
         <v>4</v>
       </c>
       <c r="O117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P117" t="b">
@@ -10031,23 +10146,25 @@
         <v>27</v>
       </c>
       <c r="T117">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U117">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V117" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="C118">
-        <f t="shared" si="22"/>
-        <v>13300</v>
+        <v>13301</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -10059,13 +10176,13 @@
         <v>100</v>
       </c>
       <c r="G118">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H118">
         <v>4.8</v>
       </c>
       <c r="I118">
-        <v>2.1</v>
+        <v>40</v>
       </c>
       <c r="J118">
         <v>30</v>
@@ -10083,7 +10200,7 @@
         <v>4</v>
       </c>
       <c r="O118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P118" t="b">
@@ -10099,23 +10216,25 @@
         <v>27</v>
       </c>
       <c r="T118">
-        <v>0.05</v>
+        <v>1.2</v>
       </c>
       <c r="U118">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V118" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="C119">
-        <f t="shared" si="22"/>
-        <v>14500</v>
+        <v>14501</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -10127,13 +10246,13 @@
         <v>100</v>
       </c>
       <c r="G119">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H119">
         <v>4.8</v>
       </c>
       <c r="I119">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J119">
         <v>30</v>
@@ -10151,7 +10270,7 @@
         <v>4</v>
       </c>
       <c r="O119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P119" t="b">
@@ -10167,23 +10286,25 @@
         <v>27</v>
       </c>
       <c r="T119">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="U119">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="C120">
-        <f t="shared" si="22"/>
-        <v>15700</v>
+        <v>15701</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -10195,13 +10316,13 @@
         <v>100</v>
       </c>
       <c r="G120">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H120">
         <v>4.8</v>
       </c>
       <c r="I120">
-        <v>2.1</v>
+        <v>25</v>
       </c>
       <c r="J120">
         <v>30</v>
@@ -10219,7 +10340,7 @@
         <v>4</v>
       </c>
       <c r="O120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P120" t="b">
@@ -10235,23 +10356,25 @@
         <v>27</v>
       </c>
       <c r="T120">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="U120">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="V120" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="C121">
-        <f t="shared" si="22"/>
-        <v>16900</v>
+        <v>16901</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -10263,13 +10386,13 @@
         <v>100</v>
       </c>
       <c r="G121">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H121">
         <v>4.8</v>
       </c>
       <c r="I121">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J121">
         <v>30</v>
@@ -10287,7 +10410,7 @@
         <v>4</v>
       </c>
       <c r="O121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P121" t="b">
@@ -10303,15 +10426,18 @@
         <v>27</v>
       </c>
       <c r="T121">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U121">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="V121" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -10353,7 +10479,7 @@
         <v>4</v>
       </c>
       <c r="O122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P122" t="b">
@@ -10375,9 +10501,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B123">
         <f>B122+1</f>
@@ -10421,7 +10547,7 @@
         <v>4</v>
       </c>
       <c r="O123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P123" t="b">
@@ -10443,16 +10569,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B124">
-        <f t="shared" ref="B124:B131" si="23">B123+1</f>
+        <f t="shared" ref="B124:B131" si="21">B123+1</f>
         <v>3</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:C131" si="24">C123+1200</f>
+        <f t="shared" ref="C124:C131" si="22">C123+1200</f>
         <v>2500</v>
       </c>
       <c r="D124" t="s">
@@ -10489,7 +10615,7 @@
         <v>4</v>
       </c>
       <c r="O124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P124" t="b">
@@ -10511,16 +10637,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B125">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C125">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>3700</v>
       </c>
       <c r="D125" t="s">
@@ -10557,7 +10683,7 @@
         <v>4</v>
       </c>
       <c r="O125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P125" t="b">
@@ -10579,16 +10705,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B126">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="C126">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>4900</v>
       </c>
       <c r="D126" t="s">
@@ -10625,7 +10751,7 @@
         <v>4</v>
       </c>
       <c r="O126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P126" t="b">
@@ -10647,16 +10773,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B127">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>6100</v>
       </c>
       <c r="D127" t="s">
@@ -10693,7 +10819,7 @@
         <v>4</v>
       </c>
       <c r="O127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P127" t="b">
@@ -10715,16 +10841,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="C128">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>7300</v>
       </c>
       <c r="D128" t="s">
@@ -10761,7 +10887,7 @@
         <v>4</v>
       </c>
       <c r="O128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P128" t="b">
@@ -10785,14 +10911,14 @@
     </row>
     <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B129">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="C129">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>8500</v>
       </c>
       <c r="D129" t="s">
@@ -10829,7 +10955,7 @@
         <v>4</v>
       </c>
       <c r="O129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P129" t="b">
@@ -10853,14 +10979,14 @@
     </row>
     <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B130">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="C130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>9700</v>
       </c>
       <c r="D130" t="s">
@@ -10897,7 +11023,7 @@
         <v>4</v>
       </c>
       <c r="O130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P130" t="b">
@@ -10921,14 +11047,14 @@
     </row>
     <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B131">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="C131">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>10900</v>
       </c>
       <c r="D131" t="s">
@@ -10965,7 +11091,7 @@
         <v>4</v>
       </c>
       <c r="O131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P131" t="b">
@@ -10989,7 +11115,7 @@
     </row>
     <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -11031,7 +11157,7 @@
         <v>4</v>
       </c>
       <c r="O132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P132" t="b">
@@ -11055,7 +11181,7 @@
     </row>
     <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B133">
         <f>B132+1</f>
@@ -11099,7 +11225,7 @@
         <v>4</v>
       </c>
       <c r="O133">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P133" t="b">
@@ -11123,14 +11249,14 @@
     </row>
     <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B134">
-        <f t="shared" ref="B134:B141" si="25">B133+1</f>
+        <f t="shared" ref="B134:B141" si="23">B133+1</f>
         <v>3</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C141" si="26">C133+1200</f>
+        <f t="shared" ref="C134:C141" si="24">C133+1200</f>
         <v>2500</v>
       </c>
       <c r="D134" t="s">
@@ -11167,7 +11293,7 @@
         <v>4</v>
       </c>
       <c r="O134">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P134" t="b">
@@ -11191,14 +11317,14 @@
     </row>
     <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="C135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>3700</v>
       </c>
       <c r="D135" t="s">
@@ -11235,7 +11361,7 @@
         <v>4</v>
       </c>
       <c r="O135">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P135" t="b">
@@ -11259,14 +11385,14 @@
     </row>
     <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="C136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4900</v>
       </c>
       <c r="D136" t="s">
@@ -11303,7 +11429,7 @@
         <v>4</v>
       </c>
       <c r="O136">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P136" t="b">
@@ -11327,14 +11453,14 @@
     </row>
     <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="C137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>6100</v>
       </c>
       <c r="D137" t="s">
@@ -11371,7 +11497,7 @@
         <v>4</v>
       </c>
       <c r="O137">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P137" t="b">
@@ -11395,14 +11521,14 @@
     </row>
     <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>7300</v>
       </c>
       <c r="D138" t="s">
@@ -11439,7 +11565,7 @@
         <v>4</v>
       </c>
       <c r="O138">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P138" t="b">
@@ -11463,14 +11589,14 @@
     </row>
     <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>8500</v>
       </c>
       <c r="D139" t="s">
@@ -11507,7 +11633,7 @@
         <v>4</v>
       </c>
       <c r="O139">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P139" t="b">
@@ -11531,14 +11657,14 @@
     </row>
     <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="C140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>9700</v>
       </c>
       <c r="D140" t="s">
@@ -11575,7 +11701,7 @@
         <v>4</v>
       </c>
       <c r="O140">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P140" t="b">
@@ -11599,14 +11725,14 @@
     </row>
     <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="C141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>10900</v>
       </c>
       <c r="D141" t="s">
@@ -11643,7 +11769,7 @@
         <v>4</v>
       </c>
       <c r="O141">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P141" t="b">
@@ -11667,7 +11793,7 @@
     </row>
     <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -11709,7 +11835,7 @@
         <v>4</v>
       </c>
       <c r="O142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P142" t="b">
@@ -11733,7 +11859,7 @@
     </row>
     <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B143">
         <f>B142+1</f>
@@ -11777,7 +11903,7 @@
         <v>4</v>
       </c>
       <c r="O143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P143" t="b">
@@ -11801,14 +11927,14 @@
     </row>
     <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B144">
-        <f t="shared" ref="B144:B147" si="27">B143+1</f>
+        <f t="shared" ref="B144:B147" si="25">B143+1</f>
         <v>3</v>
       </c>
       <c r="C144">
-        <f t="shared" ref="C144:C147" si="28">C143+1200</f>
+        <f t="shared" ref="C144:C147" si="26">C143+1200</f>
         <v>2500</v>
       </c>
       <c r="D144" t="s">
@@ -11845,7 +11971,7 @@
         <v>4</v>
       </c>
       <c r="O144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.7E-6</v>
       </c>
       <c r="P144" t="b">
@@ -11869,14 +11995,14 @@
     </row>
     <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B145">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C145">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>3700</v>
       </c>
       <c r="D145" t="s">
@@ -11913,7 +12039,7 @@
         <v>4</v>
       </c>
       <c r="O145">
-        <f t="shared" ref="O145:O192" si="29">2.7*10^-6</f>
+        <f t="shared" ref="O145:O192" si="27">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="P145" t="b">
@@ -11937,14 +12063,14 @@
     </row>
     <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="C146">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>4900</v>
       </c>
       <c r="D146" t="s">
@@ -11981,7 +12107,7 @@
         <v>4</v>
       </c>
       <c r="O146">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P146" t="b">
@@ -12005,14 +12131,14 @@
     </row>
     <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B147">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="C147">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>6100</v>
       </c>
       <c r="D147" t="s">
@@ -12049,7 +12175,7 @@
         <v>4</v>
       </c>
       <c r="O147">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P147" t="b">
@@ -12073,7 +12199,7 @@
     </row>
     <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -12115,7 +12241,7 @@
         <v>4</v>
       </c>
       <c r="O148">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P148" t="b">
@@ -12137,12 +12263,12 @@
         <v>20</v>
       </c>
       <c r="W148" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B149">
         <f>B148+1</f>
@@ -12186,7 +12312,7 @@
         <v>4</v>
       </c>
       <c r="O149">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P149" t="b">
@@ -12210,14 +12336,14 @@
     </row>
     <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B150">
-        <f t="shared" ref="B150:B162" si="30">B149+1</f>
+        <f t="shared" ref="B150:B162" si="28">B149+1</f>
         <v>3</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="C150:C162" si="31">C149+1200</f>
+        <f t="shared" ref="C150:C162" si="29">C149+1200</f>
         <v>2500</v>
       </c>
       <c r="D150" t="s">
@@ -12254,7 +12380,7 @@
         <v>4</v>
       </c>
       <c r="O150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P150" t="b">
@@ -12278,14 +12404,14 @@
     </row>
     <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B151">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="C151">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>3700</v>
       </c>
       <c r="D151" t="s">
@@ -12322,7 +12448,7 @@
         <v>4</v>
       </c>
       <c r="O151">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P151" t="b">
@@ -12346,14 +12472,14 @@
     </row>
     <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B152">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="C152">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>4900</v>
       </c>
       <c r="D152" t="s">
@@ -12390,7 +12516,7 @@
         <v>4</v>
       </c>
       <c r="O152">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P152" t="b">
@@ -12414,14 +12540,14 @@
     </row>
     <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B153">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="C153">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>6100</v>
       </c>
       <c r="D153" t="s">
@@ -12458,7 +12584,7 @@
         <v>4</v>
       </c>
       <c r="O153">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P153" t="b">
@@ -12482,14 +12608,14 @@
     </row>
     <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B154">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="C154">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>7300</v>
       </c>
       <c r="D154" t="s">
@@ -12526,7 +12652,7 @@
         <v>4</v>
       </c>
       <c r="O154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P154" t="b">
@@ -12550,14 +12676,14 @@
     </row>
     <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B155">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="C155">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>8500</v>
       </c>
       <c r="D155" t="s">
@@ -12594,7 +12720,7 @@
         <v>4</v>
       </c>
       <c r="O155">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P155" t="b">
@@ -12618,14 +12744,14 @@
     </row>
     <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B156">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="C156">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>9700</v>
       </c>
       <c r="D156" t="s">
@@ -12662,7 +12788,7 @@
         <v>4</v>
       </c>
       <c r="O156">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P156" t="b">
@@ -12686,14 +12812,14 @@
     </row>
     <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B157">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="C157">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>10900</v>
       </c>
       <c r="D157" t="s">
@@ -12730,7 +12856,7 @@
         <v>4</v>
       </c>
       <c r="O157">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P157" t="b">
@@ -12754,14 +12880,14 @@
     </row>
     <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B158">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="C158">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>12100</v>
       </c>
       <c r="D158" t="s">
@@ -12798,7 +12924,7 @@
         <v>4</v>
       </c>
       <c r="O158">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P158" t="b">
@@ -12822,14 +12948,14 @@
     </row>
     <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B159">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="C159">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>13300</v>
       </c>
       <c r="D159" t="s">
@@ -12866,7 +12992,7 @@
         <v>4</v>
       </c>
       <c r="O159">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P159" t="b">
@@ -12890,14 +13016,14 @@
     </row>
     <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B160">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="C160">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>14500</v>
       </c>
       <c r="D160" t="s">
@@ -12934,7 +13060,7 @@
         <v>4</v>
       </c>
       <c r="O160">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P160" t="b">
@@ -12958,14 +13084,14 @@
     </row>
     <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B161">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="C161">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>15700</v>
       </c>
       <c r="D161" t="s">
@@ -13002,7 +13128,7 @@
         <v>4</v>
       </c>
       <c r="O161">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P161" t="b">
@@ -13026,14 +13152,14 @@
     </row>
     <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B162">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="C162">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>16900</v>
       </c>
       <c r="D162" t="s">
@@ -13070,7 +13196,7 @@
         <v>4</v>
       </c>
       <c r="O162">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P162" t="b">
@@ -13094,7 +13220,7 @@
     </row>
     <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -13136,7 +13262,7 @@
         <v>4</v>
       </c>
       <c r="O163">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P163" t="b">
@@ -13160,7 +13286,7 @@
     </row>
     <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B164">
         <f>B163+1</f>
@@ -13204,7 +13330,7 @@
         <v>4</v>
       </c>
       <c r="O164">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P164" t="b">
@@ -13228,14 +13354,14 @@
     </row>
     <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B165">
-        <f t="shared" ref="B165:B177" si="32">B164+1</f>
+        <f t="shared" ref="B165:B177" si="30">B164+1</f>
         <v>3</v>
       </c>
       <c r="C165">
-        <f t="shared" ref="C165:C177" si="33">C164+1200</f>
+        <f t="shared" ref="C165:C177" si="31">C164+1200</f>
         <v>2500</v>
       </c>
       <c r="D165" t="s">
@@ -13272,7 +13398,7 @@
         <v>4</v>
       </c>
       <c r="O165">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P165" t="b">
@@ -13296,14 +13422,14 @@
     </row>
     <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B166">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="C166">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>3700</v>
       </c>
       <c r="D166" t="s">
@@ -13340,7 +13466,7 @@
         <v>4</v>
       </c>
       <c r="O166">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P166" t="b">
@@ -13364,14 +13490,14 @@
     </row>
     <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B167">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="C167">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>4900</v>
       </c>
       <c r="D167" t="s">
@@ -13408,7 +13534,7 @@
         <v>4</v>
       </c>
       <c r="O167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P167" t="b">
@@ -13432,14 +13558,14 @@
     </row>
     <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B168">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="C168">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>6100</v>
       </c>
       <c r="D168" t="s">
@@ -13476,7 +13602,7 @@
         <v>4</v>
       </c>
       <c r="O168">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P168" t="b">
@@ -13500,14 +13626,14 @@
     </row>
     <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B169">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="C169">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>7300</v>
       </c>
       <c r="D169" t="s">
@@ -13544,7 +13670,7 @@
         <v>4</v>
       </c>
       <c r="O169">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P169" t="b">
@@ -13568,14 +13694,14 @@
     </row>
     <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B170">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="C170">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>8500</v>
       </c>
       <c r="D170" t="s">
@@ -13612,7 +13738,7 @@
         <v>4</v>
       </c>
       <c r="O170">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P170" t="b">
@@ -13636,14 +13762,14 @@
     </row>
     <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B171">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="C171">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>9700</v>
       </c>
       <c r="D171" t="s">
@@ -13680,7 +13806,7 @@
         <v>4</v>
       </c>
       <c r="O171">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P171" t="b">
@@ -13704,14 +13830,14 @@
     </row>
     <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B172">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="C172">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>10900</v>
       </c>
       <c r="D172" t="s">
@@ -13748,7 +13874,7 @@
         <v>4</v>
       </c>
       <c r="O172">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P172" t="b">
@@ -13772,14 +13898,14 @@
     </row>
     <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B173">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="C173">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>12100</v>
       </c>
       <c r="D173" t="s">
@@ -13816,7 +13942,7 @@
         <v>4</v>
       </c>
       <c r="O173">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P173" t="b">
@@ -13840,14 +13966,14 @@
     </row>
     <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B174">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="C174">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>13300</v>
       </c>
       <c r="D174" t="s">
@@ -13884,7 +14010,7 @@
         <v>4</v>
       </c>
       <c r="O174">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P174" t="b">
@@ -13908,14 +14034,14 @@
     </row>
     <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B175">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="C175">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>14500</v>
       </c>
       <c r="D175" t="s">
@@ -13952,7 +14078,7 @@
         <v>4</v>
       </c>
       <c r="O175">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P175" t="b">
@@ -13976,14 +14102,14 @@
     </row>
     <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="C176">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>15700</v>
       </c>
       <c r="D176" t="s">
@@ -14020,7 +14146,7 @@
         <v>4</v>
       </c>
       <c r="O176">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P176" t="b">
@@ -14044,14 +14170,14 @@
     </row>
     <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B177">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="C177">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>16900</v>
       </c>
       <c r="D177" t="s">
@@ -14088,7 +14214,7 @@
         <v>4</v>
       </c>
       <c r="O177">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P177" t="b">
@@ -14112,7 +14238,7 @@
     </row>
     <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -14154,7 +14280,7 @@
         <v>4</v>
       </c>
       <c r="O178">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P178" t="b">
@@ -14178,7 +14304,7 @@
     </row>
     <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B179">
         <f>B178+1</f>
@@ -14222,7 +14348,7 @@
         <v>4</v>
       </c>
       <c r="O179">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P179" t="b">
@@ -14246,14 +14372,14 @@
     </row>
     <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B180">
-        <f t="shared" ref="B180:B192" si="34">B179+1</f>
+        <f t="shared" ref="B180:B192" si="32">B179+1</f>
         <v>3</v>
       </c>
       <c r="C180">
-        <f t="shared" ref="C180:C192" si="35">C179+1200</f>
+        <f t="shared" ref="C180:C192" si="33">C179+1200</f>
         <v>2500</v>
       </c>
       <c r="D180" t="s">
@@ -14290,7 +14416,7 @@
         <v>4</v>
       </c>
       <c r="O180">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P180" t="b">
@@ -14314,14 +14440,14 @@
     </row>
     <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B181">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="C181">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3700</v>
       </c>
       <c r="D181" t="s">
@@ -14358,7 +14484,7 @@
         <v>4</v>
       </c>
       <c r="O181">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P181" t="b">
@@ -14382,14 +14508,14 @@
     </row>
     <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="C182">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>4900</v>
       </c>
       <c r="D182" t="s">
@@ -14426,7 +14552,7 @@
         <v>4</v>
       </c>
       <c r="O182">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P182" t="b">
@@ -14450,14 +14576,14 @@
     </row>
     <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B183">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="C183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>6100</v>
       </c>
       <c r="D183" t="s">
@@ -14494,7 +14620,7 @@
         <v>4</v>
       </c>
       <c r="O183">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P183" t="b">
@@ -14518,14 +14644,14 @@
     </row>
     <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B184">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="C184">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>7300</v>
       </c>
       <c r="D184" t="s">
@@ -14562,7 +14688,7 @@
         <v>4</v>
       </c>
       <c r="O184">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P184" t="b">
@@ -14586,14 +14712,14 @@
     </row>
     <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B185">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="C185">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>8500</v>
       </c>
       <c r="D185" t="s">
@@ -14630,7 +14756,7 @@
         <v>4</v>
       </c>
       <c r="O185">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P185" t="b">
@@ -14654,14 +14780,14 @@
     </row>
     <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B186">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="C186">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>9700</v>
       </c>
       <c r="D186" t="s">
@@ -14698,7 +14824,7 @@
         <v>4</v>
       </c>
       <c r="O186">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P186" t="b">
@@ -14722,14 +14848,14 @@
     </row>
     <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B187">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="C187">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>10900</v>
       </c>
       <c r="D187" t="s">
@@ -14766,7 +14892,7 @@
         <v>4</v>
       </c>
       <c r="O187">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P187" t="b">
@@ -14790,14 +14916,14 @@
     </row>
     <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B188">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="C188">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>12100</v>
       </c>
       <c r="D188" t="s">
@@ -14834,7 +14960,7 @@
         <v>4</v>
       </c>
       <c r="O188">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P188" t="b">
@@ -14858,14 +14984,14 @@
     </row>
     <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B189">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="C189">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>13300</v>
       </c>
       <c r="D189" t="s">
@@ -14902,7 +15028,7 @@
         <v>4</v>
       </c>
       <c r="O189">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P189" t="b">
@@ -14926,14 +15052,14 @@
     </row>
     <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B190">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="C190">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>14500</v>
       </c>
       <c r="D190" t="s">
@@ -14970,7 +15096,7 @@
         <v>4</v>
       </c>
       <c r="O190">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P190" t="b">
@@ -14994,14 +15120,14 @@
     </row>
     <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B191">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="C191">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>15700</v>
       </c>
       <c r="D191" t="s">
@@ -15038,7 +15164,7 @@
         <v>4</v>
       </c>
       <c r="O191">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P191" t="b">
@@ -15062,14 +15188,14 @@
     </row>
     <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B192">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>15</v>
       </c>
       <c r="C192">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>16900</v>
       </c>
       <c r="D192" t="s">
@@ -15106,7 +15232,7 @@
         <v>4</v>
       </c>
       <c r="O192">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7E-6</v>
       </c>
       <c r="P192" t="b">
@@ -15132,8 +15258,8 @@
   <autoFilter ref="A1:W192">
     <filterColumn colId="0">
       <filters>
-        <filter val="190205_a-synKO_AMPH1.csv"/>
-        <filter val="190205_a-synKO_AMPH2.csv"/>
+        <filter val="190205_a-synKO_2_AMPH_1.csv"/>
+        <filter val="190205_a-synKO_2_AMPH_2.csv"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15153,13 +15279,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="49">
   <si>
     <t>filename</t>
   </si>
@@ -226,8 +226,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -242,17 +246,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -809,11 +817,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="898149072"/>
-        <c:axId val="813350560"/>
+        <c:axId val="-1943696384"/>
+        <c:axId val="-1943694064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="898149072"/>
+        <c:axId val="-1943696384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="813350560"/>
+        <c:crossAx val="-1943694064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -864,7 +872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="813350560"/>
+        <c:axId val="-1943694064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898149072"/>
+        <c:crossAx val="-1943696384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1848,14 +1856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V107" sqref="V107:V121"/>
+      <selection pane="bottomRight" activeCell="A147" sqref="A147:XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,7 +1957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2088,7 +2095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2157,7 +2164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2226,7 +2233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2295,7 +2302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2364,7 +2371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2508,7 +2515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2578,7 +2585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2648,7 +2655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2718,7 +2725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2996,7 +3003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3065,7 +3072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3137,7 +3144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3209,7 +3216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3280,7 +3287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3351,7 +3358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3423,7 +3430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3494,7 +3501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3565,7 +3572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3637,7 +3644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3708,7 +3715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3779,7 +3786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3850,7 +3857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3922,7 +3929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3994,7 +4001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4065,7 +4072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4134,7 +4141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>A32</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4207,7 +4214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A46" si="5">A33</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4280,7 +4287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4352,7 +4359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4424,7 +4431,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4496,7 +4503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4568,7 +4575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4640,7 +4647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4712,7 +4719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4784,7 +4791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4856,7 +4863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4928,7 +4935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5001,7 +5008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5074,7 +5081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5146,7 +5153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -5215,7 +5222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>A47</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5287,7 +5294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" ref="A49:A61" si="10">A48</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5359,7 +5366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5431,7 +5438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5503,7 +5510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5575,7 +5582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5647,7 +5654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5719,7 +5726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5791,7 +5798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5863,7 +5870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5936,7 +5943,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6011,7 +6018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6083,7 +6090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6156,7 +6163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6228,7 +6235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -6297,7 +6304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -6367,7 +6374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -6437,7 +6444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -6507,7 +6514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -6577,7 +6584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -6647,7 +6654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -6717,7 +6724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -6787,7 +6794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -6858,7 +6865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -6929,7 +6936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -7000,7 +7007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -7071,7 +7078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -7142,7 +7149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -7213,7 +7220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -7284,7 +7291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -7353,7 +7360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -7423,7 +7430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -7493,7 +7500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -7563,7 +7570,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -7633,7 +7640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -7703,7 +7710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -7773,7 +7780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>29</v>
       </c>
@@ -7843,7 +7850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -7913,7 +7920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -7983,7 +7990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -8053,7 +8060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -8062,7 +8069,7 @@
         <v>12</v>
       </c>
       <c r="C88">
-        <f t="shared" ref="C79:C91" si="18">C87+1200</f>
+        <f t="shared" ref="C88:C91" si="18">C87+1200</f>
         <v>13300</v>
       </c>
       <c r="D88" t="s">
@@ -8124,7 +8131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -8195,7 +8202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -8266,7 +8273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -10435,7 +10442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -10443,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -10455,13 +10462,13 @@
         <v>100</v>
       </c>
       <c r="G122">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H122">
         <v>4.8</v>
       </c>
       <c r="I122">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J122">
         <v>30</v>
@@ -10500,8 +10507,11 @@
       <c r="U122">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V122" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -10510,8 +10520,7 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <f>C122+1200</f>
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -10523,13 +10532,13 @@
         <v>100</v>
       </c>
       <c r="G123">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H123">
         <v>4.8</v>
       </c>
       <c r="I123">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J123">
         <v>30</v>
@@ -10568,8 +10577,11 @@
       <c r="U123">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -10578,8 +10590,7 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:C131" si="22">C123+1200</f>
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -10591,13 +10602,13 @@
         <v>100</v>
       </c>
       <c r="G124">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H124">
         <v>4.8</v>
       </c>
       <c r="I124">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J124">
         <v>30</v>
@@ -10636,8 +10647,11 @@
       <c r="U124">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V124" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -10646,8 +10660,7 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <f t="shared" si="22"/>
-        <v>3700</v>
+        <v>3702</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -10659,13 +10672,13 @@
         <v>100</v>
       </c>
       <c r="G125">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H125">
         <v>4.8</v>
       </c>
       <c r="I125">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J125">
         <v>30</v>
@@ -10704,8 +10717,11 @@
       <c r="U125">
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V125" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -10714,8 +10730,7 @@
         <v>5</v>
       </c>
       <c r="C126">
-        <f t="shared" si="22"/>
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -10727,13 +10742,13 @@
         <v>100</v>
       </c>
       <c r="G126">
-        <v>2.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H126">
         <v>4.8</v>
       </c>
       <c r="I126">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="J126">
         <v>30</v>
@@ -10772,8 +10787,11 @@
       <c r="U126">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -10782,8 +10800,7 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <f t="shared" si="22"/>
-        <v>6100</v>
+        <v>6101</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -10795,13 +10812,13 @@
         <v>100</v>
       </c>
       <c r="G127">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H127">
         <v>4.8</v>
       </c>
       <c r="I127">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="J127">
         <v>30</v>
@@ -10840,8 +10857,11 @@
       <c r="U127">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V127" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -10850,8 +10870,7 @@
         <v>7</v>
       </c>
       <c r="C128">
-        <f t="shared" si="22"/>
-        <v>7300</v>
+        <v>7301</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -10863,13 +10882,13 @@
         <v>100</v>
       </c>
       <c r="G128">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H128">
         <v>4.8</v>
       </c>
       <c r="I128">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="J128">
         <v>30</v>
@@ -10908,8 +10927,11 @@
       <c r="U128">
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V128" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -10918,8 +10940,7 @@
         <v>8</v>
       </c>
       <c r="C129">
-        <f t="shared" si="22"/>
-        <v>8500</v>
+        <v>8501</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -10931,13 +10952,13 @@
         <v>100</v>
       </c>
       <c r="G129">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H129">
         <v>4.8</v>
       </c>
       <c r="I129">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="J129">
         <v>30</v>
@@ -10976,8 +10997,11 @@
       <c r="U129">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -10986,8 +11010,7 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <f t="shared" si="22"/>
-        <v>9700</v>
+        <v>9701</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -10999,13 +11022,13 @@
         <v>100</v>
       </c>
       <c r="G130">
-        <v>2.4</v>
+        <v>6.7</v>
       </c>
       <c r="H130">
         <v>4.8</v>
       </c>
       <c r="I130">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="J130">
         <v>30</v>
@@ -11044,8 +11067,11 @@
       <c r="U130">
         <v>20</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -11054,8 +11080,7 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <f t="shared" si="22"/>
-        <v>10900</v>
+        <v>10901</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -11067,13 +11092,13 @@
         <v>100</v>
       </c>
       <c r="G131">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="H131">
         <v>4.8</v>
       </c>
       <c r="I131">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="J131">
         <v>30</v>
@@ -11112,8 +11137,11 @@
       <c r="U131">
         <v>20</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V131" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -11121,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -11133,13 +11161,13 @@
         <v>100</v>
       </c>
       <c r="G132">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H132">
         <v>4.8</v>
       </c>
       <c r="I132">
-        <v>2.1</v>
+        <v>15</v>
       </c>
       <c r="J132">
         <v>30</v>
@@ -11178,8 +11206,11 @@
       <c r="U132">
         <v>20</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -11188,8 +11219,7 @@
         <v>2</v>
       </c>
       <c r="C133">
-        <f>C132+1200</f>
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -11201,13 +11231,13 @@
         <v>100</v>
       </c>
       <c r="G133">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="H133">
         <v>4.8</v>
       </c>
       <c r="I133">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J133">
         <v>30</v>
@@ -11244,20 +11274,23 @@
         <v>0.05</v>
       </c>
       <c r="U133">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V133" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
       <c r="B134">
-        <f t="shared" ref="B134:B141" si="23">B133+1</f>
+        <f t="shared" ref="B134:B141" si="22">B133+1</f>
         <v>3</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C141" si="24">C133+1200</f>
-        <v>2500</v>
+        <f t="shared" ref="C134:C141" si="23">C133+1200</f>
+        <v>2501</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -11269,13 +11302,13 @@
         <v>100</v>
       </c>
       <c r="G134">
-        <v>2.4</v>
+        <v>6.1</v>
       </c>
       <c r="H134">
         <v>4.8</v>
       </c>
       <c r="I134">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J134">
         <v>30</v>
@@ -11312,20 +11345,23 @@
         <v>0.05</v>
       </c>
       <c r="U134">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V134" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>34</v>
       </c>
       <c r="B135">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="C135">
         <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="24"/>
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -11337,13 +11373,13 @@
         <v>100</v>
       </c>
       <c r="G135">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H135">
         <v>4.8</v>
       </c>
       <c r="I135">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J135">
         <v>30</v>
@@ -11380,20 +11416,23 @@
         <v>0.05</v>
       </c>
       <c r="U135">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V135" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>34</v>
       </c>
       <c r="B136">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="C136">
         <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="24"/>
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -11405,13 +11444,13 @@
         <v>100</v>
       </c>
       <c r="G136">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H136">
         <v>4.8</v>
       </c>
       <c r="I136">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J136">
         <v>30</v>
@@ -11445,23 +11484,26 @@
         <v>27</v>
       </c>
       <c r="T136">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U136">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V136" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>34</v>
       </c>
       <c r="B137">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="C137">
         <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="24"/>
-        <v>6100</v>
+        <v>6101</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -11473,13 +11515,13 @@
         <v>100</v>
       </c>
       <c r="G137">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="H137">
         <v>4.8</v>
       </c>
       <c r="I137">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J137">
         <v>30</v>
@@ -11516,20 +11558,23 @@
         <v>0.05</v>
       </c>
       <c r="U137">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V137" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>34</v>
       </c>
       <c r="B138">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="C138">
         <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="24"/>
-        <v>7300</v>
+        <v>7301</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -11541,13 +11586,13 @@
         <v>100</v>
       </c>
       <c r="G138">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="H138">
         <v>4.8</v>
       </c>
       <c r="I138">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J138">
         <v>30</v>
@@ -11577,27 +11622,27 @@
       <c r="R138">
         <v>5</v>
       </c>
-      <c r="S138" t="s">
-        <v>27</v>
-      </c>
       <c r="T138">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U138">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V138" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>34</v>
       </c>
       <c r="B139">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="C139">
         <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="24"/>
-        <v>8500</v>
+        <v>8501</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -11609,13 +11654,13 @@
         <v>100</v>
       </c>
       <c r="G139">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H139">
         <v>4.8</v>
       </c>
       <c r="I139">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J139">
         <v>30</v>
@@ -11652,20 +11697,23 @@
         <v>0.05</v>
       </c>
       <c r="U139">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V139" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>34</v>
       </c>
       <c r="B140">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="C140">
         <f t="shared" si="23"/>
-        <v>9</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="24"/>
-        <v>9700</v>
+        <v>9701</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -11677,13 +11725,13 @@
         <v>100</v>
       </c>
       <c r="G140">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H140">
         <v>4.8</v>
       </c>
       <c r="I140">
-        <v>2.1</v>
+        <v>15</v>
       </c>
       <c r="J140">
         <v>30</v>
@@ -11720,20 +11768,23 @@
         <v>0.05</v>
       </c>
       <c r="U140">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V140" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>34</v>
       </c>
       <c r="B141">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="C141">
         <f t="shared" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="24"/>
-        <v>10900</v>
+        <v>10901</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -11745,13 +11796,13 @@
         <v>100</v>
       </c>
       <c r="G141">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H141">
         <v>4.8</v>
       </c>
       <c r="I141">
-        <v>2.1</v>
+        <v>15</v>
       </c>
       <c r="J141">
         <v>30</v>
@@ -11788,10 +11839,13 @@
         <v>0.05</v>
       </c>
       <c r="U141">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V141" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -11799,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -11811,13 +11865,13 @@
         <v>100</v>
       </c>
       <c r="G142">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H142">
         <v>4.8</v>
       </c>
       <c r="I142">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J142">
         <v>30</v>
@@ -11854,10 +11908,13 @@
         <v>0.05</v>
       </c>
       <c r="U142">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V142" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -11866,8 +11923,7 @@
         <v>2</v>
       </c>
       <c r="C143">
-        <f>C142+1200</f>
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -11879,13 +11935,13 @@
         <v>100</v>
       </c>
       <c r="G143">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H143">
         <v>4.8</v>
       </c>
       <c r="I143">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J143">
         <v>30</v>
@@ -11922,20 +11978,22 @@
         <v>0.05</v>
       </c>
       <c r="U143">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V143" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>35</v>
       </c>
       <c r="B144">
-        <f t="shared" ref="B144:B147" si="25">B143+1</f>
+        <f t="shared" ref="B144:B147" si="24">B143+1</f>
         <v>3</v>
       </c>
       <c r="C144">
-        <f t="shared" ref="C144:C147" si="26">C143+1200</f>
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -11947,13 +12005,13 @@
         <v>100</v>
       </c>
       <c r="G144">
-        <v>2.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H144">
         <v>4.8</v>
       </c>
       <c r="I144">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J144">
         <v>30</v>
@@ -11987,23 +12045,25 @@
         <v>27</v>
       </c>
       <c r="T144">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U144">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V144" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>35</v>
       </c>
       <c r="B145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="C145">
-        <f t="shared" si="26"/>
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -12015,13 +12075,13 @@
         <v>100</v>
       </c>
       <c r="G145">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H145">
         <v>4.8</v>
       </c>
       <c r="I145">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J145">
         <v>30</v>
@@ -12039,7 +12099,7 @@
         <v>4</v>
       </c>
       <c r="O145">
-        <f t="shared" ref="O145:O192" si="27">2.7*10^-6</f>
+        <f t="shared" ref="O145:O192" si="25">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="P145" t="b">
@@ -12058,20 +12118,22 @@
         <v>0.05</v>
       </c>
       <c r="U145">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V145" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>35</v>
       </c>
       <c r="B146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="C146">
-        <f t="shared" si="26"/>
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -12083,13 +12145,13 @@
         <v>100</v>
       </c>
       <c r="G146">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H146">
         <v>4.8</v>
       </c>
       <c r="I146">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="J146">
         <v>30</v>
@@ -12107,7 +12169,7 @@
         <v>4</v>
       </c>
       <c r="O146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P146" t="b">
@@ -12126,20 +12188,22 @@
         <v>0.05</v>
       </c>
       <c r="U146">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V146" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>35</v>
       </c>
       <c r="B147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="C147">
-        <f t="shared" si="26"/>
-        <v>6100</v>
+        <v>6101</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
@@ -12151,13 +12215,13 @@
         <v>100</v>
       </c>
       <c r="G147">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H147">
         <v>4.8</v>
       </c>
       <c r="I147">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="J147">
         <v>30</v>
@@ -12175,7 +12239,7 @@
         <v>4</v>
       </c>
       <c r="O147">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P147" t="b">
@@ -12194,10 +12258,13 @@
         <v>0.05</v>
       </c>
       <c r="U147">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="V147" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -12241,7 +12308,7 @@
         <v>4</v>
       </c>
       <c r="O148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P148" t="b">
@@ -12266,7 +12333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -12312,7 +12379,7 @@
         <v>4</v>
       </c>
       <c r="O149">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P149" t="b">
@@ -12334,16 +12401,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>36</v>
       </c>
       <c r="B150">
-        <f t="shared" ref="B150:B162" si="28">B149+1</f>
+        <f t="shared" ref="B150:B162" si="26">B149+1</f>
         <v>3</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="C150:C162" si="29">C149+1200</f>
+        <f t="shared" ref="C150:C162" si="27">C149+1200</f>
         <v>2500</v>
       </c>
       <c r="D150" t="s">
@@ -12380,7 +12447,7 @@
         <v>4</v>
       </c>
       <c r="O150">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P150" t="b">
@@ -12402,16 +12469,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>36</v>
       </c>
       <c r="B151">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="C151">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>3700</v>
       </c>
       <c r="D151" t="s">
@@ -12448,7 +12515,7 @@
         <v>4</v>
       </c>
       <c r="O151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P151" t="b">
@@ -12470,16 +12537,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>36</v>
       </c>
       <c r="B152">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="C152">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>4900</v>
       </c>
       <c r="D152" t="s">
@@ -12516,7 +12583,7 @@
         <v>4</v>
       </c>
       <c r="O152">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P152" t="b">
@@ -12538,16 +12605,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>36</v>
       </c>
       <c r="B153">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="C153">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>6100</v>
       </c>
       <c r="D153" t="s">
@@ -12584,7 +12651,7 @@
         <v>4</v>
       </c>
       <c r="O153">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P153" t="b">
@@ -12606,16 +12673,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>36</v>
       </c>
       <c r="B154">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="C154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>7300</v>
       </c>
       <c r="D154" t="s">
@@ -12652,7 +12719,7 @@
         <v>4</v>
       </c>
       <c r="O154">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P154" t="b">
@@ -12674,16 +12741,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>36</v>
       </c>
       <c r="B155">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="C155">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>8500</v>
       </c>
       <c r="D155" t="s">
@@ -12720,7 +12787,7 @@
         <v>4</v>
       </c>
       <c r="O155">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P155" t="b">
@@ -12742,16 +12809,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>36</v>
       </c>
       <c r="B156">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C156">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>9700</v>
       </c>
       <c r="D156" t="s">
@@ -12788,7 +12855,7 @@
         <v>4</v>
       </c>
       <c r="O156">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P156" t="b">
@@ -12810,16 +12877,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>36</v>
       </c>
       <c r="B157">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="C157">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>10900</v>
       </c>
       <c r="D157" t="s">
@@ -12856,7 +12923,7 @@
         <v>4</v>
       </c>
       <c r="O157">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P157" t="b">
@@ -12878,16 +12945,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>36</v>
       </c>
       <c r="B158">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="C158">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>12100</v>
       </c>
       <c r="D158" t="s">
@@ -12924,7 +12991,7 @@
         <v>4</v>
       </c>
       <c r="O158">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P158" t="b">
@@ -12946,16 +13013,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>36</v>
       </c>
       <c r="B159">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="C159">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>13300</v>
       </c>
       <c r="D159" t="s">
@@ -12992,7 +13059,7 @@
         <v>4</v>
       </c>
       <c r="O159">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P159" t="b">
@@ -13014,16 +13081,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>36</v>
       </c>
       <c r="B160">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="C160">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>14500</v>
       </c>
       <c r="D160" t="s">
@@ -13060,7 +13127,7 @@
         <v>4</v>
       </c>
       <c r="O160">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P160" t="b">
@@ -13082,16 +13149,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>36</v>
       </c>
       <c r="B161">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="C161">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>15700</v>
       </c>
       <c r="D161" t="s">
@@ -13128,7 +13195,7 @@
         <v>4</v>
       </c>
       <c r="O161">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P161" t="b">
@@ -13150,16 +13217,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>36</v>
       </c>
       <c r="B162">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="C162">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>16900</v>
       </c>
       <c r="D162" t="s">
@@ -13196,7 +13263,7 @@
         <v>4</v>
       </c>
       <c r="O162">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P162" t="b">
@@ -13218,7 +13285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -13262,7 +13329,7 @@
         <v>4</v>
       </c>
       <c r="O163">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P163" t="b">
@@ -13284,7 +13351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -13330,7 +13397,7 @@
         <v>4</v>
       </c>
       <c r="O164">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P164" t="b">
@@ -13352,16 +13419,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>37</v>
       </c>
       <c r="B165">
-        <f t="shared" ref="B165:B177" si="30">B164+1</f>
+        <f t="shared" ref="B165:B177" si="28">B164+1</f>
         <v>3</v>
       </c>
       <c r="C165">
-        <f t="shared" ref="C165:C177" si="31">C164+1200</f>
+        <f t="shared" ref="C165:C177" si="29">C164+1200</f>
         <v>2500</v>
       </c>
       <c r="D165" t="s">
@@ -13398,7 +13465,7 @@
         <v>4</v>
       </c>
       <c r="O165">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P165" t="b">
@@ -13420,16 +13487,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>37</v>
       </c>
       <c r="B166">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="C166">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>3700</v>
       </c>
       <c r="D166" t="s">
@@ -13466,7 +13533,7 @@
         <v>4</v>
       </c>
       <c r="O166">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P166" t="b">
@@ -13488,16 +13555,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>37</v>
       </c>
       <c r="B167">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="C167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>4900</v>
       </c>
       <c r="D167" t="s">
@@ -13534,7 +13601,7 @@
         <v>4</v>
       </c>
       <c r="O167">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P167" t="b">
@@ -13556,16 +13623,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>37</v>
       </c>
       <c r="B168">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="C168">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>6100</v>
       </c>
       <c r="D168" t="s">
@@ -13602,7 +13669,7 @@
         <v>4</v>
       </c>
       <c r="O168">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P168" t="b">
@@ -13624,16 +13691,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>37</v>
       </c>
       <c r="B169">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="C169">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>7300</v>
       </c>
       <c r="D169" t="s">
@@ -13670,7 +13737,7 @@
         <v>4</v>
       </c>
       <c r="O169">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P169" t="b">
@@ -13692,16 +13759,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>37</v>
       </c>
       <c r="B170">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="C170">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>8500</v>
       </c>
       <c r="D170" t="s">
@@ -13738,7 +13805,7 @@
         <v>4</v>
       </c>
       <c r="O170">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P170" t="b">
@@ -13760,16 +13827,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>37</v>
       </c>
       <c r="B171">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="C171">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>9700</v>
       </c>
       <c r="D171" t="s">
@@ -13806,7 +13873,7 @@
         <v>4</v>
       </c>
       <c r="O171">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P171" t="b">
@@ -13828,16 +13895,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>37</v>
       </c>
       <c r="B172">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="C172">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>10900</v>
       </c>
       <c r="D172" t="s">
@@ -13874,7 +13941,7 @@
         <v>4</v>
       </c>
       <c r="O172">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P172" t="b">
@@ -13896,16 +13963,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>37</v>
       </c>
       <c r="B173">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="C173">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>12100</v>
       </c>
       <c r="D173" t="s">
@@ -13942,7 +14009,7 @@
         <v>4</v>
       </c>
       <c r="O173">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P173" t="b">
@@ -13964,16 +14031,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>37</v>
       </c>
       <c r="B174">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="C174">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>13300</v>
       </c>
       <c r="D174" t="s">
@@ -14010,7 +14077,7 @@
         <v>4</v>
       </c>
       <c r="O174">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P174" t="b">
@@ -14032,16 +14099,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>37</v>
       </c>
       <c r="B175">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="C175">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>14500</v>
       </c>
       <c r="D175" t="s">
@@ -14078,7 +14145,7 @@
         <v>4</v>
       </c>
       <c r="O175">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P175" t="b">
@@ -14100,16 +14167,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>37</v>
       </c>
       <c r="B176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="C176">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>15700</v>
       </c>
       <c r="D176" t="s">
@@ -14146,7 +14213,7 @@
         <v>4</v>
       </c>
       <c r="O176">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P176" t="b">
@@ -14168,16 +14235,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>37</v>
       </c>
       <c r="B177">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="C177">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>16900</v>
       </c>
       <c r="D177" t="s">
@@ -14214,7 +14281,7 @@
         <v>4</v>
       </c>
       <c r="O177">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P177" t="b">
@@ -14236,7 +14303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -14280,7 +14347,7 @@
         <v>4</v>
       </c>
       <c r="O178">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P178" t="b">
@@ -14302,7 +14369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -14348,7 +14415,7 @@
         <v>4</v>
       </c>
       <c r="O179">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P179" t="b">
@@ -14370,16 +14437,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>38</v>
       </c>
       <c r="B180">
-        <f t="shared" ref="B180:B192" si="32">B179+1</f>
+        <f t="shared" ref="B180:B192" si="30">B179+1</f>
         <v>3</v>
       </c>
       <c r="C180">
-        <f t="shared" ref="C180:C192" si="33">C179+1200</f>
+        <f t="shared" ref="C180:C192" si="31">C179+1200</f>
         <v>2500</v>
       </c>
       <c r="D180" t="s">
@@ -14416,7 +14483,7 @@
         <v>4</v>
       </c>
       <c r="O180">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P180" t="b">
@@ -14438,16 +14505,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>38</v>
       </c>
       <c r="B181">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="C181">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>3700</v>
       </c>
       <c r="D181" t="s">
@@ -14484,7 +14551,7 @@
         <v>4</v>
       </c>
       <c r="O181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P181" t="b">
@@ -14506,16 +14573,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>38</v>
       </c>
       <c r="B182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="C182">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>4900</v>
       </c>
       <c r="D182" t="s">
@@ -14552,7 +14619,7 @@
         <v>4</v>
       </c>
       <c r="O182">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P182" t="b">
@@ -14574,16 +14641,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>38</v>
       </c>
       <c r="B183">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="C183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>6100</v>
       </c>
       <c r="D183" t="s">
@@ -14620,7 +14687,7 @@
         <v>4</v>
       </c>
       <c r="O183">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P183" t="b">
@@ -14642,16 +14709,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>38</v>
       </c>
       <c r="B184">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="C184">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>7300</v>
       </c>
       <c r="D184" t="s">
@@ -14688,7 +14755,7 @@
         <v>4</v>
       </c>
       <c r="O184">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P184" t="b">
@@ -14710,16 +14777,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>38</v>
       </c>
       <c r="B185">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="C185">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>8500</v>
       </c>
       <c r="D185" t="s">
@@ -14756,7 +14823,7 @@
         <v>4</v>
       </c>
       <c r="O185">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P185" t="b">
@@ -14778,16 +14845,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>38</v>
       </c>
       <c r="B186">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="C186">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>9700</v>
       </c>
       <c r="D186" t="s">
@@ -14824,7 +14891,7 @@
         <v>4</v>
       </c>
       <c r="O186">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P186" t="b">
@@ -14846,16 +14913,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>38</v>
       </c>
       <c r="B187">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="C187">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>10900</v>
       </c>
       <c r="D187" t="s">
@@ -14892,7 +14959,7 @@
         <v>4</v>
       </c>
       <c r="O187">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P187" t="b">
@@ -14914,16 +14981,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>38</v>
       </c>
       <c r="B188">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="C188">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>12100</v>
       </c>
       <c r="D188" t="s">
@@ -14960,7 +15027,7 @@
         <v>4</v>
       </c>
       <c r="O188">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P188" t="b">
@@ -14982,16 +15049,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>38</v>
       </c>
       <c r="B189">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="C189">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>13300</v>
       </c>
       <c r="D189" t="s">
@@ -15028,7 +15095,7 @@
         <v>4</v>
       </c>
       <c r="O189">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P189" t="b">
@@ -15050,16 +15117,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>38</v>
       </c>
       <c r="B190">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="C190">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>14500</v>
       </c>
       <c r="D190" t="s">
@@ -15096,7 +15163,7 @@
         <v>4</v>
       </c>
       <c r="O190">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P190" t="b">
@@ -15118,16 +15185,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>38</v>
       </c>
       <c r="B191">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="C191">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>15700</v>
       </c>
       <c r="D191" t="s">
@@ -15164,7 +15231,7 @@
         <v>4</v>
       </c>
       <c r="O191">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P191" t="b">
@@ -15186,16 +15253,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>38</v>
       </c>
       <c r="B192">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="C192">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>16900</v>
       </c>
       <c r="D192" t="s">
@@ -15232,7 +15299,7 @@
         <v>4</v>
       </c>
       <c r="O192">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.7E-6</v>
       </c>
       <c r="P192" t="b">
@@ -15255,14 +15322,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W192">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="190205_a-synKO_2_AMPH_1.csv"/>
-        <filter val="190205_a-synKO_2_AMPH_2.csv"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W192"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\Computing\RProg\Columbia\rwalk\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jai/Documents/Computing/DataScience/Columbia/rwalk/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA4CB9-6F5E-4F92-9B9C-B238B483AAFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
@@ -19,10 +18,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$Y$192</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,15 +32,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="57">
   <si>
     <t>filename</t>
   </si>
@@ -192,11 +191,29 @@
   <si>
     <t>include</t>
   </si>
+  <si>
+    <t>190409_2_10mg-kg AMPH_1.csv</t>
+  </si>
+  <si>
+    <t>190409_2_10mg-kg AMPH_2.csv</t>
+  </si>
+  <si>
+    <t>190409_2_10mg-kg AMPH_3.csv</t>
+  </si>
+  <si>
+    <t>190409_2_10mg-kg AMPH_4.csv</t>
+  </si>
+  <si>
+    <t>190528_10mg-kgAMPH_1.csv</t>
+  </si>
+  <si>
+    <t>190528_10mg-kgAMPH_2.csv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -290,7 +307,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -502,13 +519,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.5</c:v>
@@ -520,7 +537,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.8</c:v>
@@ -532,7 +549,7 @@
                   <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.8</c:v>
@@ -544,25 +561,25 @@
                   <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.8</c:v>
@@ -571,7 +588,7 @@
                   <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.8</c:v>
@@ -595,7 +612,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2718-452C-BF1F-3DFCA89E692C}"/>
             </c:ext>
@@ -735,19 +752,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.5384615384615385</c:v>
+                  <c:v>1.538461538461539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8181818181818183</c:v>
+                  <c:v>1.818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8181818181818183</c:v>
+                  <c:v>1.818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5384615384615385</c:v>
+                  <c:v>1.538461538461539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.588235294117647</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.4</c:v>
@@ -756,79 +773,79 @@
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.294117647058824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.32258064516129031</c:v>
+                  <c:v>0.32258064516129</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27027027027027029</c:v>
+                  <c:v>0.27027027027027</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2718-452C-BF1F-3DFCA89E692C}"/>
             </c:ext>
@@ -843,11 +860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1943696384"/>
-        <c:axId val="-1943694064"/>
+        <c:axId val="63360992"/>
+        <c:axId val="62265168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1943696384"/>
+        <c:axId val="63360992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943694064"/>
+        <c:crossAx val="62265168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -898,7 +915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943694064"/>
+        <c:axId val="62265168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943696384"/>
+        <c:crossAx val="63360992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,7 +1622,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,37 +1905,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="3" customWidth="1"/>
-    <col min="19" max="19" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.625" customWidth="1"/>
-    <col min="25" max="25" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -4683,7 +4706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4761,7 +4784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4839,7 +4862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4917,7 +4940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -4995,7 +5018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5073,7 +5096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5151,7 +5174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5229,7 +5252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5308,7 +5331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5387,7 +5410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="5"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -5465,7 +5488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -5541,7 +5564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>A47</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5619,7 +5642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" ref="A49:A61" si="10">A48</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5697,7 +5720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5775,7 +5798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5853,7 +5876,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -5931,7 +5954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6009,7 +6032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6087,7 +6110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6165,7 +6188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6243,7 +6266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6322,7 +6345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6403,7 +6426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6481,7 +6504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6560,7 +6583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="10"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -6638,7 +6661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -6713,7 +6736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -6789,7 +6812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -6865,7 +6888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -6941,7 +6964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -7017,7 +7040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -7093,7 +7116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -7169,7 +7192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -7245,7 +7268,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -7322,7 +7345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -7399,7 +7422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -7476,7 +7499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -7553,7 +7576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -7630,7 +7653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -7707,7 +7730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -7784,7 +7807,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -7860,7 +7883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -7936,7 +7959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -8012,7 +8035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -8088,7 +8111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -8164,7 +8187,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -8240,7 +8263,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -8316,7 +8339,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>29</v>
       </c>
@@ -8392,7 +8415,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -8468,7 +8491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -8544,7 +8567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -8620,7 +8643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -8697,7 +8720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -8774,7 +8797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -8851,7 +8874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -8928,7 +8951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -9003,7 +9026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -9079,7 +9102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -9155,7 +9178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -9231,7 +9254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -9307,7 +9330,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -9383,7 +9406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -9459,7 +9482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -9535,7 +9558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -9611,7 +9634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -9687,7 +9710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -9763,7 +9786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -9839,7 +9862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -9915,7 +9938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -9991,7 +10014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -10067,7 +10090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -10143,7 +10166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -10219,7 +10242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>32</v>
       </c>
@@ -10295,7 +10318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -10371,7 +10394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -10447,7 +10470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -10523,7 +10546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -10599,7 +10622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -10675,7 +10698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -10751,7 +10774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -10827,7 +10850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -10903,7 +10926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -10979,7 +11002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -11055,7 +11078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -11131,7 +11154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -11207,7 +11230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -11282,7 +11305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -11358,7 +11381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -11434,7 +11457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -11510,7 +11533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -11586,7 +11609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -11662,7 +11685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -11738,7 +11761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -11814,7 +11837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -11890,7 +11913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -11966,7 +11989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -12042,7 +12065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -12118,7 +12141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
@@ -12195,7 +12218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>34</v>
       </c>
@@ -12272,7 +12295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>34</v>
       </c>
@@ -12349,7 +12372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>34</v>
       </c>
@@ -12426,7 +12449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -12500,7 +12523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -12577,7 +12600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -12654,7 +12677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>34</v>
       </c>
@@ -12731,7 +12754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -12807,7 +12830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -12883,7 +12906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -12959,7 +12982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -13010,7 +13033,7 @@
         <v>4</v>
       </c>
       <c r="Q145">
-        <f t="shared" ref="Q145:Q192" si="25">2.7*10^-6</f>
+        <f t="shared" ref="Q145:Q225" si="25">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="R145" t="b">
@@ -13035,7 +13058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -13111,7 +13134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -13187,7 +13210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -13262,7 +13285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -13336,7 +13359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -13410,7 +13433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -13484,7 +13507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -13558,7 +13581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>36</v>
       </c>
@@ -13632,7 +13655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -13706,7 +13729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -13780,7 +13803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -13854,7 +13877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -13928,7 +13951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -14002,7 +14025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -14076,7 +14099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -14150,7 +14173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -14224,7 +14247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>36</v>
       </c>
@@ -14298,7 +14321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -14370,7 +14393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -14444,7 +14467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -14518,7 +14541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -14592,7 +14615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -14666,7 +14689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -14740,7 +14763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -14814,7 +14837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -14888,7 +14911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -14962,7 +14985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -15036,7 +15059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -15110,7 +15133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -15184,7 +15207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -15258,7 +15281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -15332,7 +15355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -15406,7 +15429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -15479,7 +15502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -15553,7 +15576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>38</v>
       </c>
@@ -15627,7 +15650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -15701,7 +15724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>38</v>
       </c>
@@ -15775,7 +15798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>38</v>
       </c>
@@ -15849,7 +15872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>38</v>
       </c>
@@ -15923,7 +15946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -15997,7 +16020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>38</v>
       </c>
@@ -16071,7 +16094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -16145,7 +16168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -16219,7 +16242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>38</v>
       </c>
@@ -16293,7 +16316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -16367,7 +16390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -16441,7 +16464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>38</v>
       </c>
@@ -16515,21 +16538,4943 @@
         <v>20</v>
       </c>
     </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>51</v>
+      </c>
+      <c r="B193">
+        <v>1904092</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>100</v>
+      </c>
+      <c r="F193" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>100</v>
+      </c>
+      <c r="I193">
+        <v>2.4</v>
+      </c>
+      <c r="J193">
+        <v>4.8</v>
+      </c>
+      <c r="K193">
+        <v>2.1</v>
+      </c>
+      <c r="L193">
+        <v>30</v>
+      </c>
+      <c r="M193">
+        <v>50</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193">
+        <v>1000</v>
+      </c>
+      <c r="P193">
+        <v>4</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R193" t="b">
+        <v>1</v>
+      </c>
+      <c r="S193">
+        <v>10000</v>
+      </c>
+      <c r="T193">
+        <v>5</v>
+      </c>
+      <c r="U193" t="s">
+        <v>27</v>
+      </c>
+      <c r="V193">
+        <v>0.05</v>
+      </c>
+      <c r="W193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>51</v>
+      </c>
+      <c r="B194">
+        <v>1904092</v>
+      </c>
+      <c r="C194">
+        <f>C193+1</f>
+        <v>2</v>
+      </c>
+      <c r="D194" t="b">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <f>E193+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="F194" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>100</v>
+      </c>
+      <c r="I194">
+        <v>2.4</v>
+      </c>
+      <c r="J194">
+        <v>4.8</v>
+      </c>
+      <c r="K194">
+        <v>2.1</v>
+      </c>
+      <c r="L194">
+        <v>30</v>
+      </c>
+      <c r="M194">
+        <v>50</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194">
+        <v>1000</v>
+      </c>
+      <c r="P194">
+        <v>4</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R194" t="b">
+        <v>1</v>
+      </c>
+      <c r="S194">
+        <v>10000</v>
+      </c>
+      <c r="T194">
+        <v>5</v>
+      </c>
+      <c r="U194" t="s">
+        <v>27</v>
+      </c>
+      <c r="V194">
+        <v>0.05</v>
+      </c>
+      <c r="W194">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>51</v>
+      </c>
+      <c r="B195">
+        <v>1904092</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C204" si="32">C194+1</f>
+        <v>3</v>
+      </c>
+      <c r="D195" t="b">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E202" si="33">E194+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="F195" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>100</v>
+      </c>
+      <c r="I195">
+        <v>2.4</v>
+      </c>
+      <c r="J195">
+        <v>4.8</v>
+      </c>
+      <c r="K195">
+        <v>2.1</v>
+      </c>
+      <c r="L195">
+        <v>30</v>
+      </c>
+      <c r="M195">
+        <v>50</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195">
+        <v>1000</v>
+      </c>
+      <c r="P195">
+        <v>4</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R195" t="b">
+        <v>1</v>
+      </c>
+      <c r="S195">
+        <v>10000</v>
+      </c>
+      <c r="T195">
+        <v>5</v>
+      </c>
+      <c r="U195" t="s">
+        <v>27</v>
+      </c>
+      <c r="V195">
+        <v>0.05</v>
+      </c>
+      <c r="W195">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>51</v>
+      </c>
+      <c r="B196">
+        <v>1904092</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="33"/>
+        <v>3700</v>
+      </c>
+      <c r="F196" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>100</v>
+      </c>
+      <c r="I196">
+        <v>2.4</v>
+      </c>
+      <c r="J196">
+        <v>4.8</v>
+      </c>
+      <c r="K196">
+        <v>2.1</v>
+      </c>
+      <c r="L196">
+        <v>30</v>
+      </c>
+      <c r="M196">
+        <v>50</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196">
+        <v>1000</v>
+      </c>
+      <c r="P196">
+        <v>4</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R196" t="b">
+        <v>1</v>
+      </c>
+      <c r="S196">
+        <v>10000</v>
+      </c>
+      <c r="T196">
+        <v>5</v>
+      </c>
+      <c r="U196" t="s">
+        <v>27</v>
+      </c>
+      <c r="V196">
+        <v>0.05</v>
+      </c>
+      <c r="W196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>51</v>
+      </c>
+      <c r="B197">
+        <v>1904092</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="D197" t="b">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="33"/>
+        <v>4900</v>
+      </c>
+      <c r="F197" t="s">
+        <v>8</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>100</v>
+      </c>
+      <c r="I197">
+        <v>2.4</v>
+      </c>
+      <c r="J197">
+        <v>4.8</v>
+      </c>
+      <c r="K197">
+        <v>2.1</v>
+      </c>
+      <c r="L197">
+        <v>30</v>
+      </c>
+      <c r="M197">
+        <v>50</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197">
+        <v>1000</v>
+      </c>
+      <c r="P197">
+        <v>4</v>
+      </c>
+      <c r="Q197">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R197" t="b">
+        <v>1</v>
+      </c>
+      <c r="S197">
+        <v>10000</v>
+      </c>
+      <c r="T197">
+        <v>5</v>
+      </c>
+      <c r="U197" t="s">
+        <v>27</v>
+      </c>
+      <c r="V197">
+        <v>0.05</v>
+      </c>
+      <c r="W197">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>51</v>
+      </c>
+      <c r="B198">
+        <v>1904092</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="D198" t="b">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="33"/>
+        <v>6100</v>
+      </c>
+      <c r="F198" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>100</v>
+      </c>
+      <c r="I198">
+        <v>2.4</v>
+      </c>
+      <c r="J198">
+        <v>4.8</v>
+      </c>
+      <c r="K198">
+        <v>2.1</v>
+      </c>
+      <c r="L198">
+        <v>30</v>
+      </c>
+      <c r="M198">
+        <v>50</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198">
+        <v>1000</v>
+      </c>
+      <c r="P198">
+        <v>4</v>
+      </c>
+      <c r="Q198">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R198" t="b">
+        <v>1</v>
+      </c>
+      <c r="S198">
+        <v>10000</v>
+      </c>
+      <c r="T198">
+        <v>5</v>
+      </c>
+      <c r="U198" t="s">
+        <v>27</v>
+      </c>
+      <c r="V198">
+        <v>0.05</v>
+      </c>
+      <c r="W198">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>51</v>
+      </c>
+      <c r="B199">
+        <v>1904092</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="33"/>
+        <v>7300</v>
+      </c>
+      <c r="F199" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>100</v>
+      </c>
+      <c r="I199">
+        <v>2.4</v>
+      </c>
+      <c r="J199">
+        <v>4.8</v>
+      </c>
+      <c r="K199">
+        <v>2.1</v>
+      </c>
+      <c r="L199">
+        <v>30</v>
+      </c>
+      <c r="M199">
+        <v>50</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199">
+        <v>1000</v>
+      </c>
+      <c r="P199">
+        <v>4</v>
+      </c>
+      <c r="Q199">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R199" t="b">
+        <v>1</v>
+      </c>
+      <c r="S199">
+        <v>10000</v>
+      </c>
+      <c r="T199">
+        <v>5</v>
+      </c>
+      <c r="U199" t="s">
+        <v>27</v>
+      </c>
+      <c r="V199">
+        <v>0.05</v>
+      </c>
+      <c r="W199">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>51</v>
+      </c>
+      <c r="B200">
+        <v>1904092</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="33"/>
+        <v>8500</v>
+      </c>
+      <c r="F200" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>100</v>
+      </c>
+      <c r="I200">
+        <v>2.4</v>
+      </c>
+      <c r="J200">
+        <v>4.8</v>
+      </c>
+      <c r="K200">
+        <v>2.1</v>
+      </c>
+      <c r="L200">
+        <v>30</v>
+      </c>
+      <c r="M200">
+        <v>50</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200">
+        <v>1000</v>
+      </c>
+      <c r="P200">
+        <v>4</v>
+      </c>
+      <c r="Q200">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R200" t="b">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>10000</v>
+      </c>
+      <c r="T200">
+        <v>5</v>
+      </c>
+      <c r="U200" t="s">
+        <v>27</v>
+      </c>
+      <c r="V200">
+        <v>0.05</v>
+      </c>
+      <c r="W200">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>51</v>
+      </c>
+      <c r="B201">
+        <v>1904092</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="D201" t="b">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="33"/>
+        <v>9700</v>
+      </c>
+      <c r="F201" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>100</v>
+      </c>
+      <c r="I201">
+        <v>2.4</v>
+      </c>
+      <c r="J201">
+        <v>4.8</v>
+      </c>
+      <c r="K201">
+        <v>2.1</v>
+      </c>
+      <c r="L201">
+        <v>30</v>
+      </c>
+      <c r="M201">
+        <v>50</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201">
+        <v>1000</v>
+      </c>
+      <c r="P201">
+        <v>4</v>
+      </c>
+      <c r="Q201">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R201" t="b">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>10000</v>
+      </c>
+      <c r="T201">
+        <v>5</v>
+      </c>
+      <c r="U201" t="s">
+        <v>27</v>
+      </c>
+      <c r="V201">
+        <v>0.05</v>
+      </c>
+      <c r="W201">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>51</v>
+      </c>
+      <c r="B202">
+        <v>1904092</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="D202" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="33"/>
+        <v>10900</v>
+      </c>
+      <c r="F202" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>100</v>
+      </c>
+      <c r="I202">
+        <v>2.4</v>
+      </c>
+      <c r="J202">
+        <v>4.8</v>
+      </c>
+      <c r="K202">
+        <v>2.1</v>
+      </c>
+      <c r="L202">
+        <v>30</v>
+      </c>
+      <c r="M202">
+        <v>50</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202">
+        <v>1000</v>
+      </c>
+      <c r="P202">
+        <v>4</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R202" t="b">
+        <v>1</v>
+      </c>
+      <c r="S202">
+        <v>10000</v>
+      </c>
+      <c r="T202">
+        <v>5</v>
+      </c>
+      <c r="U202" t="s">
+        <v>27</v>
+      </c>
+      <c r="V202">
+        <v>0.05</v>
+      </c>
+      <c r="W202">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>52</v>
+      </c>
+      <c r="B203">
+        <v>1904092</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="D203" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>100</v>
+      </c>
+      <c r="F203" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>100</v>
+      </c>
+      <c r="I203">
+        <v>2.4</v>
+      </c>
+      <c r="J203">
+        <v>4.8</v>
+      </c>
+      <c r="K203">
+        <v>2.1</v>
+      </c>
+      <c r="L203">
+        <v>30</v>
+      </c>
+      <c r="M203">
+        <v>50</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203">
+        <v>1000</v>
+      </c>
+      <c r="P203">
+        <v>4</v>
+      </c>
+      <c r="Q203">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R203" t="b">
+        <v>1</v>
+      </c>
+      <c r="S203">
+        <v>10000</v>
+      </c>
+      <c r="T203">
+        <v>5</v>
+      </c>
+      <c r="U203" t="s">
+        <v>27</v>
+      </c>
+      <c r="V203">
+        <v>0.05</v>
+      </c>
+      <c r="W203">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>52</v>
+      </c>
+      <c r="B204">
+        <v>1904092</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="32"/>
+        <v>12</v>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <f>E203+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="F204" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>100</v>
+      </c>
+      <c r="I204">
+        <v>2.4</v>
+      </c>
+      <c r="J204">
+        <v>4.8</v>
+      </c>
+      <c r="K204">
+        <v>2.1</v>
+      </c>
+      <c r="L204">
+        <v>30</v>
+      </c>
+      <c r="M204">
+        <v>50</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204">
+        <v>1000</v>
+      </c>
+      <c r="P204">
+        <v>4</v>
+      </c>
+      <c r="Q204">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R204" t="b">
+        <v>1</v>
+      </c>
+      <c r="S204">
+        <v>10000</v>
+      </c>
+      <c r="T204">
+        <v>5</v>
+      </c>
+      <c r="U204" t="s">
+        <v>27</v>
+      </c>
+      <c r="V204">
+        <v>0.05</v>
+      </c>
+      <c r="W204">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>52</v>
+      </c>
+      <c r="B205">
+        <v>1904092</v>
+      </c>
+      <c r="C205">
+        <f t="shared" ref="C205:C212" si="34">C204+1</f>
+        <v>13</v>
+      </c>
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <f t="shared" ref="E205:E212" si="35">E204+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="F205" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>100</v>
+      </c>
+      <c r="I205">
+        <v>2.4</v>
+      </c>
+      <c r="J205">
+        <v>4.8</v>
+      </c>
+      <c r="K205">
+        <v>2.1</v>
+      </c>
+      <c r="L205">
+        <v>30</v>
+      </c>
+      <c r="M205">
+        <v>50</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205">
+        <v>1000</v>
+      </c>
+      <c r="P205">
+        <v>4</v>
+      </c>
+      <c r="Q205">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R205" t="b">
+        <v>1</v>
+      </c>
+      <c r="S205">
+        <v>10000</v>
+      </c>
+      <c r="T205">
+        <v>5</v>
+      </c>
+      <c r="U205" t="s">
+        <v>27</v>
+      </c>
+      <c r="V205">
+        <v>0.05</v>
+      </c>
+      <c r="W205">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>52</v>
+      </c>
+      <c r="B206">
+        <v>1904092</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="34"/>
+        <v>14</v>
+      </c>
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="35"/>
+        <v>3700</v>
+      </c>
+      <c r="F206" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>100</v>
+      </c>
+      <c r="I206">
+        <v>2.4</v>
+      </c>
+      <c r="J206">
+        <v>4.8</v>
+      </c>
+      <c r="K206">
+        <v>2.1</v>
+      </c>
+      <c r="L206">
+        <v>30</v>
+      </c>
+      <c r="M206">
+        <v>50</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206">
+        <v>1000</v>
+      </c>
+      <c r="P206">
+        <v>4</v>
+      </c>
+      <c r="Q206">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R206" t="b">
+        <v>1</v>
+      </c>
+      <c r="S206">
+        <v>10000</v>
+      </c>
+      <c r="T206">
+        <v>5</v>
+      </c>
+      <c r="U206" t="s">
+        <v>27</v>
+      </c>
+      <c r="V206">
+        <v>0.05</v>
+      </c>
+      <c r="W206">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>52</v>
+      </c>
+      <c r="B207">
+        <v>1904092</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="34"/>
+        <v>15</v>
+      </c>
+      <c r="D207" t="b">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="35"/>
+        <v>4900</v>
+      </c>
+      <c r="F207" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>100</v>
+      </c>
+      <c r="I207">
+        <v>2.4</v>
+      </c>
+      <c r="J207">
+        <v>4.8</v>
+      </c>
+      <c r="K207">
+        <v>2.1</v>
+      </c>
+      <c r="L207">
+        <v>30</v>
+      </c>
+      <c r="M207">
+        <v>50</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207">
+        <v>1000</v>
+      </c>
+      <c r="P207">
+        <v>4</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R207" t="b">
+        <v>1</v>
+      </c>
+      <c r="S207">
+        <v>10000</v>
+      </c>
+      <c r="T207">
+        <v>5</v>
+      </c>
+      <c r="U207" t="s">
+        <v>27</v>
+      </c>
+      <c r="V207">
+        <v>0.05</v>
+      </c>
+      <c r="W207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>52</v>
+      </c>
+      <c r="B208">
+        <v>1904092</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="34"/>
+        <v>16</v>
+      </c>
+      <c r="D208" t="b">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="35"/>
+        <v>6100</v>
+      </c>
+      <c r="F208" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>100</v>
+      </c>
+      <c r="I208">
+        <v>2.4</v>
+      </c>
+      <c r="J208">
+        <v>4.8</v>
+      </c>
+      <c r="K208">
+        <v>2.1</v>
+      </c>
+      <c r="L208">
+        <v>30</v>
+      </c>
+      <c r="M208">
+        <v>50</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208">
+        <v>1000</v>
+      </c>
+      <c r="P208">
+        <v>4</v>
+      </c>
+      <c r="Q208">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R208" t="b">
+        <v>1</v>
+      </c>
+      <c r="S208">
+        <v>10000</v>
+      </c>
+      <c r="T208">
+        <v>5</v>
+      </c>
+      <c r="U208" t="s">
+        <v>27</v>
+      </c>
+      <c r="V208">
+        <v>0.05</v>
+      </c>
+      <c r="W208">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209">
+        <v>1904092</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="34"/>
+        <v>17</v>
+      </c>
+      <c r="D209" t="b">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="35"/>
+        <v>7300</v>
+      </c>
+      <c r="F209" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>100</v>
+      </c>
+      <c r="I209">
+        <v>2.4</v>
+      </c>
+      <c r="J209">
+        <v>4.8</v>
+      </c>
+      <c r="K209">
+        <v>2.1</v>
+      </c>
+      <c r="L209">
+        <v>30</v>
+      </c>
+      <c r="M209">
+        <v>50</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209">
+        <v>1000</v>
+      </c>
+      <c r="P209">
+        <v>4</v>
+      </c>
+      <c r="Q209">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R209" t="b">
+        <v>1</v>
+      </c>
+      <c r="S209">
+        <v>10000</v>
+      </c>
+      <c r="T209">
+        <v>5</v>
+      </c>
+      <c r="U209" t="s">
+        <v>27</v>
+      </c>
+      <c r="V209">
+        <v>0.05</v>
+      </c>
+      <c r="W209">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>52</v>
+      </c>
+      <c r="B210">
+        <v>1904092</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="34"/>
+        <v>18</v>
+      </c>
+      <c r="D210" t="b">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="35"/>
+        <v>8500</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>100</v>
+      </c>
+      <c r="I210">
+        <v>2.4</v>
+      </c>
+      <c r="J210">
+        <v>4.8</v>
+      </c>
+      <c r="K210">
+        <v>2.1</v>
+      </c>
+      <c r="L210">
+        <v>30</v>
+      </c>
+      <c r="M210">
+        <v>50</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210">
+        <v>1000</v>
+      </c>
+      <c r="P210">
+        <v>4</v>
+      </c>
+      <c r="Q210">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R210" t="b">
+        <v>1</v>
+      </c>
+      <c r="S210">
+        <v>10000</v>
+      </c>
+      <c r="T210">
+        <v>5</v>
+      </c>
+      <c r="U210" t="s">
+        <v>27</v>
+      </c>
+      <c r="V210">
+        <v>0.05</v>
+      </c>
+      <c r="W210">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>52</v>
+      </c>
+      <c r="B211">
+        <v>1904092</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="34"/>
+        <v>19</v>
+      </c>
+      <c r="D211" t="b">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="35"/>
+        <v>9700</v>
+      </c>
+      <c r="F211" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>100</v>
+      </c>
+      <c r="I211">
+        <v>2.4</v>
+      </c>
+      <c r="J211">
+        <v>4.8</v>
+      </c>
+      <c r="K211">
+        <v>2.1</v>
+      </c>
+      <c r="L211">
+        <v>30</v>
+      </c>
+      <c r="M211">
+        <v>50</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211">
+        <v>1000</v>
+      </c>
+      <c r="P211">
+        <v>4</v>
+      </c>
+      <c r="Q211">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R211" t="b">
+        <v>1</v>
+      </c>
+      <c r="S211">
+        <v>10000</v>
+      </c>
+      <c r="T211">
+        <v>5</v>
+      </c>
+      <c r="U211" t="s">
+        <v>27</v>
+      </c>
+      <c r="V211">
+        <v>0.05</v>
+      </c>
+      <c r="W211">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>52</v>
+      </c>
+      <c r="B212">
+        <v>1904092</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="34"/>
+        <v>20</v>
+      </c>
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="35"/>
+        <v>10900</v>
+      </c>
+      <c r="F212" t="s">
+        <v>8</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>100</v>
+      </c>
+      <c r="I212">
+        <v>2.4</v>
+      </c>
+      <c r="J212">
+        <v>4.8</v>
+      </c>
+      <c r="K212">
+        <v>2.1</v>
+      </c>
+      <c r="L212">
+        <v>30</v>
+      </c>
+      <c r="M212">
+        <v>50</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212">
+        <v>1000</v>
+      </c>
+      <c r="P212">
+        <v>4</v>
+      </c>
+      <c r="Q212">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R212" t="b">
+        <v>1</v>
+      </c>
+      <c r="S212">
+        <v>10000</v>
+      </c>
+      <c r="T212">
+        <v>5</v>
+      </c>
+      <c r="U212" t="s">
+        <v>27</v>
+      </c>
+      <c r="V212">
+        <v>0.05</v>
+      </c>
+      <c r="W212">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>53</v>
+      </c>
+      <c r="B213">
+        <v>1904092</v>
+      </c>
+      <c r="C213">
+        <f>C212+1</f>
+        <v>21</v>
+      </c>
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>100</v>
+      </c>
+      <c r="F213" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>100</v>
+      </c>
+      <c r="I213">
+        <v>2.4</v>
+      </c>
+      <c r="J213">
+        <v>4.8</v>
+      </c>
+      <c r="K213">
+        <v>2.1</v>
+      </c>
+      <c r="L213">
+        <v>30</v>
+      </c>
+      <c r="M213">
+        <v>50</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213">
+        <v>1000</v>
+      </c>
+      <c r="P213">
+        <v>4</v>
+      </c>
+      <c r="Q213">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R213" t="b">
+        <v>1</v>
+      </c>
+      <c r="S213">
+        <v>10000</v>
+      </c>
+      <c r="T213">
+        <v>5</v>
+      </c>
+      <c r="U213" t="s">
+        <v>27</v>
+      </c>
+      <c r="V213">
+        <v>0.05</v>
+      </c>
+      <c r="W213">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>53</v>
+      </c>
+      <c r="B214">
+        <v>1904092</v>
+      </c>
+      <c r="C214">
+        <f>C213+1</f>
+        <v>22</v>
+      </c>
+      <c r="D214" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <f>E213+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="F214" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>100</v>
+      </c>
+      <c r="I214">
+        <v>2.4</v>
+      </c>
+      <c r="J214">
+        <v>4.8</v>
+      </c>
+      <c r="K214">
+        <v>2.1</v>
+      </c>
+      <c r="L214">
+        <v>30</v>
+      </c>
+      <c r="M214">
+        <v>50</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214">
+        <v>1000</v>
+      </c>
+      <c r="P214">
+        <v>4</v>
+      </c>
+      <c r="Q214">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R214" t="b">
+        <v>1</v>
+      </c>
+      <c r="S214">
+        <v>10000</v>
+      </c>
+      <c r="T214">
+        <v>5</v>
+      </c>
+      <c r="U214" t="s">
+        <v>27</v>
+      </c>
+      <c r="V214">
+        <v>0.05</v>
+      </c>
+      <c r="W214">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>53</v>
+      </c>
+      <c r="B215">
+        <v>1904092</v>
+      </c>
+      <c r="C215">
+        <f t="shared" ref="C215:C224" si="36">C214+1</f>
+        <v>23</v>
+      </c>
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <f t="shared" ref="E215:E222" si="37">E214+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="F215" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>100</v>
+      </c>
+      <c r="I215">
+        <v>2.4</v>
+      </c>
+      <c r="J215">
+        <v>4.8</v>
+      </c>
+      <c r="K215">
+        <v>2.1</v>
+      </c>
+      <c r="L215">
+        <v>30</v>
+      </c>
+      <c r="M215">
+        <v>50</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215">
+        <v>1000</v>
+      </c>
+      <c r="P215">
+        <v>4</v>
+      </c>
+      <c r="Q215">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R215" t="b">
+        <v>1</v>
+      </c>
+      <c r="S215">
+        <v>10000</v>
+      </c>
+      <c r="T215">
+        <v>5</v>
+      </c>
+      <c r="U215" t="s">
+        <v>27</v>
+      </c>
+      <c r="V215">
+        <v>0.05</v>
+      </c>
+      <c r="W215">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>53</v>
+      </c>
+      <c r="B216">
+        <v>1904092</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="36"/>
+        <v>24</v>
+      </c>
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="37"/>
+        <v>3700</v>
+      </c>
+      <c r="F216" t="s">
+        <v>8</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>100</v>
+      </c>
+      <c r="I216">
+        <v>2.4</v>
+      </c>
+      <c r="J216">
+        <v>4.8</v>
+      </c>
+      <c r="K216">
+        <v>2.1</v>
+      </c>
+      <c r="L216">
+        <v>30</v>
+      </c>
+      <c r="M216">
+        <v>50</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216">
+        <v>1000</v>
+      </c>
+      <c r="P216">
+        <v>4</v>
+      </c>
+      <c r="Q216">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R216" t="b">
+        <v>1</v>
+      </c>
+      <c r="S216">
+        <v>10000</v>
+      </c>
+      <c r="T216">
+        <v>5</v>
+      </c>
+      <c r="U216" t="s">
+        <v>27</v>
+      </c>
+      <c r="V216">
+        <v>0.05</v>
+      </c>
+      <c r="W216">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217">
+        <v>1904092</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="36"/>
+        <v>25</v>
+      </c>
+      <c r="D217" t="b">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="37"/>
+        <v>4900</v>
+      </c>
+      <c r="F217" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>100</v>
+      </c>
+      <c r="I217">
+        <v>2.4</v>
+      </c>
+      <c r="J217">
+        <v>4.8</v>
+      </c>
+      <c r="K217">
+        <v>2.1</v>
+      </c>
+      <c r="L217">
+        <v>30</v>
+      </c>
+      <c r="M217">
+        <v>50</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217">
+        <v>1000</v>
+      </c>
+      <c r="P217">
+        <v>4</v>
+      </c>
+      <c r="Q217">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R217" t="b">
+        <v>1</v>
+      </c>
+      <c r="S217">
+        <v>10000</v>
+      </c>
+      <c r="T217">
+        <v>5</v>
+      </c>
+      <c r="U217" t="s">
+        <v>27</v>
+      </c>
+      <c r="V217">
+        <v>0.05</v>
+      </c>
+      <c r="W217">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>53</v>
+      </c>
+      <c r="B218">
+        <v>1904092</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="36"/>
+        <v>26</v>
+      </c>
+      <c r="D218" t="b">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="37"/>
+        <v>6100</v>
+      </c>
+      <c r="F218" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>100</v>
+      </c>
+      <c r="I218">
+        <v>2.4</v>
+      </c>
+      <c r="J218">
+        <v>4.8</v>
+      </c>
+      <c r="K218">
+        <v>2.1</v>
+      </c>
+      <c r="L218">
+        <v>30</v>
+      </c>
+      <c r="M218">
+        <v>50</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218">
+        <v>1000</v>
+      </c>
+      <c r="P218">
+        <v>4</v>
+      </c>
+      <c r="Q218">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R218" t="b">
+        <v>1</v>
+      </c>
+      <c r="S218">
+        <v>10000</v>
+      </c>
+      <c r="T218">
+        <v>5</v>
+      </c>
+      <c r="U218" t="s">
+        <v>27</v>
+      </c>
+      <c r="V218">
+        <v>0.05</v>
+      </c>
+      <c r="W218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>53</v>
+      </c>
+      <c r="B219">
+        <v>1904092</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="36"/>
+        <v>27</v>
+      </c>
+      <c r="D219" t="b">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="37"/>
+        <v>7300</v>
+      </c>
+      <c r="F219" t="s">
+        <v>8</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>100</v>
+      </c>
+      <c r="I219">
+        <v>2.4</v>
+      </c>
+      <c r="J219">
+        <v>4.8</v>
+      </c>
+      <c r="K219">
+        <v>2.1</v>
+      </c>
+      <c r="L219">
+        <v>30</v>
+      </c>
+      <c r="M219">
+        <v>50</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219">
+        <v>1000</v>
+      </c>
+      <c r="P219">
+        <v>4</v>
+      </c>
+      <c r="Q219">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R219" t="b">
+        <v>1</v>
+      </c>
+      <c r="S219">
+        <v>10000</v>
+      </c>
+      <c r="T219">
+        <v>5</v>
+      </c>
+      <c r="U219" t="s">
+        <v>27</v>
+      </c>
+      <c r="V219">
+        <v>0.05</v>
+      </c>
+      <c r="W219">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>53</v>
+      </c>
+      <c r="B220">
+        <v>1904092</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="36"/>
+        <v>28</v>
+      </c>
+      <c r="D220" t="b">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="37"/>
+        <v>8500</v>
+      </c>
+      <c r="F220" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>100</v>
+      </c>
+      <c r="I220">
+        <v>2.4</v>
+      </c>
+      <c r="J220">
+        <v>4.8</v>
+      </c>
+      <c r="K220">
+        <v>2.1</v>
+      </c>
+      <c r="L220">
+        <v>30</v>
+      </c>
+      <c r="M220">
+        <v>50</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220">
+        <v>1000</v>
+      </c>
+      <c r="P220">
+        <v>4</v>
+      </c>
+      <c r="Q220">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R220" t="b">
+        <v>1</v>
+      </c>
+      <c r="S220">
+        <v>10000</v>
+      </c>
+      <c r="T220">
+        <v>5</v>
+      </c>
+      <c r="U220" t="s">
+        <v>27</v>
+      </c>
+      <c r="V220">
+        <v>0.05</v>
+      </c>
+      <c r="W220">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>53</v>
+      </c>
+      <c r="B221">
+        <v>1904092</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="36"/>
+        <v>29</v>
+      </c>
+      <c r="D221" t="b">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="37"/>
+        <v>9700</v>
+      </c>
+      <c r="F221" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>100</v>
+      </c>
+      <c r="I221">
+        <v>2.4</v>
+      </c>
+      <c r="J221">
+        <v>4.8</v>
+      </c>
+      <c r="K221">
+        <v>2.1</v>
+      </c>
+      <c r="L221">
+        <v>30</v>
+      </c>
+      <c r="M221">
+        <v>50</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221">
+        <v>1000</v>
+      </c>
+      <c r="P221">
+        <v>4</v>
+      </c>
+      <c r="Q221">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R221" t="b">
+        <v>1</v>
+      </c>
+      <c r="S221">
+        <v>10000</v>
+      </c>
+      <c r="T221">
+        <v>5</v>
+      </c>
+      <c r="U221" t="s">
+        <v>27</v>
+      </c>
+      <c r="V221">
+        <v>0.05</v>
+      </c>
+      <c r="W221">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>53</v>
+      </c>
+      <c r="B222">
+        <v>1904092</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="36"/>
+        <v>30</v>
+      </c>
+      <c r="D222" t="b">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="37"/>
+        <v>10900</v>
+      </c>
+      <c r="F222" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>100</v>
+      </c>
+      <c r="I222">
+        <v>2.4</v>
+      </c>
+      <c r="J222">
+        <v>4.8</v>
+      </c>
+      <c r="K222">
+        <v>2.1</v>
+      </c>
+      <c r="L222">
+        <v>30</v>
+      </c>
+      <c r="M222">
+        <v>50</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222">
+        <v>1000</v>
+      </c>
+      <c r="P222">
+        <v>4</v>
+      </c>
+      <c r="Q222">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R222" t="b">
+        <v>1</v>
+      </c>
+      <c r="S222">
+        <v>10000</v>
+      </c>
+      <c r="T222">
+        <v>5</v>
+      </c>
+      <c r="U222" t="s">
+        <v>27</v>
+      </c>
+      <c r="V222">
+        <v>0.05</v>
+      </c>
+      <c r="W222">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>54</v>
+      </c>
+      <c r="B223">
+        <v>1904092</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="36"/>
+        <v>31</v>
+      </c>
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>100</v>
+      </c>
+      <c r="F223" t="s">
+        <v>8</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>100</v>
+      </c>
+      <c r="I223">
+        <v>2.4</v>
+      </c>
+      <c r="J223">
+        <v>4.8</v>
+      </c>
+      <c r="K223">
+        <v>2.1</v>
+      </c>
+      <c r="L223">
+        <v>30</v>
+      </c>
+      <c r="M223">
+        <v>50</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223">
+        <v>1000</v>
+      </c>
+      <c r="P223">
+        <v>4</v>
+      </c>
+      <c r="Q223">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R223" t="b">
+        <v>1</v>
+      </c>
+      <c r="S223">
+        <v>10000</v>
+      </c>
+      <c r="T223">
+        <v>5</v>
+      </c>
+      <c r="U223" t="s">
+        <v>27</v>
+      </c>
+      <c r="V223">
+        <v>0.05</v>
+      </c>
+      <c r="W223">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>54</v>
+      </c>
+      <c r="B224">
+        <v>1904092</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="36"/>
+        <v>32</v>
+      </c>
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <f>E223+1200</f>
+        <v>1300</v>
+      </c>
+      <c r="F224" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>100</v>
+      </c>
+      <c r="I224">
+        <v>2.4</v>
+      </c>
+      <c r="J224">
+        <v>4.8</v>
+      </c>
+      <c r="K224">
+        <v>2.1</v>
+      </c>
+      <c r="L224">
+        <v>30</v>
+      </c>
+      <c r="M224">
+        <v>50</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224">
+        <v>1000</v>
+      </c>
+      <c r="P224">
+        <v>4</v>
+      </c>
+      <c r="Q224">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R224" t="b">
+        <v>1</v>
+      </c>
+      <c r="S224">
+        <v>10000</v>
+      </c>
+      <c r="T224">
+        <v>5</v>
+      </c>
+      <c r="U224" t="s">
+        <v>27</v>
+      </c>
+      <c r="V224">
+        <v>0.05</v>
+      </c>
+      <c r="W224">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>54</v>
+      </c>
+      <c r="B225">
+        <v>1904092</v>
+      </c>
+      <c r="C225">
+        <f t="shared" ref="C225:C229" si="38">C224+1</f>
+        <v>33</v>
+      </c>
+      <c r="D225" t="b">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <f t="shared" ref="E225:E228" si="39">E224+1200</f>
+        <v>2500</v>
+      </c>
+      <c r="F225" t="s">
+        <v>8</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>100</v>
+      </c>
+      <c r="I225">
+        <v>2.4</v>
+      </c>
+      <c r="J225">
+        <v>4.8</v>
+      </c>
+      <c r="K225">
+        <v>2.1</v>
+      </c>
+      <c r="L225">
+        <v>30</v>
+      </c>
+      <c r="M225">
+        <v>50</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225">
+        <v>1000</v>
+      </c>
+      <c r="P225">
+        <v>4</v>
+      </c>
+      <c r="Q225">
+        <f t="shared" si="25"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R225" t="b">
+        <v>1</v>
+      </c>
+      <c r="S225">
+        <v>10000</v>
+      </c>
+      <c r="T225">
+        <v>5</v>
+      </c>
+      <c r="U225" t="s">
+        <v>27</v>
+      </c>
+      <c r="V225">
+        <v>0.05</v>
+      </c>
+      <c r="W225">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>54</v>
+      </c>
+      <c r="B226">
+        <v>1904092</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="38"/>
+        <v>34</v>
+      </c>
+      <c r="D226" t="b">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="39"/>
+        <v>3700</v>
+      </c>
+      <c r="F226" t="s">
+        <v>8</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>100</v>
+      </c>
+      <c r="I226">
+        <v>2.4</v>
+      </c>
+      <c r="J226">
+        <v>4.8</v>
+      </c>
+      <c r="K226">
+        <v>2.1</v>
+      </c>
+      <c r="L226">
+        <v>30</v>
+      </c>
+      <c r="M226">
+        <v>50</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226">
+        <v>1000</v>
+      </c>
+      <c r="P226">
+        <v>4</v>
+      </c>
+      <c r="Q226">
+        <f t="shared" ref="Q226:Q259" si="40">2.7*10^-6</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R226" t="b">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>10000</v>
+      </c>
+      <c r="T226">
+        <v>5</v>
+      </c>
+      <c r="U226" t="s">
+        <v>27</v>
+      </c>
+      <c r="V226">
+        <v>0.05</v>
+      </c>
+      <c r="W226">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>54</v>
+      </c>
+      <c r="B227">
+        <v>1904092</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="38"/>
+        <v>35</v>
+      </c>
+      <c r="D227" t="b">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="39"/>
+        <v>4900</v>
+      </c>
+      <c r="F227" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>100</v>
+      </c>
+      <c r="I227">
+        <v>2.4</v>
+      </c>
+      <c r="J227">
+        <v>4.8</v>
+      </c>
+      <c r="K227">
+        <v>2.1</v>
+      </c>
+      <c r="L227">
+        <v>30</v>
+      </c>
+      <c r="M227">
+        <v>50</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227">
+        <v>1000</v>
+      </c>
+      <c r="P227">
+        <v>4</v>
+      </c>
+      <c r="Q227">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R227" t="b">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>10000</v>
+      </c>
+      <c r="T227">
+        <v>5</v>
+      </c>
+      <c r="U227" t="s">
+        <v>27</v>
+      </c>
+      <c r="V227">
+        <v>0.05</v>
+      </c>
+      <c r="W227">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>54</v>
+      </c>
+      <c r="B228">
+        <v>1904092</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="38"/>
+        <v>36</v>
+      </c>
+      <c r="D228" t="b">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="39"/>
+        <v>6100</v>
+      </c>
+      <c r="F228" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>100</v>
+      </c>
+      <c r="I228">
+        <v>2.4</v>
+      </c>
+      <c r="J228">
+        <v>4.8</v>
+      </c>
+      <c r="K228">
+        <v>2.1</v>
+      </c>
+      <c r="L228">
+        <v>30</v>
+      </c>
+      <c r="M228">
+        <v>50</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228">
+        <v>1000</v>
+      </c>
+      <c r="P228">
+        <v>4</v>
+      </c>
+      <c r="Q228">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R228" t="b">
+        <v>1</v>
+      </c>
+      <c r="S228">
+        <v>10000</v>
+      </c>
+      <c r="T228">
+        <v>5</v>
+      </c>
+      <c r="U228" t="s">
+        <v>27</v>
+      </c>
+      <c r="V228">
+        <v>0.05</v>
+      </c>
+      <c r="W228">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>54</v>
+      </c>
+      <c r="B229">
+        <v>1904092</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="38"/>
+        <v>37</v>
+      </c>
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <f>E228+1200</f>
+        <v>7300</v>
+      </c>
+      <c r="F229" t="s">
+        <v>8</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>100</v>
+      </c>
+      <c r="I229">
+        <v>2.4</v>
+      </c>
+      <c r="J229">
+        <v>4.8</v>
+      </c>
+      <c r="K229">
+        <v>2.1</v>
+      </c>
+      <c r="L229">
+        <v>30</v>
+      </c>
+      <c r="M229">
+        <v>50</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229">
+        <v>1000</v>
+      </c>
+      <c r="P229">
+        <v>4</v>
+      </c>
+      <c r="Q229">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R229" t="b">
+        <v>1</v>
+      </c>
+      <c r="S229">
+        <v>10000</v>
+      </c>
+      <c r="T229">
+        <v>5</v>
+      </c>
+      <c r="U229" t="s">
+        <v>27</v>
+      </c>
+      <c r="V229">
+        <v>0.05</v>
+      </c>
+      <c r="W229">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>55</v>
+      </c>
+      <c r="B230">
+        <v>1905281</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>100</v>
+      </c>
+      <c r="F230" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>100</v>
+      </c>
+      <c r="I230">
+        <v>2.4</v>
+      </c>
+      <c r="J230">
+        <v>4.8</v>
+      </c>
+      <c r="K230">
+        <v>2.1</v>
+      </c>
+      <c r="L230">
+        <v>30</v>
+      </c>
+      <c r="M230">
+        <v>50</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230">
+        <v>1000</v>
+      </c>
+      <c r="P230">
+        <v>4</v>
+      </c>
+      <c r="Q230">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R230" t="b">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>8500</v>
+      </c>
+      <c r="T230">
+        <v>5</v>
+      </c>
+      <c r="U230" t="s">
+        <v>27</v>
+      </c>
+      <c r="V230">
+        <v>0.05</v>
+      </c>
+      <c r="W230">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>55</v>
+      </c>
+      <c r="B231">
+        <v>1905281</v>
+      </c>
+      <c r="C231">
+        <f>C230+1</f>
+        <v>2</v>
+      </c>
+      <c r="D231" t="b">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>100</v>
+      </c>
+      <c r="F231" t="s">
+        <v>8</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>100</v>
+      </c>
+      <c r="I231">
+        <v>2.4</v>
+      </c>
+      <c r="J231">
+        <v>4.8</v>
+      </c>
+      <c r="K231">
+        <v>2.1</v>
+      </c>
+      <c r="L231">
+        <v>30</v>
+      </c>
+      <c r="M231">
+        <v>50</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231">
+        <v>1000</v>
+      </c>
+      <c r="P231">
+        <v>4</v>
+      </c>
+      <c r="Q231">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R231" t="b">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>8500</v>
+      </c>
+      <c r="T231">
+        <v>5</v>
+      </c>
+      <c r="U231" t="s">
+        <v>27</v>
+      </c>
+      <c r="V231">
+        <v>0.05</v>
+      </c>
+      <c r="W231">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>55</v>
+      </c>
+      <c r="B232">
+        <v>1905281</v>
+      </c>
+      <c r="C232">
+        <f t="shared" ref="C232:C244" si="41">C231+1</f>
+        <v>3</v>
+      </c>
+      <c r="D232" t="b">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>100</v>
+      </c>
+      <c r="F232" t="s">
+        <v>8</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>100</v>
+      </c>
+      <c r="I232">
+        <v>2.4</v>
+      </c>
+      <c r="J232">
+        <v>4.8</v>
+      </c>
+      <c r="K232">
+        <v>2.1</v>
+      </c>
+      <c r="L232">
+        <v>30</v>
+      </c>
+      <c r="M232">
+        <v>50</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232">
+        <v>1000</v>
+      </c>
+      <c r="P232">
+        <v>4</v>
+      </c>
+      <c r="Q232">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R232" t="b">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>8500</v>
+      </c>
+      <c r="T232">
+        <v>5</v>
+      </c>
+      <c r="U232" t="s">
+        <v>27</v>
+      </c>
+      <c r="V232">
+        <v>0.05</v>
+      </c>
+      <c r="W232">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>55</v>
+      </c>
+      <c r="B233">
+        <v>1905281</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="D233" t="b">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>100</v>
+      </c>
+      <c r="F233" t="s">
+        <v>8</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>100</v>
+      </c>
+      <c r="I233">
+        <v>2.4</v>
+      </c>
+      <c r="J233">
+        <v>4.8</v>
+      </c>
+      <c r="K233">
+        <v>2.1</v>
+      </c>
+      <c r="L233">
+        <v>30</v>
+      </c>
+      <c r="M233">
+        <v>50</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233">
+        <v>1000</v>
+      </c>
+      <c r="P233">
+        <v>4</v>
+      </c>
+      <c r="Q233">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R233" t="b">
+        <v>1</v>
+      </c>
+      <c r="S233">
+        <v>8500</v>
+      </c>
+      <c r="T233">
+        <v>5</v>
+      </c>
+      <c r="U233" t="s">
+        <v>27</v>
+      </c>
+      <c r="V233">
+        <v>0.05</v>
+      </c>
+      <c r="W233">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>55</v>
+      </c>
+      <c r="B234">
+        <v>1905281</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>100</v>
+      </c>
+      <c r="F234" t="s">
+        <v>8</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>100</v>
+      </c>
+      <c r="I234">
+        <v>2.4</v>
+      </c>
+      <c r="J234">
+        <v>4.8</v>
+      </c>
+      <c r="K234">
+        <v>2.1</v>
+      </c>
+      <c r="L234">
+        <v>30</v>
+      </c>
+      <c r="M234">
+        <v>50</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234">
+        <v>1000</v>
+      </c>
+      <c r="P234">
+        <v>4</v>
+      </c>
+      <c r="Q234">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R234" t="b">
+        <v>1</v>
+      </c>
+      <c r="S234">
+        <v>8500</v>
+      </c>
+      <c r="T234">
+        <v>5</v>
+      </c>
+      <c r="U234" t="s">
+        <v>27</v>
+      </c>
+      <c r="V234">
+        <v>0.05</v>
+      </c>
+      <c r="W234">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>55</v>
+      </c>
+      <c r="B235">
+        <v>1905281</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="D235" t="b">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>100</v>
+      </c>
+      <c r="F235" t="s">
+        <v>8</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>100</v>
+      </c>
+      <c r="I235">
+        <v>2.4</v>
+      </c>
+      <c r="J235">
+        <v>4.8</v>
+      </c>
+      <c r="K235">
+        <v>2.1</v>
+      </c>
+      <c r="L235">
+        <v>30</v>
+      </c>
+      <c r="M235">
+        <v>50</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235">
+        <v>1000</v>
+      </c>
+      <c r="P235">
+        <v>4</v>
+      </c>
+      <c r="Q235">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R235" t="b">
+        <v>1</v>
+      </c>
+      <c r="S235">
+        <v>8500</v>
+      </c>
+      <c r="T235">
+        <v>5</v>
+      </c>
+      <c r="U235" t="s">
+        <v>27</v>
+      </c>
+      <c r="V235">
+        <v>0.05</v>
+      </c>
+      <c r="W235">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>55</v>
+      </c>
+      <c r="B236">
+        <v>1905281</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="D236" t="b">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>100</v>
+      </c>
+      <c r="F236" t="s">
+        <v>8</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>100</v>
+      </c>
+      <c r="I236">
+        <v>2.4</v>
+      </c>
+      <c r="J236">
+        <v>4.8</v>
+      </c>
+      <c r="K236">
+        <v>2.1</v>
+      </c>
+      <c r="L236">
+        <v>30</v>
+      </c>
+      <c r="M236">
+        <v>50</v>
+      </c>
+      <c r="N236">
+        <v>2</v>
+      </c>
+      <c r="O236">
+        <v>1000</v>
+      </c>
+      <c r="P236">
+        <v>4</v>
+      </c>
+      <c r="Q236">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R236" t="b">
+        <v>1</v>
+      </c>
+      <c r="S236">
+        <v>8500</v>
+      </c>
+      <c r="T236">
+        <v>5</v>
+      </c>
+      <c r="U236" t="s">
+        <v>27</v>
+      </c>
+      <c r="V236">
+        <v>0.05</v>
+      </c>
+      <c r="W236">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>55</v>
+      </c>
+      <c r="B237">
+        <v>1905281</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="D237" t="b">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>100</v>
+      </c>
+      <c r="F237" t="s">
+        <v>8</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>100</v>
+      </c>
+      <c r="I237">
+        <v>2.4</v>
+      </c>
+      <c r="J237">
+        <v>4.8</v>
+      </c>
+      <c r="K237">
+        <v>2.1</v>
+      </c>
+      <c r="L237">
+        <v>30</v>
+      </c>
+      <c r="M237">
+        <v>50</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237">
+        <v>1000</v>
+      </c>
+      <c r="P237">
+        <v>4</v>
+      </c>
+      <c r="Q237">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R237" t="b">
+        <v>1</v>
+      </c>
+      <c r="S237">
+        <v>8500</v>
+      </c>
+      <c r="T237">
+        <v>5</v>
+      </c>
+      <c r="U237" t="s">
+        <v>27</v>
+      </c>
+      <c r="V237">
+        <v>0.05</v>
+      </c>
+      <c r="W237">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>55</v>
+      </c>
+      <c r="B238">
+        <v>1905281</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="41"/>
+        <v>9</v>
+      </c>
+      <c r="D238" t="b">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>100</v>
+      </c>
+      <c r="F238" t="s">
+        <v>8</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>100</v>
+      </c>
+      <c r="I238">
+        <v>2.4</v>
+      </c>
+      <c r="J238">
+        <v>4.8</v>
+      </c>
+      <c r="K238">
+        <v>2.1</v>
+      </c>
+      <c r="L238">
+        <v>30</v>
+      </c>
+      <c r="M238">
+        <v>50</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238">
+        <v>1000</v>
+      </c>
+      <c r="P238">
+        <v>4</v>
+      </c>
+      <c r="Q238">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R238" t="b">
+        <v>1</v>
+      </c>
+      <c r="S238">
+        <v>8500</v>
+      </c>
+      <c r="T238">
+        <v>5</v>
+      </c>
+      <c r="U238" t="s">
+        <v>27</v>
+      </c>
+      <c r="V238">
+        <v>0.05</v>
+      </c>
+      <c r="W238">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>55</v>
+      </c>
+      <c r="B239">
+        <v>1905281</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="41"/>
+        <v>10</v>
+      </c>
+      <c r="D239" t="b">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>100</v>
+      </c>
+      <c r="F239" t="s">
+        <v>8</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>100</v>
+      </c>
+      <c r="I239">
+        <v>2.4</v>
+      </c>
+      <c r="J239">
+        <v>4.8</v>
+      </c>
+      <c r="K239">
+        <v>2.1</v>
+      </c>
+      <c r="L239">
+        <v>30</v>
+      </c>
+      <c r="M239">
+        <v>50</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239">
+        <v>1000</v>
+      </c>
+      <c r="P239">
+        <v>4</v>
+      </c>
+      <c r="Q239">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R239" t="b">
+        <v>1</v>
+      </c>
+      <c r="S239">
+        <v>8500</v>
+      </c>
+      <c r="T239">
+        <v>5</v>
+      </c>
+      <c r="U239" t="s">
+        <v>27</v>
+      </c>
+      <c r="V239">
+        <v>0.05</v>
+      </c>
+      <c r="W239">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>55</v>
+      </c>
+      <c r="B240">
+        <v>1905281</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="41"/>
+        <v>11</v>
+      </c>
+      <c r="D240" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>100</v>
+      </c>
+      <c r="F240" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>100</v>
+      </c>
+      <c r="I240">
+        <v>2.4</v>
+      </c>
+      <c r="J240">
+        <v>4.8</v>
+      </c>
+      <c r="K240">
+        <v>2.1</v>
+      </c>
+      <c r="L240">
+        <v>30</v>
+      </c>
+      <c r="M240">
+        <v>50</v>
+      </c>
+      <c r="N240">
+        <v>2</v>
+      </c>
+      <c r="O240">
+        <v>1000</v>
+      </c>
+      <c r="P240">
+        <v>4</v>
+      </c>
+      <c r="Q240">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R240" t="b">
+        <v>1</v>
+      </c>
+      <c r="S240">
+        <v>8500</v>
+      </c>
+      <c r="T240">
+        <v>5</v>
+      </c>
+      <c r="U240" t="s">
+        <v>27</v>
+      </c>
+      <c r="V240">
+        <v>0.05</v>
+      </c>
+      <c r="W240">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>55</v>
+      </c>
+      <c r="B241">
+        <v>1905281</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="41"/>
+        <v>12</v>
+      </c>
+      <c r="D241" t="b">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>100</v>
+      </c>
+      <c r="F241" t="s">
+        <v>8</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>100</v>
+      </c>
+      <c r="I241">
+        <v>2.4</v>
+      </c>
+      <c r="J241">
+        <v>4.8</v>
+      </c>
+      <c r="K241">
+        <v>2.1</v>
+      </c>
+      <c r="L241">
+        <v>30</v>
+      </c>
+      <c r="M241">
+        <v>50</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="O241">
+        <v>1000</v>
+      </c>
+      <c r="P241">
+        <v>4</v>
+      </c>
+      <c r="Q241">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R241" t="b">
+        <v>1</v>
+      </c>
+      <c r="S241">
+        <v>8500</v>
+      </c>
+      <c r="T241">
+        <v>5</v>
+      </c>
+      <c r="U241" t="s">
+        <v>27</v>
+      </c>
+      <c r="V241">
+        <v>0.05</v>
+      </c>
+      <c r="W241">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>55</v>
+      </c>
+      <c r="B242">
+        <v>1905281</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="41"/>
+        <v>13</v>
+      </c>
+      <c r="D242" t="b">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>100</v>
+      </c>
+      <c r="F242" t="s">
+        <v>8</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>100</v>
+      </c>
+      <c r="I242">
+        <v>2.4</v>
+      </c>
+      <c r="J242">
+        <v>4.8</v>
+      </c>
+      <c r="K242">
+        <v>2.1</v>
+      </c>
+      <c r="L242">
+        <v>30</v>
+      </c>
+      <c r="M242">
+        <v>50</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="O242">
+        <v>1000</v>
+      </c>
+      <c r="P242">
+        <v>4</v>
+      </c>
+      <c r="Q242">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R242" t="b">
+        <v>1</v>
+      </c>
+      <c r="S242">
+        <v>8500</v>
+      </c>
+      <c r="T242">
+        <v>5</v>
+      </c>
+      <c r="U242" t="s">
+        <v>27</v>
+      </c>
+      <c r="V242">
+        <v>0.05</v>
+      </c>
+      <c r="W242">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>55</v>
+      </c>
+      <c r="B243">
+        <v>1905281</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="D243" t="b">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>100</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>100</v>
+      </c>
+      <c r="I243">
+        <v>2.4</v>
+      </c>
+      <c r="J243">
+        <v>4.8</v>
+      </c>
+      <c r="K243">
+        <v>2.1</v>
+      </c>
+      <c r="L243">
+        <v>30</v>
+      </c>
+      <c r="M243">
+        <v>50</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243">
+        <v>1000</v>
+      </c>
+      <c r="P243">
+        <v>4</v>
+      </c>
+      <c r="Q243">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R243" t="b">
+        <v>1</v>
+      </c>
+      <c r="S243">
+        <v>8500</v>
+      </c>
+      <c r="T243">
+        <v>5</v>
+      </c>
+      <c r="U243" t="s">
+        <v>27</v>
+      </c>
+      <c r="V243">
+        <v>0.05</v>
+      </c>
+      <c r="W243">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>55</v>
+      </c>
+      <c r="B244">
+        <v>1905281</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="D244" t="b">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>100</v>
+      </c>
+      <c r="F244" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>100</v>
+      </c>
+      <c r="I244">
+        <v>2.4</v>
+      </c>
+      <c r="J244">
+        <v>4.8</v>
+      </c>
+      <c r="K244">
+        <v>2.1</v>
+      </c>
+      <c r="L244">
+        <v>30</v>
+      </c>
+      <c r="M244">
+        <v>50</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244">
+        <v>1000</v>
+      </c>
+      <c r="P244">
+        <v>4</v>
+      </c>
+      <c r="Q244">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R244" t="b">
+        <v>1</v>
+      </c>
+      <c r="S244">
+        <v>8500</v>
+      </c>
+      <c r="T244">
+        <v>5</v>
+      </c>
+      <c r="U244" t="s">
+        <v>27</v>
+      </c>
+      <c r="V244">
+        <v>0.05</v>
+      </c>
+      <c r="W244">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245">
+        <v>1905281</v>
+      </c>
+      <c r="C245">
+        <f t="shared" ref="C245" si="42">C244+1</f>
+        <v>16</v>
+      </c>
+      <c r="D245" t="b">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>100</v>
+      </c>
+      <c r="F245" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>100</v>
+      </c>
+      <c r="I245">
+        <v>2.4</v>
+      </c>
+      <c r="J245">
+        <v>4.8</v>
+      </c>
+      <c r="K245">
+        <v>2.1</v>
+      </c>
+      <c r="L245">
+        <v>30</v>
+      </c>
+      <c r="M245">
+        <v>50</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245">
+        <v>1000</v>
+      </c>
+      <c r="P245">
+        <v>4</v>
+      </c>
+      <c r="Q245">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R245" t="b">
+        <v>1</v>
+      </c>
+      <c r="S245">
+        <v>8500</v>
+      </c>
+      <c r="T245">
+        <v>5</v>
+      </c>
+      <c r="U245" t="s">
+        <v>27</v>
+      </c>
+      <c r="V245">
+        <v>0.05</v>
+      </c>
+      <c r="W245">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>56</v>
+      </c>
+      <c r="B246">
+        <v>1905281</v>
+      </c>
+      <c r="C246">
+        <f t="shared" ref="C246:C259" si="43">C245+1</f>
+        <v>17</v>
+      </c>
+      <c r="D246" t="b">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>100</v>
+      </c>
+      <c r="F246" t="s">
+        <v>8</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>100</v>
+      </c>
+      <c r="I246">
+        <v>2.4</v>
+      </c>
+      <c r="J246">
+        <v>4.8</v>
+      </c>
+      <c r="K246">
+        <v>2.1</v>
+      </c>
+      <c r="L246">
+        <v>30</v>
+      </c>
+      <c r="M246">
+        <v>50</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246">
+        <v>1000</v>
+      </c>
+      <c r="P246">
+        <v>4</v>
+      </c>
+      <c r="Q246">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R246" t="b">
+        <v>1</v>
+      </c>
+      <c r="S246">
+        <v>8500</v>
+      </c>
+      <c r="T246">
+        <v>5</v>
+      </c>
+      <c r="U246" t="s">
+        <v>27</v>
+      </c>
+      <c r="V246">
+        <v>0.05</v>
+      </c>
+      <c r="W246">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>56</v>
+      </c>
+      <c r="B247">
+        <v>1905281</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="43"/>
+        <v>18</v>
+      </c>
+      <c r="D247" t="b">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>100</v>
+      </c>
+      <c r="F247" t="s">
+        <v>8</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>100</v>
+      </c>
+      <c r="I247">
+        <v>2.4</v>
+      </c>
+      <c r="J247">
+        <v>4.8</v>
+      </c>
+      <c r="K247">
+        <v>2.1</v>
+      </c>
+      <c r="L247">
+        <v>30</v>
+      </c>
+      <c r="M247">
+        <v>50</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247">
+        <v>1000</v>
+      </c>
+      <c r="P247">
+        <v>4</v>
+      </c>
+      <c r="Q247">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R247" t="b">
+        <v>1</v>
+      </c>
+      <c r="S247">
+        <v>8500</v>
+      </c>
+      <c r="T247">
+        <v>5</v>
+      </c>
+      <c r="U247" t="s">
+        <v>27</v>
+      </c>
+      <c r="V247">
+        <v>0.05</v>
+      </c>
+      <c r="W247">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248">
+        <v>1905281</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="43"/>
+        <v>19</v>
+      </c>
+      <c r="D248" t="b">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>100</v>
+      </c>
+      <c r="F248" t="s">
+        <v>8</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>100</v>
+      </c>
+      <c r="I248">
+        <v>2.4</v>
+      </c>
+      <c r="J248">
+        <v>4.8</v>
+      </c>
+      <c r="K248">
+        <v>2.1</v>
+      </c>
+      <c r="L248">
+        <v>30</v>
+      </c>
+      <c r="M248">
+        <v>50</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248">
+        <v>1000</v>
+      </c>
+      <c r="P248">
+        <v>4</v>
+      </c>
+      <c r="Q248">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R248" t="b">
+        <v>1</v>
+      </c>
+      <c r="S248">
+        <v>8500</v>
+      </c>
+      <c r="T248">
+        <v>5</v>
+      </c>
+      <c r="U248" t="s">
+        <v>27</v>
+      </c>
+      <c r="V248">
+        <v>0.05</v>
+      </c>
+      <c r="W248">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>56</v>
+      </c>
+      <c r="B249">
+        <v>1905281</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="43"/>
+        <v>20</v>
+      </c>
+      <c r="D249" t="b">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>100</v>
+      </c>
+      <c r="F249" t="s">
+        <v>8</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>100</v>
+      </c>
+      <c r="I249">
+        <v>2.4</v>
+      </c>
+      <c r="J249">
+        <v>4.8</v>
+      </c>
+      <c r="K249">
+        <v>2.1</v>
+      </c>
+      <c r="L249">
+        <v>30</v>
+      </c>
+      <c r="M249">
+        <v>50</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249">
+        <v>1000</v>
+      </c>
+      <c r="P249">
+        <v>4</v>
+      </c>
+      <c r="Q249">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R249" t="b">
+        <v>1</v>
+      </c>
+      <c r="S249">
+        <v>8500</v>
+      </c>
+      <c r="T249">
+        <v>5</v>
+      </c>
+      <c r="U249" t="s">
+        <v>27</v>
+      </c>
+      <c r="V249">
+        <v>0.05</v>
+      </c>
+      <c r="W249">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>56</v>
+      </c>
+      <c r="B250">
+        <v>1905281</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="43"/>
+        <v>21</v>
+      </c>
+      <c r="D250" t="b">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>100</v>
+      </c>
+      <c r="F250" t="s">
+        <v>8</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>100</v>
+      </c>
+      <c r="I250">
+        <v>2.4</v>
+      </c>
+      <c r="J250">
+        <v>4.8</v>
+      </c>
+      <c r="K250">
+        <v>2.1</v>
+      </c>
+      <c r="L250">
+        <v>30</v>
+      </c>
+      <c r="M250">
+        <v>50</v>
+      </c>
+      <c r="N250">
+        <v>2</v>
+      </c>
+      <c r="O250">
+        <v>1000</v>
+      </c>
+      <c r="P250">
+        <v>4</v>
+      </c>
+      <c r="Q250">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R250" t="b">
+        <v>1</v>
+      </c>
+      <c r="S250">
+        <v>8500</v>
+      </c>
+      <c r="T250">
+        <v>5</v>
+      </c>
+      <c r="U250" t="s">
+        <v>27</v>
+      </c>
+      <c r="V250">
+        <v>0.05</v>
+      </c>
+      <c r="W250">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>56</v>
+      </c>
+      <c r="B251">
+        <v>1905281</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="43"/>
+        <v>22</v>
+      </c>
+      <c r="D251" t="b">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>100</v>
+      </c>
+      <c r="F251" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>100</v>
+      </c>
+      <c r="I251">
+        <v>2.4</v>
+      </c>
+      <c r="J251">
+        <v>4.8</v>
+      </c>
+      <c r="K251">
+        <v>2.1</v>
+      </c>
+      <c r="L251">
+        <v>30</v>
+      </c>
+      <c r="M251">
+        <v>50</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251">
+        <v>1000</v>
+      </c>
+      <c r="P251">
+        <v>4</v>
+      </c>
+      <c r="Q251">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R251" t="b">
+        <v>1</v>
+      </c>
+      <c r="S251">
+        <v>8500</v>
+      </c>
+      <c r="T251">
+        <v>5</v>
+      </c>
+      <c r="U251" t="s">
+        <v>27</v>
+      </c>
+      <c r="V251">
+        <v>0.05</v>
+      </c>
+      <c r="W251">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>56</v>
+      </c>
+      <c r="B252">
+        <v>1905281</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="43"/>
+        <v>23</v>
+      </c>
+      <c r="D252" t="b">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>100</v>
+      </c>
+      <c r="F252" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>100</v>
+      </c>
+      <c r="I252">
+        <v>2.4</v>
+      </c>
+      <c r="J252">
+        <v>4.8</v>
+      </c>
+      <c r="K252">
+        <v>2.1</v>
+      </c>
+      <c r="L252">
+        <v>30</v>
+      </c>
+      <c r="M252">
+        <v>50</v>
+      </c>
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="O252">
+        <v>1000</v>
+      </c>
+      <c r="P252">
+        <v>4</v>
+      </c>
+      <c r="Q252">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R252" t="b">
+        <v>1</v>
+      </c>
+      <c r="S252">
+        <v>8500</v>
+      </c>
+      <c r="T252">
+        <v>5</v>
+      </c>
+      <c r="U252" t="s">
+        <v>27</v>
+      </c>
+      <c r="V252">
+        <v>0.05</v>
+      </c>
+      <c r="W252">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>56</v>
+      </c>
+      <c r="B253">
+        <v>1905281</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="43"/>
+        <v>24</v>
+      </c>
+      <c r="D253" t="b">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>100</v>
+      </c>
+      <c r="F253" t="s">
+        <v>8</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>100</v>
+      </c>
+      <c r="I253">
+        <v>2.4</v>
+      </c>
+      <c r="J253">
+        <v>4.8</v>
+      </c>
+      <c r="K253">
+        <v>2.1</v>
+      </c>
+      <c r="L253">
+        <v>30</v>
+      </c>
+      <c r="M253">
+        <v>50</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253">
+        <v>1000</v>
+      </c>
+      <c r="P253">
+        <v>4</v>
+      </c>
+      <c r="Q253">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R253" t="b">
+        <v>1</v>
+      </c>
+      <c r="S253">
+        <v>8500</v>
+      </c>
+      <c r="T253">
+        <v>5</v>
+      </c>
+      <c r="U253" t="s">
+        <v>27</v>
+      </c>
+      <c r="V253">
+        <v>0.05</v>
+      </c>
+      <c r="W253">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>56</v>
+      </c>
+      <c r="B254">
+        <v>1905281</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="D254" t="b">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>100</v>
+      </c>
+      <c r="F254" t="s">
+        <v>8</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>100</v>
+      </c>
+      <c r="I254">
+        <v>2.4</v>
+      </c>
+      <c r="J254">
+        <v>4.8</v>
+      </c>
+      <c r="K254">
+        <v>2.1</v>
+      </c>
+      <c r="L254">
+        <v>30</v>
+      </c>
+      <c r="M254">
+        <v>50</v>
+      </c>
+      <c r="N254">
+        <v>2</v>
+      </c>
+      <c r="O254">
+        <v>1000</v>
+      </c>
+      <c r="P254">
+        <v>4</v>
+      </c>
+      <c r="Q254">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R254" t="b">
+        <v>1</v>
+      </c>
+      <c r="S254">
+        <v>8500</v>
+      </c>
+      <c r="T254">
+        <v>5</v>
+      </c>
+      <c r="U254" t="s">
+        <v>27</v>
+      </c>
+      <c r="V254">
+        <v>0.05</v>
+      </c>
+      <c r="W254">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>56</v>
+      </c>
+      <c r="B255">
+        <v>1905281</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="43"/>
+        <v>26</v>
+      </c>
+      <c r="D255" t="b">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>100</v>
+      </c>
+      <c r="F255" t="s">
+        <v>8</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>100</v>
+      </c>
+      <c r="I255">
+        <v>2.4</v>
+      </c>
+      <c r="J255">
+        <v>4.8</v>
+      </c>
+      <c r="K255">
+        <v>2.1</v>
+      </c>
+      <c r="L255">
+        <v>30</v>
+      </c>
+      <c r="M255">
+        <v>50</v>
+      </c>
+      <c r="N255">
+        <v>2</v>
+      </c>
+      <c r="O255">
+        <v>1000</v>
+      </c>
+      <c r="P255">
+        <v>4</v>
+      </c>
+      <c r="Q255">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R255" t="b">
+        <v>1</v>
+      </c>
+      <c r="S255">
+        <v>8500</v>
+      </c>
+      <c r="T255">
+        <v>5</v>
+      </c>
+      <c r="U255" t="s">
+        <v>27</v>
+      </c>
+      <c r="V255">
+        <v>0.05</v>
+      </c>
+      <c r="W255">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>56</v>
+      </c>
+      <c r="B256">
+        <v>1905281</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="43"/>
+        <v>27</v>
+      </c>
+      <c r="D256" t="b">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>100</v>
+      </c>
+      <c r="F256" t="s">
+        <v>8</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>100</v>
+      </c>
+      <c r="I256">
+        <v>2.4</v>
+      </c>
+      <c r="J256">
+        <v>4.8</v>
+      </c>
+      <c r="K256">
+        <v>2.1</v>
+      </c>
+      <c r="L256">
+        <v>30</v>
+      </c>
+      <c r="M256">
+        <v>50</v>
+      </c>
+      <c r="N256">
+        <v>2</v>
+      </c>
+      <c r="O256">
+        <v>1000</v>
+      </c>
+      <c r="P256">
+        <v>4</v>
+      </c>
+      <c r="Q256">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R256" t="b">
+        <v>1</v>
+      </c>
+      <c r="S256">
+        <v>8500</v>
+      </c>
+      <c r="T256">
+        <v>5</v>
+      </c>
+      <c r="U256" t="s">
+        <v>27</v>
+      </c>
+      <c r="V256">
+        <v>0.05</v>
+      </c>
+      <c r="W256">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>56</v>
+      </c>
+      <c r="B257">
+        <v>1905281</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="43"/>
+        <v>28</v>
+      </c>
+      <c r="D257" t="b">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>100</v>
+      </c>
+      <c r="F257" t="s">
+        <v>8</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>100</v>
+      </c>
+      <c r="I257">
+        <v>2.4</v>
+      </c>
+      <c r="J257">
+        <v>4.8</v>
+      </c>
+      <c r="K257">
+        <v>2.1</v>
+      </c>
+      <c r="L257">
+        <v>30</v>
+      </c>
+      <c r="M257">
+        <v>50</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257">
+        <v>1000</v>
+      </c>
+      <c r="P257">
+        <v>4</v>
+      </c>
+      <c r="Q257">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R257" t="b">
+        <v>1</v>
+      </c>
+      <c r="S257">
+        <v>8500</v>
+      </c>
+      <c r="T257">
+        <v>5</v>
+      </c>
+      <c r="U257" t="s">
+        <v>27</v>
+      </c>
+      <c r="V257">
+        <v>0.05</v>
+      </c>
+      <c r="W257">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>56</v>
+      </c>
+      <c r="B258">
+        <v>1905281</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="43"/>
+        <v>29</v>
+      </c>
+      <c r="D258" t="b">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>100</v>
+      </c>
+      <c r="F258" t="s">
+        <v>8</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>100</v>
+      </c>
+      <c r="I258">
+        <v>2.4</v>
+      </c>
+      <c r="J258">
+        <v>4.8</v>
+      </c>
+      <c r="K258">
+        <v>2.1</v>
+      </c>
+      <c r="L258">
+        <v>30</v>
+      </c>
+      <c r="M258">
+        <v>50</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258">
+        <v>1000</v>
+      </c>
+      <c r="P258">
+        <v>4</v>
+      </c>
+      <c r="Q258">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R258" t="b">
+        <v>1</v>
+      </c>
+      <c r="S258">
+        <v>8500</v>
+      </c>
+      <c r="T258">
+        <v>5</v>
+      </c>
+      <c r="U258" t="s">
+        <v>27</v>
+      </c>
+      <c r="V258">
+        <v>0.05</v>
+      </c>
+      <c r="W258">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>56</v>
+      </c>
+      <c r="B259">
+        <v>1905281</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="43"/>
+        <v>30</v>
+      </c>
+      <c r="D259" t="b">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>100</v>
+      </c>
+      <c r="F259" t="s">
+        <v>8</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>100</v>
+      </c>
+      <c r="I259">
+        <v>2.4</v>
+      </c>
+      <c r="J259">
+        <v>4.8</v>
+      </c>
+      <c r="K259">
+        <v>2.1</v>
+      </c>
+      <c r="L259">
+        <v>30</v>
+      </c>
+      <c r="M259">
+        <v>50</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259">
+        <v>1000</v>
+      </c>
+      <c r="P259">
+        <v>4</v>
+      </c>
+      <c r="Q259">
+        <f t="shared" si="40"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R259" t="b">
+        <v>1</v>
+      </c>
+      <c r="S259">
+        <v>8500</v>
+      </c>
+      <c r="T259">
+        <v>5</v>
+      </c>
+      <c r="U259" t="s">
+        <v>27</v>
+      </c>
+      <c r="V259">
+        <v>0.05</v>
+      </c>
+      <c r="W259">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y192" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y192"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16989,7 +21934,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -17005,7 +21950,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>60</v>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="60">
   <si>
     <t>filename</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>190528_10mg-kgAMPH_2.csv</t>
+  </si>
+  <si>
+    <t>190529_2_asynKO_10mg-kg AMPH_1.csv</t>
+  </si>
+  <si>
+    <t>190529_2_asynKO_10mg-kg AMPH_2.csv</t>
+  </si>
+  <si>
+    <t>190529_asynKO__10mg-kg AMPH_2.csv</t>
   </si>
 </sst>
 </file>
@@ -860,11 +869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="63360992"/>
-        <c:axId val="62265168"/>
+        <c:axId val="-1200309088"/>
+        <c:axId val="-1201299984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63360992"/>
+        <c:axId val="-1200309088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62265168"/>
+        <c:crossAx val="-1201299984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -915,7 +924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62265168"/>
+        <c:axId val="-1201299984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63360992"/>
+        <c:crossAx val="-1200309088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1622,7 +1631,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,18 +1915,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y259"/>
+  <dimension ref="A1:Y304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D258" sqref="D258"/>
+      <selection pane="bottomRight" activeCell="D290" sqref="D290:D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -21460,6 +21469,949 @@
         <v>20</v>
       </c>
     </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>57</v>
+      </c>
+      <c r="B260">
+        <v>1905292</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260" t="b">
+        <v>1</v>
+      </c>
+      <c r="S260">
+        <v>5100</v>
+      </c>
+      <c r="T260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>57</v>
+      </c>
+      <c r="B261">
+        <v>1905292</v>
+      </c>
+      <c r="C261">
+        <f>C260+1</f>
+        <v>2</v>
+      </c>
+      <c r="D261" t="b">
+        <v>1</v>
+      </c>
+      <c r="S261">
+        <v>5100</v>
+      </c>
+      <c r="T261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>57</v>
+      </c>
+      <c r="B262">
+        <v>1905292</v>
+      </c>
+      <c r="C262">
+        <f t="shared" ref="C262:C275" si="44">C261+1</f>
+        <v>3</v>
+      </c>
+      <c r="D262" t="b">
+        <v>1</v>
+      </c>
+      <c r="S262">
+        <v>5100</v>
+      </c>
+      <c r="T262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>57</v>
+      </c>
+      <c r="B263">
+        <v>1905292</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="D263" t="b">
+        <v>1</v>
+      </c>
+      <c r="S263">
+        <v>5100</v>
+      </c>
+      <c r="T263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>57</v>
+      </c>
+      <c r="B264">
+        <v>1905292</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="D264" t="b">
+        <v>1</v>
+      </c>
+      <c r="S264">
+        <v>5100</v>
+      </c>
+      <c r="T264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>57</v>
+      </c>
+      <c r="B265">
+        <v>1905292</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="D265" t="b">
+        <v>1</v>
+      </c>
+      <c r="S265">
+        <v>5100</v>
+      </c>
+      <c r="T265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>57</v>
+      </c>
+      <c r="B266">
+        <v>1905292</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="D266" t="b">
+        <v>1</v>
+      </c>
+      <c r="S266">
+        <v>5100</v>
+      </c>
+      <c r="T266">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>57</v>
+      </c>
+      <c r="B267">
+        <v>1905292</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="44"/>
+        <v>8</v>
+      </c>
+      <c r="D267" t="b">
+        <v>0</v>
+      </c>
+      <c r="S267">
+        <v>5100</v>
+      </c>
+      <c r="T267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>57</v>
+      </c>
+      <c r="B268">
+        <v>1905292</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="44"/>
+        <v>9</v>
+      </c>
+      <c r="D268" t="b">
+        <v>1</v>
+      </c>
+      <c r="S268">
+        <v>5100</v>
+      </c>
+      <c r="T268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>57</v>
+      </c>
+      <c r="B269">
+        <v>1905292</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="D269" t="b">
+        <v>1</v>
+      </c>
+      <c r="S269">
+        <v>5100</v>
+      </c>
+      <c r="T269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>57</v>
+      </c>
+      <c r="B270">
+        <v>1905292</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="44"/>
+        <v>11</v>
+      </c>
+      <c r="D270" t="b">
+        <v>1</v>
+      </c>
+      <c r="S270">
+        <v>5100</v>
+      </c>
+      <c r="T270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>57</v>
+      </c>
+      <c r="B271">
+        <v>1905292</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
+      <c r="D271" t="b">
+        <v>1</v>
+      </c>
+      <c r="S271">
+        <v>5100</v>
+      </c>
+      <c r="T271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>57</v>
+      </c>
+      <c r="B272">
+        <v>1905292</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="44"/>
+        <v>13</v>
+      </c>
+      <c r="D272" t="b">
+        <v>1</v>
+      </c>
+      <c r="S272">
+        <v>5100</v>
+      </c>
+      <c r="T272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>57</v>
+      </c>
+      <c r="B273">
+        <v>1905292</v>
+      </c>
+      <c r="C273">
+        <f>C272+1</f>
+        <v>14</v>
+      </c>
+      <c r="D273" t="b">
+        <v>1</v>
+      </c>
+      <c r="S273">
+        <v>5100</v>
+      </c>
+      <c r="T273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>57</v>
+      </c>
+      <c r="B274">
+        <v>1905292</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="44"/>
+        <v>15</v>
+      </c>
+      <c r="D274" t="b">
+        <v>1</v>
+      </c>
+      <c r="S274">
+        <v>5100</v>
+      </c>
+      <c r="T274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>58</v>
+      </c>
+      <c r="B275">
+        <v>1905292</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="44"/>
+        <v>16</v>
+      </c>
+      <c r="D275" t="b">
+        <v>1</v>
+      </c>
+      <c r="S275">
+        <v>5100</v>
+      </c>
+      <c r="T275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>58</v>
+      </c>
+      <c r="B276">
+        <v>1905292</v>
+      </c>
+      <c r="C276">
+        <f>C275+1</f>
+        <v>17</v>
+      </c>
+      <c r="D276" t="b">
+        <v>1</v>
+      </c>
+      <c r="S276">
+        <v>5100</v>
+      </c>
+      <c r="T276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>58</v>
+      </c>
+      <c r="B277">
+        <v>1905292</v>
+      </c>
+      <c r="C277">
+        <f t="shared" ref="C277:C289" si="45">C276+1</f>
+        <v>18</v>
+      </c>
+      <c r="D277" t="b">
+        <v>1</v>
+      </c>
+      <c r="S277">
+        <v>5100</v>
+      </c>
+      <c r="T277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>58</v>
+      </c>
+      <c r="B278">
+        <v>1905292</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="45"/>
+        <v>19</v>
+      </c>
+      <c r="D278" t="b">
+        <v>1</v>
+      </c>
+      <c r="S278">
+        <v>5100</v>
+      </c>
+      <c r="T278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>58</v>
+      </c>
+      <c r="B279">
+        <v>1905292</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="45"/>
+        <v>20</v>
+      </c>
+      <c r="D279" t="b">
+        <v>1</v>
+      </c>
+      <c r="S279">
+        <v>5100</v>
+      </c>
+      <c r="T279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>58</v>
+      </c>
+      <c r="B280">
+        <v>1905292</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="45"/>
+        <v>21</v>
+      </c>
+      <c r="D280" t="b">
+        <v>1</v>
+      </c>
+      <c r="S280">
+        <v>5100</v>
+      </c>
+      <c r="T280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>58</v>
+      </c>
+      <c r="B281">
+        <v>1905292</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="45"/>
+        <v>22</v>
+      </c>
+      <c r="D281" t="b">
+        <v>1</v>
+      </c>
+      <c r="S281">
+        <v>5100</v>
+      </c>
+      <c r="T281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>58</v>
+      </c>
+      <c r="B282">
+        <v>1905292</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="45"/>
+        <v>23</v>
+      </c>
+      <c r="D282" t="b">
+        <v>1</v>
+      </c>
+      <c r="S282">
+        <v>5100</v>
+      </c>
+      <c r="T282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>58</v>
+      </c>
+      <c r="B283">
+        <v>1905292</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="45"/>
+        <v>24</v>
+      </c>
+      <c r="D283" t="b">
+        <v>1</v>
+      </c>
+      <c r="S283">
+        <v>5100</v>
+      </c>
+      <c r="T283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>58</v>
+      </c>
+      <c r="B284">
+        <v>1905292</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="45"/>
+        <v>25</v>
+      </c>
+      <c r="D284" t="b">
+        <v>1</v>
+      </c>
+      <c r="S284">
+        <v>5100</v>
+      </c>
+      <c r="T284">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>58</v>
+      </c>
+      <c r="B285">
+        <v>1905292</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="45"/>
+        <v>26</v>
+      </c>
+      <c r="D285" t="b">
+        <v>1</v>
+      </c>
+      <c r="S285">
+        <v>5100</v>
+      </c>
+      <c r="T285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>58</v>
+      </c>
+      <c r="B286">
+        <v>1905292</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="45"/>
+        <v>27</v>
+      </c>
+      <c r="D286" t="b">
+        <v>1</v>
+      </c>
+      <c r="S286">
+        <v>5100</v>
+      </c>
+      <c r="T286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>58</v>
+      </c>
+      <c r="B287">
+        <v>1905292</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="45"/>
+        <v>28</v>
+      </c>
+      <c r="D287" t="b">
+        <v>0</v>
+      </c>
+      <c r="S287">
+        <v>5100</v>
+      </c>
+      <c r="T287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>58</v>
+      </c>
+      <c r="B288">
+        <v>1905292</v>
+      </c>
+      <c r="C288">
+        <f>C287+1</f>
+        <v>29</v>
+      </c>
+      <c r="D288" t="b">
+        <v>1</v>
+      </c>
+      <c r="S288">
+        <v>5100</v>
+      </c>
+      <c r="T288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>58</v>
+      </c>
+      <c r="B289">
+        <v>1905292</v>
+      </c>
+      <c r="C289">
+        <f t="shared" ref="C289:C290" si="46">C288+1</f>
+        <v>30</v>
+      </c>
+      <c r="D289" t="b">
+        <v>1</v>
+      </c>
+      <c r="S289">
+        <v>5100</v>
+      </c>
+      <c r="T289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>59</v>
+      </c>
+      <c r="B290">
+        <v>1905291</v>
+      </c>
+      <c r="C290">
+        <v>16</v>
+      </c>
+      <c r="D290" t="b">
+        <v>1</v>
+      </c>
+      <c r="S290">
+        <v>5100</v>
+      </c>
+      <c r="T290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>59</v>
+      </c>
+      <c r="B291">
+        <v>1905291</v>
+      </c>
+      <c r="C291">
+        <f>C290+1</f>
+        <v>17</v>
+      </c>
+      <c r="D291" t="b">
+        <v>1</v>
+      </c>
+      <c r="S291">
+        <v>5100</v>
+      </c>
+      <c r="T291">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>59</v>
+      </c>
+      <c r="B292">
+        <v>1905291</v>
+      </c>
+      <c r="C292">
+        <f t="shared" ref="C292:C304" si="47">C291+1</f>
+        <v>18</v>
+      </c>
+      <c r="D292" t="b">
+        <v>1</v>
+      </c>
+      <c r="S292">
+        <v>5100</v>
+      </c>
+      <c r="T292">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>59</v>
+      </c>
+      <c r="B293">
+        <v>1905291</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="47"/>
+        <v>19</v>
+      </c>
+      <c r="D293" t="b">
+        <v>1</v>
+      </c>
+      <c r="S293">
+        <v>5100</v>
+      </c>
+      <c r="T293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>59</v>
+      </c>
+      <c r="B294">
+        <v>1905291</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="47"/>
+        <v>20</v>
+      </c>
+      <c r="D294" t="b">
+        <v>1</v>
+      </c>
+      <c r="S294">
+        <v>5100</v>
+      </c>
+      <c r="T294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>59</v>
+      </c>
+      <c r="B295">
+        <v>1905291</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="47"/>
+        <v>21</v>
+      </c>
+      <c r="D295" t="b">
+        <v>1</v>
+      </c>
+      <c r="S295">
+        <v>5100</v>
+      </c>
+      <c r="T295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>59</v>
+      </c>
+      <c r="B296">
+        <v>1905291</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="47"/>
+        <v>22</v>
+      </c>
+      <c r="D296" t="b">
+        <v>1</v>
+      </c>
+      <c r="S296">
+        <v>5100</v>
+      </c>
+      <c r="T296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>59</v>
+      </c>
+      <c r="B297">
+        <v>1905291</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="47"/>
+        <v>23</v>
+      </c>
+      <c r="D297" t="b">
+        <v>1</v>
+      </c>
+      <c r="S297">
+        <v>5100</v>
+      </c>
+      <c r="T297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>59</v>
+      </c>
+      <c r="B298">
+        <v>1905291</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="47"/>
+        <v>24</v>
+      </c>
+      <c r="D298" t="b">
+        <v>1</v>
+      </c>
+      <c r="S298">
+        <v>5100</v>
+      </c>
+      <c r="T298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>59</v>
+      </c>
+      <c r="B299">
+        <v>1905291</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="47"/>
+        <v>25</v>
+      </c>
+      <c r="D299" t="b">
+        <v>1</v>
+      </c>
+      <c r="S299">
+        <v>5100</v>
+      </c>
+      <c r="T299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>59</v>
+      </c>
+      <c r="B300">
+        <v>1905291</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="47"/>
+        <v>26</v>
+      </c>
+      <c r="D300" t="b">
+        <v>1</v>
+      </c>
+      <c r="S300">
+        <v>5100</v>
+      </c>
+      <c r="T300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>59</v>
+      </c>
+      <c r="B301">
+        <v>1905291</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="47"/>
+        <v>27</v>
+      </c>
+      <c r="D301" t="b">
+        <v>1</v>
+      </c>
+      <c r="S301">
+        <v>5100</v>
+      </c>
+      <c r="T301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>59</v>
+      </c>
+      <c r="B302">
+        <v>1905291</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="47"/>
+        <v>28</v>
+      </c>
+      <c r="D302" t="b">
+        <v>1</v>
+      </c>
+      <c r="S302">
+        <v>5100</v>
+      </c>
+      <c r="T302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>59</v>
+      </c>
+      <c r="B303">
+        <v>1905291</v>
+      </c>
+      <c r="C303">
+        <f>C302+1</f>
+        <v>29</v>
+      </c>
+      <c r="D303" t="b">
+        <v>1</v>
+      </c>
+      <c r="S303">
+        <v>5100</v>
+      </c>
+      <c r="T303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>59</v>
+      </c>
+      <c r="B304">
+        <v>1905291</v>
+      </c>
+      <c r="C304">
+        <f t="shared" ref="C304" si="48">C303+1</f>
+        <v>30</v>
+      </c>
+      <c r="D304" t="b">
+        <v>1</v>
+      </c>
+      <c r="S304">
+        <v>5100</v>
+      </c>
+      <c r="T304">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Y192"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\Computing\RProg\Columbia\rwalk\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA237BE4-7576-4303-99A1-E7CD66F2CECA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E70A9-1BB1-41B2-9E16-DD668202A918}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="75">
   <si>
     <t>filename</t>
   </si>
@@ -1961,13 +1961,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D157" sqref="D157"/>
+      <selection pane="bottomRight" activeCell="E418" sqref="E418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3366,7 +3367,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3444,7 +3445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3521,7 +3522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3598,7 +3599,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3676,7 +3677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3753,7 +3754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3830,7 +3831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3908,7 +3909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3985,7 +3986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4062,7 +4063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4139,7 +4140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4217,7 +4218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4295,7 +4296,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4372,7 +4373,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -6431,7 +6432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -7041,7 +7042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -7117,7 +7118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -7345,7 +7346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -7497,7 +7498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -7725,7 +7726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -7877,7 +7878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -7953,7 +7954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -8029,7 +8030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -8181,7 +8182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -8257,7 +8258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -8561,7 +8562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -8637,7 +8638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>A92</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9095,7 +9096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" ref="A94:A106" si="12">A93</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9174,7 +9175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9252,7 +9253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9330,7 +9331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9408,7 +9409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9486,7 +9487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9564,7 +9565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9642,7 +9643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9720,7 +9721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9798,7 +9799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9876,7 +9877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9955,7 +9956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -10034,7 +10035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -10112,7 +10113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -10188,7 +10189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>A107</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10266,7 +10267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" ref="A109:A121" si="17">A108</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10344,7 +10345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10422,7 +10423,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10500,7 +10501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10578,7 +10579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10656,7 +10657,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10734,7 +10735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10812,7 +10813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10890,7 +10891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10969,7 +10970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11050,7 +11051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11128,7 +11129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11207,7 +11208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11285,7 +11286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -11360,7 +11361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -11582,7 +11583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -11656,7 +11657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -11730,7 +11731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -11804,7 +11805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -11878,7 +11879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -11952,7 +11953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -12026,7 +12027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -12100,7 +12101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -12174,7 +12175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -12396,7 +12397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -12471,7 +12472,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -12547,7 +12548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -12699,7 +12700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -12851,7 +12852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -12927,7 +12928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -13003,7 +13004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -13079,7 +13080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -13231,7 +13232,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -13307,7 +13308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -13461,7 +13462,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -13538,7 +13539,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -13615,7 +13616,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -13689,7 +13690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -13766,7 +13767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -13843,7 +13844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -13920,7 +13921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>35</v>
       </c>
@@ -13996,7 +13997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -14072,7 +14073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -14148,7 +14149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -14224,7 +14225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -14300,7 +14301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -14376,7 +14377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -14448,7 +14449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -14522,7 +14523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -14596,7 +14597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -14670,7 +14671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>51</v>
       </c>
@@ -14744,7 +14745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>51</v>
       </c>
@@ -14818,7 +14819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -14892,7 +14893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>51</v>
       </c>
@@ -15040,7 +15041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -15187,7 +15188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>52</v>
       </c>
@@ -15261,7 +15262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>52</v>
       </c>
@@ -15335,7 +15336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>52</v>
       </c>
@@ -15409,7 +15410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>52</v>
       </c>
@@ -15483,7 +15484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>52</v>
       </c>
@@ -15557,7 +15558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>52</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>52</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>52</v>
       </c>
@@ -15779,7 +15780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>52</v>
       </c>
@@ -15853,7 +15854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>53</v>
       </c>
@@ -15926,7 +15927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>53</v>
       </c>
@@ -16003,7 +16004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>54</v>
       </c>
@@ -16076,7 +16077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>54</v>
       </c>
@@ -16150,7 +16151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>54</v>
       </c>
@@ -16224,7 +16225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>54</v>
       </c>
@@ -16298,7 +16299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>54</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -16446,7 +16447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>54</v>
       </c>
@@ -16520,7 +16521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>37</v>
       </c>
@@ -16592,7 +16593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -16666,7 +16667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>37</v>
       </c>
@@ -16740,7 +16741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>37</v>
       </c>
@@ -16814,7 +16815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>37</v>
       </c>
@@ -16888,7 +16889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>37</v>
       </c>
@@ -16962,7 +16963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>37</v>
       </c>
@@ -17036,7 +17037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>37</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>37</v>
       </c>
@@ -17184,7 +17185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>37</v>
       </c>
@@ -17258,7 +17259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>37</v>
       </c>
@@ -17332,7 +17333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -17406,7 +17407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -17480,7 +17481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>37</v>
       </c>
@@ -17554,7 +17555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -17628,7 +17629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>38</v>
       </c>
@@ -17701,7 +17702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -17775,7 +17776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>38</v>
       </c>
@@ -17849,7 +17850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>38</v>
       </c>
@@ -17923,7 +17924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -17997,7 +17998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>38</v>
       </c>
@@ -18071,7 +18072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -18219,7 +18220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>38</v>
       </c>
@@ -18367,7 +18368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -18441,7 +18442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -18515,7 +18516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>38</v>
       </c>
@@ -18589,7 +18590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>38</v>
       </c>
@@ -18663,7 +18664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>38</v>
       </c>
@@ -18737,7 +18738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>55</v>
       </c>
@@ -18809,7 +18810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>55</v>
       </c>
@@ -18883,7 +18884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>55</v>
       </c>
@@ -18957,7 +18958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>55</v>
       </c>
@@ -19031,7 +19032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -19105,7 +19106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -19179,7 +19180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>55</v>
       </c>
@@ -19253,7 +19254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -19327,7 +19328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>55</v>
       </c>
@@ -19401,7 +19402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>55</v>
       </c>
@@ -19475,7 +19476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -19549,7 +19550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>55</v>
       </c>
@@ -19623,7 +19624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>55</v>
       </c>
@@ -19697,7 +19698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>55</v>
       </c>
@@ -19771,7 +19772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>55</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -19918,7 +19919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>56</v>
       </c>
@@ -19992,7 +19993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>56</v>
       </c>
@@ -20066,7 +20067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>56</v>
       </c>
@@ -20140,7 +20141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>56</v>
       </c>
@@ -20214,7 +20215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>56</v>
       </c>
@@ -20288,7 +20289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>56</v>
       </c>
@@ -20362,7 +20363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>56</v>
       </c>
@@ -20436,7 +20437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>56</v>
       </c>
@@ -20510,7 +20511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>56</v>
       </c>
@@ -20584,7 +20585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>56</v>
       </c>
@@ -20658,7 +20659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>56</v>
       </c>
@@ -20732,7 +20733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>56</v>
       </c>
@@ -20806,7 +20807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>56</v>
       </c>
@@ -20880,7 +20881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>56</v>
       </c>
@@ -20954,7 +20955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>62</v>
       </c>
@@ -21016,8 +21017,17 @@
       <c r="T252">
         <v>5</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U252" t="s">
+        <v>27</v>
+      </c>
+      <c r="V252">
+        <v>0.05</v>
+      </c>
+      <c r="W252">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>62</v>
       </c>
@@ -21081,8 +21091,17 @@
       <c r="T253">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U253" t="s">
+        <v>27</v>
+      </c>
+      <c r="V253">
+        <v>0.05</v>
+      </c>
+      <c r="W253">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>62</v>
       </c>
@@ -21146,8 +21165,17 @@
       <c r="T254">
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U254" t="s">
+        <v>27</v>
+      </c>
+      <c r="V254">
+        <v>0.05</v>
+      </c>
+      <c r="W254">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>62</v>
       </c>
@@ -21211,8 +21239,17 @@
       <c r="T255">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U255" t="s">
+        <v>27</v>
+      </c>
+      <c r="V255">
+        <v>0.05</v>
+      </c>
+      <c r="W255">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>62</v>
       </c>
@@ -21276,8 +21313,17 @@
       <c r="T256">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U256" t="s">
+        <v>27</v>
+      </c>
+      <c r="V256">
+        <v>0.05</v>
+      </c>
+      <c r="W256">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>62</v>
       </c>
@@ -21341,8 +21387,17 @@
       <c r="T257">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U257" t="s">
+        <v>27</v>
+      </c>
+      <c r="V257">
+        <v>0.05</v>
+      </c>
+      <c r="W257">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>62</v>
       </c>
@@ -21406,8 +21461,17 @@
       <c r="T258">
         <v>5</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U258" t="s">
+        <v>27</v>
+      </c>
+      <c r="V258">
+        <v>0.05</v>
+      </c>
+      <c r="W258">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>62</v>
       </c>
@@ -21471,8 +21535,17 @@
       <c r="T259">
         <v>5</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U259" t="s">
+        <v>27</v>
+      </c>
+      <c r="V259">
+        <v>0.05</v>
+      </c>
+      <c r="W259">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>62</v>
       </c>
@@ -21536,8 +21609,17 @@
       <c r="T260">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U260" t="s">
+        <v>27</v>
+      </c>
+      <c r="V260">
+        <v>0.05</v>
+      </c>
+      <c r="W260">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -21601,8 +21683,17 @@
       <c r="T261">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U261" t="s">
+        <v>27</v>
+      </c>
+      <c r="V261">
+        <v>0.05</v>
+      </c>
+      <c r="W261">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>62</v>
       </c>
@@ -21666,8 +21757,17 @@
       <c r="T262">
         <v>5</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U262" t="s">
+        <v>27</v>
+      </c>
+      <c r="V262">
+        <v>0.05</v>
+      </c>
+      <c r="W262">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>62</v>
       </c>
@@ -21731,8 +21831,17 @@
       <c r="T263">
         <v>5</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U263" t="s">
+        <v>27</v>
+      </c>
+      <c r="V263">
+        <v>0.05</v>
+      </c>
+      <c r="W263">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>62</v>
       </c>
@@ -21796,8 +21905,17 @@
       <c r="T264">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U264" t="s">
+        <v>27</v>
+      </c>
+      <c r="V264">
+        <v>0.05</v>
+      </c>
+      <c r="W264">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>62</v>
       </c>
@@ -21861,8 +21979,17 @@
       <c r="T265">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U265" t="s">
+        <v>27</v>
+      </c>
+      <c r="V265">
+        <v>0.05</v>
+      </c>
+      <c r="W265">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>62</v>
       </c>
@@ -21926,8 +22053,17 @@
       <c r="T266">
         <v>5</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U266" t="s">
+        <v>27</v>
+      </c>
+      <c r="V266">
+        <v>0.05</v>
+      </c>
+      <c r="W266">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>73</v>
       </c>
@@ -21990,8 +22126,17 @@
       <c r="T267">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U267" t="s">
+        <v>27</v>
+      </c>
+      <c r="V267">
+        <v>0.05</v>
+      </c>
+      <c r="W267">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>73</v>
       </c>
@@ -22055,8 +22200,17 @@
       <c r="T268">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U268" t="s">
+        <v>27</v>
+      </c>
+      <c r="V268">
+        <v>0.05</v>
+      </c>
+      <c r="W268">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>73</v>
       </c>
@@ -22120,8 +22274,17 @@
       <c r="T269">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U269" t="s">
+        <v>27</v>
+      </c>
+      <c r="V269">
+        <v>0.05</v>
+      </c>
+      <c r="W269">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>73</v>
       </c>
@@ -22185,8 +22348,17 @@
       <c r="T270">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U270" t="s">
+        <v>27</v>
+      </c>
+      <c r="V270">
+        <v>0.05</v>
+      </c>
+      <c r="W270">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>73</v>
       </c>
@@ -22250,8 +22422,17 @@
       <c r="T271">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U271" t="s">
+        <v>27</v>
+      </c>
+      <c r="V271">
+        <v>0.05</v>
+      </c>
+      <c r="W271">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>73</v>
       </c>
@@ -22315,8 +22496,17 @@
       <c r="T272">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U272" t="s">
+        <v>27</v>
+      </c>
+      <c r="V272">
+        <v>0.05</v>
+      </c>
+      <c r="W272">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>73</v>
       </c>
@@ -22380,8 +22570,17 @@
       <c r="T273">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U273" t="s">
+        <v>27</v>
+      </c>
+      <c r="V273">
+        <v>0.05</v>
+      </c>
+      <c r="W273">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>73</v>
       </c>
@@ -22445,8 +22644,17 @@
       <c r="T274">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U274" t="s">
+        <v>27</v>
+      </c>
+      <c r="V274">
+        <v>0.05</v>
+      </c>
+      <c r="W274">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>73</v>
       </c>
@@ -22510,8 +22718,17 @@
       <c r="T275">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U275" t="s">
+        <v>27</v>
+      </c>
+      <c r="V275">
+        <v>0.05</v>
+      </c>
+      <c r="W275">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>73</v>
       </c>
@@ -22575,8 +22792,17 @@
       <c r="T276">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U276" t="s">
+        <v>27</v>
+      </c>
+      <c r="V276">
+        <v>0.05</v>
+      </c>
+      <c r="W276">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>73</v>
       </c>
@@ -22640,8 +22866,17 @@
       <c r="T277">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U277" t="s">
+        <v>27</v>
+      </c>
+      <c r="V277">
+        <v>0.05</v>
+      </c>
+      <c r="W277">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>73</v>
       </c>
@@ -22705,8 +22940,17 @@
       <c r="T278">
         <v>5</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U278" t="s">
+        <v>27</v>
+      </c>
+      <c r="V278">
+        <v>0.05</v>
+      </c>
+      <c r="W278">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>73</v>
       </c>
@@ -22770,8 +23014,17 @@
       <c r="T279">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U279" t="s">
+        <v>27</v>
+      </c>
+      <c r="V279">
+        <v>0.05</v>
+      </c>
+      <c r="W279">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>73</v>
       </c>
@@ -22835,8 +23088,17 @@
       <c r="T280">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U280" t="s">
+        <v>27</v>
+      </c>
+      <c r="V280">
+        <v>0.05</v>
+      </c>
+      <c r="W280">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>73</v>
       </c>
@@ -22900,8 +23162,17 @@
       <c r="T281">
         <v>5</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U281" t="s">
+        <v>27</v>
+      </c>
+      <c r="V281">
+        <v>0.05</v>
+      </c>
+      <c r="W281">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>57</v>
       </c>
@@ -22963,8 +23234,17 @@
       <c r="T282">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U282" t="s">
+        <v>27</v>
+      </c>
+      <c r="V282">
+        <v>0.05</v>
+      </c>
+      <c r="W282">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>57</v>
       </c>
@@ -23028,8 +23308,17 @@
       <c r="T283">
         <v>5</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U283" t="s">
+        <v>27</v>
+      </c>
+      <c r="V283">
+        <v>0.05</v>
+      </c>
+      <c r="W283">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>57</v>
       </c>
@@ -23093,8 +23382,17 @@
       <c r="T284">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U284" t="s">
+        <v>27</v>
+      </c>
+      <c r="V284">
+        <v>0.05</v>
+      </c>
+      <c r="W284">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>57</v>
       </c>
@@ -23158,8 +23456,17 @@
       <c r="T285">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U285" t="s">
+        <v>27</v>
+      </c>
+      <c r="V285">
+        <v>0.05</v>
+      </c>
+      <c r="W285">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>57</v>
       </c>
@@ -23223,8 +23530,17 @@
       <c r="T286">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U286" t="s">
+        <v>27</v>
+      </c>
+      <c r="V286">
+        <v>0.05</v>
+      </c>
+      <c r="W286">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>57</v>
       </c>
@@ -23288,8 +23604,17 @@
       <c r="T287">
         <v>5</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U287" t="s">
+        <v>27</v>
+      </c>
+      <c r="V287">
+        <v>0.05</v>
+      </c>
+      <c r="W287">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>57</v>
       </c>
@@ -23353,8 +23678,17 @@
       <c r="T288">
         <v>5</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U288" t="s">
+        <v>27</v>
+      </c>
+      <c r="V288">
+        <v>0.05</v>
+      </c>
+      <c r="W288">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>57</v>
       </c>
@@ -23418,8 +23752,17 @@
       <c r="T289">
         <v>5</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U289" t="s">
+        <v>27</v>
+      </c>
+      <c r="V289">
+        <v>0.05</v>
+      </c>
+      <c r="W289">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>57</v>
       </c>
@@ -23483,8 +23826,17 @@
       <c r="T290">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U290" t="s">
+        <v>27</v>
+      </c>
+      <c r="V290">
+        <v>0.05</v>
+      </c>
+      <c r="W290">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>57</v>
       </c>
@@ -23548,8 +23900,17 @@
       <c r="T291">
         <v>5</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U291" t="s">
+        <v>27</v>
+      </c>
+      <c r="V291">
+        <v>0.05</v>
+      </c>
+      <c r="W291">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>57</v>
       </c>
@@ -23613,8 +23974,17 @@
       <c r="T292">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U292" t="s">
+        <v>27</v>
+      </c>
+      <c r="V292">
+        <v>0.05</v>
+      </c>
+      <c r="W292">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>57</v>
       </c>
@@ -23678,8 +24048,17 @@
       <c r="T293">
         <v>5</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U293" t="s">
+        <v>27</v>
+      </c>
+      <c r="V293">
+        <v>0.05</v>
+      </c>
+      <c r="W293">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>57</v>
       </c>
@@ -23743,8 +24122,17 @@
       <c r="T294">
         <v>5</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U294" t="s">
+        <v>27</v>
+      </c>
+      <c r="V294">
+        <v>0.05</v>
+      </c>
+      <c r="W294">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>57</v>
       </c>
@@ -23808,8 +24196,17 @@
       <c r="T295">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U295" t="s">
+        <v>27</v>
+      </c>
+      <c r="V295">
+        <v>0.05</v>
+      </c>
+      <c r="W295">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>57</v>
       </c>
@@ -23873,8 +24270,17 @@
       <c r="T296">
         <v>5</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U296" t="s">
+        <v>27</v>
+      </c>
+      <c r="V296">
+        <v>0.05</v>
+      </c>
+      <c r="W296">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>58</v>
       </c>
@@ -23937,8 +24343,17 @@
       <c r="T297">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U297" t="s">
+        <v>27</v>
+      </c>
+      <c r="V297">
+        <v>0.05</v>
+      </c>
+      <c r="W297">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>58</v>
       </c>
@@ -24002,8 +24417,17 @@
       <c r="T298">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U298" t="s">
+        <v>27</v>
+      </c>
+      <c r="V298">
+        <v>0.05</v>
+      </c>
+      <c r="W298">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>58</v>
       </c>
@@ -24067,8 +24491,17 @@
       <c r="T299">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U299" t="s">
+        <v>27</v>
+      </c>
+      <c r="V299">
+        <v>0.05</v>
+      </c>
+      <c r="W299">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>58</v>
       </c>
@@ -24132,8 +24565,17 @@
       <c r="T300">
         <v>5</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U300" t="s">
+        <v>27</v>
+      </c>
+      <c r="V300">
+        <v>0.05</v>
+      </c>
+      <c r="W300">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>58</v>
       </c>
@@ -24197,8 +24639,17 @@
       <c r="T301">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U301" t="s">
+        <v>27</v>
+      </c>
+      <c r="V301">
+        <v>0.05</v>
+      </c>
+      <c r="W301">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>58</v>
       </c>
@@ -24262,8 +24713,17 @@
       <c r="T302">
         <v>5</v>
       </c>
-    </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U302" t="s">
+        <v>27</v>
+      </c>
+      <c r="V302">
+        <v>0.05</v>
+      </c>
+      <c r="W302">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>58</v>
       </c>
@@ -24327,8 +24787,17 @@
       <c r="T303">
         <v>5</v>
       </c>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U303" t="s">
+        <v>27</v>
+      </c>
+      <c r="V303">
+        <v>0.05</v>
+      </c>
+      <c r="W303">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>58</v>
       </c>
@@ -24392,8 +24861,17 @@
       <c r="T304">
         <v>5</v>
       </c>
-    </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U304" t="s">
+        <v>27</v>
+      </c>
+      <c r="V304">
+        <v>0.05</v>
+      </c>
+      <c r="W304">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>58</v>
       </c>
@@ -24457,8 +24935,17 @@
       <c r="T305">
         <v>5</v>
       </c>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U305" t="s">
+        <v>27</v>
+      </c>
+      <c r="V305">
+        <v>0.05</v>
+      </c>
+      <c r="W305">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>58</v>
       </c>
@@ -24522,8 +25009,17 @@
       <c r="T306">
         <v>5</v>
       </c>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U306" t="s">
+        <v>27</v>
+      </c>
+      <c r="V306">
+        <v>0.05</v>
+      </c>
+      <c r="W306">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>58</v>
       </c>
@@ -24587,8 +25083,17 @@
       <c r="T307">
         <v>5</v>
       </c>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U307" t="s">
+        <v>27</v>
+      </c>
+      <c r="V307">
+        <v>0.05</v>
+      </c>
+      <c r="W307">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>58</v>
       </c>
@@ -24652,8 +25157,17 @@
       <c r="T308">
         <v>5</v>
       </c>
-    </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U308" t="s">
+        <v>27</v>
+      </c>
+      <c r="V308">
+        <v>0.05</v>
+      </c>
+      <c r="W308">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>58</v>
       </c>
@@ -24717,8 +25231,17 @@
       <c r="T309">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U309" t="s">
+        <v>27</v>
+      </c>
+      <c r="V309">
+        <v>0.05</v>
+      </c>
+      <c r="W309">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>58</v>
       </c>
@@ -24782,8 +25305,17 @@
       <c r="T310">
         <v>5</v>
       </c>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U310" t="s">
+        <v>27</v>
+      </c>
+      <c r="V310">
+        <v>0.05</v>
+      </c>
+      <c r="W310">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -24847,8 +25379,17 @@
       <c r="T311">
         <v>5</v>
       </c>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U311" t="s">
+        <v>27</v>
+      </c>
+      <c r="V311">
+        <v>0.05</v>
+      </c>
+      <c r="W311">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>59</v>
       </c>
@@ -24910,8 +25451,17 @@
       <c r="T312">
         <v>5</v>
       </c>
-    </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U312" t="s">
+        <v>27</v>
+      </c>
+      <c r="V312">
+        <v>0.05</v>
+      </c>
+      <c r="W312">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>59</v>
       </c>
@@ -24975,8 +25525,17 @@
       <c r="T313">
         <v>5</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U313" t="s">
+        <v>27</v>
+      </c>
+      <c r="V313">
+        <v>0.05</v>
+      </c>
+      <c r="W313">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>59</v>
       </c>
@@ -25040,8 +25599,17 @@
       <c r="T314">
         <v>5</v>
       </c>
-    </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U314" t="s">
+        <v>27</v>
+      </c>
+      <c r="V314">
+        <v>0.05</v>
+      </c>
+      <c r="W314">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>59</v>
       </c>
@@ -25105,8 +25673,17 @@
       <c r="T315">
         <v>5</v>
       </c>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U315" t="s">
+        <v>27</v>
+      </c>
+      <c r="V315">
+        <v>0.05</v>
+      </c>
+      <c r="W315">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>59</v>
       </c>
@@ -25170,8 +25747,17 @@
       <c r="T316">
         <v>5</v>
       </c>
-    </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U316" t="s">
+        <v>27</v>
+      </c>
+      <c r="V316">
+        <v>0.05</v>
+      </c>
+      <c r="W316">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>59</v>
       </c>
@@ -25235,8 +25821,17 @@
       <c r="T317">
         <v>5</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U317" t="s">
+        <v>27</v>
+      </c>
+      <c r="V317">
+        <v>0.05</v>
+      </c>
+      <c r="W317">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>59</v>
       </c>
@@ -25300,8 +25895,17 @@
       <c r="T318">
         <v>5</v>
       </c>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U318" t="s">
+        <v>27</v>
+      </c>
+      <c r="V318">
+        <v>0.05</v>
+      </c>
+      <c r="W318">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>59</v>
       </c>
@@ -25365,8 +25969,17 @@
       <c r="T319">
         <v>5</v>
       </c>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U319" t="s">
+        <v>27</v>
+      </c>
+      <c r="V319">
+        <v>0.05</v>
+      </c>
+      <c r="W319">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>59</v>
       </c>
@@ -25430,8 +26043,17 @@
       <c r="T320">
         <v>5</v>
       </c>
-    </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U320" t="s">
+        <v>27</v>
+      </c>
+      <c r="V320">
+        <v>0.05</v>
+      </c>
+      <c r="W320">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>59</v>
       </c>
@@ -25495,8 +26117,17 @@
       <c r="T321">
         <v>5</v>
       </c>
-    </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U321" t="s">
+        <v>27</v>
+      </c>
+      <c r="V321">
+        <v>0.05</v>
+      </c>
+      <c r="W321">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>59</v>
       </c>
@@ -25560,8 +26191,17 @@
       <c r="T322">
         <v>5</v>
       </c>
-    </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U322" t="s">
+        <v>27</v>
+      </c>
+      <c r="V322">
+        <v>0.05</v>
+      </c>
+      <c r="W322">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>59</v>
       </c>
@@ -25625,8 +26265,17 @@
       <c r="T323">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U323" t="s">
+        <v>27</v>
+      </c>
+      <c r="V323">
+        <v>0.05</v>
+      </c>
+      <c r="W323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>59</v>
       </c>
@@ -25690,8 +26339,17 @@
       <c r="T324">
         <v>5</v>
       </c>
-    </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U324" t="s">
+        <v>27</v>
+      </c>
+      <c r="V324">
+        <v>0.05</v>
+      </c>
+      <c r="W324">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>59</v>
       </c>
@@ -25755,8 +26413,17 @@
       <c r="T325">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U325" t="s">
+        <v>27</v>
+      </c>
+      <c r="V325">
+        <v>0.05</v>
+      </c>
+      <c r="W325">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>59</v>
       </c>
@@ -25820,8 +26487,17 @@
       <c r="T326">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U326" t="s">
+        <v>27</v>
+      </c>
+      <c r="V326">
+        <v>0.05</v>
+      </c>
+      <c r="W326">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>60</v>
       </c>
@@ -25883,8 +26559,17 @@
       <c r="T327">
         <v>5</v>
       </c>
-    </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U327" t="s">
+        <v>27</v>
+      </c>
+      <c r="V327">
+        <v>0.05</v>
+      </c>
+      <c r="W327">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>60</v>
       </c>
@@ -25948,8 +26633,17 @@
       <c r="T328">
         <v>5</v>
       </c>
-    </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U328" t="s">
+        <v>27</v>
+      </c>
+      <c r="V328">
+        <v>0.05</v>
+      </c>
+      <c r="W328">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>60</v>
       </c>
@@ -26013,8 +26707,17 @@
       <c r="T329">
         <v>5</v>
       </c>
-    </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U329" t="s">
+        <v>27</v>
+      </c>
+      <c r="V329">
+        <v>0.05</v>
+      </c>
+      <c r="W329">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>60</v>
       </c>
@@ -26078,8 +26781,17 @@
       <c r="T330">
         <v>5</v>
       </c>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U330" t="s">
+        <v>27</v>
+      </c>
+      <c r="V330">
+        <v>0.05</v>
+      </c>
+      <c r="W330">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>60</v>
       </c>
@@ -26143,8 +26855,17 @@
       <c r="T331">
         <v>5</v>
       </c>
-    </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U331" t="s">
+        <v>27</v>
+      </c>
+      <c r="V331">
+        <v>0.05</v>
+      </c>
+      <c r="W331">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>60</v>
       </c>
@@ -26208,8 +26929,17 @@
       <c r="T332">
         <v>5</v>
       </c>
-    </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U332" t="s">
+        <v>27</v>
+      </c>
+      <c r="V332">
+        <v>0.05</v>
+      </c>
+      <c r="W332">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>60</v>
       </c>
@@ -26273,8 +27003,17 @@
       <c r="T333">
         <v>5</v>
       </c>
-    </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U333" t="s">
+        <v>27</v>
+      </c>
+      <c r="V333">
+        <v>0.05</v>
+      </c>
+      <c r="W333">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>60</v>
       </c>
@@ -26338,8 +27077,17 @@
       <c r="T334">
         <v>5</v>
       </c>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U334" t="s">
+        <v>27</v>
+      </c>
+      <c r="V334">
+        <v>0.05</v>
+      </c>
+      <c r="W334">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>60</v>
       </c>
@@ -26403,8 +27151,17 @@
       <c r="T335">
         <v>5</v>
       </c>
-    </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U335" t="s">
+        <v>27</v>
+      </c>
+      <c r="V335">
+        <v>0.05</v>
+      </c>
+      <c r="W335">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>60</v>
       </c>
@@ -26468,8 +27225,17 @@
       <c r="T336">
         <v>5</v>
       </c>
-    </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U336" t="s">
+        <v>27</v>
+      </c>
+      <c r="V336">
+        <v>0.05</v>
+      </c>
+      <c r="W336">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>60</v>
       </c>
@@ -26533,8 +27299,17 @@
       <c r="T337">
         <v>5</v>
       </c>
-    </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U337" t="s">
+        <v>27</v>
+      </c>
+      <c r="V337">
+        <v>0.05</v>
+      </c>
+      <c r="W337">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>60</v>
       </c>
@@ -26598,8 +27373,17 @@
       <c r="T338">
         <v>5</v>
       </c>
-    </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U338" t="s">
+        <v>27</v>
+      </c>
+      <c r="V338">
+        <v>0.05</v>
+      </c>
+      <c r="W338">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>60</v>
       </c>
@@ -26663,8 +27447,17 @@
       <c r="T339">
         <v>5</v>
       </c>
-    </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U339" t="s">
+        <v>27</v>
+      </c>
+      <c r="V339">
+        <v>0.05</v>
+      </c>
+      <c r="W339">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>60</v>
       </c>
@@ -26728,8 +27521,17 @@
       <c r="T340">
         <v>5</v>
       </c>
-    </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U340" t="s">
+        <v>27</v>
+      </c>
+      <c r="V340">
+        <v>0.05</v>
+      </c>
+      <c r="W340">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>60</v>
       </c>
@@ -26793,8 +27595,17 @@
       <c r="T341">
         <v>5</v>
       </c>
-    </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U341" t="s">
+        <v>27</v>
+      </c>
+      <c r="V341">
+        <v>0.05</v>
+      </c>
+      <c r="W341">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>61</v>
       </c>
@@ -26856,8 +27667,17 @@
       <c r="T342">
         <v>5</v>
       </c>
-    </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U342" t="s">
+        <v>27</v>
+      </c>
+      <c r="V342">
+        <v>0.05</v>
+      </c>
+      <c r="W342">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>61</v>
       </c>
@@ -26921,8 +27741,17 @@
       <c r="T343">
         <v>5</v>
       </c>
-    </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U343" t="s">
+        <v>27</v>
+      </c>
+      <c r="V343">
+        <v>0.05</v>
+      </c>
+      <c r="W343">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>61</v>
       </c>
@@ -26986,8 +27815,17 @@
       <c r="T344">
         <v>5</v>
       </c>
-    </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U344" t="s">
+        <v>27</v>
+      </c>
+      <c r="V344">
+        <v>0.05</v>
+      </c>
+      <c r="W344">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>61</v>
       </c>
@@ -27051,8 +27889,17 @@
       <c r="T345">
         <v>5</v>
       </c>
-    </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U345" t="s">
+        <v>27</v>
+      </c>
+      <c r="V345">
+        <v>0.05</v>
+      </c>
+      <c r="W345">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>61</v>
       </c>
@@ -27116,8 +27963,17 @@
       <c r="T346">
         <v>5</v>
       </c>
-    </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U346" t="s">
+        <v>27</v>
+      </c>
+      <c r="V346">
+        <v>0.05</v>
+      </c>
+      <c r="W346">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>61</v>
       </c>
@@ -27181,8 +28037,17 @@
       <c r="T347">
         <v>5</v>
       </c>
-    </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U347" t="s">
+        <v>27</v>
+      </c>
+      <c r="V347">
+        <v>0.05</v>
+      </c>
+      <c r="W347">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>61</v>
       </c>
@@ -27246,8 +28111,17 @@
       <c r="T348">
         <v>5</v>
       </c>
-    </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U348" t="s">
+        <v>27</v>
+      </c>
+      <c r="V348">
+        <v>0.05</v>
+      </c>
+      <c r="W348">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>61</v>
       </c>
@@ -27311,8 +28185,17 @@
       <c r="T349">
         <v>5</v>
       </c>
-    </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U349" t="s">
+        <v>27</v>
+      </c>
+      <c r="V349">
+        <v>0.05</v>
+      </c>
+      <c r="W349">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>61</v>
       </c>
@@ -27376,8 +28259,17 @@
       <c r="T350">
         <v>5</v>
       </c>
-    </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U350" t="s">
+        <v>27</v>
+      </c>
+      <c r="V350">
+        <v>0.05</v>
+      </c>
+      <c r="W350">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>61</v>
       </c>
@@ -27441,8 +28333,17 @@
       <c r="T351">
         <v>5</v>
       </c>
-    </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U351" t="s">
+        <v>27</v>
+      </c>
+      <c r="V351">
+        <v>0.05</v>
+      </c>
+      <c r="W351">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>61</v>
       </c>
@@ -27506,8 +28407,17 @@
       <c r="T352">
         <v>5</v>
       </c>
-    </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U352" t="s">
+        <v>27</v>
+      </c>
+      <c r="V352">
+        <v>0.05</v>
+      </c>
+      <c r="W352">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>61</v>
       </c>
@@ -27571,8 +28481,17 @@
       <c r="T353">
         <v>5</v>
       </c>
-    </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U353" t="s">
+        <v>27</v>
+      </c>
+      <c r="V353">
+        <v>0.05</v>
+      </c>
+      <c r="W353">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>61</v>
       </c>
@@ -27636,8 +28555,17 @@
       <c r="T354">
         <v>5</v>
       </c>
-    </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U354" t="s">
+        <v>27</v>
+      </c>
+      <c r="V354">
+        <v>0.05</v>
+      </c>
+      <c r="W354">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>61</v>
       </c>
@@ -27701,8 +28629,17 @@
       <c r="T355">
         <v>5</v>
       </c>
-    </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U355" t="s">
+        <v>27</v>
+      </c>
+      <c r="V355">
+        <v>0.05</v>
+      </c>
+      <c r="W355">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>61</v>
       </c>
@@ -27766,8 +28703,17 @@
       <c r="T356">
         <v>5</v>
       </c>
-    </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U356" t="s">
+        <v>27</v>
+      </c>
+      <c r="V356">
+        <v>0.05</v>
+      </c>
+      <c r="W356">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>63</v>
       </c>
@@ -27829,8 +28775,17 @@
       <c r="T357">
         <v>5</v>
       </c>
-    </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U357" t="s">
+        <v>27</v>
+      </c>
+      <c r="V357">
+        <v>0.05</v>
+      </c>
+      <c r="W357">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>63</v>
       </c>
@@ -27894,8 +28849,17 @@
       <c r="T358">
         <v>5</v>
       </c>
-    </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U358" t="s">
+        <v>27</v>
+      </c>
+      <c r="V358">
+        <v>0.05</v>
+      </c>
+      <c r="W358">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>63</v>
       </c>
@@ -27959,8 +28923,17 @@
       <c r="T359">
         <v>5</v>
       </c>
-    </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U359" t="s">
+        <v>27</v>
+      </c>
+      <c r="V359">
+        <v>0.05</v>
+      </c>
+      <c r="W359">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>63</v>
       </c>
@@ -28024,8 +28997,17 @@
       <c r="T360">
         <v>5</v>
       </c>
-    </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U360" t="s">
+        <v>27</v>
+      </c>
+      <c r="V360">
+        <v>0.05</v>
+      </c>
+      <c r="W360">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>63</v>
       </c>
@@ -28089,8 +29071,17 @@
       <c r="T361">
         <v>5</v>
       </c>
-    </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U361" t="s">
+        <v>27</v>
+      </c>
+      <c r="V361">
+        <v>0.05</v>
+      </c>
+      <c r="W361">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>63</v>
       </c>
@@ -28154,8 +29145,17 @@
       <c r="T362">
         <v>5</v>
       </c>
-    </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U362" t="s">
+        <v>27</v>
+      </c>
+      <c r="V362">
+        <v>0.05</v>
+      </c>
+      <c r="W362">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>63</v>
       </c>
@@ -28219,8 +29219,17 @@
       <c r="T363">
         <v>5</v>
       </c>
-    </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U363" t="s">
+        <v>27</v>
+      </c>
+      <c r="V363">
+        <v>0.05</v>
+      </c>
+      <c r="W363">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>63</v>
       </c>
@@ -28284,8 +29293,17 @@
       <c r="T364">
         <v>5</v>
       </c>
-    </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U364" t="s">
+        <v>27</v>
+      </c>
+      <c r="V364">
+        <v>0.05</v>
+      </c>
+      <c r="W364">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>63</v>
       </c>
@@ -28349,8 +29367,17 @@
       <c r="T365">
         <v>5</v>
       </c>
-    </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U365" t="s">
+        <v>27</v>
+      </c>
+      <c r="V365">
+        <v>0.05</v>
+      </c>
+      <c r="W365">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>63</v>
       </c>
@@ -28414,8 +29441,17 @@
       <c r="T366">
         <v>5</v>
       </c>
-    </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U366" t="s">
+        <v>27</v>
+      </c>
+      <c r="V366">
+        <v>0.05</v>
+      </c>
+      <c r="W366">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>64</v>
       </c>
@@ -28477,8 +29513,17 @@
       <c r="T367">
         <v>5</v>
       </c>
-    </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U367" t="s">
+        <v>27</v>
+      </c>
+      <c r="V367">
+        <v>0.05</v>
+      </c>
+      <c r="W367">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>64</v>
       </c>
@@ -28542,8 +29587,17 @@
       <c r="T368">
         <v>5</v>
       </c>
-    </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U368" t="s">
+        <v>27</v>
+      </c>
+      <c r="V368">
+        <v>0.05</v>
+      </c>
+      <c r="W368">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>64</v>
       </c>
@@ -28607,8 +29661,17 @@
       <c r="T369">
         <v>5</v>
       </c>
-    </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U369" t="s">
+        <v>27</v>
+      </c>
+      <c r="V369">
+        <v>0.05</v>
+      </c>
+      <c r="W369">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>64</v>
       </c>
@@ -28672,8 +29735,17 @@
       <c r="T370">
         <v>5</v>
       </c>
-    </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U370" t="s">
+        <v>27</v>
+      </c>
+      <c r="V370">
+        <v>0.05</v>
+      </c>
+      <c r="W370">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>64</v>
       </c>
@@ -28737,8 +29809,17 @@
       <c r="T371">
         <v>5</v>
       </c>
-    </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U371" t="s">
+        <v>27</v>
+      </c>
+      <c r="V371">
+        <v>0.05</v>
+      </c>
+      <c r="W371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>64</v>
       </c>
@@ -28802,8 +29883,17 @@
       <c r="T372">
         <v>5</v>
       </c>
-    </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U372" t="s">
+        <v>27</v>
+      </c>
+      <c r="V372">
+        <v>0.05</v>
+      </c>
+      <c r="W372">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>64</v>
       </c>
@@ -28867,8 +29957,17 @@
       <c r="T373">
         <v>5</v>
       </c>
-    </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U373" t="s">
+        <v>27</v>
+      </c>
+      <c r="V373">
+        <v>0.05</v>
+      </c>
+      <c r="W373">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>64</v>
       </c>
@@ -28932,8 +30031,17 @@
       <c r="T374">
         <v>5</v>
       </c>
-    </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U374" t="s">
+        <v>27</v>
+      </c>
+      <c r="V374">
+        <v>0.05</v>
+      </c>
+      <c r="W374">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>64</v>
       </c>
@@ -28997,8 +30105,17 @@
       <c r="T375">
         <v>5</v>
       </c>
-    </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U375" t="s">
+        <v>27</v>
+      </c>
+      <c r="V375">
+        <v>0.05</v>
+      </c>
+      <c r="W375">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>64</v>
       </c>
@@ -29062,8 +30179,17 @@
       <c r="T376">
         <v>5</v>
       </c>
-    </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U376" t="s">
+        <v>27</v>
+      </c>
+      <c r="V376">
+        <v>0.05</v>
+      </c>
+      <c r="W376">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>65</v>
       </c>
@@ -29125,8 +30251,17 @@
       <c r="T377">
         <v>5</v>
       </c>
-    </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U377" t="s">
+        <v>27</v>
+      </c>
+      <c r="V377">
+        <v>0.05</v>
+      </c>
+      <c r="W377">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>65</v>
       </c>
@@ -29190,8 +30325,17 @@
       <c r="T378">
         <v>5</v>
       </c>
-    </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U378" t="s">
+        <v>27</v>
+      </c>
+      <c r="V378">
+        <v>0.05</v>
+      </c>
+      <c r="W378">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>65</v>
       </c>
@@ -29255,8 +30399,17 @@
       <c r="T379">
         <v>5</v>
       </c>
-    </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U379" t="s">
+        <v>27</v>
+      </c>
+      <c r="V379">
+        <v>0.05</v>
+      </c>
+      <c r="W379">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>65</v>
       </c>
@@ -29320,8 +30473,17 @@
       <c r="T380">
         <v>5</v>
       </c>
-    </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U380" t="s">
+        <v>27</v>
+      </c>
+      <c r="V380">
+        <v>0.05</v>
+      </c>
+      <c r="W380">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="381" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>65</v>
       </c>
@@ -29385,8 +30547,17 @@
       <c r="T381">
         <v>5</v>
       </c>
-    </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U381" t="s">
+        <v>27</v>
+      </c>
+      <c r="V381">
+        <v>0.05</v>
+      </c>
+      <c r="W381">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>65</v>
       </c>
@@ -29450,8 +30621,17 @@
       <c r="T382">
         <v>5</v>
       </c>
-    </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U382" t="s">
+        <v>27</v>
+      </c>
+      <c r="V382">
+        <v>0.05</v>
+      </c>
+      <c r="W382">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="383" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>65</v>
       </c>
@@ -29515,8 +30695,17 @@
       <c r="T383">
         <v>5</v>
       </c>
-    </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U383" t="s">
+        <v>27</v>
+      </c>
+      <c r="V383">
+        <v>0.05</v>
+      </c>
+      <c r="W383">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="384" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>65</v>
       </c>
@@ -29580,8 +30769,17 @@
       <c r="T384">
         <v>5</v>
       </c>
-    </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U384" t="s">
+        <v>27</v>
+      </c>
+      <c r="V384">
+        <v>0.05</v>
+      </c>
+      <c r="W384">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>65</v>
       </c>
@@ -29645,8 +30843,17 @@
       <c r="T385">
         <v>5</v>
       </c>
-    </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U385" t="s">
+        <v>27</v>
+      </c>
+      <c r="V385">
+        <v>0.05</v>
+      </c>
+      <c r="W385">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>65</v>
       </c>
@@ -29710,8 +30917,17 @@
       <c r="T386">
         <v>5</v>
       </c>
-    </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U386" t="s">
+        <v>27</v>
+      </c>
+      <c r="V386">
+        <v>0.05</v>
+      </c>
+      <c r="W386">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>65</v>
       </c>
@@ -29775,8 +30991,17 @@
       <c r="T387">
         <v>5</v>
       </c>
-    </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U387" t="s">
+        <v>27</v>
+      </c>
+      <c r="V387">
+        <v>0.05</v>
+      </c>
+      <c r="W387">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>65</v>
       </c>
@@ -29840,8 +31065,17 @@
       <c r="T388">
         <v>5</v>
       </c>
-    </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U388" t="s">
+        <v>27</v>
+      </c>
+      <c r="V388">
+        <v>0.05</v>
+      </c>
+      <c r="W388">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>65</v>
       </c>
@@ -29905,8 +31139,17 @@
       <c r="T389">
         <v>5</v>
       </c>
-    </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U389" t="s">
+        <v>27</v>
+      </c>
+      <c r="V389">
+        <v>0.05</v>
+      </c>
+      <c r="W389">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>65</v>
       </c>
@@ -29970,8 +31213,17 @@
       <c r="T390">
         <v>5</v>
       </c>
-    </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U390" t="s">
+        <v>27</v>
+      </c>
+      <c r="V390">
+        <v>0.05</v>
+      </c>
+      <c r="W390">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>65</v>
       </c>
@@ -30035,8 +31287,17 @@
       <c r="T391">
         <v>5</v>
       </c>
-    </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U391" t="s">
+        <v>27</v>
+      </c>
+      <c r="V391">
+        <v>0.05</v>
+      </c>
+      <c r="W391">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>66</v>
       </c>
@@ -30098,8 +31359,17 @@
       <c r="T392">
         <v>5</v>
       </c>
-    </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U392" t="s">
+        <v>27</v>
+      </c>
+      <c r="V392">
+        <v>0.05</v>
+      </c>
+      <c r="W392">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>66</v>
       </c>
@@ -30163,8 +31433,17 @@
       <c r="T393">
         <v>5</v>
       </c>
-    </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U393" t="s">
+        <v>27</v>
+      </c>
+      <c r="V393">
+        <v>0.05</v>
+      </c>
+      <c r="W393">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>66</v>
       </c>
@@ -30228,8 +31507,17 @@
       <c r="T394">
         <v>5</v>
       </c>
-    </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U394" t="s">
+        <v>27</v>
+      </c>
+      <c r="V394">
+        <v>0.05</v>
+      </c>
+      <c r="W394">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>66</v>
       </c>
@@ -30293,8 +31581,17 @@
       <c r="T395">
         <v>5</v>
       </c>
-    </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U395" t="s">
+        <v>27</v>
+      </c>
+      <c r="V395">
+        <v>0.05</v>
+      </c>
+      <c r="W395">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>66</v>
       </c>
@@ -30358,8 +31655,17 @@
       <c r="T396">
         <v>5</v>
       </c>
-    </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U396" t="s">
+        <v>27</v>
+      </c>
+      <c r="V396">
+        <v>0.05</v>
+      </c>
+      <c r="W396">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>66</v>
       </c>
@@ -30423,8 +31729,17 @@
       <c r="T397">
         <v>5</v>
       </c>
-    </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U397" t="s">
+        <v>27</v>
+      </c>
+      <c r="V397">
+        <v>0.05</v>
+      </c>
+      <c r="W397">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>66</v>
       </c>
@@ -30488,8 +31803,17 @@
       <c r="T398">
         <v>5</v>
       </c>
-    </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U398" t="s">
+        <v>27</v>
+      </c>
+      <c r="V398">
+        <v>0.05</v>
+      </c>
+      <c r="W398">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>66</v>
       </c>
@@ -30553,8 +31877,17 @@
       <c r="T399">
         <v>5</v>
       </c>
-    </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U399" t="s">
+        <v>27</v>
+      </c>
+      <c r="V399">
+        <v>0.05</v>
+      </c>
+      <c r="W399">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>66</v>
       </c>
@@ -30618,8 +31951,17 @@
       <c r="T400">
         <v>5</v>
       </c>
-    </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U400" t="s">
+        <v>27</v>
+      </c>
+      <c r="V400">
+        <v>0.05</v>
+      </c>
+      <c r="W400">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>66</v>
       </c>
@@ -30683,8 +32025,17 @@
       <c r="T401">
         <v>5</v>
       </c>
-    </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U401" t="s">
+        <v>27</v>
+      </c>
+      <c r="V401">
+        <v>0.05</v>
+      </c>
+      <c r="W401">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>66</v>
       </c>
@@ -30748,8 +32099,17 @@
       <c r="T402">
         <v>5</v>
       </c>
-    </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U402" t="s">
+        <v>27</v>
+      </c>
+      <c r="V402">
+        <v>0.05</v>
+      </c>
+      <c r="W402">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>66</v>
       </c>
@@ -30813,8 +32173,17 @@
       <c r="T403">
         <v>5</v>
       </c>
-    </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U403" t="s">
+        <v>27</v>
+      </c>
+      <c r="V403">
+        <v>0.05</v>
+      </c>
+      <c r="W403">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>66</v>
       </c>
@@ -30878,8 +32247,17 @@
       <c r="T404">
         <v>5</v>
       </c>
-    </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U404" t="s">
+        <v>27</v>
+      </c>
+      <c r="V404">
+        <v>0.05</v>
+      </c>
+      <c r="W404">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>66</v>
       </c>
@@ -30943,8 +32321,17 @@
       <c r="T405">
         <v>5</v>
       </c>
-    </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U405" t="s">
+        <v>27</v>
+      </c>
+      <c r="V405">
+        <v>0.05</v>
+      </c>
+      <c r="W405">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>66</v>
       </c>
@@ -31008,8 +32395,17 @@
       <c r="T406">
         <v>5</v>
       </c>
-    </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U406" t="s">
+        <v>27</v>
+      </c>
+      <c r="V406">
+        <v>0.05</v>
+      </c>
+      <c r="W406">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>67</v>
       </c>
@@ -31023,7 +32419,7 @@
         <v>1</v>
       </c>
       <c r="E407">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F407" t="s">
         <v>8</v>
@@ -31071,8 +32467,17 @@
       <c r="T407">
         <v>5</v>
       </c>
-    </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U407" t="s">
+        <v>27</v>
+      </c>
+      <c r="V407">
+        <v>0.05</v>
+      </c>
+      <c r="W407">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>67</v>
       </c>
@@ -31088,7 +32493,7 @@
       </c>
       <c r="E408">
         <f>E407+1200</f>
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F408" t="s">
         <v>8</v>
@@ -31136,8 +32541,17 @@
       <c r="T408">
         <v>5</v>
       </c>
-    </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U408" t="s">
+        <v>27</v>
+      </c>
+      <c r="V408">
+        <v>0.05</v>
+      </c>
+      <c r="W408">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>67</v>
       </c>
@@ -31153,7 +32567,7 @@
       </c>
       <c r="E409">
         <f t="shared" ref="E409:E416" si="67">E408+1200</f>
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F409" t="s">
         <v>8</v>
@@ -31201,8 +32615,17 @@
       <c r="T409">
         <v>5</v>
       </c>
-    </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U409" t="s">
+        <v>27</v>
+      </c>
+      <c r="V409">
+        <v>0.05</v>
+      </c>
+      <c r="W409">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>67</v>
       </c>
@@ -31218,7 +32641,7 @@
       </c>
       <c r="E410">
         <f t="shared" si="67"/>
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F410" t="s">
         <v>8</v>
@@ -31266,8 +32689,17 @@
       <c r="T410">
         <v>5</v>
       </c>
-    </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U410" t="s">
+        <v>27</v>
+      </c>
+      <c r="V410">
+        <v>0.05</v>
+      </c>
+      <c r="W410">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>67</v>
       </c>
@@ -31283,7 +32715,7 @@
       </c>
       <c r="E411">
         <f t="shared" si="67"/>
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F411" t="s">
         <v>8</v>
@@ -31331,8 +32763,17 @@
       <c r="T411">
         <v>5</v>
       </c>
-    </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U411" t="s">
+        <v>27</v>
+      </c>
+      <c r="V411">
+        <v>0.05</v>
+      </c>
+      <c r="W411">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>67</v>
       </c>
@@ -31348,7 +32789,7 @@
       </c>
       <c r="E412">
         <f t="shared" si="67"/>
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F412" t="s">
         <v>8</v>
@@ -31396,8 +32837,17 @@
       <c r="T412">
         <v>5</v>
       </c>
-    </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U412" t="s">
+        <v>27</v>
+      </c>
+      <c r="V412">
+        <v>0.05</v>
+      </c>
+      <c r="W412">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>67</v>
       </c>
@@ -31413,7 +32863,7 @@
       </c>
       <c r="E413">
         <f t="shared" si="67"/>
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F413" t="s">
         <v>8</v>
@@ -31461,8 +32911,17 @@
       <c r="T413">
         <v>5</v>
       </c>
-    </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U413" t="s">
+        <v>27</v>
+      </c>
+      <c r="V413">
+        <v>0.05</v>
+      </c>
+      <c r="W413">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>67</v>
       </c>
@@ -31478,7 +32937,7 @@
       </c>
       <c r="E414">
         <f t="shared" si="67"/>
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="F414" t="s">
         <v>8</v>
@@ -31526,8 +32985,17 @@
       <c r="T414">
         <v>5</v>
       </c>
-    </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U414" t="s">
+        <v>27</v>
+      </c>
+      <c r="V414">
+        <v>0.05</v>
+      </c>
+      <c r="W414">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>67</v>
       </c>
@@ -31543,7 +33011,7 @@
       </c>
       <c r="E415">
         <f t="shared" si="67"/>
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F415" t="s">
         <v>8</v>
@@ -31591,8 +33059,17 @@
       <c r="T415">
         <v>5</v>
       </c>
-    </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U415" t="s">
+        <v>27</v>
+      </c>
+      <c r="V415">
+        <v>0.05</v>
+      </c>
+      <c r="W415">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>67</v>
       </c>
@@ -31608,7 +33085,7 @@
       </c>
       <c r="E416">
         <f t="shared" si="67"/>
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="F416" t="s">
         <v>8</v>
@@ -31656,8 +33133,17 @@
       <c r="T416">
         <v>5</v>
       </c>
-    </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U416" t="s">
+        <v>27</v>
+      </c>
+      <c r="V416">
+        <v>0.05</v>
+      </c>
+      <c r="W416">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>68</v>
       </c>
@@ -31672,7 +33158,7 @@
         <v>1</v>
       </c>
       <c r="E417">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F417" t="s">
         <v>8</v>
@@ -31720,8 +33206,17 @@
       <c r="T417">
         <v>5</v>
       </c>
-    </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U417" t="s">
+        <v>27</v>
+      </c>
+      <c r="V417">
+        <v>0.05</v>
+      </c>
+      <c r="W417">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>68</v>
       </c>
@@ -31737,7 +33232,7 @@
       </c>
       <c r="E418">
         <f>E417+1200</f>
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F418" t="s">
         <v>8</v>
@@ -31785,8 +33280,17 @@
       <c r="T418">
         <v>5</v>
       </c>
-    </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U418" t="s">
+        <v>27</v>
+      </c>
+      <c r="V418">
+        <v>0.05</v>
+      </c>
+      <c r="W418">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>68</v>
       </c>
@@ -31802,7 +33306,7 @@
       </c>
       <c r="E419">
         <f t="shared" ref="E419:E426" si="69">E418+1200</f>
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F419" t="s">
         <v>8</v>
@@ -31850,8 +33354,17 @@
       <c r="T419">
         <v>5</v>
       </c>
-    </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U419" t="s">
+        <v>27</v>
+      </c>
+      <c r="V419">
+        <v>0.05</v>
+      </c>
+      <c r="W419">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>68</v>
       </c>
@@ -31867,7 +33380,7 @@
       </c>
       <c r="E420">
         <f t="shared" si="69"/>
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F420" t="s">
         <v>8</v>
@@ -31915,8 +33428,17 @@
       <c r="T420">
         <v>5</v>
       </c>
-    </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U420" t="s">
+        <v>27</v>
+      </c>
+      <c r="V420">
+        <v>0.05</v>
+      </c>
+      <c r="W420">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>68</v>
       </c>
@@ -31932,7 +33454,7 @@
       </c>
       <c r="E421">
         <f t="shared" si="69"/>
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F421" t="s">
         <v>8</v>
@@ -31980,8 +33502,17 @@
       <c r="T421">
         <v>5</v>
       </c>
-    </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U421" t="s">
+        <v>27</v>
+      </c>
+      <c r="V421">
+        <v>0.05</v>
+      </c>
+      <c r="W421">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>68</v>
       </c>
@@ -31997,7 +33528,7 @@
       </c>
       <c r="E422">
         <f t="shared" si="69"/>
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F422" t="s">
         <v>8</v>
@@ -32045,8 +33576,17 @@
       <c r="T422">
         <v>5</v>
       </c>
-    </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U422" t="s">
+        <v>27</v>
+      </c>
+      <c r="V422">
+        <v>0.05</v>
+      </c>
+      <c r="W422">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>68</v>
       </c>
@@ -32062,7 +33602,7 @@
       </c>
       <c r="E423">
         <f t="shared" si="69"/>
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F423" t="s">
         <v>8</v>
@@ -32110,8 +33650,17 @@
       <c r="T423">
         <v>5</v>
       </c>
-    </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U423" t="s">
+        <v>27</v>
+      </c>
+      <c r="V423">
+        <v>0.05</v>
+      </c>
+      <c r="W423">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>68</v>
       </c>
@@ -32127,7 +33676,7 @@
       </c>
       <c r="E424">
         <f t="shared" si="69"/>
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="F424" t="s">
         <v>8</v>
@@ -32175,8 +33724,17 @@
       <c r="T424">
         <v>5</v>
       </c>
-    </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U424" t="s">
+        <v>27</v>
+      </c>
+      <c r="V424">
+        <v>0.05</v>
+      </c>
+      <c r="W424">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>68</v>
       </c>
@@ -32192,7 +33750,7 @@
       </c>
       <c r="E425">
         <f t="shared" si="69"/>
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F425" t="s">
         <v>8</v>
@@ -32240,8 +33798,17 @@
       <c r="T425">
         <v>5</v>
       </c>
-    </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U425" t="s">
+        <v>27</v>
+      </c>
+      <c r="V425">
+        <v>0.05</v>
+      </c>
+      <c r="W425">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>68</v>
       </c>
@@ -32257,7 +33824,7 @@
       </c>
       <c r="E426">
         <f t="shared" si="69"/>
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="F426" t="s">
         <v>8</v>
@@ -32305,8 +33872,17 @@
       <c r="T426">
         <v>5</v>
       </c>
-    </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U426" t="s">
+        <v>27</v>
+      </c>
+      <c r="V426">
+        <v>0.05</v>
+      </c>
+      <c r="W426">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>69</v>
       </c>
@@ -32369,8 +33945,17 @@
       <c r="T427">
         <v>5</v>
       </c>
-    </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U427" t="s">
+        <v>27</v>
+      </c>
+      <c r="V427">
+        <v>0.05</v>
+      </c>
+      <c r="W427">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>69</v>
       </c>
@@ -32434,8 +34019,17 @@
       <c r="T428">
         <v>5</v>
       </c>
-    </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U428" t="s">
+        <v>27</v>
+      </c>
+      <c r="V428">
+        <v>0.05</v>
+      </c>
+      <c r="W428">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>69</v>
       </c>
@@ -32499,8 +34093,17 @@
       <c r="T429">
         <v>5</v>
       </c>
-    </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U429" t="s">
+        <v>27</v>
+      </c>
+      <c r="V429">
+        <v>0.05</v>
+      </c>
+      <c r="W429">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>69</v>
       </c>
@@ -32564,8 +34167,17 @@
       <c r="T430">
         <v>5</v>
       </c>
-    </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U430" t="s">
+        <v>27</v>
+      </c>
+      <c r="V430">
+        <v>0.05</v>
+      </c>
+      <c r="W430">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>69</v>
       </c>
@@ -32629,8 +34241,17 @@
       <c r="T431">
         <v>5</v>
       </c>
-    </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U431" t="s">
+        <v>27</v>
+      </c>
+      <c r="V431">
+        <v>0.05</v>
+      </c>
+      <c r="W431">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>69</v>
       </c>
@@ -32694,8 +34315,17 @@
       <c r="T432">
         <v>5</v>
       </c>
-    </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U432" t="s">
+        <v>27</v>
+      </c>
+      <c r="V432">
+        <v>0.05</v>
+      </c>
+      <c r="W432">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>69</v>
       </c>
@@ -32759,8 +34389,17 @@
       <c r="T433">
         <v>5</v>
       </c>
-    </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U433" t="s">
+        <v>27</v>
+      </c>
+      <c r="V433">
+        <v>0.05</v>
+      </c>
+      <c r="W433">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>69</v>
       </c>
@@ -32824,8 +34463,17 @@
       <c r="T434">
         <v>5</v>
       </c>
-    </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U434" t="s">
+        <v>27</v>
+      </c>
+      <c r="V434">
+        <v>0.05</v>
+      </c>
+      <c r="W434">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>69</v>
       </c>
@@ -32889,8 +34537,17 @@
       <c r="T435">
         <v>5</v>
       </c>
-    </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U435" t="s">
+        <v>27</v>
+      </c>
+      <c r="V435">
+        <v>0.05</v>
+      </c>
+      <c r="W435">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>69</v>
       </c>
@@ -32954,8 +34611,17 @@
       <c r="T436">
         <v>5</v>
       </c>
-    </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U436" t="s">
+        <v>27</v>
+      </c>
+      <c r="V436">
+        <v>0.05</v>
+      </c>
+      <c r="W436">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>70</v>
       </c>
@@ -33017,8 +34683,17 @@
       <c r="T437">
         <v>5</v>
       </c>
-    </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U437" t="s">
+        <v>27</v>
+      </c>
+      <c r="V437">
+        <v>0.05</v>
+      </c>
+      <c r="W437">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>70</v>
       </c>
@@ -33082,8 +34757,17 @@
       <c r="T438">
         <v>5</v>
       </c>
-    </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U438" t="s">
+        <v>27</v>
+      </c>
+      <c r="V438">
+        <v>0.05</v>
+      </c>
+      <c r="W438">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>70</v>
       </c>
@@ -33147,8 +34831,17 @@
       <c r="T439">
         <v>5</v>
       </c>
-    </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U439" t="s">
+        <v>27</v>
+      </c>
+      <c r="V439">
+        <v>0.05</v>
+      </c>
+      <c r="W439">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>70</v>
       </c>
@@ -33212,8 +34905,17 @@
       <c r="T440">
         <v>5</v>
       </c>
-    </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U440" t="s">
+        <v>27</v>
+      </c>
+      <c r="V440">
+        <v>0.05</v>
+      </c>
+      <c r="W440">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>70</v>
       </c>
@@ -33277,8 +34979,17 @@
       <c r="T441">
         <v>5</v>
       </c>
-    </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U441" t="s">
+        <v>27</v>
+      </c>
+      <c r="V441">
+        <v>0.05</v>
+      </c>
+      <c r="W441">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>70</v>
       </c>
@@ -33342,8 +35053,17 @@
       <c r="T442">
         <v>5</v>
       </c>
-    </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U442" t="s">
+        <v>27</v>
+      </c>
+      <c r="V442">
+        <v>0.05</v>
+      </c>
+      <c r="W442">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>70</v>
       </c>
@@ -33407,8 +35127,17 @@
       <c r="T443">
         <v>5</v>
       </c>
-    </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U443" t="s">
+        <v>27</v>
+      </c>
+      <c r="V443">
+        <v>0.05</v>
+      </c>
+      <c r="W443">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>70</v>
       </c>
@@ -33472,8 +35201,17 @@
       <c r="T444">
         <v>5</v>
       </c>
-    </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U444" t="s">
+        <v>27</v>
+      </c>
+      <c r="V444">
+        <v>0.05</v>
+      </c>
+      <c r="W444">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>70</v>
       </c>
@@ -33537,8 +35275,17 @@
       <c r="T445">
         <v>5</v>
       </c>
-    </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U445" t="s">
+        <v>27</v>
+      </c>
+      <c r="V445">
+        <v>0.05</v>
+      </c>
+      <c r="W445">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>70</v>
       </c>
@@ -33602,8 +35349,17 @@
       <c r="T446">
         <v>5</v>
       </c>
-    </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U446" t="s">
+        <v>27</v>
+      </c>
+      <c r="V446">
+        <v>0.05</v>
+      </c>
+      <c r="W446">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>71</v>
       </c>
@@ -33666,8 +35422,17 @@
       <c r="T447">
         <v>5</v>
       </c>
-    </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U447" t="s">
+        <v>27</v>
+      </c>
+      <c r="V447">
+        <v>0.05</v>
+      </c>
+      <c r="W447">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>71</v>
       </c>
@@ -33731,8 +35496,17 @@
       <c r="T448">
         <v>5</v>
       </c>
-    </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U448" t="s">
+        <v>27</v>
+      </c>
+      <c r="V448">
+        <v>0.05</v>
+      </c>
+      <c r="W448">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>71</v>
       </c>
@@ -33796,8 +35570,17 @@
       <c r="T449">
         <v>5</v>
       </c>
-    </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U449" t="s">
+        <v>27</v>
+      </c>
+      <c r="V449">
+        <v>0.05</v>
+      </c>
+      <c r="W449">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>71</v>
       </c>
@@ -33861,8 +35644,17 @@
       <c r="T450">
         <v>5</v>
       </c>
-    </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U450" t="s">
+        <v>27</v>
+      </c>
+      <c r="V450">
+        <v>0.05</v>
+      </c>
+      <c r="W450">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>71</v>
       </c>
@@ -33926,8 +35718,17 @@
       <c r="T451">
         <v>5</v>
       </c>
-    </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U451" t="s">
+        <v>27</v>
+      </c>
+      <c r="V451">
+        <v>0.05</v>
+      </c>
+      <c r="W451">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>71</v>
       </c>
@@ -33991,8 +35792,17 @@
       <c r="T452">
         <v>5</v>
       </c>
-    </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U452" t="s">
+        <v>27</v>
+      </c>
+      <c r="V452">
+        <v>0.05</v>
+      </c>
+      <c r="W452">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>71</v>
       </c>
@@ -34056,8 +35866,17 @@
       <c r="T453">
         <v>5</v>
       </c>
-    </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U453" t="s">
+        <v>27</v>
+      </c>
+      <c r="V453">
+        <v>0.05</v>
+      </c>
+      <c r="W453">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>71</v>
       </c>
@@ -34121,8 +35940,17 @@
       <c r="T454">
         <v>5</v>
       </c>
-    </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U454" t="s">
+        <v>27</v>
+      </c>
+      <c r="V454">
+        <v>0.05</v>
+      </c>
+      <c r="W454">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>71</v>
       </c>
@@ -34186,8 +36014,17 @@
       <c r="T455">
         <v>5</v>
       </c>
-    </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U455" t="s">
+        <v>27</v>
+      </c>
+      <c r="V455">
+        <v>0.05</v>
+      </c>
+      <c r="W455">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>71</v>
       </c>
@@ -34251,8 +36088,17 @@
       <c r="T456">
         <v>5</v>
       </c>
-    </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U456" t="s">
+        <v>27</v>
+      </c>
+      <c r="V456">
+        <v>0.05</v>
+      </c>
+      <c r="W456">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>72</v>
       </c>
@@ -34315,8 +36161,17 @@
       <c r="T457">
         <v>5</v>
       </c>
-    </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U457" t="s">
+        <v>27</v>
+      </c>
+      <c r="V457">
+        <v>0.05</v>
+      </c>
+      <c r="W457">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>72</v>
       </c>
@@ -34380,8 +36235,17 @@
       <c r="T458">
         <v>5</v>
       </c>
-    </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U458" t="s">
+        <v>27</v>
+      </c>
+      <c r="V458">
+        <v>0.05</v>
+      </c>
+      <c r="W458">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>72</v>
       </c>
@@ -34445,8 +36309,17 @@
       <c r="T459">
         <v>5</v>
       </c>
-    </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U459" t="s">
+        <v>27</v>
+      </c>
+      <c r="V459">
+        <v>0.05</v>
+      </c>
+      <c r="W459">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>72</v>
       </c>
@@ -34510,8 +36383,17 @@
       <c r="T460">
         <v>5</v>
       </c>
-    </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U460" t="s">
+        <v>27</v>
+      </c>
+      <c r="V460">
+        <v>0.05</v>
+      </c>
+      <c r="W460">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>72</v>
       </c>
@@ -34575,8 +36457,17 @@
       <c r="T461">
         <v>5</v>
       </c>
-    </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U461" t="s">
+        <v>27</v>
+      </c>
+      <c r="V461">
+        <v>0.05</v>
+      </c>
+      <c r="W461">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>72</v>
       </c>
@@ -34640,8 +36531,17 @@
       <c r="T462">
         <v>5</v>
       </c>
-    </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U462" t="s">
+        <v>27</v>
+      </c>
+      <c r="V462">
+        <v>0.05</v>
+      </c>
+      <c r="W462">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>72</v>
       </c>
@@ -34705,8 +36605,17 @@
       <c r="T463">
         <v>5</v>
       </c>
-    </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U463" t="s">
+        <v>27</v>
+      </c>
+      <c r="V463">
+        <v>0.05</v>
+      </c>
+      <c r="W463">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>72</v>
       </c>
@@ -34770,8 +36679,17 @@
       <c r="T464">
         <v>5</v>
       </c>
-    </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U464" t="s">
+        <v>27</v>
+      </c>
+      <c r="V464">
+        <v>0.05</v>
+      </c>
+      <c r="W464">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>72</v>
       </c>
@@ -34835,8 +36753,17 @@
       <c r="T465">
         <v>5</v>
       </c>
-    </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U465" t="s">
+        <v>27</v>
+      </c>
+      <c r="V465">
+        <v>0.05</v>
+      </c>
+      <c r="W465">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>72</v>
       </c>
@@ -34900,9 +36827,24 @@
       <c r="T466">
         <v>5</v>
       </c>
+      <c r="U466" t="s">
+        <v>27</v>
+      </c>
+      <c r="V466">
+        <v>0.05</v>
+      </c>
+      <c r="W466">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y466" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y466" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1905311"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\Computing\RProg\Columbia\rwalk\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E70A9-1BB1-41B2-9E16-DD668202A918}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7C4EF-6A55-4D94-9AB9-D50FB84A3CD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1961,14 +1961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D397" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E418" sqref="E418"/>
+      <selection pane="bottomRight" activeCell="E416" sqref="E416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3367,7 +3366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3445,7 +3444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3522,7 +3521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3599,7 +3598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3677,7 +3676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3754,7 +3753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3831,7 +3830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3909,7 +3908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3986,7 +3985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4063,7 +4062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4140,7 +4139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4218,7 +4217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4296,7 +4295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4373,7 +4372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -7118,7 +7117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7194,7 +7193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -7574,7 +7573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -7954,7 +7953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -8258,7 +8257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -8410,7 +8409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -8638,7 +8637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -8714,7 +8713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -8866,7 +8865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>A92</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9096,7 +9095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" ref="A94:A106" si="12">A93</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9175,7 +9174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9253,7 +9252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9331,7 +9330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9409,7 +9408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9487,7 +9486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9565,7 +9564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9643,7 +9642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9721,7 +9720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9799,7 +9798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9877,7 +9876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9956,7 +9955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -10035,7 +10034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="12"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -10113,7 +10112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -10189,7 +10188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>A107</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10267,7 +10266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" ref="A109:A121" si="17">A108</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10345,7 +10344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10423,7 +10422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10501,7 +10500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10579,7 +10578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10657,7 +10656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10735,7 +10734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10813,7 +10812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10891,7 +10890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10970,7 +10969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11051,7 +11050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11129,7 +11128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11208,7 +11207,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="17"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11286,7 +11285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -11509,7 +11508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -11583,7 +11582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -11657,7 +11656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -11731,7 +11730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -11805,7 +11804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -11879,7 +11878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -11953,7 +11952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -12101,7 +12100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -12175,7 +12174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -12249,7 +12248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -12323,7 +12322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -12397,7 +12396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -12548,7 +12547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -12700,7 +12699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -12776,7 +12775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -12928,7 +12927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -13004,7 +13003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -13080,7 +13079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -13156,7 +13155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -13232,7 +13231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -13385,7 +13384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -13462,7 +13461,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -13539,7 +13538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -13616,7 +13615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -13690,7 +13689,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -13767,7 +13766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -13844,7 +13843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -13921,7 +13920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>35</v>
       </c>
@@ -13997,7 +13996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -14073,7 +14072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -14225,7 +14224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -14301,7 +14300,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -14377,7 +14376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -14449,7 +14448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -14597,7 +14596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -14671,7 +14670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>51</v>
       </c>
@@ -14745,7 +14744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>51</v>
       </c>
@@ -14819,7 +14818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -14893,7 +14892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -14967,7 +14966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>51</v>
       </c>
@@ -15041,7 +15040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -15115,7 +15114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -15188,7 +15187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>52</v>
       </c>
@@ -15262,7 +15261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>52</v>
       </c>
@@ -15336,7 +15335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>52</v>
       </c>
@@ -15410,7 +15409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>52</v>
       </c>
@@ -15484,7 +15483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>52</v>
       </c>
@@ -15558,7 +15557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>52</v>
       </c>
@@ -15632,7 +15631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>52</v>
       </c>
@@ -15706,7 +15705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>52</v>
       </c>
@@ -15780,7 +15779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>52</v>
       </c>
@@ -15854,7 +15853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>53</v>
       </c>
@@ -15927,7 +15926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>53</v>
       </c>
@@ -16004,7 +16003,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>54</v>
       </c>
@@ -16077,7 +16076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>54</v>
       </c>
@@ -16151,7 +16150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>54</v>
       </c>
@@ -16225,7 +16224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>54</v>
       </c>
@@ -16299,7 +16298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>54</v>
       </c>
@@ -16373,7 +16372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -16447,7 +16446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>54</v>
       </c>
@@ -16521,7 +16520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>37</v>
       </c>
@@ -16593,7 +16592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -16667,7 +16666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>37</v>
       </c>
@@ -16741,7 +16740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>37</v>
       </c>
@@ -16815,7 +16814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>37</v>
       </c>
@@ -16889,7 +16888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>37</v>
       </c>
@@ -16963,7 +16962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>37</v>
       </c>
@@ -17037,7 +17036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>37</v>
       </c>
@@ -17111,7 +17110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>37</v>
       </c>
@@ -17185,7 +17184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>37</v>
       </c>
@@ -17259,7 +17258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>37</v>
       </c>
@@ -17333,7 +17332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -17407,7 +17406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -17481,7 +17480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>37</v>
       </c>
@@ -17555,7 +17554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -17629,7 +17628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>38</v>
       </c>
@@ -17702,7 +17701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -17776,7 +17775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>38</v>
       </c>
@@ -17850,7 +17849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>38</v>
       </c>
@@ -17924,7 +17923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -17998,7 +17997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>38</v>
       </c>
@@ -18072,7 +18071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -18146,7 +18145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -18220,7 +18219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -18294,7 +18293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>38</v>
       </c>
@@ -18368,7 +18367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -18442,7 +18441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>38</v>
       </c>
@@ -18590,7 +18589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>38</v>
       </c>
@@ -18664,7 +18663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>38</v>
       </c>
@@ -18738,7 +18737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>55</v>
       </c>
@@ -18810,7 +18809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>55</v>
       </c>
@@ -18884,7 +18883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>55</v>
       </c>
@@ -18958,7 +18957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>55</v>
       </c>
@@ -19032,7 +19031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -19106,7 +19105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -19180,7 +19179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>55</v>
       </c>
@@ -19254,7 +19253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -19328,7 +19327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>55</v>
       </c>
@@ -19402,7 +19401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>55</v>
       </c>
@@ -19476,7 +19475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -19550,7 +19549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>55</v>
       </c>
@@ -19624,7 +19623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>55</v>
       </c>
@@ -19698,7 +19697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>55</v>
       </c>
@@ -19772,7 +19771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>55</v>
       </c>
@@ -19846,7 +19845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -19919,7 +19918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>56</v>
       </c>
@@ -19993,7 +19992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>56</v>
       </c>
@@ -20067,7 +20066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>56</v>
       </c>
@@ -20141,7 +20140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>56</v>
       </c>
@@ -20215,7 +20214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>56</v>
       </c>
@@ -20289,7 +20288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>56</v>
       </c>
@@ -20363,7 +20362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>56</v>
       </c>
@@ -20437,7 +20436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>56</v>
       </c>
@@ -20511,7 +20510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>56</v>
       </c>
@@ -20585,7 +20584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>56</v>
       </c>
@@ -20659,7 +20658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>56</v>
       </c>
@@ -20733,7 +20732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>56</v>
       </c>
@@ -20807,7 +20806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>56</v>
       </c>
@@ -20881,7 +20880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>56</v>
       </c>
@@ -20955,7 +20954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>62</v>
       </c>
@@ -21027,7 +21026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>62</v>
       </c>
@@ -21101,7 +21100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>62</v>
       </c>
@@ -21175,7 +21174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>62</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>62</v>
       </c>
@@ -21323,7 +21322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>62</v>
       </c>
@@ -21397,7 +21396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>62</v>
       </c>
@@ -21471,7 +21470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>62</v>
       </c>
@@ -21545,7 +21544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>62</v>
       </c>
@@ -21619,7 +21618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -21693,7 +21692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>62</v>
       </c>
@@ -21767,7 +21766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>62</v>
       </c>
@@ -21841,7 +21840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>62</v>
       </c>
@@ -21915,7 +21914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>62</v>
       </c>
@@ -21989,7 +21988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>62</v>
       </c>
@@ -22063,7 +22062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>73</v>
       </c>
@@ -22136,7 +22135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>73</v>
       </c>
@@ -22210,7 +22209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>73</v>
       </c>
@@ -22284,7 +22283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>73</v>
       </c>
@@ -22358,7 +22357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>73</v>
       </c>
@@ -22432,7 +22431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>73</v>
       </c>
@@ -22506,7 +22505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>73</v>
       </c>
@@ -22580,7 +22579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>73</v>
       </c>
@@ -22654,7 +22653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>73</v>
       </c>
@@ -22728,7 +22727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>73</v>
       </c>
@@ -22802,7 +22801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>73</v>
       </c>
@@ -22876,7 +22875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>73</v>
       </c>
@@ -22950,7 +22949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>73</v>
       </c>
@@ -23024,7 +23023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>73</v>
       </c>
@@ -23098,7 +23097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>73</v>
       </c>
@@ -23172,7 +23171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>57</v>
       </c>
@@ -23244,7 +23243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>57</v>
       </c>
@@ -23318,7 +23317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>57</v>
       </c>
@@ -23392,7 +23391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>57</v>
       </c>
@@ -23466,7 +23465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>57</v>
       </c>
@@ -23540,7 +23539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>57</v>
       </c>
@@ -23614,7 +23613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>57</v>
       </c>
@@ -23688,7 +23687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>57</v>
       </c>
@@ -23762,7 +23761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>57</v>
       </c>
@@ -23836,7 +23835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>57</v>
       </c>
@@ -23910,7 +23909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>57</v>
       </c>
@@ -23984,7 +23983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>57</v>
       </c>
@@ -24058,7 +24057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>57</v>
       </c>
@@ -24132,7 +24131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>57</v>
       </c>
@@ -24206,7 +24205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>57</v>
       </c>
@@ -24280,7 +24279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>58</v>
       </c>
@@ -24353,7 +24352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>58</v>
       </c>
@@ -24427,7 +24426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>58</v>
       </c>
@@ -24501,7 +24500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>58</v>
       </c>
@@ -24575,7 +24574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>58</v>
       </c>
@@ -24649,7 +24648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>58</v>
       </c>
@@ -24723,7 +24722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>58</v>
       </c>
@@ -24797,7 +24796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>58</v>
       </c>
@@ -24871,7 +24870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>58</v>
       </c>
@@ -24945,7 +24944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>58</v>
       </c>
@@ -25019,7 +25018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>58</v>
       </c>
@@ -25093,7 +25092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>58</v>
       </c>
@@ -25167,7 +25166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>58</v>
       </c>
@@ -25241,7 +25240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>58</v>
       </c>
@@ -25315,7 +25314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -25389,7 +25388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>59</v>
       </c>
@@ -25461,7 +25460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>59</v>
       </c>
@@ -25535,7 +25534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>59</v>
       </c>
@@ -25609,7 +25608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>59</v>
       </c>
@@ -25683,7 +25682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>59</v>
       </c>
@@ -25757,7 +25756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>59</v>
       </c>
@@ -25831,7 +25830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>59</v>
       </c>
@@ -25905,7 +25904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>59</v>
       </c>
@@ -25979,7 +25978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>59</v>
       </c>
@@ -26053,7 +26052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>59</v>
       </c>
@@ -26127,7 +26126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>59</v>
       </c>
@@ -26201,7 +26200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>59</v>
       </c>
@@ -26275,7 +26274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>59</v>
       </c>
@@ -26349,7 +26348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>59</v>
       </c>
@@ -26423,7 +26422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>59</v>
       </c>
@@ -26497,7 +26496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>60</v>
       </c>
@@ -26569,7 +26568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>60</v>
       </c>
@@ -26643,7 +26642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>60</v>
       </c>
@@ -26717,7 +26716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>60</v>
       </c>
@@ -26791,7 +26790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>60</v>
       </c>
@@ -26865,7 +26864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>60</v>
       </c>
@@ -26939,7 +26938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>60</v>
       </c>
@@ -27013,7 +27012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>60</v>
       </c>
@@ -27087,7 +27086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>60</v>
       </c>
@@ -27161,7 +27160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>60</v>
       </c>
@@ -27235,7 +27234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>60</v>
       </c>
@@ -27309,7 +27308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>60</v>
       </c>
@@ -27383,7 +27382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>60</v>
       </c>
@@ -27457,7 +27456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>60</v>
       </c>
@@ -27531,7 +27530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>60</v>
       </c>
@@ -27605,7 +27604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>61</v>
       </c>
@@ -27677,7 +27676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>61</v>
       </c>
@@ -27751,7 +27750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>61</v>
       </c>
@@ -27825,7 +27824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>61</v>
       </c>
@@ -27899,7 +27898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>61</v>
       </c>
@@ -27973,7 +27972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>61</v>
       </c>
@@ -28047,7 +28046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>61</v>
       </c>
@@ -28121,7 +28120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>61</v>
       </c>
@@ -28195,7 +28194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>61</v>
       </c>
@@ -28269,7 +28268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>61</v>
       </c>
@@ -28343,7 +28342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>61</v>
       </c>
@@ -28417,7 +28416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>61</v>
       </c>
@@ -28491,7 +28490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>61</v>
       </c>
@@ -28565,7 +28564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>61</v>
       </c>
@@ -28639,7 +28638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>61</v>
       </c>
@@ -28713,7 +28712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>63</v>
       </c>
@@ -28785,7 +28784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>63</v>
       </c>
@@ -28859,7 +28858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>63</v>
       </c>
@@ -28933,7 +28932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>63</v>
       </c>
@@ -29007,7 +29006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>63</v>
       </c>
@@ -29081,7 +29080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>63</v>
       </c>
@@ -29155,7 +29154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>63</v>
       </c>
@@ -29229,7 +29228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>63</v>
       </c>
@@ -29303,7 +29302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>63</v>
       </c>
@@ -29377,7 +29376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>63</v>
       </c>
@@ -29451,7 +29450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>64</v>
       </c>
@@ -29523,7 +29522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>64</v>
       </c>
@@ -29597,7 +29596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>64</v>
       </c>
@@ -29671,7 +29670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>64</v>
       </c>
@@ -29745,7 +29744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>64</v>
       </c>
@@ -29819,7 +29818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>64</v>
       </c>
@@ -29893,7 +29892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>64</v>
       </c>
@@ -29967,7 +29966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>64</v>
       </c>
@@ -30041,7 +30040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>64</v>
       </c>
@@ -30115,7 +30114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>64</v>
       </c>
@@ -30189,7 +30188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>65</v>
       </c>
@@ -30261,7 +30260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>65</v>
       </c>
@@ -30335,7 +30334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>65</v>
       </c>
@@ -30409,7 +30408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>65</v>
       </c>
@@ -30483,7 +30482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>65</v>
       </c>
@@ -30557,7 +30556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>65</v>
       </c>
@@ -30631,7 +30630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>65</v>
       </c>
@@ -30705,7 +30704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>65</v>
       </c>
@@ -30779,7 +30778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>65</v>
       </c>
@@ -30853,7 +30852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>65</v>
       </c>
@@ -30927,7 +30926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>65</v>
       </c>
@@ -31001,7 +31000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>65</v>
       </c>
@@ -31075,7 +31074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>65</v>
       </c>
@@ -31149,7 +31148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>65</v>
       </c>
@@ -31223,7 +31222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>65</v>
       </c>
@@ -31297,7 +31296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>66</v>
       </c>
@@ -31369,7 +31368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>66</v>
       </c>
@@ -31443,7 +31442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>66</v>
       </c>
@@ -31517,7 +31516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>66</v>
       </c>
@@ -31591,7 +31590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>66</v>
       </c>
@@ -31665,7 +31664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>66</v>
       </c>
@@ -31739,7 +31738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>66</v>
       </c>
@@ -31813,7 +31812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>66</v>
       </c>
@@ -31887,7 +31886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>66</v>
       </c>
@@ -31961,7 +31960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>66</v>
       </c>
@@ -32035,7 +32034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>66</v>
       </c>
@@ -32109,7 +32108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>66</v>
       </c>
@@ -32183,7 +32182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>66</v>
       </c>
@@ -32257,7 +32256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>66</v>
       </c>
@@ -32331,7 +32330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>66</v>
       </c>
@@ -34621,7 +34620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>70</v>
       </c>
@@ -34693,7 +34692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>70</v>
       </c>
@@ -34767,7 +34766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>70</v>
       </c>
@@ -34841,7 +34840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>70</v>
       </c>
@@ -34915,7 +34914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>70</v>
       </c>
@@ -34989,7 +34988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>70</v>
       </c>
@@ -35063,7 +35062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>70</v>
       </c>
@@ -35137,7 +35136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>70</v>
       </c>
@@ -35211,7 +35210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>70</v>
       </c>
@@ -35285,7 +35284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>70</v>
       </c>
@@ -35359,7 +35358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>71</v>
       </c>
@@ -35432,7 +35431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>71</v>
       </c>
@@ -35506,7 +35505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>71</v>
       </c>
@@ -35580,7 +35579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>71</v>
       </c>
@@ -35654,7 +35653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>71</v>
       </c>
@@ -35728,7 +35727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>71</v>
       </c>
@@ -35802,7 +35801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>71</v>
       </c>
@@ -35876,7 +35875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>71</v>
       </c>
@@ -35950,7 +35949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>71</v>
       </c>
@@ -36024,7 +36023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>71</v>
       </c>
@@ -36098,7 +36097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>72</v>
       </c>
@@ -36171,7 +36170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>72</v>
       </c>
@@ -36245,7 +36244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>72</v>
       </c>
@@ -36319,7 +36318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>72</v>
       </c>
@@ -36393,7 +36392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>72</v>
       </c>
@@ -36467,7 +36466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>72</v>
       </c>
@@ -36541,7 +36540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>72</v>
       </c>
@@ -36615,7 +36614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>72</v>
       </c>
@@ -36689,7 +36688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>72</v>
       </c>
@@ -36763,7 +36762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>72</v>
       </c>
@@ -36838,13 +36837,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y466" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1905311"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y466" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\Computing\RProg\Columbia\rwalk\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EEFB20-3A29-490D-8FAA-D4220F952D69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB0B7D-91C9-4855-9D5F-08134821E534}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="78">
   <si>
     <t>filename</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>The first stimulus appeared not to record anything, so I omitted it.</t>
+  </si>
+  <si>
+    <t>First stimulus was cut off at beginning.</t>
   </si>
 </sst>
 </file>
@@ -1970,10 +1973,10 @@
   <dimension ref="A1:Y466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D384" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D406" sqref="D406"/>
+      <selection pane="bottomRight" activeCell="D455" sqref="D455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27154,7 +27157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>60</v>
       </c>
@@ -27227,7 +27230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>60</v>
       </c>
@@ -27300,7 +27303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>60</v>
       </c>
@@ -27373,7 +27376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>60</v>
       </c>
@@ -27446,7 +27449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>60</v>
       </c>
@@ -27519,7 +27522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>61</v>
       </c>
@@ -27530,7 +27533,7 @@
         <v>11</v>
       </c>
       <c r="D342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E342">
         <v>100</v>
@@ -27590,8 +27593,11 @@
       <c r="W342">
         <v>20</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y342" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>61</v>
       </c>
@@ -27606,8 +27612,7 @@
         <v>1</v>
       </c>
       <c r="E343">
-        <f>E342+1200</f>
-        <v>1300</v>
+        <v>1176</v>
       </c>
       <c r="F343" t="s">
         <v>9</v>
@@ -27665,7 +27670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>61</v>
       </c>
@@ -27677,11 +27682,11 @@
         <v>13</v>
       </c>
       <c r="D344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E344">
         <f t="shared" ref="E344:E356" si="50">E343+1200</f>
-        <v>2500</v>
+        <v>2376</v>
       </c>
       <c r="F344" t="s">
         <v>9</v>
@@ -27739,7 +27744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>61</v>
       </c>
@@ -27755,7 +27760,7 @@
       </c>
       <c r="E345">
         <f t="shared" si="50"/>
-        <v>3700</v>
+        <v>3576</v>
       </c>
       <c r="F345" t="s">
         <v>9</v>
@@ -27813,7 +27818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>61</v>
       </c>
@@ -27829,7 +27834,7 @@
       </c>
       <c r="E346">
         <f t="shared" si="50"/>
-        <v>4900</v>
+        <v>4776</v>
       </c>
       <c r="F346" t="s">
         <v>9</v>
@@ -27887,7 +27892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>61</v>
       </c>
@@ -27903,7 +27908,7 @@
       </c>
       <c r="E347">
         <f t="shared" si="50"/>
-        <v>6100</v>
+        <v>5976</v>
       </c>
       <c r="F347" t="s">
         <v>9</v>
@@ -27961,7 +27966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>61</v>
       </c>
@@ -27977,7 +27982,7 @@
       </c>
       <c r="E348">
         <f t="shared" si="50"/>
-        <v>7300</v>
+        <v>7176</v>
       </c>
       <c r="F348" t="s">
         <v>9</v>
@@ -28035,7 +28040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>61</v>
       </c>
@@ -28051,7 +28056,7 @@
       </c>
       <c r="E349">
         <f t="shared" si="50"/>
-        <v>8500</v>
+        <v>8376</v>
       </c>
       <c r="F349" t="s">
         <v>9</v>
@@ -28109,7 +28114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>61</v>
       </c>
@@ -28125,7 +28130,7 @@
       </c>
       <c r="E350">
         <f t="shared" si="50"/>
-        <v>9700</v>
+        <v>9576</v>
       </c>
       <c r="F350" t="s">
         <v>9</v>
@@ -28183,7 +28188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>61</v>
       </c>
@@ -28199,7 +28204,7 @@
       </c>
       <c r="E351">
         <f t="shared" si="50"/>
-        <v>10900</v>
+        <v>10776</v>
       </c>
       <c r="F351" t="s">
         <v>9</v>
@@ -28257,7 +28262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>61</v>
       </c>
@@ -28273,7 +28278,7 @@
       </c>
       <c r="E352">
         <f t="shared" si="50"/>
-        <v>12100</v>
+        <v>11976</v>
       </c>
       <c r="F352" t="s">
         <v>9</v>
@@ -28347,7 +28352,7 @@
       </c>
       <c r="E353">
         <f t="shared" si="50"/>
-        <v>13300</v>
+        <v>13176</v>
       </c>
       <c r="F353" t="s">
         <v>9</v>
@@ -28421,7 +28426,7 @@
       </c>
       <c r="E354">
         <f t="shared" si="50"/>
-        <v>14500</v>
+        <v>14376</v>
       </c>
       <c r="F354" t="s">
         <v>9</v>
@@ -28495,7 +28500,7 @@
       </c>
       <c r="E355">
         <f t="shared" si="50"/>
-        <v>15700</v>
+        <v>15576</v>
       </c>
       <c r="F355" t="s">
         <v>9</v>
@@ -28569,7 +28574,7 @@
       </c>
       <c r="E356">
         <f t="shared" si="50"/>
-        <v>16900</v>
+        <v>16776</v>
       </c>
       <c r="F356" t="s">
         <v>9</v>
@@ -28641,7 +28646,7 @@
         <v>1</v>
       </c>
       <c r="E357">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="F357" t="s">
         <v>9</v>
@@ -28715,7 +28720,7 @@
       </c>
       <c r="E358">
         <f>E357+1200</f>
-        <v>1300</v>
+        <v>1355</v>
       </c>
       <c r="F358" t="s">
         <v>9</v>
@@ -28789,7 +28794,7 @@
       </c>
       <c r="E359">
         <f t="shared" ref="E359:E366" si="53">E358+1200</f>
-        <v>2500</v>
+        <v>2555</v>
       </c>
       <c r="F359" t="s">
         <v>9</v>
@@ -28863,7 +28868,7 @@
       </c>
       <c r="E360">
         <f t="shared" si="53"/>
-        <v>3700</v>
+        <v>3755</v>
       </c>
       <c r="F360" t="s">
         <v>9</v>
@@ -28937,7 +28942,7 @@
       </c>
       <c r="E361">
         <f t="shared" si="53"/>
-        <v>4900</v>
+        <v>4955</v>
       </c>
       <c r="F361" t="s">
         <v>9</v>
@@ -29011,7 +29016,7 @@
       </c>
       <c r="E362">
         <f t="shared" si="53"/>
-        <v>6100</v>
+        <v>6155</v>
       </c>
       <c r="F362" t="s">
         <v>9</v>
@@ -29085,7 +29090,7 @@
       </c>
       <c r="E363">
         <f t="shared" si="53"/>
-        <v>7300</v>
+        <v>7355</v>
       </c>
       <c r="F363" t="s">
         <v>9</v>
@@ -29159,7 +29164,7 @@
       </c>
       <c r="E364">
         <f t="shared" si="53"/>
-        <v>8500</v>
+        <v>8555</v>
       </c>
       <c r="F364" t="s">
         <v>9</v>
@@ -29233,7 +29238,7 @@
       </c>
       <c r="E365">
         <f t="shared" si="53"/>
-        <v>9700</v>
+        <v>9755</v>
       </c>
       <c r="F365" t="s">
         <v>9</v>
@@ -29307,7 +29312,7 @@
       </c>
       <c r="E366">
         <f t="shared" si="53"/>
-        <v>10900</v>
+        <v>10955</v>
       </c>
       <c r="F366" t="s">
         <v>9</v>
@@ -29379,7 +29384,7 @@
         <v>1</v>
       </c>
       <c r="E367">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F367" t="s">
         <v>9</v>
@@ -29452,8 +29457,7 @@
         <v>1</v>
       </c>
       <c r="E368">
-        <f t="shared" ref="E368:E376" si="54">E367+1200</f>
-        <v>1300</v>
+        <v>1251</v>
       </c>
       <c r="F368" t="s">
         <v>9</v>
@@ -29519,15 +29523,14 @@
         <v>1905302</v>
       </c>
       <c r="C369">
-        <f t="shared" ref="C369:C376" si="55">C368+1</f>
+        <f t="shared" ref="C369:C376" si="54">C368+1</f>
         <v>28</v>
       </c>
       <c r="D369" t="b">
         <v>1</v>
       </c>
       <c r="E369">
-        <f t="shared" si="54"/>
-        <v>2500</v>
+        <v>2451</v>
       </c>
       <c r="F369" t="s">
         <v>9</v>
@@ -29593,15 +29596,14 @@
         <v>1905302</v>
       </c>
       <c r="C370">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>29</v>
       </c>
       <c r="D370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="54"/>
-        <v>3700</v>
+        <v>3650</v>
       </c>
       <c r="F370" t="s">
         <v>9</v>
@@ -29667,15 +29669,14 @@
         <v>1905302</v>
       </c>
       <c r="C371">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>30</v>
       </c>
       <c r="D371" t="b">
         <v>1</v>
       </c>
       <c r="E371">
-        <f t="shared" si="54"/>
-        <v>4900</v>
+        <v>4850</v>
       </c>
       <c r="F371" t="s">
         <v>9</v>
@@ -29741,15 +29742,14 @@
         <v>1905302</v>
       </c>
       <c r="C372">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>31</v>
       </c>
       <c r="D372" t="b">
         <v>1</v>
       </c>
       <c r="E372">
-        <f t="shared" si="54"/>
-        <v>6100</v>
+        <v>6050</v>
       </c>
       <c r="F372" t="s">
         <v>9</v>
@@ -29815,15 +29815,14 @@
         <v>1905302</v>
       </c>
       <c r="C373">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>32</v>
       </c>
       <c r="D373" t="b">
         <v>1</v>
       </c>
       <c r="E373">
-        <f t="shared" si="54"/>
-        <v>7300</v>
+        <v>7250</v>
       </c>
       <c r="F373" t="s">
         <v>9</v>
@@ -29889,15 +29888,14 @@
         <v>1905302</v>
       </c>
       <c r="C374">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>33</v>
       </c>
       <c r="D374" t="b">
         <v>1</v>
       </c>
       <c r="E374">
-        <f t="shared" si="54"/>
-        <v>8500</v>
+        <v>8450</v>
       </c>
       <c r="F374" t="s">
         <v>9</v>
@@ -29963,15 +29961,14 @@
         <v>1905302</v>
       </c>
       <c r="C375">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>34</v>
       </c>
       <c r="D375" t="b">
         <v>1</v>
       </c>
       <c r="E375">
-        <f t="shared" si="54"/>
-        <v>9700</v>
+        <v>9650</v>
       </c>
       <c r="F375" t="s">
         <v>9</v>
@@ -30037,15 +30034,14 @@
         <v>1905302</v>
       </c>
       <c r="C376">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>35</v>
       </c>
       <c r="D376" t="b">
         <v>1</v>
       </c>
       <c r="E376">
-        <f t="shared" si="54"/>
-        <v>10900</v>
+        <v>10850</v>
       </c>
       <c r="F376" t="s">
         <v>9</v>
@@ -30259,7 +30255,7 @@
         <v>1905301</v>
       </c>
       <c r="C379">
-        <f t="shared" ref="C379:C390" si="56">C378+1</f>
+        <f t="shared" ref="C379:C390" si="55">C378+1</f>
         <v>3</v>
       </c>
       <c r="D379" t="b">
@@ -30332,7 +30328,7 @@
         <v>1905301</v>
       </c>
       <c r="C380">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>4</v>
       </c>
       <c r="D380" t="b">
@@ -30405,7 +30401,7 @@
         <v>1905301</v>
       </c>
       <c r="C381">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>5</v>
       </c>
       <c r="D381" t="b">
@@ -30478,7 +30474,7 @@
         <v>1905301</v>
       </c>
       <c r="C382">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="D382" t="b">
@@ -30551,7 +30547,7 @@
         <v>1905301</v>
       </c>
       <c r="C383">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>7</v>
       </c>
       <c r="D383" t="b">
@@ -30624,7 +30620,7 @@
         <v>1905301</v>
       </c>
       <c r="C384">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
       <c r="D384" t="b">
@@ -30697,7 +30693,7 @@
         <v>1905301</v>
       </c>
       <c r="C385">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="D385" t="b">
@@ -30770,7 +30766,7 @@
         <v>1905301</v>
       </c>
       <c r="C386">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="D386" t="b">
@@ -30843,7 +30839,7 @@
         <v>1905301</v>
       </c>
       <c r="C387">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>11</v>
       </c>
       <c r="D387" t="b">
@@ -30916,7 +30912,7 @@
         <v>1905301</v>
       </c>
       <c r="C388">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>12</v>
       </c>
       <c r="D388" t="b">
@@ -30989,7 +30985,7 @@
         <v>1905301</v>
       </c>
       <c r="C389">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>13</v>
       </c>
       <c r="D389" t="b">
@@ -31062,7 +31058,7 @@
         <v>1905301</v>
       </c>
       <c r="C390">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="D390" t="b">
@@ -31356,7 +31352,7 @@
         <v>1905301</v>
       </c>
       <c r="C394">
-        <f t="shared" ref="C394:C405" si="57">C393+1</f>
+        <f t="shared" ref="C394:C405" si="56">C393+1</f>
         <v>18</v>
       </c>
       <c r="D394" t="b">
@@ -31429,7 +31425,7 @@
         <v>1905301</v>
       </c>
       <c r="C395">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>19</v>
       </c>
       <c r="D395" t="b">
@@ -31502,7 +31498,7 @@
         <v>1905301</v>
       </c>
       <c r="C396">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>20</v>
       </c>
       <c r="D396" t="b">
@@ -31575,7 +31571,7 @@
         <v>1905301</v>
       </c>
       <c r="C397">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>21</v>
       </c>
       <c r="D397" t="b">
@@ -31648,7 +31644,7 @@
         <v>1905301</v>
       </c>
       <c r="C398">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>22</v>
       </c>
       <c r="D398" t="b">
@@ -31721,7 +31717,7 @@
         <v>1905301</v>
       </c>
       <c r="C399">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>23</v>
       </c>
       <c r="D399" t="b">
@@ -31794,7 +31790,7 @@
         <v>1905301</v>
       </c>
       <c r="C400">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>24</v>
       </c>
       <c r="D400" t="b">
@@ -31867,7 +31863,7 @@
         <v>1905301</v>
       </c>
       <c r="C401">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>25</v>
       </c>
       <c r="D401" t="b">
@@ -31940,7 +31936,7 @@
         <v>1905301</v>
       </c>
       <c r="C402">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>26</v>
       </c>
       <c r="D402" t="b">
@@ -32013,7 +32009,7 @@
         <v>1905301</v>
       </c>
       <c r="C403">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>27</v>
       </c>
       <c r="D403" t="b">
@@ -32086,7 +32082,7 @@
         <v>1905301</v>
       </c>
       <c r="C404">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>28</v>
       </c>
       <c r="D404" t="b">
@@ -32159,7 +32155,7 @@
         <v>1905301</v>
       </c>
       <c r="C405">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>29</v>
       </c>
       <c r="D405" t="b">
@@ -32311,7 +32307,7 @@
         <v>1</v>
       </c>
       <c r="E407">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F407" t="s">
         <v>8</v>
@@ -32384,8 +32380,7 @@
         <v>1</v>
       </c>
       <c r="E408">
-        <f>E407+1200</f>
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="F408" t="s">
         <v>8</v>
@@ -32451,15 +32446,14 @@
         <v>1905311</v>
       </c>
       <c r="C409">
-        <f t="shared" ref="C409:C426" si="58">C408+1</f>
+        <f t="shared" ref="C409:C426" si="57">C408+1</f>
         <v>3</v>
       </c>
       <c r="D409" t="b">
         <v>1</v>
       </c>
       <c r="E409">
-        <f t="shared" ref="E409:E416" si="59">E408+1200</f>
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="F409" t="s">
         <v>8</v>
@@ -32525,15 +32519,14 @@
         <v>1905311</v>
       </c>
       <c r="C410">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>4</v>
       </c>
       <c r="D410" t="b">
         <v>1</v>
       </c>
       <c r="E410">
-        <f t="shared" si="59"/>
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="F410" t="s">
         <v>8</v>
@@ -32599,15 +32592,14 @@
         <v>1905311</v>
       </c>
       <c r="C411">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="D411" t="b">
         <v>1</v>
       </c>
       <c r="E411">
-        <f t="shared" si="59"/>
-        <v>5000</v>
+        <v>5001</v>
       </c>
       <c r="F411" t="s">
         <v>8</v>
@@ -32643,7 +32635,7 @@
         <v>4</v>
       </c>
       <c r="Q411">
-        <f t="shared" ref="Q411:Q466" si="60">2.7*10^-6</f>
+        <f t="shared" ref="Q411:Q466" si="58">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="R411" t="b">
@@ -32673,15 +32665,14 @@
         <v>1905311</v>
       </c>
       <c r="C412">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="D412" t="b">
         <v>1</v>
       </c>
       <c r="E412">
-        <f t="shared" si="59"/>
-        <v>6200</v>
+        <v>6202</v>
       </c>
       <c r="F412" t="s">
         <v>8</v>
@@ -32717,7 +32708,7 @@
         <v>4</v>
       </c>
       <c r="Q412">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R412" t="b">
@@ -32747,15 +32738,14 @@
         <v>1905311</v>
       </c>
       <c r="C413">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>7</v>
       </c>
       <c r="D413" t="b">
         <v>1</v>
       </c>
       <c r="E413">
-        <f t="shared" si="59"/>
-        <v>7400</v>
+        <v>7402</v>
       </c>
       <c r="F413" t="s">
         <v>8</v>
@@ -32791,7 +32781,7 @@
         <v>4</v>
       </c>
       <c r="Q413">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R413" t="b">
@@ -32821,15 +32811,14 @@
         <v>1905311</v>
       </c>
       <c r="C414">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>8</v>
       </c>
       <c r="D414" t="b">
         <v>1</v>
       </c>
       <c r="E414">
-        <f t="shared" si="59"/>
-        <v>8600</v>
+        <v>8602</v>
       </c>
       <c r="F414" t="s">
         <v>8</v>
@@ -32865,7 +32854,7 @@
         <v>4</v>
       </c>
       <c r="Q414">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R414" t="b">
@@ -32895,15 +32884,14 @@
         <v>1905311</v>
       </c>
       <c r="C415">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="D415" t="b">
         <v>1</v>
       </c>
       <c r="E415">
-        <f t="shared" si="59"/>
-        <v>9800</v>
+        <v>9802</v>
       </c>
       <c r="F415" t="s">
         <v>8</v>
@@ -32939,7 +32927,7 @@
         <v>4</v>
       </c>
       <c r="Q415">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R415" t="b">
@@ -32969,15 +32957,14 @@
         <v>1905311</v>
       </c>
       <c r="C416">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>10</v>
       </c>
       <c r="D416" t="b">
         <v>1</v>
       </c>
       <c r="E416">
-        <f t="shared" si="59"/>
-        <v>11000</v>
+        <v>11002</v>
       </c>
       <c r="F416" t="s">
         <v>8</v>
@@ -33013,7 +33000,7 @@
         <v>4</v>
       </c>
       <c r="Q416">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R416" t="b">
@@ -33043,14 +33030,14 @@
         <v>1905311</v>
       </c>
       <c r="C417">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
       <c r="D417" t="b">
         <v>1</v>
       </c>
       <c r="E417">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F417" t="s">
         <v>8</v>
@@ -33086,7 +33073,7 @@
         <v>4</v>
       </c>
       <c r="Q417">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R417" t="b">
@@ -33116,15 +33103,14 @@
         <v>1905311</v>
       </c>
       <c r="C418">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>12</v>
       </c>
       <c r="D418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E418">
-        <f>E417+1200</f>
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="F418" t="s">
         <v>8</v>
@@ -33160,7 +33146,7 @@
         <v>4</v>
       </c>
       <c r="Q418">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R418" t="b">
@@ -33190,15 +33176,14 @@
         <v>1905311</v>
       </c>
       <c r="C419">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>13</v>
       </c>
       <c r="D419" t="b">
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" ref="E419:E426" si="61">E418+1200</f>
-        <v>2600</v>
+        <v>2603</v>
       </c>
       <c r="F419" t="s">
         <v>8</v>
@@ -33234,7 +33219,7 @@
         <v>4</v>
       </c>
       <c r="Q419">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R419" t="b">
@@ -33264,15 +33249,14 @@
         <v>1905311</v>
       </c>
       <c r="C420">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>14</v>
       </c>
       <c r="D420" t="b">
         <v>1</v>
       </c>
       <c r="E420">
-        <f t="shared" si="61"/>
-        <v>3800</v>
+        <v>3803</v>
       </c>
       <c r="F420" t="s">
         <v>8</v>
@@ -33308,7 +33292,7 @@
         <v>4</v>
       </c>
       <c r="Q420">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R420" t="b">
@@ -33338,15 +33322,14 @@
         <v>1905311</v>
       </c>
       <c r="C421">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>15</v>
       </c>
       <c r="D421" t="b">
         <v>1</v>
       </c>
       <c r="E421">
-        <f t="shared" si="61"/>
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="F421" t="s">
         <v>8</v>
@@ -33382,7 +33365,7 @@
         <v>4</v>
       </c>
       <c r="Q421">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R421" t="b">
@@ -33412,15 +33395,14 @@
         <v>1905311</v>
       </c>
       <c r="C422">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>16</v>
       </c>
       <c r="D422" t="b">
         <v>1</v>
       </c>
       <c r="E422">
-        <f t="shared" si="61"/>
-        <v>6200</v>
+        <v>6202</v>
       </c>
       <c r="F422" t="s">
         <v>8</v>
@@ -33456,7 +33438,7 @@
         <v>4</v>
       </c>
       <c r="Q422">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R422" t="b">
@@ -33486,15 +33468,14 @@
         <v>1905311</v>
       </c>
       <c r="C423">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>17</v>
       </c>
       <c r="D423" t="b">
         <v>1</v>
       </c>
       <c r="E423">
-        <f t="shared" si="61"/>
-        <v>7400</v>
+        <v>7402</v>
       </c>
       <c r="F423" t="s">
         <v>8</v>
@@ -33530,7 +33511,7 @@
         <v>4</v>
       </c>
       <c r="Q423">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R423" t="b">
@@ -33560,15 +33541,14 @@
         <v>1905311</v>
       </c>
       <c r="C424">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>18</v>
       </c>
       <c r="D424" t="b">
         <v>1</v>
       </c>
       <c r="E424">
-        <f t="shared" si="61"/>
-        <v>8600</v>
+        <v>8601</v>
       </c>
       <c r="F424" t="s">
         <v>8</v>
@@ -33604,7 +33584,7 @@
         <v>4</v>
       </c>
       <c r="Q424">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R424" t="b">
@@ -33634,15 +33614,14 @@
         <v>1905311</v>
       </c>
       <c r="C425">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>19</v>
       </c>
       <c r="D425" t="b">
         <v>1</v>
       </c>
       <c r="E425">
-        <f t="shared" si="61"/>
-        <v>9800</v>
+        <v>9801</v>
       </c>
       <c r="F425" t="s">
         <v>8</v>
@@ -33678,7 +33657,7 @@
         <v>4</v>
       </c>
       <c r="Q425">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R425" t="b">
@@ -33708,15 +33687,14 @@
         <v>1905311</v>
       </c>
       <c r="C426">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>20</v>
       </c>
       <c r="D426" t="b">
         <v>1</v>
       </c>
       <c r="E426">
-        <f t="shared" si="61"/>
-        <v>11000</v>
+        <v>11001</v>
       </c>
       <c r="F426" t="s">
         <v>8</v>
@@ -33752,7 +33730,7 @@
         <v>4</v>
       </c>
       <c r="Q426">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R426" t="b">
@@ -33782,14 +33760,14 @@
         <v>1905311</v>
       </c>
       <c r="C427">
-        <f t="shared" ref="C427:C436" si="62">C426+1</f>
+        <f t="shared" ref="C427:C436" si="59">C426+1</f>
         <v>21</v>
       </c>
       <c r="D427" t="b">
         <v>1</v>
       </c>
       <c r="E427">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="F427" t="s">
         <v>8</v>
@@ -33825,7 +33803,7 @@
         <v>4</v>
       </c>
       <c r="Q427">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R427" t="b">
@@ -33855,15 +33833,14 @@
         <v>1905311</v>
       </c>
       <c r="C428">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>22</v>
       </c>
       <c r="D428" t="b">
         <v>1</v>
       </c>
       <c r="E428">
-        <f>E427+1200</f>
-        <v>1300</v>
+        <v>1405</v>
       </c>
       <c r="F428" t="s">
         <v>8</v>
@@ -33899,7 +33876,7 @@
         <v>4</v>
       </c>
       <c r="Q428">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R428" t="b">
@@ -33929,15 +33906,14 @@
         <v>1905311</v>
       </c>
       <c r="C429">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>23</v>
       </c>
       <c r="D429" t="b">
         <v>1</v>
       </c>
       <c r="E429">
-        <f t="shared" ref="E429:E436" si="63">E428+1200</f>
-        <v>2500</v>
+        <v>2605</v>
       </c>
       <c r="F429" t="s">
         <v>8</v>
@@ -33973,7 +33949,7 @@
         <v>4</v>
       </c>
       <c r="Q429">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R429" t="b">
@@ -34003,15 +33979,14 @@
         <v>1905311</v>
       </c>
       <c r="C430">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>24</v>
       </c>
       <c r="D430" t="b">
         <v>1</v>
       </c>
       <c r="E430">
-        <f t="shared" si="63"/>
-        <v>3700</v>
+        <v>3805</v>
       </c>
       <c r="F430" t="s">
         <v>8</v>
@@ -34047,7 +34022,7 @@
         <v>4</v>
       </c>
       <c r="Q430">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R430" t="b">
@@ -34077,15 +34052,14 @@
         <v>1905311</v>
       </c>
       <c r="C431">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>25</v>
       </c>
       <c r="D431" t="b">
         <v>1</v>
       </c>
       <c r="E431">
-        <f t="shared" si="63"/>
-        <v>4900</v>
+        <v>5005</v>
       </c>
       <c r="F431" t="s">
         <v>8</v>
@@ -34121,7 +34095,7 @@
         <v>4</v>
       </c>
       <c r="Q431">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R431" t="b">
@@ -34151,15 +34125,14 @@
         <v>1905311</v>
       </c>
       <c r="C432">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>26</v>
       </c>
       <c r="D432" t="b">
         <v>1</v>
       </c>
       <c r="E432">
-        <f t="shared" si="63"/>
-        <v>6100</v>
+        <v>6204</v>
       </c>
       <c r="F432" t="s">
         <v>8</v>
@@ -34195,7 +34168,7 @@
         <v>4</v>
       </c>
       <c r="Q432">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R432" t="b">
@@ -34225,15 +34198,14 @@
         <v>1905311</v>
       </c>
       <c r="C433">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>27</v>
       </c>
       <c r="D433" t="b">
         <v>1</v>
       </c>
       <c r="E433">
-        <f t="shared" si="63"/>
-        <v>7300</v>
+        <v>7404</v>
       </c>
       <c r="F433" t="s">
         <v>8</v>
@@ -34269,7 +34241,7 @@
         <v>4</v>
       </c>
       <c r="Q433">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R433" t="b">
@@ -34299,15 +34271,14 @@
         <v>1905311</v>
       </c>
       <c r="C434">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>28</v>
       </c>
       <c r="D434" t="b">
         <v>1</v>
       </c>
       <c r="E434">
-        <f t="shared" si="63"/>
-        <v>8500</v>
+        <v>8604</v>
       </c>
       <c r="F434" t="s">
         <v>8</v>
@@ -34343,7 +34314,7 @@
         <v>4</v>
       </c>
       <c r="Q434">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R434" t="b">
@@ -34373,15 +34344,14 @@
         <v>1905311</v>
       </c>
       <c r="C435">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="D435" t="b">
         <v>1</v>
       </c>
       <c r="E435">
-        <f t="shared" si="63"/>
-        <v>9700</v>
+        <v>9804</v>
       </c>
       <c r="F435" t="s">
         <v>8</v>
@@ -34417,7 +34387,7 @@
         <v>4</v>
       </c>
       <c r="Q435">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R435" t="b">
@@ -34447,15 +34417,14 @@
         <v>1905311</v>
       </c>
       <c r="C436">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>30</v>
       </c>
       <c r="D436" t="b">
         <v>1</v>
       </c>
       <c r="E436">
-        <f t="shared" si="63"/>
-        <v>10900</v>
+        <v>11004</v>
       </c>
       <c r="F436" t="s">
         <v>8</v>
@@ -34491,7 +34460,7 @@
         <v>4</v>
       </c>
       <c r="Q436">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R436" t="b">
@@ -34527,7 +34496,7 @@
         <v>1</v>
       </c>
       <c r="E437">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="F437" t="s">
         <v>8</v>
@@ -34563,7 +34532,7 @@
         <v>4</v>
       </c>
       <c r="Q437">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R437" t="b">
@@ -34601,7 +34570,7 @@
       </c>
       <c r="E438">
         <f>E437+1200</f>
-        <v>1300</v>
+        <v>1405</v>
       </c>
       <c r="F438" t="s">
         <v>8</v>
@@ -34637,7 +34606,7 @@
         <v>4</v>
       </c>
       <c r="Q438">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R438" t="b">
@@ -34667,15 +34636,15 @@
         <v>1905312</v>
       </c>
       <c r="C439">
-        <f t="shared" ref="C439:C466" si="64">C438+1</f>
+        <f t="shared" ref="C439:C466" si="60">C438+1</f>
         <v>3</v>
       </c>
       <c r="D439" t="b">
         <v>1</v>
       </c>
       <c r="E439">
-        <f t="shared" ref="E439:E446" si="65">E438+1200</f>
-        <v>2500</v>
+        <f t="shared" ref="E439:E446" si="61">E438+1200</f>
+        <v>2605</v>
       </c>
       <c r="F439" t="s">
         <v>8</v>
@@ -34711,7 +34680,7 @@
         <v>4</v>
       </c>
       <c r="Q439">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R439" t="b">
@@ -34741,15 +34710,14 @@
         <v>1905312</v>
       </c>
       <c r="C440">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="D440" t="b">
         <v>1</v>
       </c>
       <c r="E440">
-        <f t="shared" si="65"/>
-        <v>3700</v>
+        <v>3804</v>
       </c>
       <c r="F440" t="s">
         <v>8</v>
@@ -34785,7 +34753,7 @@
         <v>4</v>
       </c>
       <c r="Q440">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R440" t="b">
@@ -34815,15 +34783,15 @@
         <v>1905312</v>
       </c>
       <c r="C441">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="D441" t="b">
         <v>1</v>
       </c>
       <c r="E441">
-        <f t="shared" si="65"/>
-        <v>4900</v>
+        <f t="shared" si="61"/>
+        <v>5004</v>
       </c>
       <c r="F441" t="s">
         <v>8</v>
@@ -34859,7 +34827,7 @@
         <v>4</v>
       </c>
       <c r="Q441">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R441" t="b">
@@ -34889,15 +34857,15 @@
         <v>1905312</v>
       </c>
       <c r="C442">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>6</v>
       </c>
       <c r="D442" t="b">
         <v>1</v>
       </c>
       <c r="E442">
-        <f t="shared" si="65"/>
-        <v>6100</v>
+        <f t="shared" si="61"/>
+        <v>6204</v>
       </c>
       <c r="F442" t="s">
         <v>8</v>
@@ -34933,7 +34901,7 @@
         <v>4</v>
       </c>
       <c r="Q442">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R442" t="b">
@@ -34963,15 +34931,15 @@
         <v>1905312</v>
       </c>
       <c r="C443">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>7</v>
       </c>
       <c r="D443" t="b">
         <v>1</v>
       </c>
       <c r="E443">
-        <f t="shared" si="65"/>
-        <v>7300</v>
+        <f t="shared" si="61"/>
+        <v>7404</v>
       </c>
       <c r="F443" t="s">
         <v>8</v>
@@ -35007,7 +34975,7 @@
         <v>4</v>
       </c>
       <c r="Q443">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R443" t="b">
@@ -35037,15 +35005,15 @@
         <v>1905312</v>
       </c>
       <c r="C444">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="D444" t="b">
         <v>1</v>
       </c>
       <c r="E444">
-        <f t="shared" si="65"/>
-        <v>8500</v>
+        <f t="shared" si="61"/>
+        <v>8604</v>
       </c>
       <c r="F444" t="s">
         <v>8</v>
@@ -35081,7 +35049,7 @@
         <v>4</v>
       </c>
       <c r="Q444">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R444" t="b">
@@ -35111,15 +35079,15 @@
         <v>1905312</v>
       </c>
       <c r="C445">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>9</v>
       </c>
       <c r="D445" t="b">
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="65"/>
-        <v>9700</v>
+        <f t="shared" si="61"/>
+        <v>9804</v>
       </c>
       <c r="F445" t="s">
         <v>8</v>
@@ -35155,7 +35123,7 @@
         <v>4</v>
       </c>
       <c r="Q445">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R445" t="b">
@@ -35185,15 +35153,15 @@
         <v>1905312</v>
       </c>
       <c r="C446">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>10</v>
       </c>
       <c r="D446" t="b">
         <v>1</v>
       </c>
       <c r="E446">
-        <f t="shared" si="65"/>
-        <v>10900</v>
+        <f t="shared" si="61"/>
+        <v>11004</v>
       </c>
       <c r="F446" t="s">
         <v>8</v>
@@ -35229,7 +35197,7 @@
         <v>4</v>
       </c>
       <c r="Q446">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R446" t="b">
@@ -35259,14 +35227,14 @@
         <v>1905312</v>
       </c>
       <c r="C447">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>11</v>
       </c>
       <c r="D447" t="b">
         <v>1</v>
       </c>
       <c r="E447">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="F447" t="s">
         <v>8</v>
@@ -35302,7 +35270,7 @@
         <v>4</v>
       </c>
       <c r="Q447">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R447" t="b">
@@ -35332,7 +35300,7 @@
         <v>1905312</v>
       </c>
       <c r="C448">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>12</v>
       </c>
       <c r="D448" t="b">
@@ -35340,7 +35308,7 @@
       </c>
       <c r="E448">
         <f>E447+1200</f>
-        <v>1300</v>
+        <v>1405</v>
       </c>
       <c r="F448" t="s">
         <v>8</v>
@@ -35376,7 +35344,7 @@
         <v>4</v>
       </c>
       <c r="Q448">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R448" t="b">
@@ -35406,15 +35374,15 @@
         <v>1905312</v>
       </c>
       <c r="C449">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>13</v>
       </c>
       <c r="D449" t="b">
         <v>1</v>
       </c>
       <c r="E449">
-        <f t="shared" ref="E449:E456" si="66">E448+1200</f>
-        <v>2500</v>
+        <f t="shared" ref="E449:E456" si="62">E448+1200</f>
+        <v>2605</v>
       </c>
       <c r="F449" t="s">
         <v>8</v>
@@ -35450,7 +35418,7 @@
         <v>4</v>
       </c>
       <c r="Q449">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R449" t="b">
@@ -35480,15 +35448,15 @@
         <v>1905312</v>
       </c>
       <c r="C450">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>14</v>
       </c>
       <c r="D450" t="b">
         <v>1</v>
       </c>
       <c r="E450">
-        <f t="shared" si="66"/>
-        <v>3700</v>
+        <f t="shared" si="62"/>
+        <v>3805</v>
       </c>
       <c r="F450" t="s">
         <v>8</v>
@@ -35524,7 +35492,7 @@
         <v>4</v>
       </c>
       <c r="Q450">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R450" t="b">
@@ -35554,15 +35522,15 @@
         <v>1905312</v>
       </c>
       <c r="C451">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>15</v>
       </c>
       <c r="D451" t="b">
         <v>1</v>
       </c>
       <c r="E451">
-        <f t="shared" si="66"/>
-        <v>4900</v>
+        <f t="shared" si="62"/>
+        <v>5005</v>
       </c>
       <c r="F451" t="s">
         <v>8</v>
@@ -35598,7 +35566,7 @@
         <v>4</v>
       </c>
       <c r="Q451">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R451" t="b">
@@ -35628,15 +35596,15 @@
         <v>1905312</v>
       </c>
       <c r="C452">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>16</v>
       </c>
       <c r="D452" t="b">
         <v>1</v>
       </c>
       <c r="E452">
-        <f t="shared" si="66"/>
-        <v>6100</v>
+        <f t="shared" si="62"/>
+        <v>6205</v>
       </c>
       <c r="F452" t="s">
         <v>8</v>
@@ -35672,7 +35640,7 @@
         <v>4</v>
       </c>
       <c r="Q452">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R452" t="b">
@@ -35702,15 +35670,15 @@
         <v>1905312</v>
       </c>
       <c r="C453">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>17</v>
       </c>
       <c r="D453" t="b">
         <v>1</v>
       </c>
       <c r="E453">
-        <f t="shared" si="66"/>
-        <v>7300</v>
+        <f t="shared" si="62"/>
+        <v>7405</v>
       </c>
       <c r="F453" t="s">
         <v>8</v>
@@ -35746,7 +35714,7 @@
         <v>4</v>
       </c>
       <c r="Q453">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R453" t="b">
@@ -35776,15 +35744,14 @@
         <v>1905312</v>
       </c>
       <c r="C454">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>18</v>
       </c>
       <c r="D454" t="b">
         <v>1</v>
       </c>
       <c r="E454">
-        <f t="shared" si="66"/>
-        <v>8500</v>
+        <v>8604</v>
       </c>
       <c r="F454" t="s">
         <v>8</v>
@@ -35820,7 +35787,7 @@
         <v>4</v>
       </c>
       <c r="Q454">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R454" t="b">
@@ -35850,15 +35817,15 @@
         <v>1905312</v>
       </c>
       <c r="C455">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>19</v>
       </c>
       <c r="D455" t="b">
         <v>1</v>
       </c>
       <c r="E455">
-        <f t="shared" si="66"/>
-        <v>9700</v>
+        <f t="shared" si="62"/>
+        <v>9804</v>
       </c>
       <c r="F455" t="s">
         <v>8</v>
@@ -35894,7 +35861,7 @@
         <v>4</v>
       </c>
       <c r="Q455">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R455" t="b">
@@ -35924,15 +35891,15 @@
         <v>1905312</v>
       </c>
       <c r="C456">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>20</v>
       </c>
       <c r="D456" t="b">
         <v>1</v>
       </c>
       <c r="E456">
-        <f t="shared" si="66"/>
-        <v>10900</v>
+        <f t="shared" si="62"/>
+        <v>11004</v>
       </c>
       <c r="F456" t="s">
         <v>8</v>
@@ -35968,7 +35935,7 @@
         <v>4</v>
       </c>
       <c r="Q456">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R456" t="b">
@@ -35998,14 +35965,14 @@
         <v>1905312</v>
       </c>
       <c r="C457">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>21</v>
       </c>
       <c r="D457" t="b">
         <v>1</v>
       </c>
       <c r="E457">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="F457" t="s">
         <v>8</v>
@@ -36041,7 +36008,7 @@
         <v>4</v>
       </c>
       <c r="Q457">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R457" t="b">
@@ -36071,7 +36038,7 @@
         <v>1905312</v>
       </c>
       <c r="C458">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>22</v>
       </c>
       <c r="D458" t="b">
@@ -36079,7 +36046,7 @@
       </c>
       <c r="E458">
         <f>E457+1200</f>
-        <v>1300</v>
+        <v>1405</v>
       </c>
       <c r="F458" t="s">
         <v>8</v>
@@ -36115,7 +36082,7 @@
         <v>4</v>
       </c>
       <c r="Q458">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R458" t="b">
@@ -36145,15 +36112,15 @@
         <v>1905312</v>
       </c>
       <c r="C459">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>23</v>
       </c>
       <c r="D459" t="b">
         <v>1</v>
       </c>
       <c r="E459">
-        <f t="shared" ref="E459:E466" si="67">E458+1200</f>
-        <v>2500</v>
+        <f t="shared" ref="E459:E466" si="63">E458+1200</f>
+        <v>2605</v>
       </c>
       <c r="F459" t="s">
         <v>8</v>
@@ -36189,7 +36156,7 @@
         <v>4</v>
       </c>
       <c r="Q459">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R459" t="b">
@@ -36219,15 +36186,15 @@
         <v>1905312</v>
       </c>
       <c r="C460">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>24</v>
       </c>
       <c r="D460" t="b">
         <v>1</v>
       </c>
       <c r="E460">
-        <f t="shared" si="67"/>
-        <v>3700</v>
+        <f t="shared" si="63"/>
+        <v>3805</v>
       </c>
       <c r="F460" t="s">
         <v>8</v>
@@ -36263,7 +36230,7 @@
         <v>4</v>
       </c>
       <c r="Q460">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R460" t="b">
@@ -36293,15 +36260,15 @@
         <v>1905312</v>
       </c>
       <c r="C461">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>25</v>
       </c>
       <c r="D461" t="b">
         <v>1</v>
       </c>
       <c r="E461">
-        <f t="shared" si="67"/>
-        <v>4900</v>
+        <f t="shared" si="63"/>
+        <v>5005</v>
       </c>
       <c r="F461" t="s">
         <v>8</v>
@@ -36337,7 +36304,7 @@
         <v>4</v>
       </c>
       <c r="Q461">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R461" t="b">
@@ -36367,15 +36334,15 @@
         <v>1905312</v>
       </c>
       <c r="C462">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>26</v>
       </c>
       <c r="D462" t="b">
         <v>1</v>
       </c>
       <c r="E462">
-        <f t="shared" si="67"/>
-        <v>6100</v>
+        <f t="shared" si="63"/>
+        <v>6205</v>
       </c>
       <c r="F462" t="s">
         <v>8</v>
@@ -36411,7 +36378,7 @@
         <v>4</v>
       </c>
       <c r="Q462">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R462" t="b">
@@ -36441,15 +36408,15 @@
         <v>1905312</v>
       </c>
       <c r="C463">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>27</v>
       </c>
       <c r="D463" t="b">
         <v>1</v>
       </c>
       <c r="E463">
-        <f t="shared" si="67"/>
-        <v>7300</v>
+        <f t="shared" si="63"/>
+        <v>7405</v>
       </c>
       <c r="F463" t="s">
         <v>8</v>
@@ -36485,7 +36452,7 @@
         <v>4</v>
       </c>
       <c r="Q463">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R463" t="b">
@@ -36515,15 +36482,15 @@
         <v>1905312</v>
       </c>
       <c r="C464">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>28</v>
       </c>
       <c r="D464" t="b">
         <v>1</v>
       </c>
       <c r="E464">
-        <f t="shared" si="67"/>
-        <v>8500</v>
+        <f t="shared" si="63"/>
+        <v>8605</v>
       </c>
       <c r="F464" t="s">
         <v>8</v>
@@ -36559,7 +36526,7 @@
         <v>4</v>
       </c>
       <c r="Q464">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R464" t="b">
@@ -36589,15 +36556,15 @@
         <v>1905312</v>
       </c>
       <c r="C465">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>29</v>
       </c>
       <c r="D465" t="b">
         <v>1</v>
       </c>
       <c r="E465">
-        <f t="shared" si="67"/>
-        <v>9700</v>
+        <f t="shared" si="63"/>
+        <v>9805</v>
       </c>
       <c r="F465" t="s">
         <v>8</v>
@@ -36633,7 +36600,7 @@
         <v>4</v>
       </c>
       <c r="Q465">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R465" t="b">
@@ -36663,15 +36630,14 @@
         <v>1905312</v>
       </c>
       <c r="C466">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>30</v>
       </c>
       <c r="D466" t="b">
         <v>1</v>
       </c>
       <c r="E466">
-        <f t="shared" si="67"/>
-        <v>10900</v>
+        <v>11006</v>
       </c>
       <c r="F466" t="s">
         <v>8</v>
@@ -36707,7 +36673,7 @@
         <v>4</v>
       </c>
       <c r="Q466">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R466" t="b">

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\Computing\RProg\Columbia\rwalk\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB0B7D-91C9-4855-9D5F-08134821E534}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B282E381-E65D-42EE-9842-58B2D56D8CB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1970,13 +1970,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D455" sqref="D455"/>
+      <selection pane="bottomRight" activeCell="K467" sqref="K467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2085,7 +2086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3374,7 +3375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3451,7 +3452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3528,7 +3529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3605,7 +3606,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3682,7 +3683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3759,7 +3760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3836,7 +3837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3913,7 +3914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3990,7 +3991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4067,7 +4068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4144,7 +4145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4221,7 +4222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4298,7 +4299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4375,7 +4376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -5977,7 +5978,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -6129,7 +6130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -6357,7 +6358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -6892,7 +6893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -7044,7 +7045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -7348,7 +7349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -7424,7 +7425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -7500,7 +7501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -7956,7 +7957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -8260,7 +8261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -8716,7 +8717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -8792,7 +8793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -8868,7 +8869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>A92</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9098,7 +9099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" ref="A94:A106" si="11">A93</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9177,7 +9178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9255,7 +9256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9333,7 +9334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9411,7 +9412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9489,7 +9490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9567,7 +9568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9645,7 +9646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9723,7 +9724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9801,7 +9802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9879,7 +9880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9958,7 +9959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -10037,7 +10038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -10115,7 +10116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>A107</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10269,7 +10270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" ref="A109:A121" si="16">A108</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10347,7 +10348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10425,7 +10426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10503,7 +10504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10581,7 +10582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10659,7 +10660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10737,7 +10738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10815,7 +10816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10893,7 +10894,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10972,7 +10973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11053,7 +11054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11131,7 +11132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11210,7 +11211,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11288,7 +11289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -11437,7 +11438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -11511,7 +11512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -11585,7 +11586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -11659,7 +11660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -11881,7 +11882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -11955,7 +11956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -12029,7 +12030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -12177,7 +12178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -12251,7 +12252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -12399,7 +12400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -13387,7 +13388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -13464,7 +13465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -13541,7 +13542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -13618,7 +13619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -13692,7 +13693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -13769,7 +13770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -13846,7 +13847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -13923,7 +13924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>35</v>
       </c>
@@ -13999,7 +14000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -14151,7 +14152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -14303,7 +14304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -14379,7 +14380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -14451,7 +14452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -14525,7 +14526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -14673,7 +14674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>51</v>
       </c>
@@ -14747,7 +14748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>51</v>
       </c>
@@ -14821,7 +14822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -14895,7 +14896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>51</v>
       </c>
@@ -15043,7 +15044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -15117,7 +15118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -15190,7 +15191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>52</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>52</v>
       </c>
@@ -15336,7 +15337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>52</v>
       </c>
@@ -15409,7 +15410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>52</v>
       </c>
@@ -15482,7 +15483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>52</v>
       </c>
@@ -15555,7 +15556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>52</v>
       </c>
@@ -15628,7 +15629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>52</v>
       </c>
@@ -15701,7 +15702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>52</v>
       </c>
@@ -15774,7 +15775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>52</v>
       </c>
@@ -15847,7 +15848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>53</v>
       </c>
@@ -15920,7 +15921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>53</v>
       </c>
@@ -15997,7 +15998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>54</v>
       </c>
@@ -16070,7 +16071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>54</v>
       </c>
@@ -16143,7 +16144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>54</v>
       </c>
@@ -16216,7 +16217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>54</v>
       </c>
@@ -16289,7 +16290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>54</v>
       </c>
@@ -16362,7 +16363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -16435,7 +16436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>54</v>
       </c>
@@ -16508,7 +16509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>37</v>
       </c>
@@ -16580,7 +16581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>37</v>
       </c>
@@ -16728,7 +16729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>37</v>
       </c>
@@ -16802,7 +16803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>37</v>
       </c>
@@ -16876,7 +16877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>37</v>
       </c>
@@ -16950,7 +16951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>37</v>
       </c>
@@ -17024,7 +17025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>37</v>
       </c>
@@ -17098,7 +17099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>37</v>
       </c>
@@ -17172,7 +17173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>37</v>
       </c>
@@ -17246,7 +17247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>37</v>
       </c>
@@ -17320,7 +17321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -17394,7 +17395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>37</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -17616,7 +17617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>38</v>
       </c>
@@ -17689,7 +17690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -17763,7 +17764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>38</v>
       </c>
@@ -17837,7 +17838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>38</v>
       </c>
@@ -17911,7 +17912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -17985,7 +17986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>38</v>
       </c>
@@ -18059,7 +18060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -18133,7 +18134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -18207,7 +18208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -18281,7 +18282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>38</v>
       </c>
@@ -18355,7 +18356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -18429,7 +18430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -18503,7 +18504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>38</v>
       </c>
@@ -18577,7 +18578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>38</v>
       </c>
@@ -18651,7 +18652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>38</v>
       </c>
@@ -18725,7 +18726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>55</v>
       </c>
@@ -18797,7 +18798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>55</v>
       </c>
@@ -18871,7 +18872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>55</v>
       </c>
@@ -18945,7 +18946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>55</v>
       </c>
@@ -19019,7 +19020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -19093,7 +19094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -19167,7 +19168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>55</v>
       </c>
@@ -19241,7 +19242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -19315,7 +19316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>55</v>
       </c>
@@ -19389,7 +19390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>55</v>
       </c>
@@ -19463,7 +19464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -19537,7 +19538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>55</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>55</v>
       </c>
@@ -19685,7 +19686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>55</v>
       </c>
@@ -19759,7 +19760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>55</v>
       </c>
@@ -19833,7 +19834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -19906,7 +19907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>56</v>
       </c>
@@ -19979,7 +19980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>56</v>
       </c>
@@ -20052,7 +20053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>56</v>
       </c>
@@ -20125,7 +20126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>56</v>
       </c>
@@ -20198,7 +20199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>56</v>
       </c>
@@ -20271,7 +20272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>56</v>
       </c>
@@ -20344,7 +20345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>56</v>
       </c>
@@ -20417,7 +20418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>56</v>
       </c>
@@ -20490,7 +20491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>56</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>56</v>
       </c>
@@ -20636,7 +20637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>56</v>
       </c>
@@ -20709,7 +20710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>56</v>
       </c>
@@ -20782,7 +20783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>56</v>
       </c>
@@ -20855,7 +20856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>56</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>62</v>
       </c>
@@ -21000,7 +21001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>62</v>
       </c>
@@ -21074,7 +21075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>62</v>
       </c>
@@ -21148,7 +21149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>62</v>
       </c>
@@ -21222,7 +21223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>62</v>
       </c>
@@ -21296,7 +21297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>62</v>
       </c>
@@ -21370,7 +21371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>62</v>
       </c>
@@ -21444,7 +21445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>62</v>
       </c>
@@ -21518,7 +21519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>62</v>
       </c>
@@ -21592,7 +21593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -21666,7 +21667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>62</v>
       </c>
@@ -21740,7 +21741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>62</v>
       </c>
@@ -21814,7 +21815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>62</v>
       </c>
@@ -21888,7 +21889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>62</v>
       </c>
@@ -21962,7 +21963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>62</v>
       </c>
@@ -22036,7 +22037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>73</v>
       </c>
@@ -22109,7 +22110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>73</v>
       </c>
@@ -22183,7 +22184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>73</v>
       </c>
@@ -22257,7 +22258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>73</v>
       </c>
@@ -22331,7 +22332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>73</v>
       </c>
@@ -22405,7 +22406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>73</v>
       </c>
@@ -22479,7 +22480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>73</v>
       </c>
@@ -22553,7 +22554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>73</v>
       </c>
@@ -22627,7 +22628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>73</v>
       </c>
@@ -22701,7 +22702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>73</v>
       </c>
@@ -22775,7 +22776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>73</v>
       </c>
@@ -22849,7 +22850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>73</v>
       </c>
@@ -22923,7 +22924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>73</v>
       </c>
@@ -22997,7 +22998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>73</v>
       </c>
@@ -23071,7 +23072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>73</v>
       </c>
@@ -23145,7 +23146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>57</v>
       </c>
@@ -23217,7 +23218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>57</v>
       </c>
@@ -23290,7 +23291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>57</v>
       </c>
@@ -23363,7 +23364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>57</v>
       </c>
@@ -23436,7 +23437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>57</v>
       </c>
@@ -23509,7 +23510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>57</v>
       </c>
@@ -23582,7 +23583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>57</v>
       </c>
@@ -23655,7 +23656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>57</v>
       </c>
@@ -23728,7 +23729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>57</v>
       </c>
@@ -23801,7 +23802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>57</v>
       </c>
@@ -23874,7 +23875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>57</v>
       </c>
@@ -23947,7 +23948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>57</v>
       </c>
@@ -24020,7 +24021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>57</v>
       </c>
@@ -24093,7 +24094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>57</v>
       </c>
@@ -24166,7 +24167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>57</v>
       </c>
@@ -24239,7 +24240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>58</v>
       </c>
@@ -24312,7 +24313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>58</v>
       </c>
@@ -24385,7 +24386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>58</v>
       </c>
@@ -24458,7 +24459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>58</v>
       </c>
@@ -24531,7 +24532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>58</v>
       </c>
@@ -24604,7 +24605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>58</v>
       </c>
@@ -24677,7 +24678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>58</v>
       </c>
@@ -24750,7 +24751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>58</v>
       </c>
@@ -24823,7 +24824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>58</v>
       </c>
@@ -24896,7 +24897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>58</v>
       </c>
@@ -24969,7 +24970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>58</v>
       </c>
@@ -25042,7 +25043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>58</v>
       </c>
@@ -25115,7 +25116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>58</v>
       </c>
@@ -25188,7 +25189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>58</v>
       </c>
@@ -25261,7 +25262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -25334,7 +25335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>59</v>
       </c>
@@ -25406,7 +25407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>59</v>
       </c>
@@ -25479,7 +25480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>59</v>
       </c>
@@ -25552,7 +25553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>59</v>
       </c>
@@ -25625,7 +25626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>59</v>
       </c>
@@ -25698,7 +25699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>59</v>
       </c>
@@ -25771,7 +25772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>59</v>
       </c>
@@ -25844,7 +25845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>59</v>
       </c>
@@ -25917,7 +25918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>59</v>
       </c>
@@ -25990,7 +25991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>59</v>
       </c>
@@ -26063,7 +26064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>59</v>
       </c>
@@ -26136,7 +26137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>59</v>
       </c>
@@ -26209,7 +26210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>59</v>
       </c>
@@ -26282,7 +26283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>59</v>
       </c>
@@ -26355,7 +26356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>59</v>
       </c>
@@ -26428,7 +26429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>60</v>
       </c>
@@ -26500,7 +26501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>60</v>
       </c>
@@ -26573,7 +26574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>60</v>
       </c>
@@ -26646,7 +26647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>60</v>
       </c>
@@ -26719,7 +26720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>60</v>
       </c>
@@ -26792,7 +26793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>60</v>
       </c>
@@ -26865,7 +26866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>60</v>
       </c>
@@ -26938,7 +26939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>60</v>
       </c>
@@ -27011,7 +27012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>60</v>
       </c>
@@ -27084,7 +27085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>60</v>
       </c>
@@ -27157,7 +27158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>60</v>
       </c>
@@ -27230,7 +27231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>60</v>
       </c>
@@ -27303,7 +27304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>60</v>
       </c>
@@ -27376,7 +27377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>60</v>
       </c>
@@ -27449,7 +27450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>60</v>
       </c>
@@ -27522,7 +27523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>61</v>
       </c>
@@ -27597,7 +27598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>61</v>
       </c>
@@ -27670,7 +27671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>61</v>
       </c>
@@ -27744,7 +27745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>61</v>
       </c>
@@ -27818,7 +27819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>61</v>
       </c>
@@ -27892,7 +27893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>61</v>
       </c>
@@ -27966,7 +27967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>61</v>
       </c>
@@ -28040,7 +28041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>61</v>
       </c>
@@ -28114,7 +28115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>61</v>
       </c>
@@ -28188,7 +28189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>61</v>
       </c>
@@ -28262,7 +28263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>61</v>
       </c>
@@ -28336,7 +28337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>61</v>
       </c>
@@ -28410,7 +28411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>61</v>
       </c>
@@ -28484,7 +28485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>61</v>
       </c>
@@ -28558,7 +28559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>61</v>
       </c>
@@ -28632,7 +28633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>63</v>
       </c>
@@ -28704,7 +28705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>63</v>
       </c>
@@ -28778,7 +28779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>63</v>
       </c>
@@ -28852,7 +28853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>63</v>
       </c>
@@ -28926,7 +28927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>63</v>
       </c>
@@ -29000,7 +29001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>63</v>
       </c>
@@ -29074,7 +29075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>63</v>
       </c>
@@ -29148,7 +29149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>63</v>
       </c>
@@ -29222,7 +29223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>63</v>
       </c>
@@ -29296,7 +29297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>63</v>
       </c>
@@ -29370,7 +29371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>64</v>
       </c>
@@ -29442,7 +29443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>64</v>
       </c>
@@ -29515,7 +29516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>64</v>
       </c>
@@ -29588,7 +29589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>64</v>
       </c>
@@ -29661,7 +29662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>64</v>
       </c>
@@ -29734,7 +29735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>64</v>
       </c>
@@ -29807,7 +29808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>64</v>
       </c>
@@ -29880,7 +29881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>64</v>
       </c>
@@ -29953,7 +29954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>64</v>
       </c>
@@ -30026,7 +30027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>64</v>
       </c>
@@ -30099,7 +30100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>65</v>
       </c>
@@ -30171,7 +30172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>65</v>
       </c>
@@ -30247,7 +30248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>65</v>
       </c>
@@ -30320,7 +30321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>65</v>
       </c>
@@ -30393,7 +30394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>65</v>
       </c>
@@ -30466,7 +30467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>65</v>
       </c>
@@ -30539,7 +30540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>65</v>
       </c>
@@ -30612,7 +30613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>65</v>
       </c>
@@ -30685,7 +30686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>65</v>
       </c>
@@ -30758,7 +30759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>65</v>
       </c>
@@ -30831,7 +30832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>65</v>
       </c>
@@ -30904,7 +30905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>65</v>
       </c>
@@ -30977,7 +30978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>65</v>
       </c>
@@ -31050,7 +31051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>65</v>
       </c>
@@ -31123,7 +31124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>65</v>
       </c>
@@ -31195,7 +31196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>66</v>
       </c>
@@ -31271,7 +31272,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>66</v>
       </c>
@@ -31344,7 +31345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>66</v>
       </c>
@@ -31417,7 +31418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>66</v>
       </c>
@@ -31490,7 +31491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>66</v>
       </c>
@@ -31563,7 +31564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>66</v>
       </c>
@@ -31636,7 +31637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>66</v>
       </c>
@@ -31709,7 +31710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>66</v>
       </c>
@@ -31782,7 +31783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>66</v>
       </c>
@@ -31855,7 +31856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>66</v>
       </c>
@@ -31928,7 +31929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>66</v>
       </c>
@@ -32001,7 +32002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>66</v>
       </c>
@@ -32074,7 +32075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>66</v>
       </c>
@@ -32147,7 +32148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>66</v>
       </c>
@@ -32220,7 +32221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>66</v>
       </c>
@@ -32293,7 +32294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>67</v>
       </c>
@@ -32365,7 +32366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>67</v>
       </c>
@@ -32438,7 +32439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>67</v>
       </c>
@@ -32511,7 +32512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>67</v>
       </c>
@@ -32584,7 +32585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>67</v>
       </c>
@@ -32657,7 +32658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>67</v>
       </c>
@@ -32730,7 +32731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>67</v>
       </c>
@@ -32803,7 +32804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>67</v>
       </c>
@@ -32876,7 +32877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>67</v>
       </c>
@@ -32949,7 +32950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>67</v>
       </c>
@@ -33022,7 +33023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>68</v>
       </c>
@@ -33095,7 +33096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>68</v>
       </c>
@@ -33168,7 +33169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>68</v>
       </c>
@@ -33241,7 +33242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>68</v>
       </c>
@@ -33314,7 +33315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>68</v>
       </c>
@@ -33387,7 +33388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>68</v>
       </c>
@@ -33460,7 +33461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>68</v>
       </c>
@@ -33533,7 +33534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>68</v>
       </c>
@@ -33606,7 +33607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>68</v>
       </c>
@@ -33679,7 +33680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>68</v>
       </c>
@@ -33752,7 +33753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>69</v>
       </c>
@@ -33825,7 +33826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>69</v>
       </c>
@@ -33898,7 +33899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>69</v>
       </c>
@@ -33971,7 +33972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>69</v>
       </c>
@@ -34044,7 +34045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>69</v>
       </c>
@@ -34117,7 +34118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>69</v>
       </c>
@@ -34190,7 +34191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>69</v>
       </c>
@@ -34263,7 +34264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>69</v>
       </c>
@@ -34336,7 +34337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>69</v>
       </c>
@@ -34409,7 +34410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>69</v>
       </c>
@@ -34482,7 +34483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>70</v>
       </c>
@@ -34554,7 +34555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>70</v>
       </c>
@@ -34628,7 +34629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>70</v>
       </c>
@@ -34702,7 +34703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>70</v>
       </c>
@@ -34775,7 +34776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>70</v>
       </c>
@@ -34849,7 +34850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>70</v>
       </c>
@@ -34923,7 +34924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>70</v>
       </c>
@@ -34997,7 +34998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>70</v>
       </c>
@@ -35071,7 +35072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>70</v>
       </c>
@@ -35145,7 +35146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>70</v>
       </c>
@@ -35219,7 +35220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>71</v>
       </c>
@@ -35292,7 +35293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>71</v>
       </c>
@@ -35366,7 +35367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>71</v>
       </c>
@@ -35440,7 +35441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>71</v>
       </c>
@@ -35514,7 +35515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>71</v>
       </c>
@@ -35588,7 +35589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>71</v>
       </c>
@@ -35662,7 +35663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>71</v>
       </c>
@@ -35736,7 +35737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>71</v>
       </c>
@@ -35809,7 +35810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>71</v>
       </c>
@@ -35883,7 +35884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>71</v>
       </c>
@@ -36119,7 +36120,7 @@
         <v>1</v>
       </c>
       <c r="E459">
-        <f t="shared" ref="E459:E466" si="63">E458+1200</f>
+        <f t="shared" ref="E459:E465" si="63">E458+1200</f>
         <v>2605</v>
       </c>
       <c r="F459" t="s">
@@ -36649,13 +36650,13 @@
         <v>100</v>
       </c>
       <c r="I466">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="J466">
         <v>4.8</v>
       </c>
       <c r="K466">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="L466">
         <v>30</v>
@@ -36696,7 +36697,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y466" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y466" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="190531_2_10mg-kg AMPH_3.csv"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1905312"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\Computing\RProg\Columbia\rwalk\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B282E381-E65D-42EE-9842-58B2D56D8CB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7B79C2-71BC-4CF6-B183-FE5926F96977}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1970,14 +1970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K467" sqref="K467"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2386,7 +2385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -2920,7 +2919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3072,7 +3071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>A17</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3375,7 +3374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A31" si="2">A18</f>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3452,7 +3451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3529,7 +3528,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3606,7 +3605,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3683,7 +3682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3760,7 +3759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3837,7 +3836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3914,7 +3913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -3991,7 +3990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4068,7 +4067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4145,7 +4144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4222,7 +4221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4299,7 +4298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>180920_10mg-kgAMPH_2.csv</v>
@@ -4376,7 +4375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -4907,7 +4906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -4983,7 +4982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -5060,7 +5059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5522,7 +5521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -6206,7 +6205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -6282,7 +6281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7197,7 +7196,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -8109,7 +8108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -8185,7 +8184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -8337,7 +8336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -8869,7 +8868,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -9020,7 +9019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>A92</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9099,7 +9098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" ref="A94:A106" si="11">A93</f>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9178,7 +9177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9256,7 +9255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9334,7 +9333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9412,7 +9411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9490,7 +9489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9568,7 +9567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9646,7 +9645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9724,7 +9723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9802,7 +9801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9880,7 +9879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -9959,7 +9958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -10038,7 +10037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="11"/>
         <v>190205_a-synKO_AMPH1.csv</v>
@@ -10116,7 +10115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>A107</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10270,7 +10269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" ref="A109:A121" si="16">A108</f>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10348,7 +10347,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10426,7 +10425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10504,7 +10503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10582,7 +10581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10660,7 +10659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10738,7 +10737,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10816,7 +10815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10894,7 +10893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -10973,7 +10972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11054,7 +11053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11132,7 +11131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11211,7 +11210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="16"/>
         <v>190205_a-synKO_AMPH2.csv</v>
@@ -11289,7 +11288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -11364,7 +11363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -11512,7 +11511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -11586,7 +11585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -11660,7 +11659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -11734,7 +11733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -11808,7 +11807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -11882,7 +11881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -12104,7 +12103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -12178,7 +12177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -12252,7 +12251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -12400,7 +12399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -12475,7 +12474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -12551,7 +12550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -12627,7 +12626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -12779,7 +12778,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -12855,7 +12854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -12931,7 +12930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -13007,7 +13006,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -13083,7 +13082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -13159,7 +13158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -13235,7 +13234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -13311,7 +13310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -13388,7 +13387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -13465,7 +13464,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -13542,7 +13541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -13619,7 +13618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -13693,7 +13692,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -13847,7 +13846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>35</v>
       </c>
@@ -14000,7 +13999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -14076,7 +14075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -14152,7 +14151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -14228,7 +14227,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -14380,7 +14379,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -14526,7 +14525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -14600,7 +14599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -14674,7 +14673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>51</v>
       </c>
@@ -14748,7 +14747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>51</v>
       </c>
@@ -14822,7 +14821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -14896,7 +14895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -14970,7 +14969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>51</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -15118,7 +15117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -15191,7 +15190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>52</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>52</v>
       </c>
@@ -15337,7 +15336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>52</v>
       </c>
@@ -15410,7 +15409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>52</v>
       </c>
@@ -15483,7 +15482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>52</v>
       </c>
@@ -15556,7 +15555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>52</v>
       </c>
@@ -15629,7 +15628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>52</v>
       </c>
@@ -15702,7 +15701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>52</v>
       </c>
@@ -15775,7 +15774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>52</v>
       </c>
@@ -15848,7 +15847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>53</v>
       </c>
@@ -15921,7 +15920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>53</v>
       </c>
@@ -15998,7 +15997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>54</v>
       </c>
@@ -16071,7 +16070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>54</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>54</v>
       </c>
@@ -16217,7 +16216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>54</v>
       </c>
@@ -16290,7 +16289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>54</v>
       </c>
@@ -16363,7 +16362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -16436,7 +16435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>54</v>
       </c>
@@ -16509,7 +16508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>37</v>
       </c>
@@ -16581,7 +16580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -16655,7 +16654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>37</v>
       </c>
@@ -16729,7 +16728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>37</v>
       </c>
@@ -16803,7 +16802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>37</v>
       </c>
@@ -16877,7 +16876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>37</v>
       </c>
@@ -16951,7 +16950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>37</v>
       </c>
@@ -17025,7 +17024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>37</v>
       </c>
@@ -17099,7 +17098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>37</v>
       </c>
@@ -17173,7 +17172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>37</v>
       </c>
@@ -17247,7 +17246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>37</v>
       </c>
@@ -17321,7 +17320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -17395,7 +17394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -17469,7 +17468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>37</v>
       </c>
@@ -17543,7 +17542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -17617,7 +17616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>38</v>
       </c>
@@ -17690,7 +17689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -17764,7 +17763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>38</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>38</v>
       </c>
@@ -17912,7 +17911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -17986,7 +17985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>38</v>
       </c>
@@ -18060,7 +18059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -18134,7 +18133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -18208,7 +18207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -18282,7 +18281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>38</v>
       </c>
@@ -18356,7 +18355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -18430,7 +18429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -18504,7 +18503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>38</v>
       </c>
@@ -18578,7 +18577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>38</v>
       </c>
@@ -18652,7 +18651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>38</v>
       </c>
@@ -18726,7 +18725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>55</v>
       </c>
@@ -18798,7 +18797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>55</v>
       </c>
@@ -18872,7 +18871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>55</v>
       </c>
@@ -18946,7 +18945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>55</v>
       </c>
@@ -19020,7 +19019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -19094,7 +19093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -19168,7 +19167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>55</v>
       </c>
@@ -19242,7 +19241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -19316,7 +19315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>55</v>
       </c>
@@ -19390,7 +19389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>55</v>
       </c>
@@ -19464,7 +19463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -19538,7 +19537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>55</v>
       </c>
@@ -19612,7 +19611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>55</v>
       </c>
@@ -19686,7 +19685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>55</v>
       </c>
@@ -19760,7 +19759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>55</v>
       </c>
@@ -19834,7 +19833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -19907,7 +19906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>56</v>
       </c>
@@ -19980,7 +19979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>56</v>
       </c>
@@ -20053,7 +20052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>56</v>
       </c>
@@ -20126,7 +20125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>56</v>
       </c>
@@ -20199,7 +20198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>56</v>
       </c>
@@ -20272,7 +20271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>56</v>
       </c>
@@ -20345,7 +20344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>56</v>
       </c>
@@ -20418,7 +20417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>56</v>
       </c>
@@ -20491,7 +20490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>56</v>
       </c>
@@ -20564,7 +20563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>56</v>
       </c>
@@ -20637,7 +20636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>56</v>
       </c>
@@ -20710,7 +20709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>56</v>
       </c>
@@ -20783,7 +20782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>56</v>
       </c>
@@ -20856,7 +20855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>56</v>
       </c>
@@ -20929,7 +20928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>62</v>
       </c>
@@ -21001,7 +21000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>62</v>
       </c>
@@ -21075,7 +21074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>62</v>
       </c>
@@ -21149,7 +21148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>62</v>
       </c>
@@ -21223,7 +21222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>62</v>
       </c>
@@ -21297,7 +21296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>62</v>
       </c>
@@ -21371,7 +21370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>62</v>
       </c>
@@ -21445,7 +21444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>62</v>
       </c>
@@ -21519,7 +21518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>62</v>
       </c>
@@ -21593,7 +21592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -21667,7 +21666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>62</v>
       </c>
@@ -21741,7 +21740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>62</v>
       </c>
@@ -21815,7 +21814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>62</v>
       </c>
@@ -21889,7 +21888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>62</v>
       </c>
@@ -21963,7 +21962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>62</v>
       </c>
@@ -22037,7 +22036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>73</v>
       </c>
@@ -22110,7 +22109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>73</v>
       </c>
@@ -22184,7 +22183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>73</v>
       </c>
@@ -22258,7 +22257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>73</v>
       </c>
@@ -22332,7 +22331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>73</v>
       </c>
@@ -22406,7 +22405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>73</v>
       </c>
@@ -22480,7 +22479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>73</v>
       </c>
@@ -22554,7 +22553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>73</v>
       </c>
@@ -22628,7 +22627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>73</v>
       </c>
@@ -22702,7 +22701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>73</v>
       </c>
@@ -22776,7 +22775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>73</v>
       </c>
@@ -22850,7 +22849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>73</v>
       </c>
@@ -22924,7 +22923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>73</v>
       </c>
@@ -22998,7 +22997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>73</v>
       </c>
@@ -23072,7 +23071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>73</v>
       </c>
@@ -23146,7 +23145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>57</v>
       </c>
@@ -23218,7 +23217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>57</v>
       </c>
@@ -23291,7 +23290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>57</v>
       </c>
@@ -23364,7 +23363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>57</v>
       </c>
@@ -23437,7 +23436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>57</v>
       </c>
@@ -23510,7 +23509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>57</v>
       </c>
@@ -23583,7 +23582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>57</v>
       </c>
@@ -23656,7 +23655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>57</v>
       </c>
@@ -23729,7 +23728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>57</v>
       </c>
@@ -23802,7 +23801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>57</v>
       </c>
@@ -23875,7 +23874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>57</v>
       </c>
@@ -23948,7 +23947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>57</v>
       </c>
@@ -24021,7 +24020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>57</v>
       </c>
@@ -24094,7 +24093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>57</v>
       </c>
@@ -24167,7 +24166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>57</v>
       </c>
@@ -24240,7 +24239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>58</v>
       </c>
@@ -24313,7 +24312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>58</v>
       </c>
@@ -24386,7 +24385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>58</v>
       </c>
@@ -24459,7 +24458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>58</v>
       </c>
@@ -24532,7 +24531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>58</v>
       </c>
@@ -24605,7 +24604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>58</v>
       </c>
@@ -24678,7 +24677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>58</v>
       </c>
@@ -24751,7 +24750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>58</v>
       </c>
@@ -24824,7 +24823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>58</v>
       </c>
@@ -24897,7 +24896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>58</v>
       </c>
@@ -24970,7 +24969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>58</v>
       </c>
@@ -25043,7 +25042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>58</v>
       </c>
@@ -25116,7 +25115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>58</v>
       </c>
@@ -25189,7 +25188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>58</v>
       </c>
@@ -25262,7 +25261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -25335,7 +25334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>59</v>
       </c>
@@ -25407,7 +25406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>59</v>
       </c>
@@ -25480,7 +25479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>59</v>
       </c>
@@ -25553,7 +25552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>59</v>
       </c>
@@ -25626,7 +25625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>59</v>
       </c>
@@ -25699,7 +25698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>59</v>
       </c>
@@ -25772,7 +25771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>59</v>
       </c>
@@ -25845,7 +25844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>59</v>
       </c>
@@ -25918,7 +25917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>59</v>
       </c>
@@ -25991,7 +25990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>59</v>
       </c>
@@ -26064,7 +26063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>59</v>
       </c>
@@ -26137,7 +26136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>59</v>
       </c>
@@ -26210,7 +26209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>59</v>
       </c>
@@ -26283,7 +26282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>59</v>
       </c>
@@ -26356,7 +26355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>59</v>
       </c>
@@ -26429,7 +26428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>60</v>
       </c>
@@ -26501,7 +26500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>60</v>
       </c>
@@ -26574,7 +26573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>60</v>
       </c>
@@ -26647,7 +26646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>60</v>
       </c>
@@ -26720,7 +26719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>60</v>
       </c>
@@ -26793,7 +26792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>60</v>
       </c>
@@ -26866,7 +26865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>60</v>
       </c>
@@ -26939,7 +26938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>60</v>
       </c>
@@ -27012,7 +27011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>60</v>
       </c>
@@ -27085,7 +27084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>60</v>
       </c>
@@ -27158,7 +27157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>60</v>
       </c>
@@ -27231,7 +27230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>60</v>
       </c>
@@ -27304,7 +27303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>60</v>
       </c>
@@ -27377,7 +27376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>60</v>
       </c>
@@ -27450,7 +27449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>60</v>
       </c>
@@ -27523,7 +27522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>61</v>
       </c>
@@ -27598,7 +27597,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="343" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>61</v>
       </c>
@@ -27671,7 +27670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>61</v>
       </c>
@@ -27745,7 +27744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>61</v>
       </c>
@@ -27819,7 +27818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>61</v>
       </c>
@@ -27893,7 +27892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>61</v>
       </c>
@@ -27967,7 +27966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>61</v>
       </c>
@@ -28041,7 +28040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>61</v>
       </c>
@@ -28115,7 +28114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>61</v>
       </c>
@@ -28189,7 +28188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>61</v>
       </c>
@@ -28263,7 +28262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>61</v>
       </c>
@@ -28337,7 +28336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>61</v>
       </c>
@@ -28411,7 +28410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>61</v>
       </c>
@@ -28485,7 +28484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>61</v>
       </c>
@@ -28559,7 +28558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>61</v>
       </c>
@@ -28633,7 +28632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>63</v>
       </c>
@@ -28705,7 +28704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>63</v>
       </c>
@@ -28779,7 +28778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>63</v>
       </c>
@@ -28853,7 +28852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>63</v>
       </c>
@@ -28927,7 +28926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>63</v>
       </c>
@@ -29001,7 +29000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>63</v>
       </c>
@@ -29075,7 +29074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>63</v>
       </c>
@@ -29149,7 +29148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>63</v>
       </c>
@@ -29223,7 +29222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>63</v>
       </c>
@@ -29297,7 +29296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>63</v>
       </c>
@@ -29371,7 +29370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>64</v>
       </c>
@@ -29443,7 +29442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>64</v>
       </c>
@@ -29516,7 +29515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>64</v>
       </c>
@@ -29589,7 +29588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>64</v>
       </c>
@@ -29662,7 +29661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>64</v>
       </c>
@@ -29735,7 +29734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>64</v>
       </c>
@@ -29808,7 +29807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>64</v>
       </c>
@@ -29881,7 +29880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>64</v>
       </c>
@@ -29954,7 +29953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>64</v>
       </c>
@@ -30027,7 +30026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>64</v>
       </c>
@@ -30100,7 +30099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>65</v>
       </c>
@@ -30172,7 +30171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>65</v>
       </c>
@@ -30248,7 +30247,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="379" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>65</v>
       </c>
@@ -30321,7 +30320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>65</v>
       </c>
@@ -30394,7 +30393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>65</v>
       </c>
@@ -30467,7 +30466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>65</v>
       </c>
@@ -30540,7 +30539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>65</v>
       </c>
@@ -30613,7 +30612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>65</v>
       </c>
@@ -30686,7 +30685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>65</v>
       </c>
@@ -30759,7 +30758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>65</v>
       </c>
@@ -30832,7 +30831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>65</v>
       </c>
@@ -30905,7 +30904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>65</v>
       </c>
@@ -30978,7 +30977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>65</v>
       </c>
@@ -31051,7 +31050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>65</v>
       </c>
@@ -31124,7 +31123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>65</v>
       </c>
@@ -31196,7 +31195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>66</v>
       </c>
@@ -31272,7 +31271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="393" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>66</v>
       </c>
@@ -31345,7 +31344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>66</v>
       </c>
@@ -31418,7 +31417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>66</v>
       </c>
@@ -31491,7 +31490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>66</v>
       </c>
@@ -31564,7 +31563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>66</v>
       </c>
@@ -31637,7 +31636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>66</v>
       </c>
@@ -31710,7 +31709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>66</v>
       </c>
@@ -31783,7 +31782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>66</v>
       </c>
@@ -31856,7 +31855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>66</v>
       </c>
@@ -31929,7 +31928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>66</v>
       </c>
@@ -32002,7 +32001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>66</v>
       </c>
@@ -32075,7 +32074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>66</v>
       </c>
@@ -32148,7 +32147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>66</v>
       </c>
@@ -32221,7 +32220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>66</v>
       </c>
@@ -32294,7 +32293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>67</v>
       </c>
@@ -32366,7 +32365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>67</v>
       </c>
@@ -32439,7 +32438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>67</v>
       </c>
@@ -32512,7 +32511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>67</v>
       </c>
@@ -32585,7 +32584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>67</v>
       </c>
@@ -32658,7 +32657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>67</v>
       </c>
@@ -32731,7 +32730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>67</v>
       </c>
@@ -32804,7 +32803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>67</v>
       </c>
@@ -32877,7 +32876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>67</v>
       </c>
@@ -32950,7 +32949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>67</v>
       </c>
@@ -33023,7 +33022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>68</v>
       </c>
@@ -33096,7 +33095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>68</v>
       </c>
@@ -33169,7 +33168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>68</v>
       </c>
@@ -33242,7 +33241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>68</v>
       </c>
@@ -33315,7 +33314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>68</v>
       </c>
@@ -33388,7 +33387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>68</v>
       </c>
@@ -33461,7 +33460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>68</v>
       </c>
@@ -33534,7 +33533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>68</v>
       </c>
@@ -33607,7 +33606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>68</v>
       </c>
@@ -33680,7 +33679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>68</v>
       </c>
@@ -33753,7 +33752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>69</v>
       </c>
@@ -33826,7 +33825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>69</v>
       </c>
@@ -33899,7 +33898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>69</v>
       </c>
@@ -33972,7 +33971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>69</v>
       </c>
@@ -34045,7 +34044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>69</v>
       </c>
@@ -34118,7 +34117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>69</v>
       </c>
@@ -34191,7 +34190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>69</v>
       </c>
@@ -34264,7 +34263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>69</v>
       </c>
@@ -34337,7 +34336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>69</v>
       </c>
@@ -34410,7 +34409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>69</v>
       </c>
@@ -34483,7 +34482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>70</v>
       </c>
@@ -34555,7 +34554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>70</v>
       </c>
@@ -34629,7 +34628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>70</v>
       </c>
@@ -34703,7 +34702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>70</v>
       </c>
@@ -34776,7 +34775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>70</v>
       </c>
@@ -34850,7 +34849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>70</v>
       </c>
@@ -34924,7 +34923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>70</v>
       </c>
@@ -34998,7 +34997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>70</v>
       </c>
@@ -35072,7 +35071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>70</v>
       </c>
@@ -35146,7 +35145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>70</v>
       </c>
@@ -35220,7 +35219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>71</v>
       </c>
@@ -35293,7 +35292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>71</v>
       </c>
@@ -35367,7 +35366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>71</v>
       </c>
@@ -35441,7 +35440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>71</v>
       </c>
@@ -35515,7 +35514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>71</v>
       </c>
@@ -35589,7 +35588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>71</v>
       </c>
@@ -35663,7 +35662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>71</v>
       </c>
@@ -35737,7 +35736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>71</v>
       </c>
@@ -35810,7 +35809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>71</v>
       </c>
@@ -35884,7 +35883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>71</v>
       </c>
@@ -36697,18 +36696,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y466" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="190531_2_10mg-kg AMPH_3.csv"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1905312"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y466" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
